--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -775,11 +775,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -792,11 +792,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>21.2</v>
+        <v>23.7</v>
       </c>
       <c r="G11" t="n">
         <v>91</v>
@@ -809,11 +809,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43450</v>
+        <v>43486</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,24 +830,24 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="G12" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43497</v>
+        <v>43436</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -860,28 +860,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>25.2</v>
+        <v>26.8</v>
       </c>
       <c r="G13" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43424</v>
+        <v>43418</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -892,16 +892,14 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E14" t="n">
+        <v>0.2</v>
       </c>
       <c r="F14" t="n">
-        <v>24.6</v>
+        <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -911,11 +909,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>330601</v>
+        <v>43413</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -932,24 +930,24 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>24</v>
+        <v>26.1</v>
       </c>
       <c r="G15" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43495</v>
+        <v>43466</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -966,24 +964,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>25.1</v>
+        <v>26.3</v>
       </c>
       <c r="G16" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -996,28 +994,28 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>24.6</v>
+        <v>27</v>
       </c>
       <c r="G17" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1034,10 +1032,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1047,11 +1045,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43466</v>
+        <v>43495</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1068,24 +1066,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G19" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43413</v>
+        <v>330601</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1102,24 +1100,24 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>26.1</v>
+        <v>24</v>
       </c>
       <c r="G20" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43418</v>
+        <v>43424</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1130,14 +1128,16 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
-      <c r="E21" t="n">
-        <v>0.2</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F21" t="n">
-        <v>26</v>
+        <v>24.6</v>
       </c>
       <c r="G21" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1147,11 +1147,11 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43436</v>
+        <v>43497</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1164,28 +1164,28 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>26.8</v>
+        <v>25.2</v>
       </c>
       <c r="G22" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43486</v>
+        <v>43450</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1202,24 +1202,24 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>23.9</v>
+        <v>24.8</v>
       </c>
       <c r="G23" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43421</v>
+        <v>43444</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>23.7</v>
+        <v>21.2</v>
       </c>
       <c r="G24" t="n">
         <v>91</v>
@@ -1249,11 +1249,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43473</v>
+        <v>43441</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1266,28 +1266,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>24.6</v>
       </c>
       <c r="G25" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1300,14 +1300,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>24</v>
+        <v>22.9</v>
       </c>
       <c r="G26" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1317,11 +1317,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1338,24 +1338,24 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="G27" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43473</v>
+        <v>43466</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1372,24 +1372,24 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>15</v>
+        <v>25.3</v>
       </c>
       <c r="G28" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43444</v>
+        <v>43436</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1402,28 +1402,28 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>20.1</v>
+        <v>26.4</v>
       </c>
       <c r="G29" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43467</v>
+        <v>43495</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1440,10 +1440,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="G30" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1453,11 +1453,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43418</v>
+        <v>43424</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1468,14 +1468,16 @@
       <c r="D31" t="n">
         <v>0</v>
       </c>
-      <c r="E31" t="n">
-        <v>0.2</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F31" t="n">
-        <v>25.4</v>
+        <v>23.5</v>
       </c>
       <c r="G31" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1485,11 +1487,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43421</v>
+        <v>43486</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1502,18 +1504,18 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="G32" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
@@ -1553,11 +1555,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43486</v>
+        <v>43418</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1568,30 +1570,28 @@
       <c r="D34" t="n">
         <v>0</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E34" t="n">
+        <v>0.2</v>
       </c>
       <c r="F34" t="n">
-        <v>23.1</v>
+        <v>25.4</v>
       </c>
       <c r="G34" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43424</v>
+        <v>43467</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>23.5</v>
+        <v>25.6</v>
       </c>
       <c r="G35" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1621,11 +1621,11 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1642,10 +1642,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>25</v>
+        <v>20.1</v>
       </c>
       <c r="G36" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1655,11 +1655,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43436</v>
+        <v>43473</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1672,28 +1672,28 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>26.4</v>
+        <v>15</v>
       </c>
       <c r="G37" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43466</v>
+        <v>43450</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1710,24 +1710,24 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>25.3</v>
+        <v>24.2</v>
       </c>
       <c r="G38" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43497</v>
+        <v>330601</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1744,10 +1744,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="G39" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1757,11 +1757,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43441</v>
+        <v>43421</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="G40" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1791,11 +1791,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43413</v>
+        <v>43497</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1812,24 +1812,24 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>25.8</v>
+        <v>23.9</v>
       </c>
       <c r="G41" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43467</v>
+        <v>43466</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1846,10 +1846,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="G42" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1859,11 +1859,11 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43418</v>
+        <v>43473</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1874,28 +1874,30 @@
       <c r="D43" t="n">
         <v>0</v>
       </c>
-      <c r="E43" t="n">
-        <v>0.2</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F43" t="n">
-        <v>25.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43486</v>
+        <v>43441</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1908,28 +1910,28 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="G44" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43415</v>
+        <v>43450</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1946,24 +1948,24 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>22.4</v>
+        <v>23.4</v>
       </c>
       <c r="G45" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43424</v>
+        <v>43436</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1972,32 +1974,30 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.5</v>
       </c>
       <c r="F46" t="n">
-        <v>22.6</v>
+        <v>25.2</v>
       </c>
       <c r="G46" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>330601</v>
+        <v>43479</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2006,18 +2006,18 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>22.1</v>
+        <v>19.6</v>
       </c>
       <c r="G47" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2027,11 +2027,11 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43421</v>
+        <v>43495</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2044,28 +2044,28 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>23.1</v>
+        <v>24.5</v>
       </c>
       <c r="G48" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2082,24 +2082,24 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>24.5</v>
+        <v>19.5</v>
       </c>
       <c r="G49" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43497</v>
+        <v>330601</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2116,10 +2116,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>23.9</v>
+        <v>22.1</v>
       </c>
       <c r="G50" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2129,11 +2129,11 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43479</v>
+        <v>43424</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2142,32 +2142,32 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>19.6</v>
+        <v>22.6</v>
       </c>
       <c r="G51" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43436</v>
+        <v>43415</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2176,30 +2176,32 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F52" t="n">
-        <v>25.2</v>
+        <v>22.4</v>
       </c>
       <c r="G52" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2216,24 +2218,24 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>19.5</v>
+        <v>22.5</v>
       </c>
       <c r="G53" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43450</v>
+        <v>43418</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2244,30 +2246,28 @@
       <c r="D54" t="n">
         <v>0</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E54" t="n">
+        <v>0.2</v>
       </c>
       <c r="F54" t="n">
-        <v>23.4</v>
+        <v>25.4</v>
       </c>
       <c r="G54" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2280,14 +2280,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>22</v>
+        <v>24.6</v>
       </c>
       <c r="G55" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2297,11 +2297,11 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43473</v>
+        <v>43413</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2318,10 +2318,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>9.800000000000001</v>
+        <v>25.8</v>
       </c>
       <c r="G56" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2331,11 +2331,11 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2348,14 +2348,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="G57" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2365,11 +2365,11 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43418</v>
+        <v>43436</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2381,27 +2381,27 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F58" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="G58" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43473</v>
+        <v>43444</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2418,24 +2418,24 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>13.9</v>
+        <v>23.2</v>
       </c>
       <c r="G59" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43422</v>
+        <v>821501</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2446,16 +2446,14 @@
       <c r="D60" t="n">
         <v>0</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E60" t="n">
+        <v>0.5</v>
       </c>
       <c r="F60" t="n">
-        <v>24.4</v>
+        <v>25.4</v>
       </c>
       <c r="G60" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2465,11 +2463,11 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43421</v>
+        <v>330601</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2482,14 +2480,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="G61" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2499,11 +2497,11 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43486</v>
+        <v>43495</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2520,24 +2518,24 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>25.2</v>
+        <v>26.7</v>
       </c>
       <c r="G62" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43404</v>
+        <v>43475</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2546,32 +2544,30 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="E63" t="n">
+        <v>14</v>
       </c>
       <c r="F63" t="n">
-        <v>26.9</v>
+        <v>25</v>
       </c>
       <c r="G63" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43415</v>
+        <v>43450</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2591,7 +2587,7 @@
         <v>26</v>
       </c>
       <c r="G64" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2601,11 +2597,11 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43479</v>
+        <v>43466</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2618,28 +2614,28 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>21</v>
+        <v>26.4</v>
       </c>
       <c r="G65" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43476</v>
+        <v>43410</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2648,30 +2644,32 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F66" t="n">
-        <v>17.7</v>
+        <v>27.5</v>
       </c>
       <c r="G66" t="n">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43467</v>
+        <v>43497</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2688,10 +2686,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>26.3</v>
+        <v>27.7</v>
       </c>
       <c r="G67" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2701,11 +2699,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>43441</v>
+        <v>43413</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2718,28 +2716,28 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>25.8</v>
+        <v>26.6</v>
       </c>
       <c r="G68" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43424</v>
+        <v>721501</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2750,16 +2748,14 @@
       <c r="D69" t="n">
         <v>0</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E69" t="n">
+        <v>9.800000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="G69" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2769,11 +2765,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43413</v>
+        <v>43441</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2786,28 +2782,28 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>26.6</v>
+        <v>25.8</v>
       </c>
       <c r="G70" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43450</v>
+        <v>43418</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2818,30 +2814,28 @@
       <c r="D71" t="n">
         <v>0</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E71" t="n">
+        <v>0.2</v>
       </c>
       <c r="F71" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G71" t="n">
         <v>81</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2852,28 +2846,30 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
-      <c r="E72" t="n">
-        <v>0.5</v>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F72" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="G72" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43444</v>
+        <v>43422</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2890,10 +2886,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>23.2</v>
+        <v>24.4</v>
       </c>
       <c r="G73" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2903,11 +2899,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>821501</v>
+        <v>43421</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2918,14 +2914,16 @@
       <c r="D74" t="n">
         <v>0</v>
       </c>
-      <c r="E74" t="n">
-        <v>0.5</v>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F74" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="G74" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2935,11 +2933,11 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>330601</v>
+        <v>43486</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2956,24 +2954,24 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="G75" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43497</v>
+        <v>43473</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2990,24 +2988,24 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>27.7</v>
+        <v>13.9</v>
       </c>
       <c r="G76" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>721501</v>
+        <v>43415</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3018,14 +3016,16 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
-      <c r="E77" t="n">
-        <v>9.800000000000001</v>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F77" t="n">
-        <v>25.1</v>
+        <v>26</v>
       </c>
       <c r="G77" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3035,11 +3035,11 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43475</v>
+        <v>43479</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3048,16 +3048,18 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>14</v>
-      </c>
-      <c r="E78" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="F78" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G78" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3067,11 +3069,11 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43495</v>
+        <v>43476</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3080,32 +3082,30 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.2</v>
       </c>
       <c r="F79" t="n">
-        <v>26.7</v>
+        <v>17.7</v>
       </c>
       <c r="G79" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43466</v>
+        <v>43467</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3122,10 +3122,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="G80" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3135,11 +3135,11 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43410</v>
+        <v>43404</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="G81" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -775,11 +775,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43421</v>
+        <v>43444</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -792,11 +792,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>23.7</v>
+        <v>21.2</v>
       </c>
       <c r="G11" t="n">
         <v>91</v>
@@ -809,11 +809,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43486</v>
+        <v>43450</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,24 +830,24 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>23.9</v>
+        <v>24.8</v>
       </c>
       <c r="G12" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43436</v>
+        <v>43497</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -860,28 +860,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>26.8</v>
+        <v>25.2</v>
       </c>
       <c r="G13" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43418</v>
+        <v>43424</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -892,14 +892,16 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.2</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F14" t="n">
-        <v>26</v>
+        <v>24.6</v>
       </c>
       <c r="G14" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -909,11 +911,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43413</v>
+        <v>330601</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -930,24 +932,24 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>26.1</v>
+        <v>24</v>
       </c>
       <c r="G15" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43466</v>
+        <v>43495</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -964,24 +966,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G16" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -998,10 +1000,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G17" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1011,11 +1013,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43473</v>
+        <v>43441</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1028,28 +1030,28 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>20</v>
+        <v>24.6</v>
       </c>
       <c r="G18" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43495</v>
+        <v>43466</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1066,24 +1068,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>25.1</v>
+        <v>26.3</v>
       </c>
       <c r="G19" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>330601</v>
+        <v>43413</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1100,24 +1102,24 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>24</v>
+        <v>26.1</v>
       </c>
       <c r="G20" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43424</v>
+        <v>43418</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1128,16 +1130,14 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E21" t="n">
+        <v>0.2</v>
       </c>
       <c r="F21" t="n">
-        <v>24.6</v>
+        <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1147,11 +1147,11 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43497</v>
+        <v>43436</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1164,28 +1164,28 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>25.2</v>
+        <v>26.8</v>
       </c>
       <c r="G22" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43450</v>
+        <v>43486</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1202,24 +1202,24 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="G23" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>21.2</v>
+        <v>23.7</v>
       </c>
       <c r="G24" t="n">
         <v>91</v>
@@ -1249,11 +1249,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1266,28 +1266,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>24.6</v>
+        <v>27</v>
       </c>
       <c r="G25" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43441</v>
+        <v>43421</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="G26" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1317,11 +1317,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43497</v>
+        <v>330601</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1338,10 +1338,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="G27" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1351,11 +1351,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43466</v>
+        <v>43450</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1372,24 +1372,24 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>25.3</v>
+        <v>24.2</v>
       </c>
       <c r="G28" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43436</v>
+        <v>43473</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1402,28 +1402,28 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>26.4</v>
+        <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1440,10 +1440,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>25</v>
+        <v>20.1</v>
       </c>
       <c r="G30" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1453,11 +1453,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43424</v>
+        <v>43467</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>23.5</v>
+        <v>25.6</v>
       </c>
       <c r="G31" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1487,11 +1487,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43486</v>
+        <v>43418</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1502,20 +1502,18 @@
       <c r="D32" t="n">
         <v>0</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E32" t="n">
+        <v>0.2</v>
       </c>
       <c r="F32" t="n">
-        <v>23.1</v>
+        <v>25.4</v>
       </c>
       <c r="G32" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
@@ -1555,11 +1553,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43418</v>
+        <v>43424</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1570,14 +1568,16 @@
       <c r="D34" t="n">
         <v>0</v>
       </c>
-      <c r="E34" t="n">
-        <v>0.2</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F34" t="n">
-        <v>25.4</v>
+        <v>23.5</v>
       </c>
       <c r="G34" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1587,11 +1587,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43467</v>
+        <v>43495</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="G35" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1621,11 +1621,11 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43444</v>
+        <v>43436</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1638,28 +1638,28 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>20.1</v>
+        <v>26.4</v>
       </c>
       <c r="G36" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43473</v>
+        <v>43466</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1676,24 +1676,24 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>15</v>
+        <v>25.3</v>
       </c>
       <c r="G37" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1710,24 +1710,24 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="G38" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1740,14 +1740,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>24</v>
+        <v>22.9</v>
       </c>
       <c r="G39" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1757,11 +1757,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43421</v>
+        <v>43486</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1774,28 +1774,28 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="G40" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43497</v>
+        <v>330601</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1812,10 +1812,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>23.9</v>
+        <v>22.1</v>
       </c>
       <c r="G41" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1825,11 +1825,11 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1842,14 +1842,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="G42" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1859,11 +1859,11 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43473</v>
+        <v>43413</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1880,10 +1880,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>9.800000000000001</v>
+        <v>25.8</v>
       </c>
       <c r="G43" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1893,11 +1893,11 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1910,14 +1910,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>22</v>
+        <v>24.6</v>
       </c>
       <c r="G44" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1927,11 +1927,11 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43450</v>
+        <v>43418</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1942,30 +1942,28 @@
       <c r="D45" t="n">
         <v>0</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E45" t="n">
+        <v>0.2</v>
       </c>
       <c r="F45" t="n">
-        <v>23.4</v>
+        <v>25.4</v>
       </c>
       <c r="G45" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43436</v>
+        <v>43415</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1974,30 +1972,32 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F46" t="n">
-        <v>25.2</v>
+        <v>22.4</v>
       </c>
       <c r="G46" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43479</v>
+        <v>43424</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2006,32 +2006,32 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>19.6</v>
+        <v>22.6</v>
       </c>
       <c r="G47" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2048,24 +2048,24 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>24.5</v>
+        <v>19.5</v>
       </c>
       <c r="G48" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2082,24 +2082,24 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>19.5</v>
+        <v>22.5</v>
       </c>
       <c r="G49" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>330601</v>
+        <v>43479</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2108,18 +2108,18 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>22.1</v>
+        <v>19.6</v>
       </c>
       <c r="G50" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2129,11 +2129,11 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43424</v>
+        <v>43436</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2142,32 +2142,30 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.5</v>
       </c>
       <c r="F51" t="n">
-        <v>22.6</v>
+        <v>25.2</v>
       </c>
       <c r="G51" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43415</v>
+        <v>43450</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2184,24 +2182,24 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>22.4</v>
+        <v>23.4</v>
       </c>
       <c r="G52" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43486</v>
+        <v>43441</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2214,28 +2212,28 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="G53" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43418</v>
+        <v>43473</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2246,28 +2244,30 @@
       <c r="D54" t="n">
         <v>0</v>
       </c>
-      <c r="E54" t="n">
-        <v>0.2</v>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F54" t="n">
-        <v>25.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43467</v>
+        <v>43466</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="G55" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2297,11 +2297,11 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43413</v>
+        <v>43497</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2318,24 +2318,24 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>25.8</v>
+        <v>23.9</v>
       </c>
       <c r="G56" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43421</v>
+        <v>43495</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2348,28 +2348,28 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>23.1</v>
+        <v>24.5</v>
       </c>
       <c r="G57" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2380,28 +2380,30 @@
       <c r="D58" t="n">
         <v>0</v>
       </c>
-      <c r="E58" t="n">
-        <v>0.5</v>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F58" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="G58" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43444</v>
+        <v>43422</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2418,10 +2420,10 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>23.2</v>
+        <v>24.4</v>
       </c>
       <c r="G59" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2431,11 +2433,11 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>821501</v>
+        <v>43421</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2446,14 +2448,16 @@
       <c r="D60" t="n">
         <v>0</v>
       </c>
-      <c r="E60" t="n">
-        <v>0.5</v>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F60" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="G60" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2463,11 +2467,11 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>330601</v>
+        <v>43486</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2484,24 +2488,24 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="G61" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43495</v>
+        <v>43476</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2510,32 +2514,30 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.2</v>
       </c>
       <c r="F62" t="n">
-        <v>26.7</v>
+        <v>17.7</v>
       </c>
       <c r="G62" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43475</v>
+        <v>43479</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2544,16 +2546,18 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14</v>
-      </c>
-      <c r="E63" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="F63" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G63" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2563,11 +2567,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43450</v>
+        <v>43418</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2578,30 +2582,28 @@
       <c r="D64" t="n">
         <v>0</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E64" t="n">
+        <v>0.2</v>
       </c>
       <c r="F64" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G64" t="n">
         <v>81</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43466</v>
+        <v>43467</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2618,10 +2620,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="G65" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2631,11 +2633,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43410</v>
+        <v>43404</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2652,10 +2654,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="G66" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2665,11 +2667,11 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43497</v>
+        <v>43473</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2686,24 +2688,24 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>27.7</v>
+        <v>13.9</v>
       </c>
       <c r="G67" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>43413</v>
+        <v>43441</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2716,28 +2718,28 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>26.6</v>
+        <v>25.8</v>
       </c>
       <c r="G68" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>721501</v>
+        <v>43415</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2748,14 +2750,16 @@
       <c r="D69" t="n">
         <v>0</v>
       </c>
-      <c r="E69" t="n">
-        <v>9.800000000000001</v>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F69" t="n">
-        <v>25.1</v>
+        <v>26</v>
       </c>
       <c r="G69" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2765,11 +2769,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43441</v>
+        <v>43413</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2782,28 +2786,28 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>25.8</v>
+        <v>26.6</v>
       </c>
       <c r="G70" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43418</v>
+        <v>43436</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2815,27 +2819,27 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F71" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="G71" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43424</v>
+        <v>721501</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2846,16 +2850,14 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E72" t="n">
+        <v>9.800000000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="G72" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2865,11 +2867,11 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43422</v>
+        <v>821501</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2880,16 +2882,14 @@
       <c r="D73" t="n">
         <v>0</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E73" t="n">
+        <v>0.5</v>
       </c>
       <c r="F73" t="n">
-        <v>24.4</v>
+        <v>25.4</v>
       </c>
       <c r="G73" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2899,11 +2899,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43421</v>
+        <v>330601</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2916,14 +2916,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="G74" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2933,11 +2933,11 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43486</v>
+        <v>43495</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2954,24 +2954,24 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>25.2</v>
+        <v>26.7</v>
       </c>
       <c r="G75" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43473</v>
+        <v>43444</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2988,24 +2988,24 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>13.9</v>
+        <v>23.2</v>
       </c>
       <c r="G76" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43415</v>
+        <v>43450</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3025,7 +3025,7 @@
         <v>26</v>
       </c>
       <c r="G77" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3035,11 +3035,11 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43479</v>
+        <v>43466</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3052,28 +3052,28 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>21</v>
+        <v>26.4</v>
       </c>
       <c r="G78" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43476</v>
+        <v>43410</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3082,30 +3082,32 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F79" t="n">
-        <v>17.7</v>
+        <v>27.5</v>
       </c>
       <c r="G79" t="n">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43467</v>
+        <v>43497</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3122,10 +3124,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>26.3</v>
+        <v>27.7</v>
       </c>
       <c r="G80" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3135,11 +3137,11 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43404</v>
+        <v>43475</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3148,22 +3150,20 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="E81" t="n">
+        <v>14</v>
       </c>
       <c r="F81" t="n">
-        <v>26.9</v>
+        <v>25</v>
       </c>
       <c r="G81" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -775,11 +775,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -792,11 +792,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>21.2</v>
+        <v>23.7</v>
       </c>
       <c r="G11" t="n">
         <v>91</v>
@@ -809,11 +809,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43450</v>
+        <v>43486</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,24 +830,24 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="G12" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43497</v>
+        <v>43436</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -860,28 +860,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>25.2</v>
+        <v>26.8</v>
       </c>
       <c r="G13" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43424</v>
+        <v>43418</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -892,16 +892,14 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E14" t="n">
+        <v>0.2</v>
       </c>
       <c r="F14" t="n">
-        <v>24.6</v>
+        <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -911,11 +909,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>330601</v>
+        <v>43413</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -932,24 +930,24 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>24</v>
+        <v>26.1</v>
       </c>
       <c r="G15" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43495</v>
+        <v>43466</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -966,24 +964,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>25.1</v>
+        <v>26.3</v>
       </c>
       <c r="G16" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43473</v>
+        <v>43441</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -996,28 +994,28 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>20</v>
+        <v>24.6</v>
       </c>
       <c r="G17" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1030,28 +1028,28 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>24.6</v>
+        <v>27</v>
       </c>
       <c r="G18" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43466</v>
+        <v>43495</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1068,24 +1066,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G19" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43413</v>
+        <v>330601</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1102,24 +1100,24 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>26.1</v>
+        <v>24</v>
       </c>
       <c r="G20" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43418</v>
+        <v>43424</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1130,14 +1128,16 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
-      <c r="E21" t="n">
-        <v>0.2</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F21" t="n">
-        <v>26</v>
+        <v>24.6</v>
       </c>
       <c r="G21" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1147,11 +1147,11 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43436</v>
+        <v>43497</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1164,28 +1164,28 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>26.8</v>
+        <v>25.2</v>
       </c>
       <c r="G22" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43486</v>
+        <v>43450</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1202,24 +1202,24 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>23.9</v>
+        <v>24.8</v>
       </c>
       <c r="G23" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43421</v>
+        <v>43444</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>23.7</v>
+        <v>21.2</v>
       </c>
       <c r="G24" t="n">
         <v>91</v>
@@ -1249,11 +1249,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1283,11 +1283,11 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43421</v>
+        <v>43486</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1300,28 +1300,28 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="G26" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1334,14 +1334,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>24</v>
+        <v>22.9</v>
       </c>
       <c r="G27" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1351,11 +1351,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1372,24 +1372,24 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="G28" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43473</v>
+        <v>43466</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1406,24 +1406,24 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>15</v>
+        <v>25.3</v>
       </c>
       <c r="G29" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43444</v>
+        <v>43436</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1436,28 +1436,28 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>20.1</v>
+        <v>26.4</v>
       </c>
       <c r="G30" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43467</v>
+        <v>43495</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="G31" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1487,11 +1487,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43418</v>
+        <v>43424</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1502,14 +1502,16 @@
       <c r="D32" t="n">
         <v>0</v>
       </c>
-      <c r="E32" t="n">
-        <v>0.2</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F32" t="n">
-        <v>25.4</v>
+        <v>23.5</v>
       </c>
       <c r="G32" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1553,11 +1555,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43424</v>
+        <v>43467</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1574,10 +1576,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>23.5</v>
+        <v>25.6</v>
       </c>
       <c r="G34" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1587,11 +1589,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1608,10 +1610,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>25</v>
+        <v>20.1</v>
       </c>
       <c r="G35" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1621,11 +1623,11 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43436</v>
+        <v>43473</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1638,28 +1640,28 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>26.4</v>
+        <v>15</v>
       </c>
       <c r="G36" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43466</v>
+        <v>43450</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1676,24 +1678,24 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>25.3</v>
+        <v>24.2</v>
       </c>
       <c r="G37" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43497</v>
+        <v>330601</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1710,10 +1712,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="G38" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1723,11 +1725,11 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43441</v>
+        <v>43421</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1744,10 +1746,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="G39" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1757,11 +1759,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43486</v>
+        <v>43418</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1772,30 +1774,28 @@
       <c r="D40" t="n">
         <v>0</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E40" t="n">
+        <v>0.2</v>
       </c>
       <c r="F40" t="n">
-        <v>23.1</v>
+        <v>25.4</v>
       </c>
       <c r="G40" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>330601</v>
+        <v>43479</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1804,18 +1804,18 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>22.1</v>
+        <v>19.6</v>
       </c>
       <c r="G41" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1825,11 +1825,11 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43421</v>
+        <v>43495</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1842,28 +1842,28 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>23.1</v>
+        <v>24.5</v>
       </c>
       <c r="G42" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43413</v>
+        <v>43497</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1880,24 +1880,24 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>25.8</v>
+        <v>23.9</v>
       </c>
       <c r="G43" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43467</v>
+        <v>43466</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="G44" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1927,11 +1927,11 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43418</v>
+        <v>43473</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1942,28 +1942,30 @@
       <c r="D45" t="n">
         <v>0</v>
       </c>
-      <c r="E45" t="n">
-        <v>0.2</v>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F45" t="n">
-        <v>25.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43415</v>
+        <v>43450</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1980,24 +1982,24 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>22.4</v>
+        <v>23.4</v>
       </c>
       <c r="G46" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43424</v>
+        <v>43436</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2006,32 +2008,30 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.5</v>
       </c>
       <c r="F47" t="n">
-        <v>22.6</v>
+        <v>25.2</v>
       </c>
       <c r="G47" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2048,24 +2048,24 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>19.5</v>
+        <v>22.5</v>
       </c>
       <c r="G48" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43486</v>
+        <v>43441</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2078,28 +2078,28 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="G49" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43479</v>
+        <v>43424</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2108,32 +2108,32 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>19.6</v>
+        <v>22.6</v>
       </c>
       <c r="G50" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43436</v>
+        <v>43415</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2142,30 +2142,32 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F51" t="n">
-        <v>25.2</v>
+        <v>22.4</v>
       </c>
       <c r="G51" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43450</v>
+        <v>43418</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2176,30 +2178,28 @@
       <c r="D52" t="n">
         <v>0</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E52" t="n">
+        <v>0.2</v>
       </c>
       <c r="F52" t="n">
-        <v>23.4</v>
+        <v>25.4</v>
       </c>
       <c r="G52" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2212,14 +2212,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>22</v>
+        <v>24.6</v>
       </c>
       <c r="G53" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2229,11 +2229,11 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43473</v>
+        <v>43413</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2250,10 +2250,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>9.800000000000001</v>
+        <v>25.8</v>
       </c>
       <c r="G54" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2263,11 +2263,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2280,14 +2280,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="G55" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2297,11 +2297,11 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43497</v>
+        <v>330601</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2318,10 +2318,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>23.9</v>
+        <v>22.1</v>
       </c>
       <c r="G56" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2331,11 +2331,11 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2352,24 +2352,24 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>24.5</v>
+        <v>19.5</v>
       </c>
       <c r="G57" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43424</v>
+        <v>721501</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2380,16 +2380,14 @@
       <c r="D58" t="n">
         <v>0</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E58" t="n">
+        <v>9.800000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="G58" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2399,11 +2397,11 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43422</v>
+        <v>821501</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2414,16 +2412,14 @@
       <c r="D59" t="n">
         <v>0</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E59" t="n">
+        <v>0.5</v>
       </c>
       <c r="F59" t="n">
-        <v>24.4</v>
+        <v>25.4</v>
       </c>
       <c r="G59" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2433,11 +2429,11 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43421</v>
+        <v>330601</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2450,14 +2446,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="G60" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2467,11 +2463,11 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43486</v>
+        <v>43495</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2488,24 +2484,24 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>25.2</v>
+        <v>26.7</v>
       </c>
       <c r="G61" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43476</v>
+        <v>43410</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2514,30 +2510,32 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F62" t="n">
-        <v>17.7</v>
+        <v>27.5</v>
       </c>
       <c r="G62" t="n">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43479</v>
+        <v>43466</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2550,28 +2548,28 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>21</v>
+        <v>26.4</v>
       </c>
       <c r="G63" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43418</v>
+        <v>43436</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2583,27 +2581,27 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F64" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="G64" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43467</v>
+        <v>43497</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2620,10 +2618,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>26.3</v>
+        <v>27.7</v>
       </c>
       <c r="G65" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2633,11 +2631,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43404</v>
+        <v>43475</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2646,32 +2644,30 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="E66" t="n">
+        <v>14</v>
       </c>
       <c r="F66" t="n">
-        <v>26.9</v>
+        <v>25</v>
       </c>
       <c r="G66" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43473</v>
+        <v>43444</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2688,24 +2684,24 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>13.9</v>
+        <v>23.2</v>
       </c>
       <c r="G67" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>43441</v>
+        <v>43413</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2718,28 +2714,28 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>25.8</v>
+        <v>26.6</v>
       </c>
       <c r="G68" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43415</v>
+        <v>43450</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2759,7 +2755,7 @@
         <v>26</v>
       </c>
       <c r="G69" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2769,11 +2765,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43413</v>
+        <v>43441</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2786,28 +2782,28 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>26.6</v>
+        <v>25.8</v>
       </c>
       <c r="G70" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2818,28 +2814,30 @@
       <c r="D71" t="n">
         <v>0</v>
       </c>
-      <c r="E71" t="n">
-        <v>0.5</v>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F71" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="G71" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>721501</v>
+        <v>43415</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2850,14 +2848,16 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
-      <c r="E72" t="n">
-        <v>9.800000000000001</v>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F72" t="n">
-        <v>25.1</v>
+        <v>26</v>
       </c>
       <c r="G72" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2867,11 +2867,11 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>821501</v>
+        <v>43421</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2882,14 +2882,16 @@
       <c r="D73" t="n">
         <v>0</v>
       </c>
-      <c r="E73" t="n">
-        <v>0.5</v>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F73" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="G73" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2899,11 +2901,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>330601</v>
+        <v>43486</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2920,24 +2922,24 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="G74" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43495</v>
+        <v>43476</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2946,32 +2948,30 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.2</v>
       </c>
       <c r="F75" t="n">
-        <v>26.7</v>
+        <v>17.7</v>
       </c>
       <c r="G75" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43444</v>
+        <v>43422</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2988,10 +2988,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>23.2</v>
+        <v>24.4</v>
       </c>
       <c r="G76" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3001,11 +3001,11 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43450</v>
+        <v>43418</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3016,30 +3016,28 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E77" t="n">
+        <v>0.2</v>
       </c>
       <c r="F77" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G77" t="n">
         <v>81</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43466</v>
+        <v>43467</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3056,10 +3054,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="G78" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3069,11 +3067,11 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43410</v>
+        <v>43404</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3090,10 +3088,10 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="G79" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3103,11 +3101,11 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43497</v>
+        <v>43473</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3124,24 +3122,24 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>27.7</v>
+        <v>13.9</v>
       </c>
       <c r="G80" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43475</v>
+        <v>43479</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3150,16 +3148,18 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>14</v>
-      </c>
-      <c r="E81" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="F81" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G81" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -775,11 +775,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43421</v>
+        <v>43444</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -792,11 +792,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>23.7</v>
+        <v>21.2</v>
       </c>
       <c r="G11" t="n">
         <v>91</v>
@@ -809,11 +809,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43486</v>
+        <v>43450</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,24 +830,24 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>23.9</v>
+        <v>24.8</v>
       </c>
       <c r="G12" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43436</v>
+        <v>43497</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -860,28 +860,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>26.8</v>
+        <v>25.2</v>
       </c>
       <c r="G13" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43418</v>
+        <v>43424</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -892,14 +892,16 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.2</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F14" t="n">
-        <v>26</v>
+        <v>24.6</v>
       </c>
       <c r="G14" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -909,11 +911,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43413</v>
+        <v>330601</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -930,24 +932,24 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>26.1</v>
+        <v>24</v>
       </c>
       <c r="G15" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43466</v>
+        <v>43495</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -964,24 +966,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G16" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -994,28 +996,28 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>24.6</v>
+        <v>27</v>
       </c>
       <c r="G17" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1032,10 +1034,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1045,11 +1047,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43495</v>
+        <v>43466</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1066,24 +1068,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>25.1</v>
+        <v>26.3</v>
       </c>
       <c r="G19" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>330601</v>
+        <v>43413</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1100,24 +1102,24 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>24</v>
+        <v>26.1</v>
       </c>
       <c r="G20" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43424</v>
+        <v>43418</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1128,16 +1130,14 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E21" t="n">
+        <v>0.2</v>
       </c>
       <c r="F21" t="n">
-        <v>24.6</v>
+        <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1147,11 +1147,11 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43497</v>
+        <v>43436</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1164,28 +1164,28 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>25.2</v>
+        <v>26.8</v>
       </c>
       <c r="G22" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43450</v>
+        <v>43486</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1202,24 +1202,24 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="G23" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>21.2</v>
+        <v>23.7</v>
       </c>
       <c r="G24" t="n">
         <v>91</v>
@@ -1249,11 +1249,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43473</v>
+        <v>43441</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1266,28 +1266,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>24.6</v>
       </c>
       <c r="G25" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43486</v>
+        <v>43418</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1298,30 +1298,28 @@
       <c r="D26" t="n">
         <v>0</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E26" t="n">
+        <v>0.2</v>
       </c>
       <c r="F26" t="n">
-        <v>23.1</v>
+        <v>25.4</v>
       </c>
       <c r="G26" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43441</v>
+        <v>43421</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1338,10 +1336,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="G27" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1351,11 +1349,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43497</v>
+        <v>330601</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1372,10 +1370,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="G28" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1385,11 +1383,11 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43466</v>
+        <v>43450</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1406,24 +1404,24 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>25.3</v>
+        <v>24.2</v>
       </c>
       <c r="G29" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43436</v>
+        <v>43473</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1436,28 +1434,28 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>26.4</v>
+        <v>15</v>
       </c>
       <c r="G30" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1474,10 +1472,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>25</v>
+        <v>20.1</v>
       </c>
       <c r="G31" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1487,11 +1485,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43424</v>
+        <v>43467</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1508,10 +1506,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>23.5</v>
+        <v>25.6</v>
       </c>
       <c r="G32" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1555,11 +1553,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43467</v>
+        <v>43495</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1576,10 +1574,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="G34" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1589,11 +1587,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43444</v>
+        <v>43436</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1606,28 +1604,28 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>20.1</v>
+        <v>26.4</v>
       </c>
       <c r="G35" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43473</v>
+        <v>43466</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1644,24 +1642,24 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>15</v>
+        <v>25.3</v>
       </c>
       <c r="G36" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1678,24 +1676,24 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="G37" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1708,14 +1706,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>24</v>
+        <v>22.9</v>
       </c>
       <c r="G38" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1725,11 +1723,11 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43421</v>
+        <v>43486</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1742,28 +1740,28 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="G39" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43418</v>
+        <v>43424</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1774,14 +1772,16 @@
       <c r="D40" t="n">
         <v>0</v>
       </c>
-      <c r="E40" t="n">
-        <v>0.2</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F40" t="n">
-        <v>25.4</v>
+        <v>23.5</v>
       </c>
       <c r="G40" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1791,11 +1791,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43479</v>
+        <v>43424</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>19.6</v>
+        <v>22.6</v>
       </c>
       <c r="G41" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1846,24 +1846,24 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>24.5</v>
+        <v>19.5</v>
       </c>
       <c r="G42" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43497</v>
+        <v>330601</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1880,10 +1880,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>23.9</v>
+        <v>22.1</v>
       </c>
       <c r="G43" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1893,11 +1893,11 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1910,14 +1910,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="G44" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1927,11 +1927,11 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43473</v>
+        <v>43413</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1948,10 +1948,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>9.800000000000001</v>
+        <v>25.8</v>
       </c>
       <c r="G45" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1961,11 +1961,11 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43450</v>
+        <v>43418</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1976,30 +1976,28 @@
       <c r="D46" t="n">
         <v>0</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E46" t="n">
+        <v>0.2</v>
       </c>
       <c r="F46" t="n">
-        <v>23.4</v>
+        <v>25.4</v>
       </c>
       <c r="G46" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43436</v>
+        <v>43415</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2008,30 +2006,32 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F47" t="n">
-        <v>25.2</v>
+        <v>22.4</v>
       </c>
       <c r="G47" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43486</v>
+        <v>43441</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2044,28 +2044,28 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="G48" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2078,14 +2078,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>22</v>
+        <v>24.6</v>
       </c>
       <c r="G49" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2095,11 +2095,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43424</v>
+        <v>43436</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2108,32 +2108,30 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.5</v>
       </c>
       <c r="F50" t="n">
-        <v>22.6</v>
+        <v>25.2</v>
       </c>
       <c r="G50" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43415</v>
+        <v>43450</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2150,24 +2148,24 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>22.4</v>
+        <v>23.4</v>
       </c>
       <c r="G51" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43418</v>
+        <v>43473</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2178,28 +2176,30 @@
       <c r="D52" t="n">
         <v>0</v>
       </c>
-      <c r="E52" t="n">
-        <v>0.2</v>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F52" t="n">
-        <v>25.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43467</v>
+        <v>43466</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="G53" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2229,11 +2229,11 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43413</v>
+        <v>43497</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2250,24 +2250,24 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>25.8</v>
+        <v>23.9</v>
       </c>
       <c r="G54" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43421</v>
+        <v>43495</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2280,28 +2280,28 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>23.1</v>
+        <v>24.5</v>
       </c>
       <c r="G55" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>330601</v>
+        <v>43479</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2310,18 +2310,18 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>22.1</v>
+        <v>19.6</v>
       </c>
       <c r="G56" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2331,11 +2331,11 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2352,24 +2352,24 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>19.5</v>
+        <v>22.5</v>
       </c>
       <c r="G57" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>721501</v>
+        <v>43415</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2380,14 +2380,16 @@
       <c r="D58" t="n">
         <v>0</v>
       </c>
-      <c r="E58" t="n">
-        <v>9.800000000000001</v>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F58" t="n">
-        <v>25.1</v>
+        <v>26</v>
       </c>
       <c r="G58" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2397,11 +2399,11 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>821501</v>
+        <v>43421</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2412,14 +2414,16 @@
       <c r="D59" t="n">
         <v>0</v>
       </c>
-      <c r="E59" t="n">
-        <v>0.5</v>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F59" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="G59" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2429,11 +2433,11 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>330601</v>
+        <v>43486</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2450,24 +2454,24 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="G60" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43495</v>
+        <v>43476</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2476,32 +2480,30 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.2</v>
       </c>
       <c r="F61" t="n">
-        <v>26.7</v>
+        <v>17.7</v>
       </c>
       <c r="G61" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43410</v>
+        <v>43404</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2518,10 +2520,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="G62" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2531,11 +2533,11 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43466</v>
+        <v>43467</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="G63" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2565,11 +2567,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2580,28 +2582,30 @@
       <c r="D64" t="n">
         <v>0</v>
       </c>
-      <c r="E64" t="n">
-        <v>0.5</v>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F64" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="G64" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43497</v>
+        <v>43473</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2618,24 +2622,24 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>27.7</v>
+        <v>13.9</v>
       </c>
       <c r="G65" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43475</v>
+        <v>43479</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2644,16 +2648,18 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>14</v>
-      </c>
-      <c r="E66" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="F66" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G66" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2663,11 +2669,11 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43444</v>
+        <v>43422</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2684,10 +2690,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>23.2</v>
+        <v>24.4</v>
       </c>
       <c r="G67" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2697,11 +2703,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>43413</v>
+        <v>43441</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2714,28 +2720,28 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>26.6</v>
+        <v>25.8</v>
       </c>
       <c r="G68" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43450</v>
+        <v>43418</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2746,30 +2752,28 @@
       <c r="D69" t="n">
         <v>0</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E69" t="n">
+        <v>0.2</v>
       </c>
       <c r="F69" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G69" t="n">
         <v>81</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43441</v>
+        <v>43413</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2782,28 +2786,28 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>25.8</v>
+        <v>26.6</v>
       </c>
       <c r="G70" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43424</v>
+        <v>721501</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2814,16 +2818,14 @@
       <c r="D71" t="n">
         <v>0</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E71" t="n">
+        <v>9.800000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="G71" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2833,11 +2835,11 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43415</v>
+        <v>43450</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2857,7 +2859,7 @@
         <v>26</v>
       </c>
       <c r="G72" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2867,11 +2869,11 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43421</v>
+        <v>330601</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2884,14 +2886,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="G73" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2901,11 +2903,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43486</v>
+        <v>43495</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2922,24 +2924,24 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>25.2</v>
+        <v>26.7</v>
       </c>
       <c r="G74" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43476</v>
+        <v>43410</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2948,30 +2950,32 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F75" t="n">
-        <v>17.7</v>
+        <v>27.5</v>
       </c>
       <c r="G75" t="n">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43422</v>
+        <v>821501</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2982,16 +2986,14 @@
       <c r="D76" t="n">
         <v>0</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E76" t="n">
+        <v>0.5</v>
       </c>
       <c r="F76" t="n">
-        <v>24.4</v>
+        <v>25.4</v>
       </c>
       <c r="G76" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3001,11 +3003,11 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43418</v>
+        <v>43436</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3017,27 +3019,27 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F77" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="G77" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43467</v>
+        <v>43497</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3054,10 +3056,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>26.3</v>
+        <v>27.7</v>
       </c>
       <c r="G78" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3067,11 +3069,11 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43404</v>
+        <v>43475</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3080,32 +3082,30 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="E79" t="n">
+        <v>14</v>
       </c>
       <c r="F79" t="n">
-        <v>26.9</v>
+        <v>25</v>
       </c>
       <c r="G79" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43473</v>
+        <v>43444</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3122,24 +3122,24 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>13.9</v>
+        <v>23.2</v>
       </c>
       <c r="G80" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43479</v>
+        <v>43466</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3152,18 +3152,18 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>21</v>
+        <v>26.4</v>
       </c>
       <c r="G81" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -775,11 +775,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -792,11 +792,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>21.2</v>
+        <v>23.7</v>
       </c>
       <c r="G11" t="n">
         <v>91</v>
@@ -809,11 +809,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43450</v>
+        <v>43486</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,24 +830,24 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="G12" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43497</v>
+        <v>43436</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -860,28 +860,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>25.2</v>
+        <v>26.8</v>
       </c>
       <c r="G13" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43424</v>
+        <v>43418</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -892,16 +892,14 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E14" t="n">
+        <v>0.2</v>
       </c>
       <c r="F14" t="n">
-        <v>24.6</v>
+        <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -911,11 +909,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>330601</v>
+        <v>43413</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -932,24 +930,24 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>24</v>
+        <v>26.1</v>
       </c>
       <c r="G15" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43495</v>
+        <v>43466</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -966,24 +964,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>25.1</v>
+        <v>26.3</v>
       </c>
       <c r="G16" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1000,10 +998,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G17" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1013,11 +1011,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43473</v>
+        <v>43441</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1030,28 +1028,28 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>20</v>
+        <v>24.6</v>
       </c>
       <c r="G18" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43466</v>
+        <v>43495</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1068,24 +1066,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G19" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43413</v>
+        <v>330601</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1102,24 +1100,24 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>26.1</v>
+        <v>24</v>
       </c>
       <c r="G20" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43418</v>
+        <v>43424</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1130,14 +1128,16 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
-      <c r="E21" t="n">
-        <v>0.2</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F21" t="n">
-        <v>26</v>
+        <v>24.6</v>
       </c>
       <c r="G21" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1147,11 +1147,11 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43436</v>
+        <v>43497</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1164,28 +1164,28 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>26.8</v>
+        <v>25.2</v>
       </c>
       <c r="G22" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43486</v>
+        <v>43450</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1202,24 +1202,24 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>23.9</v>
+        <v>24.8</v>
       </c>
       <c r="G23" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43421</v>
+        <v>43444</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>23.7</v>
+        <v>21.2</v>
       </c>
       <c r="G24" t="n">
         <v>91</v>
@@ -1249,11 +1249,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1266,28 +1266,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>24.6</v>
+        <v>27</v>
       </c>
       <c r="G25" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43418</v>
+        <v>43424</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1298,14 +1298,16 @@
       <c r="D26" t="n">
         <v>0</v>
       </c>
-      <c r="E26" t="n">
-        <v>0.2</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F26" t="n">
-        <v>25.4</v>
+        <v>23.5</v>
       </c>
       <c r="G26" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1315,11 +1317,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43421</v>
+        <v>43486</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1332,28 +1334,28 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="G27" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1366,14 +1368,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>24</v>
+        <v>22.9</v>
       </c>
       <c r="G28" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1383,11 +1385,11 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1404,24 +1406,24 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="G29" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43473</v>
+        <v>43466</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1438,24 +1440,24 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>15</v>
+        <v>25.3</v>
       </c>
       <c r="G30" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43444</v>
+        <v>43436</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1468,28 +1470,28 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>20.1</v>
+        <v>26.4</v>
       </c>
       <c r="G31" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43467</v>
+        <v>43495</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1506,10 +1508,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="G32" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1553,11 +1555,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1574,10 +1576,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>25</v>
+        <v>20.1</v>
       </c>
       <c r="G34" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1587,11 +1589,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43436</v>
+        <v>43473</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1604,28 +1606,28 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>26.4</v>
+        <v>15</v>
       </c>
       <c r="G35" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43466</v>
+        <v>43450</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1642,24 +1644,24 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>25.3</v>
+        <v>24.2</v>
       </c>
       <c r="G36" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43497</v>
+        <v>330601</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1676,10 +1678,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="G37" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1689,11 +1691,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43441</v>
+        <v>43421</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1710,10 +1712,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="G38" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1723,11 +1725,11 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43486</v>
+        <v>43418</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1738,30 +1740,28 @@
       <c r="D39" t="n">
         <v>0</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E39" t="n">
+        <v>0.2</v>
       </c>
       <c r="F39" t="n">
-        <v>23.1</v>
+        <v>25.4</v>
       </c>
       <c r="G39" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43424</v>
+        <v>43467</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>23.5</v>
+        <v>25.6</v>
       </c>
       <c r="G40" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1791,11 +1791,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43424</v>
+        <v>43436</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1804,32 +1804,30 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5</v>
       </c>
       <c r="F41" t="n">
-        <v>22.6</v>
+        <v>25.2</v>
       </c>
       <c r="G41" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1846,24 +1844,24 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>19.5</v>
+        <v>22.5</v>
       </c>
       <c r="G42" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>330601</v>
+        <v>43479</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1872,18 +1870,18 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>22.1</v>
+        <v>19.6</v>
       </c>
       <c r="G43" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1893,11 +1891,11 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43421</v>
+        <v>43495</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1910,28 +1908,28 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>23.1</v>
+        <v>24.5</v>
       </c>
       <c r="G44" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43413</v>
+        <v>43497</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1948,24 +1946,24 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>25.8</v>
+        <v>23.9</v>
       </c>
       <c r="G45" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43418</v>
+        <v>43473</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1976,28 +1974,30 @@
       <c r="D46" t="n">
         <v>0</v>
       </c>
-      <c r="E46" t="n">
-        <v>0.2</v>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F46" t="n">
-        <v>25.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43415</v>
+        <v>43450</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2014,24 +2014,24 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>22.4</v>
+        <v>23.4</v>
       </c>
       <c r="G47" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2044,14 +2044,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>22</v>
+        <v>24.6</v>
       </c>
       <c r="G48" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2061,11 +2061,11 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43467</v>
+        <v>43466</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="G49" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2095,11 +2095,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43436</v>
+        <v>43415</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2108,30 +2108,32 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F50" t="n">
-        <v>25.2</v>
+        <v>22.4</v>
       </c>
       <c r="G50" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43450</v>
+        <v>43418</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2142,30 +2144,28 @@
       <c r="D51" t="n">
         <v>0</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E51" t="n">
+        <v>0.2</v>
       </c>
       <c r="F51" t="n">
-        <v>23.4</v>
+        <v>25.4</v>
       </c>
       <c r="G51" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43473</v>
+        <v>43413</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2182,10 +2182,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>9.800000000000001</v>
+        <v>25.8</v>
       </c>
       <c r="G52" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2195,11 +2195,11 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2212,14 +2212,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="G53" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2229,11 +2229,11 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43497</v>
+        <v>330601</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2250,10 +2250,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>23.9</v>
+        <v>22.1</v>
       </c>
       <c r="G54" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2263,11 +2263,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2284,24 +2284,24 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>24.5</v>
+        <v>19.5</v>
       </c>
       <c r="G55" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43479</v>
+        <v>43424</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2310,32 +2310,32 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>19.6</v>
+        <v>22.6</v>
       </c>
       <c r="G56" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43486</v>
+        <v>43441</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2348,28 +2348,28 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="G57" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43415</v>
+        <v>43450</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2389,7 +2389,7 @@
         <v>26</v>
       </c>
       <c r="G58" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2399,11 +2399,11 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43421</v>
+        <v>330601</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2416,14 +2416,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="G59" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2433,11 +2433,11 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43486</v>
+        <v>43495</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2454,24 +2454,24 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>25.2</v>
+        <v>26.7</v>
       </c>
       <c r="G60" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43476</v>
+        <v>43410</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2480,30 +2480,32 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F61" t="n">
-        <v>17.7</v>
+        <v>27.5</v>
       </c>
       <c r="G61" t="n">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43404</v>
+        <v>43475</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2512,32 +2514,30 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="E62" t="n">
+        <v>14</v>
       </c>
       <c r="F62" t="n">
-        <v>26.9</v>
+        <v>25</v>
       </c>
       <c r="G62" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43467</v>
+        <v>43497</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>26.3</v>
+        <v>27.7</v>
       </c>
       <c r="G63" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2567,11 +2567,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43424</v>
+        <v>721501</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2582,16 +2582,14 @@
       <c r="D64" t="n">
         <v>0</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E64" t="n">
+        <v>9.800000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="G64" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2601,11 +2599,11 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43473</v>
+        <v>43444</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2622,24 +2620,24 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>13.9</v>
+        <v>23.2</v>
       </c>
       <c r="G65" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43479</v>
+        <v>43466</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2652,28 +2650,28 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>21</v>
+        <v>26.4</v>
       </c>
       <c r="G66" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43422</v>
+        <v>821501</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2684,16 +2682,14 @@
       <c r="D67" t="n">
         <v>0</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E67" t="n">
+        <v>0.5</v>
       </c>
       <c r="F67" t="n">
-        <v>24.4</v>
+        <v>25.4</v>
       </c>
       <c r="G67" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2703,11 +2699,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>43441</v>
+        <v>43413</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2720,28 +2716,28 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>25.8</v>
+        <v>26.6</v>
       </c>
       <c r="G68" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43418</v>
+        <v>43436</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2753,27 +2749,27 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F69" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="G69" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43413</v>
+        <v>43441</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2786,28 +2782,28 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>26.6</v>
+        <v>25.8</v>
       </c>
       <c r="G70" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>721501</v>
+        <v>43415</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2818,14 +2814,16 @@
       <c r="D71" t="n">
         <v>0</v>
       </c>
-      <c r="E71" t="n">
-        <v>9.800000000000001</v>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F71" t="n">
-        <v>25.1</v>
+        <v>26</v>
       </c>
       <c r="G71" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2835,11 +2833,11 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43450</v>
+        <v>43418</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2850,30 +2848,28 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E72" t="n">
+        <v>0.2</v>
       </c>
       <c r="F72" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G72" t="n">
         <v>81</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>330601</v>
+        <v>43486</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2890,24 +2886,24 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="G73" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43495</v>
+        <v>43476</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2916,32 +2912,30 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.2</v>
       </c>
       <c r="F74" t="n">
-        <v>26.7</v>
+        <v>17.7</v>
       </c>
       <c r="G74" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43410</v>
+        <v>43404</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2958,10 +2952,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="G75" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2971,11 +2965,11 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>821501</v>
+        <v>43421</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2986,14 +2980,16 @@
       <c r="D76" t="n">
         <v>0</v>
       </c>
-      <c r="E76" t="n">
-        <v>0.5</v>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F76" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="G76" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3003,11 +2999,11 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3018,28 +3014,30 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
-      <c r="E77" t="n">
-        <v>0.5</v>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F77" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="G77" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43497</v>
+        <v>43473</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3056,24 +3054,24 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>27.7</v>
+        <v>13.9</v>
       </c>
       <c r="G78" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43475</v>
+        <v>43479</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3082,16 +3080,18 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>14</v>
-      </c>
-      <c r="E79" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="F79" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G79" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3101,11 +3101,11 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43444</v>
+        <v>43422</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3122,10 +3122,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>23.2</v>
+        <v>24.4</v>
       </c>
       <c r="G80" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3135,11 +3135,11 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43466</v>
+        <v>43467</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="G81" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -775,11 +775,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43421</v>
+        <v>43444</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -792,11 +792,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>23.7</v>
+        <v>21.2</v>
       </c>
       <c r="G11" t="n">
         <v>91</v>
@@ -809,11 +809,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43486</v>
+        <v>43450</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,24 +830,24 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>23.9</v>
+        <v>24.8</v>
       </c>
       <c r="G12" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43436</v>
+        <v>43497</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -860,28 +860,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>26.8</v>
+        <v>25.2</v>
       </c>
       <c r="G13" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43418</v>
+        <v>43424</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -892,14 +892,16 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.2</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F14" t="n">
-        <v>26</v>
+        <v>24.6</v>
       </c>
       <c r="G14" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -909,11 +911,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43413</v>
+        <v>330601</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -930,24 +932,24 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>26.1</v>
+        <v>24</v>
       </c>
       <c r="G15" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43466</v>
+        <v>43495</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -964,24 +966,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G16" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43473</v>
+        <v>43441</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -994,28 +996,28 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>20</v>
+        <v>24.6</v>
       </c>
       <c r="G17" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1028,28 +1030,28 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>24.6</v>
+        <v>27</v>
       </c>
       <c r="G18" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43495</v>
+        <v>43466</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1066,24 +1068,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>25.1</v>
+        <v>26.3</v>
       </c>
       <c r="G19" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>330601</v>
+        <v>43413</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1100,24 +1102,24 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>24</v>
+        <v>26.1</v>
       </c>
       <c r="G20" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43424</v>
+        <v>43418</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1128,16 +1130,14 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E21" t="n">
+        <v>0.2</v>
       </c>
       <c r="F21" t="n">
-        <v>24.6</v>
+        <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1147,11 +1147,11 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43497</v>
+        <v>43436</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1164,28 +1164,28 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>25.2</v>
+        <v>26.8</v>
       </c>
       <c r="G22" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43450</v>
+        <v>43486</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1202,24 +1202,24 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="G23" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>21.2</v>
+        <v>23.7</v>
       </c>
       <c r="G24" t="n">
         <v>91</v>
@@ -1249,11 +1249,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1283,11 +1283,11 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43424</v>
+        <v>43467</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>23.5</v>
+        <v>25.6</v>
       </c>
       <c r="G26" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1317,11 +1317,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43486</v>
+        <v>43418</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1332,30 +1332,28 @@
       <c r="D27" t="n">
         <v>0</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E27" t="n">
+        <v>0.2</v>
       </c>
       <c r="F27" t="n">
-        <v>23.1</v>
+        <v>25.4</v>
       </c>
       <c r="G27" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43441</v>
+        <v>43421</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1372,10 +1370,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="G28" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1385,11 +1383,11 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43497</v>
+        <v>330601</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1406,10 +1404,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="G29" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1419,11 +1417,11 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43466</v>
+        <v>43450</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1440,24 +1438,24 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>25.3</v>
+        <v>24.2</v>
       </c>
       <c r="G30" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43436</v>
+        <v>43473</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1470,28 +1468,28 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>26.4</v>
+        <v>15</v>
       </c>
       <c r="G31" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1508,10 +1506,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>25</v>
+        <v>20.1</v>
       </c>
       <c r="G32" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1555,11 +1553,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43444</v>
+        <v>43436</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1572,28 +1570,28 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>20.1</v>
+        <v>26.4</v>
       </c>
       <c r="G34" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43473</v>
+        <v>43466</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1610,24 +1608,24 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>15</v>
+        <v>25.3</v>
       </c>
       <c r="G35" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1644,24 +1642,24 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="G36" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1674,14 +1672,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>24</v>
+        <v>22.9</v>
       </c>
       <c r="G37" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1691,11 +1689,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43421</v>
+        <v>43486</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1708,28 +1706,28 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="G38" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43418</v>
+        <v>43424</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1740,14 +1738,16 @@
       <c r="D39" t="n">
         <v>0</v>
       </c>
-      <c r="E39" t="n">
-        <v>0.2</v>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F39" t="n">
-        <v>25.4</v>
+        <v>23.5</v>
       </c>
       <c r="G39" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1757,11 +1757,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43467</v>
+        <v>43495</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="G40" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1791,11 +1791,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43436</v>
+        <v>43415</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1804,30 +1804,32 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F41" t="n">
-        <v>25.2</v>
+        <v>22.4</v>
       </c>
       <c r="G41" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43486</v>
+        <v>43441</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1840,28 +1842,28 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="G42" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43479</v>
+        <v>43424</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1870,32 +1872,32 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>19.6</v>
+        <v>22.6</v>
       </c>
       <c r="G43" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1912,24 +1914,24 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>24.5</v>
+        <v>19.5</v>
       </c>
       <c r="G44" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43497</v>
+        <v>330601</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1946,10 +1948,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>23.9</v>
+        <v>22.1</v>
       </c>
       <c r="G45" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1959,11 +1961,11 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43473</v>
+        <v>43413</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1980,10 +1982,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>9.800000000000001</v>
+        <v>25.8</v>
       </c>
       <c r="G46" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1993,11 +1995,11 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43450</v>
+        <v>43418</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2008,30 +2010,28 @@
       <c r="D47" t="n">
         <v>0</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E47" t="n">
+        <v>0.2</v>
       </c>
       <c r="F47" t="n">
-        <v>23.4</v>
+        <v>25.4</v>
       </c>
       <c r="G47" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43467</v>
+        <v>43466</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2048,10 +2048,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="G48" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2061,11 +2061,11 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2078,14 +2078,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="G49" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2095,11 +2095,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43415</v>
+        <v>43450</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2116,24 +2116,24 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>22.4</v>
+        <v>23.4</v>
       </c>
       <c r="G50" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43418</v>
+        <v>43473</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2144,28 +2144,30 @@
       <c r="D51" t="n">
         <v>0</v>
       </c>
-      <c r="E51" t="n">
-        <v>0.2</v>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F51" t="n">
-        <v>25.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43413</v>
+        <v>43497</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2182,24 +2184,24 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>25.8</v>
+        <v>23.9</v>
       </c>
       <c r="G52" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43421</v>
+        <v>43495</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2212,28 +2214,28 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>23.1</v>
+        <v>24.5</v>
       </c>
       <c r="G53" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>330601</v>
+        <v>43479</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2242,18 +2244,18 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>22.1</v>
+        <v>19.6</v>
       </c>
       <c r="G54" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2263,11 +2265,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2284,24 +2286,24 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>19.5</v>
+        <v>22.5</v>
       </c>
       <c r="G55" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43424</v>
+        <v>43436</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2310,32 +2312,30 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.5</v>
       </c>
       <c r="F56" t="n">
-        <v>22.6</v>
+        <v>25.2</v>
       </c>
       <c r="G56" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2348,14 +2348,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>22</v>
+        <v>24.6</v>
       </c>
       <c r="G57" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2365,11 +2365,11 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43450</v>
+        <v>43418</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2380,30 +2380,28 @@
       <c r="D58" t="n">
         <v>0</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E58" t="n">
+        <v>0.2</v>
       </c>
       <c r="F58" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G58" t="n">
         <v>81</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>330601</v>
+        <v>43486</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2420,24 +2418,24 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="G59" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43495</v>
+        <v>43476</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2446,32 +2444,30 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.2</v>
       </c>
       <c r="F60" t="n">
-        <v>26.7</v>
+        <v>17.7</v>
       </c>
       <c r="G60" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43410</v>
+        <v>43404</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2488,10 +2484,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="G61" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2501,11 +2497,11 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43475</v>
+        <v>43479</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2514,16 +2510,18 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>14</v>
-      </c>
-      <c r="E62" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="F62" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G62" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2533,11 +2531,11 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43497</v>
+        <v>43473</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2554,24 +2552,24 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>27.7</v>
+        <v>13.9</v>
       </c>
       <c r="G63" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>721501</v>
+        <v>43415</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2582,14 +2580,16 @@
       <c r="D64" t="n">
         <v>0</v>
       </c>
-      <c r="E64" t="n">
-        <v>9.800000000000001</v>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F64" t="n">
-        <v>25.1</v>
+        <v>26</v>
       </c>
       <c r="G64" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2599,11 +2599,11 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43444</v>
+        <v>43422</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2620,10 +2620,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>23.2</v>
+        <v>24.4</v>
       </c>
       <c r="G65" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2633,11 +2633,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43466</v>
+        <v>43467</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2654,10 +2654,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="G66" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2667,11 +2667,11 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>821501</v>
+        <v>43421</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2682,14 +2682,16 @@
       <c r="D67" t="n">
         <v>0</v>
       </c>
-      <c r="E67" t="n">
-        <v>0.5</v>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F67" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="G67" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2699,11 +2701,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>43413</v>
+        <v>43441</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2716,28 +2718,28 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>26.6</v>
+        <v>25.8</v>
       </c>
       <c r="G68" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2748,28 +2750,30 @@
       <c r="D69" t="n">
         <v>0</v>
       </c>
-      <c r="E69" t="n">
-        <v>0.5</v>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F69" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="G69" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43441</v>
+        <v>43413</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2782,28 +2786,28 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>25.8</v>
+        <v>26.6</v>
       </c>
       <c r="G70" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43415</v>
+        <v>43450</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2823,7 +2827,7 @@
         <v>26</v>
       </c>
       <c r="G71" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2833,11 +2837,11 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43418</v>
+        <v>43436</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2849,27 +2853,27 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F72" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="G72" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43486</v>
+        <v>43495</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2886,24 +2890,24 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>25.2</v>
+        <v>26.7</v>
       </c>
       <c r="G73" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43476</v>
+        <v>43410</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2912,30 +2916,32 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F74" t="n">
-        <v>17.7</v>
+        <v>27.5</v>
       </c>
       <c r="G74" t="n">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43404</v>
+        <v>43475</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2944,32 +2950,30 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="E75" t="n">
+        <v>14</v>
       </c>
       <c r="F75" t="n">
-        <v>26.9</v>
+        <v>25</v>
       </c>
       <c r="G75" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43421</v>
+        <v>330601</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2982,14 +2986,14 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="G76" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -2999,11 +3003,11 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43424</v>
+        <v>721501</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3014,16 +3018,14 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E77" t="n">
+        <v>9.800000000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="G77" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3033,11 +3035,11 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43473</v>
+        <v>43444</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3054,24 +3056,24 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>13.9</v>
+        <v>23.2</v>
       </c>
       <c r="G78" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43479</v>
+        <v>43466</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3084,28 +3086,28 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>21</v>
+        <v>26.4</v>
       </c>
       <c r="G79" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43422</v>
+        <v>821501</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3116,16 +3118,14 @@
       <c r="D80" t="n">
         <v>0</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E80" t="n">
+        <v>0.5</v>
       </c>
       <c r="F80" t="n">
-        <v>24.4</v>
+        <v>25.4</v>
       </c>
       <c r="G80" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3135,11 +3135,11 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43467</v>
+        <v>43497</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>26.3</v>
+        <v>27.7</v>
       </c>
       <c r="G81" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -775,11 +775,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -792,11 +792,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>21.2</v>
+        <v>23.7</v>
       </c>
       <c r="G11" t="n">
         <v>91</v>
@@ -809,11 +809,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43450</v>
+        <v>43486</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,24 +830,24 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="G12" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43497</v>
+        <v>43436</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -860,28 +860,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>25.2</v>
+        <v>26.8</v>
       </c>
       <c r="G13" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43424</v>
+        <v>43418</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -892,16 +892,14 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E14" t="n">
+        <v>0.2</v>
       </c>
       <c r="F14" t="n">
-        <v>24.6</v>
+        <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -911,11 +909,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>330601</v>
+        <v>43413</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -932,24 +930,24 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>24</v>
+        <v>26.1</v>
       </c>
       <c r="G15" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43495</v>
+        <v>43466</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -966,24 +964,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>25.1</v>
+        <v>26.3</v>
       </c>
       <c r="G16" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -996,28 +994,28 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>24.6</v>
+        <v>27</v>
       </c>
       <c r="G17" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1034,10 +1032,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1047,11 +1045,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43466</v>
+        <v>43495</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1068,24 +1066,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G19" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43413</v>
+        <v>330601</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1102,24 +1100,24 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>26.1</v>
+        <v>24</v>
       </c>
       <c r="G20" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43418</v>
+        <v>43424</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1130,14 +1128,16 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
-      <c r="E21" t="n">
-        <v>0.2</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F21" t="n">
-        <v>26</v>
+        <v>24.6</v>
       </c>
       <c r="G21" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1147,11 +1147,11 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43436</v>
+        <v>43497</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1164,28 +1164,28 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>26.8</v>
+        <v>25.2</v>
       </c>
       <c r="G22" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43486</v>
+        <v>43450</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1202,24 +1202,24 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>23.9</v>
+        <v>24.8</v>
       </c>
       <c r="G23" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43421</v>
+        <v>43444</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>23.7</v>
+        <v>21.2</v>
       </c>
       <c r="G24" t="n">
         <v>91</v>
@@ -1249,11 +1249,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43473</v>
+        <v>43441</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1266,28 +1266,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>24.6</v>
       </c>
       <c r="G25" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43467</v>
+        <v>43495</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="G26" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1317,11 +1317,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43418</v>
+        <v>43424</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1332,14 +1332,16 @@
       <c r="D27" t="n">
         <v>0</v>
       </c>
-      <c r="E27" t="n">
-        <v>0.2</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F27" t="n">
-        <v>25.4</v>
+        <v>23.5</v>
       </c>
       <c r="G27" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1349,11 +1351,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43421</v>
+        <v>43486</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1366,28 +1368,28 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="G28" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1400,14 +1402,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>24</v>
+        <v>22.9</v>
       </c>
       <c r="G29" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1417,11 +1419,11 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1438,24 +1440,24 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="G30" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43473</v>
+        <v>43466</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1472,24 +1474,24 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>15</v>
+        <v>25.3</v>
       </c>
       <c r="G31" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43444</v>
+        <v>43436</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1502,18 +1504,18 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>20.1</v>
+        <v>26.4</v>
       </c>
       <c r="G32" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
@@ -1553,11 +1555,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43436</v>
+        <v>43473</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1570,28 +1572,28 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>26.4</v>
+        <v>15</v>
       </c>
       <c r="G34" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43466</v>
+        <v>43450</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1608,24 +1610,24 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>25.3</v>
+        <v>24.2</v>
       </c>
       <c r="G35" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43497</v>
+        <v>330601</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1642,10 +1644,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="G36" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1655,11 +1657,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43441</v>
+        <v>43421</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1676,10 +1678,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="G37" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1689,11 +1691,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43486</v>
+        <v>43418</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1704,30 +1706,28 @@
       <c r="D38" t="n">
         <v>0</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E38" t="n">
+        <v>0.2</v>
       </c>
       <c r="F38" t="n">
-        <v>23.1</v>
+        <v>25.4</v>
       </c>
       <c r="G38" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43424</v>
+        <v>43467</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1744,10 +1744,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>23.5</v>
+        <v>25.6</v>
       </c>
       <c r="G39" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1757,11 +1757,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>25</v>
+        <v>20.1</v>
       </c>
       <c r="G40" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1791,11 +1791,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43415</v>
+        <v>43450</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1812,24 +1812,24 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>22.4</v>
+        <v>23.4</v>
       </c>
       <c r="G41" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1842,14 +1842,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>22</v>
+        <v>24.6</v>
       </c>
       <c r="G42" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1859,11 +1859,11 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43424</v>
+        <v>43436</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1872,32 +1872,30 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.5</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.5</v>
       </c>
       <c r="F43" t="n">
-        <v>22.6</v>
+        <v>25.2</v>
       </c>
       <c r="G43" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1914,24 +1912,24 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>19.5</v>
+        <v>22.5</v>
       </c>
       <c r="G44" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>330601</v>
+        <v>43479</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1940,18 +1938,18 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>22.1</v>
+        <v>19.6</v>
       </c>
       <c r="G45" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1961,11 +1959,11 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43413</v>
+        <v>43497</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1982,24 +1980,24 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>25.8</v>
+        <v>23.9</v>
       </c>
       <c r="G46" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43418</v>
+        <v>43473</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2010,28 +2008,30 @@
       <c r="D47" t="n">
         <v>0</v>
       </c>
-      <c r="E47" t="n">
-        <v>0.2</v>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F47" t="n">
-        <v>25.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2044,14 +2044,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="G48" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2061,11 +2061,11 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43421</v>
+        <v>43495</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2078,28 +2078,28 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>23.1</v>
+        <v>24.5</v>
       </c>
       <c r="G49" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43450</v>
+        <v>43418</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2110,30 +2110,28 @@
       <c r="D50" t="n">
         <v>0</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E50" t="n">
+        <v>0.2</v>
       </c>
       <c r="F50" t="n">
-        <v>23.4</v>
+        <v>25.4</v>
       </c>
       <c r="G50" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43473</v>
+        <v>43413</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2150,10 +2148,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>9.800000000000001</v>
+        <v>25.8</v>
       </c>
       <c r="G51" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2163,11 +2161,11 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43497</v>
+        <v>330601</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2184,10 +2182,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>23.9</v>
+        <v>22.1</v>
       </c>
       <c r="G52" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2197,11 +2195,11 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2218,24 +2216,24 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>24.5</v>
+        <v>19.5</v>
       </c>
       <c r="G53" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43479</v>
+        <v>43424</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2244,32 +2242,32 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>19.6</v>
+        <v>22.6</v>
       </c>
       <c r="G54" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43486</v>
+        <v>43441</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2282,28 +2280,28 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="G55" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43436</v>
+        <v>43415</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2312,30 +2310,32 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F56" t="n">
-        <v>25.2</v>
+        <v>22.4</v>
       </c>
       <c r="G56" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43467</v>
+        <v>43466</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2352,10 +2352,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="G57" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2365,11 +2365,11 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43418</v>
+        <v>43436</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2381,27 +2381,27 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F58" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="G58" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43486</v>
+        <v>43495</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2418,24 +2418,24 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>25.2</v>
+        <v>26.7</v>
       </c>
       <c r="G59" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43476</v>
+        <v>43410</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2444,30 +2444,32 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F60" t="n">
-        <v>17.7</v>
+        <v>27.5</v>
       </c>
       <c r="G60" t="n">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43404</v>
+        <v>43475</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2476,32 +2478,30 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="E61" t="n">
+        <v>14</v>
       </c>
       <c r="F61" t="n">
-        <v>26.9</v>
+        <v>25</v>
       </c>
       <c r="G61" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43479</v>
+        <v>43466</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2514,28 +2514,28 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>21</v>
+        <v>26.4</v>
       </c>
       <c r="G62" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43473</v>
+        <v>43444</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2552,24 +2552,24 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>13.9</v>
+        <v>23.2</v>
       </c>
       <c r="G63" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43415</v>
+        <v>43450</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2589,7 +2589,7 @@
         <v>26</v>
       </c>
       <c r="G64" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2599,11 +2599,11 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43422</v>
+        <v>821501</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2614,16 +2614,14 @@
       <c r="D65" t="n">
         <v>0</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E65" t="n">
+        <v>0.5</v>
       </c>
       <c r="F65" t="n">
-        <v>24.4</v>
+        <v>25.4</v>
       </c>
       <c r="G65" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2633,11 +2631,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43467</v>
+        <v>43497</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2654,10 +2652,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>26.3</v>
+        <v>27.7</v>
       </c>
       <c r="G66" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2667,11 +2665,11 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43421</v>
+        <v>330601</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2684,14 +2682,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="G67" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2701,11 +2699,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>43441</v>
+        <v>43413</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2718,28 +2716,28 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>25.8</v>
+        <v>26.6</v>
       </c>
       <c r="G68" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43424</v>
+        <v>721501</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2750,16 +2748,14 @@
       <c r="D69" t="n">
         <v>0</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E69" t="n">
+        <v>9.800000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="G69" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2769,11 +2765,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43413</v>
+        <v>43441</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2786,28 +2782,28 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>26.6</v>
+        <v>25.8</v>
       </c>
       <c r="G70" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43450</v>
+        <v>43418</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2818,30 +2814,28 @@
       <c r="D71" t="n">
         <v>0</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E71" t="n">
+        <v>0.2</v>
       </c>
       <c r="F71" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G71" t="n">
         <v>81</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2852,28 +2846,30 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
-      <c r="E72" t="n">
-        <v>0.5</v>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F72" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="G72" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43495</v>
+        <v>43476</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2882,32 +2878,30 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.2</v>
       </c>
       <c r="F73" t="n">
-        <v>26.7</v>
+        <v>17.7</v>
       </c>
       <c r="G73" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43410</v>
+        <v>43404</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2924,10 +2918,10 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="G74" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2937,11 +2931,11 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43475</v>
+        <v>43479</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2950,16 +2944,18 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>14</v>
-      </c>
-      <c r="E75" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="F75" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G75" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2969,11 +2965,11 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>330601</v>
+        <v>43486</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2990,24 +2986,24 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="G76" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>721501</v>
+        <v>43415</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3018,14 +3014,16 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
-      <c r="E77" t="n">
-        <v>9.800000000000001</v>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F77" t="n">
-        <v>25.1</v>
+        <v>26</v>
       </c>
       <c r="G77" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3035,11 +3033,11 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43444</v>
+        <v>43422</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3056,10 +3054,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>23.2</v>
+        <v>24.4</v>
       </c>
       <c r="G78" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3069,11 +3067,11 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43466</v>
+        <v>43467</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3090,10 +3088,10 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="G79" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3103,11 +3101,11 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>821501</v>
+        <v>43421</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3118,14 +3116,16 @@
       <c r="D80" t="n">
         <v>0</v>
       </c>
-      <c r="E80" t="n">
-        <v>0.5</v>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F80" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="G80" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3135,11 +3135,11 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43497</v>
+        <v>43473</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3156,14 +3156,14 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>27.7</v>
+        <v>13.9</v>
       </c>
       <c r="G81" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,11 +775,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43421</v>
+        <v>43441</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="G11" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -809,11 +809,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,24 +830,24 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>23.9</v>
+        <v>21.2</v>
       </c>
       <c r="G12" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -860,28 +860,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>26.8</v>
+        <v>24.8</v>
       </c>
       <c r="G13" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -892,14 +892,16 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.2</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F14" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="G14" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -909,11 +911,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43413</v>
+        <v>43424</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -930,24 +932,24 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>26.1</v>
+        <v>24.6</v>
       </c>
       <c r="G15" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43466</v>
+        <v>330601</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -964,24 +966,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>26.3</v>
+        <v>24</v>
       </c>
       <c r="G16" t="n">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43467</v>
+        <v>43495</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -998,24 +1000,24 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>27</v>
+        <v>25.1</v>
       </c>
       <c r="G17" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1032,10 +1034,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G18" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1045,11 +1047,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43495</v>
+        <v>43466</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1066,24 +1068,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>25.1</v>
+        <v>26.3</v>
       </c>
       <c r="G19" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>330601</v>
+        <v>43413</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1100,24 +1102,24 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>24</v>
+        <v>26.1</v>
       </c>
       <c r="G20" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43424</v>
+        <v>43418</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1128,16 +1130,14 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E21" t="n">
+        <v>0.2</v>
       </c>
       <c r="F21" t="n">
-        <v>24.6</v>
+        <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1147,11 +1147,11 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43497</v>
+        <v>43436</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1164,28 +1164,28 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>25.2</v>
+        <v>26.8</v>
       </c>
       <c r="G22" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43450</v>
+        <v>43486</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1202,24 +1202,24 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="G23" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>21.2</v>
+        <v>23.7</v>
       </c>
       <c r="G24" t="n">
         <v>91</v>
@@ -1249,11 +1249,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43441</v>
+        <v>43473</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1266,28 +1266,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>24.6</v>
+        <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43495</v>
+        <v>43473</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1304,24 +1304,24 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G26" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43424</v>
+        <v>43444</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>23.5</v>
+        <v>20.1</v>
       </c>
       <c r="G27" t="n">
         <v>94</v>
@@ -1351,11 +1351,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43486</v>
+        <v>43467</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1372,24 +1372,24 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>23.1</v>
+        <v>25.6</v>
       </c>
       <c r="G28" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43441</v>
+        <v>43418</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1400,16 +1400,14 @@
       <c r="D29" t="n">
         <v>0</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E29" t="n">
+        <v>0.2</v>
       </c>
       <c r="F29" t="n">
-        <v>22.9</v>
+        <v>25.4</v>
       </c>
       <c r="G29" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1419,11 +1417,11 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43497</v>
+        <v>43421</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1436,14 +1434,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>24.7</v>
+        <v>22.8</v>
       </c>
       <c r="G30" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1453,11 +1451,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43466</v>
+        <v>330601</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1474,10 +1472,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="G31" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1487,11 +1485,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43436</v>
+        <v>43413</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1504,28 +1502,28 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>26.4</v>
+        <v>25.6</v>
       </c>
       <c r="G32" t="n">
         <v>87</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>43413</v>
+        <v>43450</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1542,24 +1540,24 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>25.6</v>
+        <v>24.2</v>
       </c>
       <c r="G33" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43473</v>
+        <v>43466</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1576,24 +1574,24 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>15</v>
+        <v>25.3</v>
       </c>
       <c r="G34" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1610,24 +1608,24 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="G35" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1640,14 +1638,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>24</v>
+        <v>22.9</v>
       </c>
       <c r="G36" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1657,11 +1655,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43421</v>
+        <v>43486</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1674,28 +1672,28 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="G37" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43418</v>
+        <v>43424</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1706,14 +1704,16 @@
       <c r="D38" t="n">
         <v>0</v>
       </c>
-      <c r="E38" t="n">
-        <v>0.2</v>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F38" t="n">
-        <v>25.4</v>
+        <v>23.5</v>
       </c>
       <c r="G38" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1723,11 +1723,11 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43467</v>
+        <v>43495</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1744,10 +1744,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="G39" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1757,11 +1757,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43444</v>
+        <v>43436</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1774,28 +1774,28 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>20.1</v>
+        <v>26.4</v>
       </c>
       <c r="G40" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43450</v>
+        <v>43466</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1812,24 +1812,24 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>23.4</v>
+        <v>24.3</v>
       </c>
       <c r="G41" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43467</v>
+        <v>43415</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1846,10 +1846,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>24.6</v>
+        <v>22.4</v>
       </c>
       <c r="G42" t="n">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1859,11 +1859,11 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43436</v>
+        <v>43441</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1872,30 +1872,32 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F43" t="n">
-        <v>25.2</v>
+        <v>22</v>
       </c>
       <c r="G43" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43486</v>
+        <v>43424</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1912,10 +1914,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="G44" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1925,11 +1927,11 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43479</v>
+        <v>43444</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1938,32 +1940,32 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="G45" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43497</v>
+        <v>330601</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1980,10 +1982,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>23.9</v>
+        <v>22.1</v>
       </c>
       <c r="G46" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1993,11 +1995,11 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43473</v>
+        <v>43418</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2008,30 +2010,28 @@
       <c r="D47" t="n">
         <v>0</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E47" t="n">
+        <v>0.2</v>
       </c>
       <c r="F47" t="n">
-        <v>9.800000000000001</v>
+        <v>25.4</v>
       </c>
       <c r="G47" t="n">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43421</v>
+        <v>43495</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2044,28 +2044,28 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>23.1</v>
+        <v>24.5</v>
       </c>
       <c r="G48" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43495</v>
+        <v>43413</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2082,24 +2082,24 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>24.5</v>
+        <v>25.8</v>
       </c>
       <c r="G49" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43418</v>
+        <v>43473</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2110,28 +2110,30 @@
       <c r="D50" t="n">
         <v>0</v>
       </c>
-      <c r="E50" t="n">
-        <v>0.2</v>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F50" t="n">
-        <v>25.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43413</v>
+        <v>43497</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2148,24 +2150,24 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>25.8</v>
+        <v>23.9</v>
       </c>
       <c r="G51" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>330601</v>
+        <v>43479</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2174,18 +2176,18 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>22.1</v>
+        <v>19.6</v>
       </c>
       <c r="G52" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2195,11 +2197,11 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2216,24 +2218,24 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>19.5</v>
+        <v>22.5</v>
       </c>
       <c r="G53" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43424</v>
+        <v>43436</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2242,32 +2244,30 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.5</v>
       </c>
       <c r="F54" t="n">
-        <v>22.6</v>
+        <v>25.2</v>
       </c>
       <c r="G54" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2280,14 +2280,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>22</v>
+        <v>24.6</v>
       </c>
       <c r="G55" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2297,11 +2297,11 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43415</v>
+        <v>43450</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2318,24 +2318,24 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>22.4</v>
+        <v>23.4</v>
       </c>
       <c r="G56" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2348,14 +2348,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="G57" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2365,11 +2365,11 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2380,28 +2380,30 @@
       <c r="D58" t="n">
         <v>0</v>
       </c>
-      <c r="E58" t="n">
-        <v>0.5</v>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F58" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="G58" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43495</v>
+        <v>43476</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2410,32 +2412,30 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.2</v>
       </c>
       <c r="F59" t="n">
-        <v>26.7</v>
+        <v>17.7</v>
       </c>
       <c r="G59" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43410</v>
+        <v>43404</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2452,10 +2452,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="G60" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2465,11 +2465,11 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43475</v>
+        <v>43479</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2478,16 +2478,18 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>14</v>
-      </c>
-      <c r="E61" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="F61" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G61" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2497,11 +2499,11 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43466</v>
+        <v>43486</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2518,24 +2520,24 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="G62" t="n">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2548,14 +2550,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>23.2</v>
+        <v>25.3</v>
       </c>
       <c r="G63" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2565,11 +2567,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43450</v>
+        <v>43422</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2586,10 +2588,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>26</v>
+        <v>24.4</v>
       </c>
       <c r="G64" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2599,11 +2601,11 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>821501</v>
+        <v>43467</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2614,14 +2616,16 @@
       <c r="D65" t="n">
         <v>0</v>
       </c>
-      <c r="E65" t="n">
-        <v>0.5</v>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F65" t="n">
-        <v>25.4</v>
+        <v>26.3</v>
       </c>
       <c r="G65" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2631,11 +2635,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43497</v>
+        <v>43473</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2652,24 +2656,24 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>27.7</v>
+        <v>13.9</v>
       </c>
       <c r="G66" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>330601</v>
+        <v>43418</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2680,30 +2684,28 @@
       <c r="D67" t="n">
         <v>0</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E67" t="n">
+        <v>0.2</v>
       </c>
       <c r="F67" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G67" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>43413</v>
+        <v>43415</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2720,24 +2722,24 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="G68" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>721501</v>
+        <v>43441</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2748,14 +2750,16 @@
       <c r="D69" t="n">
         <v>0</v>
       </c>
-      <c r="E69" t="n">
-        <v>9.800000000000001</v>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F69" t="n">
-        <v>25.1</v>
+        <v>25.8</v>
       </c>
       <c r="G69" t="n">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2765,11 +2769,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43441</v>
+        <v>43475</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2778,32 +2782,30 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="E70" t="n">
+        <v>14</v>
       </c>
       <c r="F70" t="n">
-        <v>25.8</v>
+        <v>25</v>
       </c>
       <c r="G70" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43418</v>
+        <v>43413</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2814,28 +2816,30 @@
       <c r="D71" t="n">
         <v>0</v>
       </c>
-      <c r="E71" t="n">
-        <v>0.2</v>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F71" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="G71" t="n">
         <v>81</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43424</v>
+        <v>43436</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2846,30 +2850,28 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E72" t="n">
+        <v>0.5</v>
       </c>
       <c r="F72" t="n">
-        <v>25.2</v>
+        <v>26.4</v>
       </c>
       <c r="G72" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43476</v>
+        <v>43495</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2878,30 +2880,32 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F73" t="n">
-        <v>17.7</v>
+        <v>26.7</v>
       </c>
       <c r="G73" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43404</v>
+        <v>43466</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2918,10 +2922,10 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>26.9</v>
+        <v>26.4</v>
       </c>
       <c r="G74" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2931,11 +2935,11 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43479</v>
+        <v>43444</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2948,28 +2952,28 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>21</v>
+        <v>23.2</v>
       </c>
       <c r="G75" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43486</v>
+        <v>43410</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2986,24 +2990,24 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>25.2</v>
+        <v>27.5</v>
       </c>
       <c r="G76" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43415</v>
+        <v>821501</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3014,13 +3018,11 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E77" t="n">
+        <v>0.5</v>
       </c>
       <c r="F77" t="n">
-        <v>26</v>
+        <v>25.4</v>
       </c>
       <c r="G77" t="n">
         <v>84</v>
@@ -3033,11 +3035,11 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43422</v>
+        <v>43497</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3054,10 +3056,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>24.4</v>
+        <v>27.7</v>
       </c>
       <c r="G78" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3067,11 +3069,11 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43467</v>
+        <v>330601</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3088,10 +3090,10 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="G79" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3101,11 +3103,11 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43421</v>
+        <v>43450</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3118,14 +3120,14 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="G80" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3135,11 +3137,11 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43473</v>
+        <v>721501</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3150,20 +3152,18 @@
       <c r="D81" t="n">
         <v>0</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E81" t="n">
+        <v>9.800000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>13.9</v>
+        <v>25.1</v>
       </c>
       <c r="G81" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
@@ -3203,11 +3203,11 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>43476</v>
+        <v>821501</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3226,24 +3226,24 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>19.8</v>
+        <v>26.8</v>
       </c>
       <c r="G83" t="n">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>43422</v>
+        <v>43476</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3262,24 +3262,24 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>27.1</v>
+        <v>19.8</v>
       </c>
       <c r="G84" t="n">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43410</v>
+        <v>43422</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3298,24 +3298,24 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="G85" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43404</v>
+        <v>43410</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3334,10 +3334,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>26.3</v>
+        <v>27.2</v>
       </c>
       <c r="G86" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3347,11 +3347,11 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>721501</v>
+        <v>43404</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3361,31 +3361,33 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>0.2</v>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F87" t="n">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="G87" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>821501</v>
+        <v>721501</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3395,19 +3397,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.2</v>
       </c>
       <c r="F88" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="G88" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3489,11 +3489,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>43466</v>
+        <v>43436</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3506,30 +3506,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E91" t="n">
+        <v>42.5</v>
       </c>
       <c r="F91" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="G91" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>43467</v>
+        <v>43466</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3548,10 +3546,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="G92" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -3561,11 +3559,11 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3580,14 +3578,14 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>13.4</v>
+        <v>26.7</v>
       </c>
       <c r="G93" t="n">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -3597,11 +3595,11 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>43486</v>
+        <v>43473</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3614,28 +3612,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E94" t="n">
-        <v>3.3</v>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F94" t="n">
-        <v>24.5</v>
+        <v>13.4</v>
       </c>
       <c r="G94" t="n">
         <v>95</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>43495</v>
+        <v>43486</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3648,30 +3648,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E95" t="n">
+        <v>3.3</v>
       </c>
       <c r="F95" t="n">
-        <v>27</v>
+        <v>24.5</v>
       </c>
       <c r="G95" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>43497</v>
+        <v>43495</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3690,10 +3688,10 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>25.4</v>
+        <v>27</v>
       </c>
       <c r="G96" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -3703,11 +3701,11 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>330601</v>
+        <v>43497</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3726,10 +3724,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>24.5</v>
+        <v>25.4</v>
       </c>
       <c r="G97" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3775,11 +3773,11 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3792,18 +3790,20 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E99" t="n">
-        <v>42.5</v>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F99" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="G99" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
@@ -3953,11 +3953,11 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>43450</v>
+        <v>330601</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>25.8</v>
+        <v>24.5</v>
       </c>
       <c r="G104" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -4018,6 +4018,542 @@
         <v>82</v>
       </c>
       <c r="H105" t="inlineStr">
+        <is>
+          <t>partlycloudynight</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>43424</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>PUTTALAM</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2025-12-29 0230</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="G106" t="n">
+        <v>94</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>mist</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>43413</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>MANNAR</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2025-12-29 0230</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="G107" t="n">
+        <v>87</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>fairnight</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>330601</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>MATTALA</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2025-12-29 0230</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="G108" t="n">
+        <v>95</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>partlycloudynight</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>43421</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ANURADHAPURA</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2025-12-29 0230</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="G109" t="n">
+        <v>94</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>fairnight</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>HAMBANTOTA</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2025-12-29 0230</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="G110" t="n">
+        <v>90</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>fairnight</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>43486</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>RATNAPURA</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2025-12-29 0230</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F111" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="G111" t="n">
+        <v>98</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>fognight</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>43473</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2025-12-29 0230</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>14</v>
+      </c>
+      <c r="G112" t="n">
+        <v>94</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>fairnight</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>43467</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>RATMALANA</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2025-12-29 0230</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="G113" t="n">
+        <v>79</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>fairnight</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>43418</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>TRINCOMALEE</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2025-12-29 0230</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="G114" t="n">
+        <v>87</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>fairnight</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>43450</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>KATUNAYAKE</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2025-12-29 0230</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="G115" t="n">
+        <v>89</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>hazenight</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>43444</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>KATUGASTOTA</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2025-12-29 0230</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="G116" t="n">
+        <v>94</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>43441</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>KURUNEGALA</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2025-12-29 0230</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>25</v>
+      </c>
+      <c r="G117" t="n">
+        <v>84</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>43436</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>BATTICALOA</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2025-12-29 0230</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G118" t="n">
+        <v>88</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>43495</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>GALLE</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2025-12-29 0230</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="G119" t="n">
+        <v>89</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>fairnight</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>COLOMBO</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2025-12-29 0230</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="G120" t="n">
+        <v>80</v>
+      </c>
+      <c r="H120" t="inlineStr">
         <is>
           <t>partlycloudynight</t>
         </is>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -775,11 +775,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43441</v>
+        <v>43473</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -792,28 +792,28 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>24.6</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -826,11 +826,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>21.2</v>
+        <v>23.7</v>
       </c>
       <c r="G12" t="n">
         <v>91</v>
@@ -843,11 +843,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43450</v>
+        <v>43486</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="G13" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43497</v>
+        <v>43436</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -894,28 +894,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>25.2</v>
+        <v>26.8</v>
       </c>
       <c r="G14" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43424</v>
+        <v>43418</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -926,16 +926,14 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E15" t="n">
+        <v>0.2</v>
       </c>
       <c r="F15" t="n">
-        <v>24.6</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -945,11 +943,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>330601</v>
+        <v>43413</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -966,24 +964,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>24</v>
+        <v>26.1</v>
       </c>
       <c r="G16" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43495</v>
+        <v>43466</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1000,24 +998,24 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>25.1</v>
+        <v>26.3</v>
       </c>
       <c r="G17" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43467</v>
+        <v>43495</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1034,24 +1032,24 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>27</v>
+        <v>25.1</v>
       </c>
       <c r="G18" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43466</v>
+        <v>330601</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1068,24 +1066,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>26.3</v>
+        <v>24</v>
       </c>
       <c r="G19" t="n">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43413</v>
+        <v>43424</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1102,24 +1100,24 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>26.1</v>
+        <v>24.6</v>
       </c>
       <c r="G20" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1130,14 +1128,16 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
-      <c r="E21" t="n">
-        <v>0.2</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F21" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="G21" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1147,11 +1147,11 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1164,28 +1164,28 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>26.8</v>
+        <v>24.8</v>
       </c>
       <c r="G22" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1202,24 +1202,24 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>23.9</v>
+        <v>21.2</v>
       </c>
       <c r="G23" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43421</v>
+        <v>43441</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="G24" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1249,11 +1249,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G25" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1283,11 +1283,11 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43473</v>
+        <v>43466</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1304,24 +1304,24 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>15</v>
+        <v>25.3</v>
       </c>
       <c r="G26" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43444</v>
+        <v>43436</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1334,28 +1334,28 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>20.1</v>
+        <v>26.4</v>
       </c>
       <c r="G27" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43467</v>
+        <v>43495</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1372,10 +1372,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="G28" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1385,11 +1385,11 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43418</v>
+        <v>43424</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1400,14 +1400,16 @@
       <c r="D29" t="n">
         <v>0</v>
       </c>
-      <c r="E29" t="n">
-        <v>0.2</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F29" t="n">
-        <v>25.4</v>
+        <v>23.5</v>
       </c>
       <c r="G29" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1417,11 +1419,11 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43421</v>
+        <v>43486</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1434,28 +1436,28 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="G30" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1468,14 +1470,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>24</v>
+        <v>22.9</v>
       </c>
       <c r="G31" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1485,11 +1487,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43413</v>
+        <v>43450</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1506,24 +1508,24 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>25.6</v>
+        <v>24.2</v>
       </c>
       <c r="G32" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1540,24 +1542,24 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="G33" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43466</v>
+        <v>330601</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1574,10 +1576,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="G34" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1587,11 +1589,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43497</v>
+        <v>43421</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1604,14 +1606,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>24.7</v>
+        <v>22.8</v>
       </c>
       <c r="G35" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1621,11 +1623,11 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43441</v>
+        <v>43418</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1636,16 +1638,14 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E36" t="n">
+        <v>0.2</v>
       </c>
       <c r="F36" t="n">
-        <v>22.9</v>
+        <v>25.4</v>
       </c>
       <c r="G36" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1655,11 +1655,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43486</v>
+        <v>43467</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1676,24 +1676,24 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>23.1</v>
+        <v>25.6</v>
       </c>
       <c r="G37" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43424</v>
+        <v>43444</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>23.5</v>
+        <v>20.1</v>
       </c>
       <c r="G38" t="n">
         <v>94</v>
@@ -1723,11 +1723,11 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43495</v>
+        <v>43473</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1744,24 +1744,24 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G39" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43436</v>
+        <v>43413</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1774,28 +1774,28 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>26.4</v>
+        <v>25.6</v>
       </c>
       <c r="G40" t="n">
         <v>87</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1808,14 +1808,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="G41" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1825,11 +1825,11 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43415</v>
+        <v>43450</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1846,24 +1846,24 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>22.4</v>
+        <v>23.4</v>
       </c>
       <c r="G42" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1876,14 +1876,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>22</v>
+        <v>24.6</v>
       </c>
       <c r="G43" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1893,11 +1893,11 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43424</v>
+        <v>43436</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1906,32 +1906,30 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.5</v>
       </c>
       <c r="F44" t="n">
-        <v>22.6</v>
+        <v>25.2</v>
       </c>
       <c r="G44" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1948,24 +1946,24 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>19.5</v>
+        <v>22.5</v>
       </c>
       <c r="G45" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>330601</v>
+        <v>43479</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1974,18 +1972,18 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>22.1</v>
+        <v>19.6</v>
       </c>
       <c r="G46" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1995,11 +1993,11 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43418</v>
+        <v>43473</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2010,28 +2008,30 @@
       <c r="D47" t="n">
         <v>0</v>
       </c>
-      <c r="E47" t="n">
-        <v>0.2</v>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F47" t="n">
-        <v>25.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43495</v>
+        <v>43413</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2048,24 +2048,24 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>24.5</v>
+        <v>25.8</v>
       </c>
       <c r="G48" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43413</v>
+        <v>43497</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2082,24 +2082,24 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>25.8</v>
+        <v>23.9</v>
       </c>
       <c r="G49" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43473</v>
+        <v>43418</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2110,30 +2110,28 @@
       <c r="D50" t="n">
         <v>0</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E50" t="n">
+        <v>0.2</v>
       </c>
       <c r="F50" t="n">
-        <v>9.800000000000001</v>
+        <v>25.4</v>
       </c>
       <c r="G50" t="n">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43497</v>
+        <v>330601</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2150,10 +2148,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>23.9</v>
+        <v>22.1</v>
       </c>
       <c r="G51" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2163,11 +2161,11 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43479</v>
+        <v>43444</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2176,32 +2174,32 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="G52" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43486</v>
+        <v>43424</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2218,10 +2216,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="G53" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2231,11 +2229,11 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43436</v>
+        <v>43441</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2244,30 +2242,32 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F54" t="n">
-        <v>25.2</v>
+        <v>22</v>
       </c>
       <c r="G54" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43467</v>
+        <v>43415</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>24.6</v>
+        <v>22.4</v>
       </c>
       <c r="G55" t="n">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2297,11 +2297,11 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43450</v>
+        <v>43466</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2318,24 +2318,24 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>23.4</v>
+        <v>24.3</v>
       </c>
       <c r="G56" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43421</v>
+        <v>43495</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2348,28 +2348,28 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>23.1</v>
+        <v>24.5</v>
       </c>
       <c r="G57" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43424</v>
+        <v>43436</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2380,30 +2380,28 @@
       <c r="D58" t="n">
         <v>0</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E58" t="n">
+        <v>0.5</v>
       </c>
       <c r="F58" t="n">
-        <v>25.2</v>
+        <v>26.4</v>
       </c>
       <c r="G58" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43476</v>
+        <v>43495</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2412,30 +2410,32 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F59" t="n">
-        <v>17.7</v>
+        <v>26.7</v>
       </c>
       <c r="G59" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43404</v>
+        <v>43466</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2452,10 +2452,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>26.9</v>
+        <v>26.4</v>
       </c>
       <c r="G60" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2465,11 +2465,11 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43479</v>
+        <v>43444</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2482,28 +2482,28 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>21</v>
+        <v>23.2</v>
       </c>
       <c r="G61" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43486</v>
+        <v>43410</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2520,24 +2520,24 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>25.2</v>
+        <v>27.5</v>
       </c>
       <c r="G62" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43421</v>
+        <v>43450</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2550,14 +2550,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="G63" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2567,11 +2567,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43422</v>
+        <v>43497</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2588,10 +2588,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>24.4</v>
+        <v>27.7</v>
       </c>
       <c r="G64" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2601,11 +2601,11 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43467</v>
+        <v>330601</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2622,10 +2622,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="G65" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2635,11 +2635,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43473</v>
+        <v>721501</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2650,30 +2650,28 @@
       <c r="D66" t="n">
         <v>0</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E66" t="n">
+        <v>9.800000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>13.9</v>
+        <v>25.1</v>
       </c>
       <c r="G66" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43418</v>
+        <v>43413</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2684,28 +2682,30 @@
       <c r="D67" t="n">
         <v>0</v>
       </c>
-      <c r="E67" t="n">
-        <v>0.2</v>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F67" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="G67" t="n">
         <v>81</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>43415</v>
+        <v>821501</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2716,13 +2716,11 @@
       <c r="D68" t="n">
         <v>0</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E68" t="n">
+        <v>0.5</v>
       </c>
       <c r="F68" t="n">
-        <v>26</v>
+        <v>25.4</v>
       </c>
       <c r="G68" t="n">
         <v>84</v>
@@ -2735,11 +2733,11 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43441</v>
+        <v>43475</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2748,32 +2746,30 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="E69" t="n">
+        <v>14</v>
       </c>
       <c r="F69" t="n">
-        <v>25.8</v>
+        <v>25</v>
       </c>
       <c r="G69" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43475</v>
+        <v>43479</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2782,16 +2778,18 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>14</v>
-      </c>
-      <c r="E70" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="F70" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G70" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2801,11 +2799,11 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43413</v>
+        <v>43415</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2822,24 +2820,24 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="G71" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2850,28 +2848,30 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
-      <c r="E72" t="n">
-        <v>0.5</v>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F72" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="G72" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43495</v>
+        <v>43476</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2880,32 +2880,30 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.2</v>
       </c>
       <c r="F73" t="n">
-        <v>26.7</v>
+        <v>17.7</v>
       </c>
       <c r="G73" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43466</v>
+        <v>43486</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2922,24 +2920,24 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="G74" t="n">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2952,14 +2950,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>23.2</v>
+        <v>25.3</v>
       </c>
       <c r="G75" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2969,11 +2967,11 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43410</v>
+        <v>43404</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2990,10 +2988,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="G76" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3003,11 +3001,11 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>821501</v>
+        <v>43467</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3018,14 +3016,16 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
-      <c r="E77" t="n">
-        <v>0.5</v>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F77" t="n">
-        <v>25.4</v>
+        <v>26.3</v>
       </c>
       <c r="G77" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3035,11 +3035,11 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43497</v>
+        <v>43473</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3056,24 +3056,24 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>27.7</v>
+        <v>13.9</v>
       </c>
       <c r="G78" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>330601</v>
+        <v>43418</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3084,30 +3084,28 @@
       <c r="D79" t="n">
         <v>0</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E79" t="n">
+        <v>0.2</v>
       </c>
       <c r="F79" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G79" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43450</v>
+        <v>43422</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3124,10 +3122,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>26</v>
+        <v>24.4</v>
       </c>
       <c r="G80" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3137,11 +3135,11 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>721501</v>
+        <v>43441</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3152,14 +3150,16 @@
       <c r="D81" t="n">
         <v>0</v>
       </c>
-      <c r="E81" t="n">
-        <v>9.800000000000001</v>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F81" t="n">
-        <v>25.1</v>
+        <v>25.8</v>
       </c>
       <c r="G81" t="n">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3489,11 +3489,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3506,28 +3506,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E91" t="n">
-        <v>42.5</v>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F91" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="G91" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>43466</v>
+        <v>43436</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3540,30 +3542,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E92" t="n">
+        <v>42.5</v>
       </c>
       <c r="F92" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="G92" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>43467</v>
+        <v>43466</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3582,10 +3582,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="G93" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -3595,11 +3595,11 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3614,14 +3614,14 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>13.4</v>
+        <v>26.7</v>
       </c>
       <c r="G94" t="n">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3631,11 +3631,11 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>43486</v>
+        <v>43473</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3648,28 +3648,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E95" t="n">
-        <v>3.3</v>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F95" t="n">
-        <v>24.5</v>
+        <v>13.4</v>
       </c>
       <c r="G95" t="n">
         <v>95</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>43495</v>
+        <v>43486</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3682,30 +3684,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E96" t="n">
+        <v>3.3</v>
       </c>
       <c r="F96" t="n">
-        <v>27</v>
+        <v>24.5</v>
       </c>
       <c r="G96" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>43497</v>
+        <v>43495</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3724,10 +3724,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>25.4</v>
+        <v>27</v>
       </c>
       <c r="G97" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3773,11 +3773,11 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>43450</v>
+        <v>330601</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3796,10 +3796,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>25.8</v>
+        <v>24.5</v>
       </c>
       <c r="G99" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3953,11 +3953,11 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>330601</v>
+        <v>43497</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>24.5</v>
+        <v>25.4</v>
       </c>
       <c r="G104" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,11 +775,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G11" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -809,11 +809,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43421</v>
+        <v>43441</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="G12" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -843,11 +843,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>23.9</v>
+        <v>21.2</v>
       </c>
       <c r="G13" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -894,28 +894,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>26.8</v>
+        <v>24.8</v>
       </c>
       <c r="G14" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -926,14 +926,16 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.2</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="G15" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -943,11 +945,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43413</v>
+        <v>43424</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -964,24 +966,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>26.1</v>
+        <v>24.6</v>
       </c>
       <c r="G16" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43466</v>
+        <v>330601</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -998,24 +1000,24 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>26.3</v>
+        <v>24</v>
       </c>
       <c r="G17" t="n">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43495</v>
+        <v>43466</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1032,24 +1034,24 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>25.1</v>
+        <v>26.3</v>
       </c>
       <c r="G18" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>330601</v>
+        <v>43413</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1066,24 +1068,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>24</v>
+        <v>26.1</v>
       </c>
       <c r="G19" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43424</v>
+        <v>43418</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1094,16 +1096,14 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E20" t="n">
+        <v>0.2</v>
       </c>
       <c r="F20" t="n">
-        <v>24.6</v>
+        <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1113,11 +1113,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43497</v>
+        <v>43436</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1130,28 +1130,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>25.2</v>
+        <v>26.8</v>
       </c>
       <c r="G21" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43450</v>
+        <v>43486</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1168,24 +1168,24 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="G22" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1198,11 +1198,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>21.2</v>
+        <v>23.7</v>
       </c>
       <c r="G23" t="n">
         <v>91</v>
@@ -1215,11 +1215,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43441</v>
+        <v>43473</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1232,28 +1232,28 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>24.6</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43467</v>
+        <v>43495</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1270,24 +1270,24 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>27</v>
+        <v>25.1</v>
       </c>
       <c r="G25" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43466</v>
+        <v>330601</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="G26" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1317,11 +1317,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43436</v>
+        <v>43413</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1334,28 +1334,28 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>26.4</v>
+        <v>25.6</v>
       </c>
       <c r="G27" t="n">
         <v>87</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43495</v>
+        <v>43473</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1372,24 +1372,24 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43424</v>
+        <v>43444</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>23.5</v>
+        <v>20.1</v>
       </c>
       <c r="G29" t="n">
         <v>94</v>
@@ -1419,11 +1419,11 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43486</v>
+        <v>43467</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1440,24 +1440,24 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>23.1</v>
+        <v>25.6</v>
       </c>
       <c r="G30" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43441</v>
+        <v>43418</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1468,16 +1468,14 @@
       <c r="D31" t="n">
         <v>0</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E31" t="n">
+        <v>0.2</v>
       </c>
       <c r="F31" t="n">
-        <v>22.9</v>
+        <v>25.4</v>
       </c>
       <c r="G31" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1487,11 +1485,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1508,24 +1506,24 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="G32" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>43497</v>
+        <v>43421</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1538,14 +1536,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>24.7</v>
+        <v>22.8</v>
       </c>
       <c r="G33" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1555,11 +1553,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1572,14 +1570,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>24</v>
+        <v>22.9</v>
       </c>
       <c r="G34" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1589,11 +1587,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43421</v>
+        <v>43486</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1606,28 +1604,28 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="G35" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43418</v>
+        <v>43424</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1638,14 +1636,16 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
-      <c r="E36" t="n">
-        <v>0.2</v>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F36" t="n">
-        <v>25.4</v>
+        <v>23.5</v>
       </c>
       <c r="G36" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1655,11 +1655,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43467</v>
+        <v>43495</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="G37" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1689,11 +1689,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43444</v>
+        <v>43436</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1706,28 +1706,28 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>20.1</v>
+        <v>26.4</v>
       </c>
       <c r="G38" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43473</v>
+        <v>43466</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1744,24 +1744,24 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>15</v>
+        <v>25.3</v>
       </c>
       <c r="G39" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43413</v>
+        <v>43450</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1778,24 +1778,24 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>25.6</v>
+        <v>24.2</v>
       </c>
       <c r="G40" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43421</v>
+        <v>43495</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1808,28 +1808,28 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>23.1</v>
+        <v>24.5</v>
       </c>
       <c r="G41" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43450</v>
+        <v>43466</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1846,24 +1846,24 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>23.4</v>
+        <v>24.3</v>
       </c>
       <c r="G42" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43467</v>
+        <v>43415</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1880,10 +1880,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>24.6</v>
+        <v>22.4</v>
       </c>
       <c r="G43" t="n">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1893,11 +1893,11 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43436</v>
+        <v>43441</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1906,30 +1906,32 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F44" t="n">
-        <v>25.2</v>
+        <v>22</v>
       </c>
       <c r="G44" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43486</v>
+        <v>43424</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1946,10 +1948,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="G45" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1959,11 +1961,11 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43479</v>
+        <v>43444</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1972,32 +1974,32 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="G46" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43473</v>
+        <v>43418</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2008,30 +2010,28 @@
       <c r="D47" t="n">
         <v>0</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E47" t="n">
+        <v>0.2</v>
       </c>
       <c r="F47" t="n">
-        <v>9.800000000000001</v>
+        <v>25.4</v>
       </c>
       <c r="G47" t="n">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43413</v>
+        <v>43497</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2048,24 +2048,24 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>25.8</v>
+        <v>23.9</v>
       </c>
       <c r="G48" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43497</v>
+        <v>330601</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>23.9</v>
+        <v>22.1</v>
       </c>
       <c r="G49" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2095,11 +2095,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43418</v>
+        <v>43473</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2110,28 +2110,30 @@
       <c r="D50" t="n">
         <v>0</v>
       </c>
-      <c r="E50" t="n">
-        <v>0.2</v>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F50" t="n">
-        <v>25.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>330601</v>
+        <v>43479</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2140,18 +2142,18 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>22.1</v>
+        <v>19.6</v>
       </c>
       <c r="G51" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2161,11 +2163,11 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2182,24 +2184,24 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>19.5</v>
+        <v>22.5</v>
       </c>
       <c r="G52" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43424</v>
+        <v>43436</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2208,32 +2210,30 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.5</v>
       </c>
       <c r="F53" t="n">
-        <v>22.6</v>
+        <v>25.2</v>
       </c>
       <c r="G53" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2246,14 +2246,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>22</v>
+        <v>24.6</v>
       </c>
       <c r="G54" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2263,11 +2263,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43415</v>
+        <v>43450</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2284,24 +2284,24 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>22.4</v>
+        <v>23.4</v>
       </c>
       <c r="G55" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2314,14 +2314,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="G56" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2331,11 +2331,11 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43495</v>
+        <v>43413</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2352,24 +2352,24 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>24.5</v>
+        <v>25.8</v>
       </c>
       <c r="G57" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43436</v>
+        <v>43476</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2378,30 +2378,30 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F58" t="n">
-        <v>26.4</v>
+        <v>17.7</v>
       </c>
       <c r="G58" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43495</v>
+        <v>43486</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2418,24 +2418,24 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>26.7</v>
+        <v>25.2</v>
       </c>
       <c r="G59" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2448,14 +2448,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="G60" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2465,11 +2465,11 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43444</v>
+        <v>43404</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2486,10 +2486,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>23.2</v>
+        <v>26.9</v>
       </c>
       <c r="G61" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2499,11 +2499,11 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43410</v>
+        <v>43422</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2520,10 +2520,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>27.5</v>
+        <v>24.4</v>
       </c>
       <c r="G62" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2533,11 +2533,11 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43450</v>
+        <v>43473</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2554,24 +2554,24 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>26</v>
+        <v>13.9</v>
       </c>
       <c r="G63" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43497</v>
+        <v>43418</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2582,30 +2582,28 @@
       <c r="D64" t="n">
         <v>0</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E64" t="n">
+        <v>0.2</v>
       </c>
       <c r="F64" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="G64" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2618,14 +2616,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="G65" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2635,11 +2633,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>721501</v>
+        <v>43424</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2650,14 +2648,16 @@
       <c r="D66" t="n">
         <v>0</v>
       </c>
-      <c r="E66" t="n">
-        <v>9.800000000000001</v>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F66" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="G66" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2667,11 +2667,11 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43413</v>
+        <v>43467</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2688,24 +2688,24 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="G67" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>821501</v>
+        <v>43479</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2716,28 +2716,30 @@
       <c r="D68" t="n">
         <v>0</v>
       </c>
-      <c r="E68" t="n">
-        <v>0.5</v>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="F68" t="n">
-        <v>25.4</v>
+        <v>21</v>
       </c>
       <c r="G68" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43475</v>
+        <v>43415</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2746,30 +2748,32 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>14</v>
-      </c>
-      <c r="E69" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F69" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G69" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43479</v>
+        <v>821501</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2780,30 +2784,28 @@
       <c r="D70" t="n">
         <v>0</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+      <c r="E70" t="n">
+        <v>0.5</v>
       </c>
       <c r="F70" t="n">
-        <v>21</v>
+        <v>25.4</v>
       </c>
       <c r="G70" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43415</v>
+        <v>43413</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2820,24 +2822,24 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>26</v>
+        <v>26.6</v>
       </c>
       <c r="G71" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43424</v>
+        <v>721501</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2848,16 +2850,14 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E72" t="n">
+        <v>9.800000000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="G72" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2867,11 +2867,11 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43476</v>
+        <v>330601</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2880,30 +2880,32 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F73" t="n">
-        <v>17.7</v>
+        <v>26</v>
       </c>
       <c r="G73" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43486</v>
+        <v>43497</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2920,24 +2922,24 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>25.2</v>
+        <v>27.7</v>
       </c>
       <c r="G74" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43421</v>
+        <v>43450</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2950,14 +2952,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="G75" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2967,11 +2969,11 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43404</v>
+        <v>43410</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2988,10 +2990,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="G76" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3001,11 +3003,11 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43467</v>
+        <v>43444</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3022,10 +3024,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>26.3</v>
+        <v>23.2</v>
       </c>
       <c r="G77" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3035,11 +3037,11 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43473</v>
+        <v>43466</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3056,24 +3058,24 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>13.9</v>
+        <v>26.4</v>
       </c>
       <c r="G78" t="n">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43418</v>
+        <v>43495</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3084,28 +3086,30 @@
       <c r="D79" t="n">
         <v>0</v>
       </c>
-      <c r="E79" t="n">
-        <v>0.2</v>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F79" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="G79" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43422</v>
+        <v>43436</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3116,30 +3120,28 @@
       <c r="D80" t="n">
         <v>0</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E80" t="n">
+        <v>0.5</v>
       </c>
       <c r="F80" t="n">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="G80" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43441</v>
+        <v>43475</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3148,32 +3150,30 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="E81" t="n">
+        <v>14</v>
       </c>
       <c r="F81" t="n">
-        <v>25.8</v>
+        <v>25</v>
       </c>
       <c r="G81" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>43475</v>
+        <v>43422</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3181,33 +3181,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D82" t="n">
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>26</v>
+        <v>27.1</v>
       </c>
       <c r="G82" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>821501</v>
+        <v>43404</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3215,35 +3213,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>26.8</v>
+        <v>26.3</v>
       </c>
       <c r="G83" t="n">
         <v>74</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>43476</v>
+        <v>43475</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3251,21 +3245,17 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.1</v>
       </c>
       <c r="F84" t="n">
-        <v>19.8</v>
+        <v>26</v>
       </c>
       <c r="G84" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3275,11 +3265,11 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43422</v>
+        <v>43410</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3298,24 +3288,24 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="G85" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43410</v>
+        <v>821501</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3334,24 +3324,24 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>27.2</v>
+        <v>26.8</v>
       </c>
       <c r="G86" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>43404</v>
+        <v>43476</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3359,25 +3349,21 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>26.3</v>
+        <v>19.8</v>
       </c>
       <c r="G87" t="n">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -3489,11 +3475,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3512,24 +3498,24 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>25.8</v>
+        <v>25.3</v>
       </c>
       <c r="G91" t="n">
         <v>82</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>43436</v>
+        <v>43497</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3542,28 +3528,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E92" t="n">
-        <v>42.5</v>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F92" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="G92" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>43466</v>
+        <v>43413</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3582,10 +3570,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="G93" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -3595,11 +3583,11 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>43467</v>
+        <v>43418</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3618,10 +3606,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>26.7</v>
+        <v>26.1</v>
       </c>
       <c r="G94" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3631,11 +3619,11 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>43473</v>
+        <v>43424</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3650,28 +3638,28 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>13.4</v>
+        <v>24</v>
       </c>
       <c r="G95" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>43486</v>
+        <v>43421</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3684,28 +3672,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E96" t="n">
-        <v>3.3</v>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F96" t="n">
-        <v>24.5</v>
+        <v>23.4</v>
       </c>
       <c r="G96" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3724,24 +3714,24 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>27</v>
+        <v>22.6</v>
       </c>
       <c r="G97" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>43444</v>
+        <v>43495</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3760,24 +3750,24 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>22.6</v>
+        <v>27</v>
       </c>
       <c r="G98" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>330601</v>
+        <v>43486</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3790,30 +3780,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E99" t="n">
+        <v>3.3</v>
       </c>
       <c r="F99" t="n">
         <v>24.5</v>
       </c>
       <c r="G99" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>43424</v>
+        <v>43473</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3828,28 +3816,28 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>24</v>
+        <v>13.4</v>
       </c>
       <c r="G100" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>43421</v>
+        <v>43467</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3868,10 +3856,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>23.4</v>
+        <v>26.7</v>
       </c>
       <c r="G101" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3881,11 +3869,11 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>43418</v>
+        <v>43466</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3904,10 +3892,10 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="G102" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -3917,11 +3905,11 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>43413</v>
+        <v>43436</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3934,30 +3922,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E103" t="n">
+        <v>42.5</v>
       </c>
       <c r="F103" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="G103" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>43497</v>
+        <v>43450</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3976,10 +3962,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="G104" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -3989,11 +3975,11 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>43441</v>
+        <v>330601</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4012,24 +3998,24 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>25.3</v>
+        <v>24.5</v>
       </c>
       <c r="G105" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>43424</v>
+        <v>43466</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4048,24 +4034,24 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>23.7</v>
+        <v>25.8</v>
       </c>
       <c r="G106" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>43413</v>
+        <v>43495</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4084,10 +4070,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>25.8</v>
+        <v>26.5</v>
       </c>
       <c r="G107" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -4097,11 +4083,11 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>330601</v>
+        <v>43436</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4114,30 +4100,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E108" t="n">
+        <v>42.5</v>
       </c>
       <c r="F108" t="n">
-        <v>23.5</v>
+        <v>25.7</v>
       </c>
       <c r="G108" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>43421</v>
+        <v>43441</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4147,33 +4131,33 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="G109" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>43497</v>
+        <v>43450</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4192,24 +4176,24 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="G110" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4219,31 +4203,33 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>3.3</v>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F111" t="n">
-        <v>24.2</v>
+        <v>22.4</v>
       </c>
       <c r="G111" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>fognight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4258,14 +4244,14 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>14</v>
+        <v>25.8</v>
       </c>
       <c r="G112" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4275,11 +4261,11 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>43467</v>
+        <v>43424</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4298,24 +4284,24 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>25.8</v>
+        <v>23.7</v>
       </c>
       <c r="G113" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>43418</v>
+        <v>43413</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4334,7 +4320,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="G114" t="n">
         <v>87</v>
@@ -4347,11 +4333,11 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>43450</v>
+        <v>43418</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4370,24 +4356,24 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>25.1</v>
+        <v>26.1</v>
       </c>
       <c r="G115" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4397,33 +4383,33 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>22.4</v>
+        <v>23.5</v>
       </c>
       <c r="G116" t="n">
         <v>94</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>43441</v>
+        <v>43473</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4433,33 +4419,33 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
           <t>TR</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
       <c r="F117" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G117" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>43436</v>
+        <v>43486</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4473,27 +4459,27 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>42.5</v>
+        <v>3.3</v>
       </c>
       <c r="F118" t="n">
-        <v>25.7</v>
+        <v>24.2</v>
       </c>
       <c r="G118" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fognight</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>43495</v>
+        <v>43497</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4512,10 +4498,10 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>26.5</v>
+        <v>24.9</v>
       </c>
       <c r="G119" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -4525,37 +4511,677 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
+        <v>330601</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>MATTALA</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2025-12-29 0230</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="G120" t="n">
+        <v>95</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>partlycloudynight</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>43410</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>MULLATIVU</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2025-12-29 0530</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="G121" t="n">
+        <v>84</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>fairnight</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>721501</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>POLONNARUWA</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2025-12-29 0530</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E122" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="G122" t="n">
+        <v>95</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>showers</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>821501</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>MONARAGALA</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2025-12-29 0530</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="G123" t="n">
+        <v>91</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>fairnight</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>330601</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>MATTALA</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2025-12-29 0530</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="G124" t="n">
+        <v>95</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>fairnight</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>HAMBANTOTA</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2025-12-29 0530</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="G125" t="n">
+        <v>89</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>fairnight</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>43495</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>GALLE</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2025-12-29 0530</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G126" t="n">
+        <v>91</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>partlycloudynight</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>43486</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>RATNAPURA</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2025-12-29 0530</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="G127" t="n">
+        <v>95</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>fog</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>43479</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>BADULLA</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2025-12-29 0530</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="G128" t="n">
+        <v>98</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>partlycloudynight</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>43467</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>RATMALANA</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2025-12-29 0530</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="G129" t="n">
+        <v>85</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>fairnight</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
         <v>43466</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>COLOMBO</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>2025-12-29 0230</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2025-12-29 0530</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>25</v>
+      </c>
+      <c r="G130" t="n">
+        <v>85</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>partlycloudynight</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>43444</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>KATUGASTOTA</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2025-12-29 0530</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="G131" t="n">
+        <v>93</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>43441</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>KURUNEGALA</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2025-12-29 0530</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>4</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4</v>
+      </c>
+      <c r="F132" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="G132" t="n">
+        <v>95</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>43436</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>BATTICALOA</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2025-12-29 0530</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E133" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="G133" t="n">
+        <v>94</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>43424</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>PUTTALAM</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2025-12-29 0530</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="G134" t="n">
+        <v>94</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>mist</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>43421</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ANURADHAPURA</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2025-12-29 0530</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="G135" t="n">
+        <v>95</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>fairnight</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>43418</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>TRINCOMALEE</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2025-12-29 0530</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>26</v>
+      </c>
+      <c r="G136" t="n">
+        <v>87</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>fairnight</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>43415</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>VAVUNIYA</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2025-12-29 0530</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>24</v>
+      </c>
+      <c r="G137" t="n">
+        <v>96</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>partlycloudynight</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>43413</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>MANNAR</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2025-12-29 0530</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
         <v>25.8</v>
       </c>
-      <c r="G120" t="n">
-        <v>80</v>
-      </c>
-      <c r="H120" t="inlineStr">
+      <c r="G138" t="n">
+        <v>87</v>
+      </c>
+      <c r="H138" t="inlineStr">
         <is>
           <t>partlycloudynight</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>43473</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2025-12-29 0530</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>95</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>43450</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>KATUNAYAKE</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2025-12-29 0530</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="G140" t="n">
+        <v>91</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>mist</t>
         </is>
       </c>
     </row>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,11 +775,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -809,11 +809,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43441</v>
+        <v>43421</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>24.6</v>
+        <v>23.7</v>
       </c>
       <c r="G12" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -843,11 +843,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>21.2</v>
+        <v>23.9</v>
       </c>
       <c r="G13" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43450</v>
+        <v>43436</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -894,28 +894,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="G14" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43497</v>
+        <v>43418</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -926,16 +926,14 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E15" t="n">
+        <v>0.2</v>
       </c>
       <c r="F15" t="n">
-        <v>25.2</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -945,11 +943,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43424</v>
+        <v>43413</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -966,24 +964,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>24.6</v>
+        <v>26.1</v>
       </c>
       <c r="G16" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>330601</v>
+        <v>43466</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1000,24 +998,24 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>24</v>
+        <v>26.3</v>
       </c>
       <c r="G17" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43466</v>
+        <v>43495</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1034,24 +1032,24 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G18" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43413</v>
+        <v>43424</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1068,24 +1066,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>26.1</v>
+        <v>24.6</v>
       </c>
       <c r="G19" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1096,14 +1094,16 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.2</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F20" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="G20" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1113,11 +1113,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1130,28 +1130,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>26.8</v>
+        <v>24.8</v>
       </c>
       <c r="G21" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1168,24 +1168,24 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>23.9</v>
+        <v>21.2</v>
       </c>
       <c r="G22" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43421</v>
+        <v>43441</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="G23" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1215,11 +1215,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G24" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1249,11 +1249,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43495</v>
+        <v>330601</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>25.1</v>
+        <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1283,11 +1283,11 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>330601</v>
+        <v>43450</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1304,24 +1304,24 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="G26" t="n">
         <v>88</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43413</v>
+        <v>43466</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1338,10 +1338,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="G27" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1351,11 +1351,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43473</v>
+        <v>43436</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1368,28 +1368,28 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>15</v>
+        <v>26.4</v>
       </c>
       <c r="G28" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43444</v>
+        <v>43495</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>20.1</v>
+        <v>25</v>
       </c>
       <c r="G29" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1419,11 +1419,11 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43467</v>
+        <v>43424</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1440,10 +1440,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>25.6</v>
+        <v>23.5</v>
       </c>
       <c r="G30" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1453,11 +1453,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1468,28 +1468,30 @@
       <c r="D31" t="n">
         <v>0</v>
       </c>
-      <c r="E31" t="n">
-        <v>0.2</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F31" t="n">
-        <v>25.4</v>
+        <v>23.1</v>
       </c>
       <c r="G31" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43497</v>
+        <v>43441</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1502,14 +1504,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>24.7</v>
+        <v>22.9</v>
       </c>
       <c r="G32" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1553,11 +1555,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43441</v>
+        <v>43418</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1568,16 +1570,14 @@
       <c r="D34" t="n">
         <v>0</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E34" t="n">
+        <v>0.2</v>
       </c>
       <c r="F34" t="n">
-        <v>22.9</v>
+        <v>25.4</v>
       </c>
       <c r="G34" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1587,11 +1587,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43486</v>
+        <v>43467</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1608,24 +1608,24 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>23.1</v>
+        <v>25.6</v>
       </c>
       <c r="G35" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43424</v>
+        <v>43444</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>23.5</v>
+        <v>20.1</v>
       </c>
       <c r="G36" t="n">
         <v>94</v>
@@ -1655,11 +1655,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43495</v>
+        <v>43473</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1676,24 +1676,24 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G37" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43436</v>
+        <v>43413</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1706,28 +1706,28 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>26.4</v>
+        <v>25.6</v>
       </c>
       <c r="G38" t="n">
         <v>87</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43466</v>
+        <v>330601</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1744,10 +1744,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="G39" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1757,11 +1757,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1778,24 +1778,24 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="G40" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43495</v>
+        <v>43479</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>24.5</v>
+        <v>19.6</v>
       </c>
       <c r="G41" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43466</v>
+        <v>43413</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1846,24 +1846,24 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>24.3</v>
+        <v>25.8</v>
       </c>
       <c r="G42" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43415</v>
+        <v>43421</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1876,14 +1876,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>22.4</v>
+        <v>23.1</v>
       </c>
       <c r="G43" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1893,11 +1893,11 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43441</v>
+        <v>43450</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1910,28 +1910,28 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>22</v>
+        <v>23.4</v>
       </c>
       <c r="G44" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43424</v>
+        <v>43467</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1948,24 +1948,24 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>22.6</v>
+        <v>24.6</v>
       </c>
       <c r="G45" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43444</v>
+        <v>43436</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1974,32 +1974,30 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.5</v>
       </c>
       <c r="F46" t="n">
-        <v>19.5</v>
+        <v>25.2</v>
       </c>
       <c r="G46" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2010,28 +2008,30 @@
       <c r="D47" t="n">
         <v>0</v>
       </c>
-      <c r="E47" t="n">
-        <v>0.2</v>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F47" t="n">
-        <v>25.4</v>
+        <v>22.5</v>
       </c>
       <c r="G47" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43497</v>
+        <v>43473</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2048,24 +2048,24 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>23.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>330601</v>
+        <v>43415</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2082,24 +2082,24 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="G49" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43473</v>
+        <v>43497</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2116,24 +2116,24 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>9.800000000000001</v>
+        <v>23.9</v>
       </c>
       <c r="G50" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43479</v>
+        <v>43418</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2142,32 +2142,30 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.2</v>
       </c>
       <c r="F51" t="n">
-        <v>19.6</v>
+        <v>25.4</v>
       </c>
       <c r="G51" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2184,24 +2182,24 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>22.5</v>
+        <v>19.5</v>
       </c>
       <c r="G52" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2210,30 +2208,32 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F53" t="n">
-        <v>25.2</v>
+        <v>22.6</v>
       </c>
       <c r="G53" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43467</v>
+        <v>43441</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2246,14 +2246,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>24.6</v>
+        <v>22</v>
       </c>
       <c r="G54" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2263,11 +2263,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43450</v>
+        <v>330601</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2284,24 +2284,24 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>23.4</v>
+        <v>22.1</v>
       </c>
       <c r="G55" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43421</v>
+        <v>43466</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2314,14 +2314,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>23.1</v>
+        <v>24.3</v>
       </c>
       <c r="G56" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2331,11 +2331,11 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43413</v>
+        <v>43495</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2352,24 +2352,24 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>25.8</v>
+        <v>24.5</v>
       </c>
       <c r="G57" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43476</v>
+        <v>721501</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2378,30 +2378,30 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>17.7</v>
+        <v>25.1</v>
       </c>
       <c r="G58" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43486</v>
+        <v>330601</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2418,24 +2418,24 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>25.2</v>
+        <v>26</v>
       </c>
       <c r="G59" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43421</v>
+        <v>43497</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2448,14 +2448,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>25.3</v>
+        <v>27.7</v>
       </c>
       <c r="G60" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2465,11 +2465,11 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43404</v>
+        <v>43450</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2486,10 +2486,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>26.9</v>
+        <v>26</v>
       </c>
       <c r="G61" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2499,11 +2499,11 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43422</v>
+        <v>43495</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2520,10 +2520,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>24.4</v>
+        <v>26.7</v>
       </c>
       <c r="G62" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2533,11 +2533,11 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43473</v>
+        <v>43444</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2554,24 +2554,24 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>13.9</v>
+        <v>23.2</v>
       </c>
       <c r="G63" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43418</v>
+        <v>43466</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2582,28 +2582,30 @@
       <c r="D64" t="n">
         <v>0</v>
       </c>
-      <c r="E64" t="n">
-        <v>0.2</v>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F64" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="G64" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43441</v>
+        <v>43413</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2616,28 +2618,28 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>25.8</v>
+        <v>26.6</v>
       </c>
       <c r="G65" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43424</v>
+        <v>43436</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2648,30 +2650,28 @@
       <c r="D66" t="n">
         <v>0</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E66" t="n">
+        <v>0.5</v>
       </c>
       <c r="F66" t="n">
-        <v>25.2</v>
+        <v>26.4</v>
       </c>
       <c r="G66" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43467</v>
+        <v>43475</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2680,32 +2680,30 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="E67" t="n">
+        <v>14</v>
       </c>
       <c r="F67" t="n">
-        <v>26.3</v>
+        <v>25</v>
       </c>
       <c r="G67" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>43479</v>
+        <v>43410</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2718,28 +2716,28 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>21</v>
+        <v>27.5</v>
       </c>
       <c r="G68" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43415</v>
+        <v>821501</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2750,13 +2748,11 @@
       <c r="D69" t="n">
         <v>0</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E69" t="n">
+        <v>0.5</v>
       </c>
       <c r="F69" t="n">
-        <v>26</v>
+        <v>25.4</v>
       </c>
       <c r="G69" t="n">
         <v>84</v>
@@ -2769,11 +2765,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>821501</v>
+        <v>43467</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2784,14 +2780,16 @@
       <c r="D70" t="n">
         <v>0</v>
       </c>
-      <c r="E70" t="n">
-        <v>0.5</v>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F70" t="n">
-        <v>25.4</v>
+        <v>26.3</v>
       </c>
       <c r="G70" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2801,11 +2799,11 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43413</v>
+        <v>43479</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2818,14 +2816,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>26.6</v>
+        <v>21</v>
       </c>
       <c r="G71" t="n">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2835,11 +2833,11 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>721501</v>
+        <v>43424</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2850,14 +2848,16 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
-      <c r="E72" t="n">
-        <v>9.800000000000001</v>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F72" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="G72" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2867,11 +2867,11 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2884,14 +2884,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="G73" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2901,11 +2901,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43497</v>
+        <v>43418</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2916,30 +2916,28 @@
       <c r="D74" t="n">
         <v>0</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E74" t="n">
+        <v>0.2</v>
       </c>
       <c r="F74" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="G74" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43450</v>
+        <v>43473</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2956,24 +2954,24 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>26</v>
+        <v>13.9</v>
       </c>
       <c r="G75" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43410</v>
+        <v>43422</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2990,10 +2988,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>27.5</v>
+        <v>24.4</v>
       </c>
       <c r="G76" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3003,11 +3001,11 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43444</v>
+        <v>43404</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3024,10 +3022,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>23.2</v>
+        <v>26.9</v>
       </c>
       <c r="G77" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3037,11 +3035,11 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3054,14 +3052,14 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="G78" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3071,11 +3069,11 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43495</v>
+        <v>43486</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3092,24 +3090,24 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>26.7</v>
+        <v>25.2</v>
       </c>
       <c r="G79" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43436</v>
+        <v>43476</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3118,30 +3116,30 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F80" t="n">
-        <v>26.4</v>
+        <v>17.7</v>
       </c>
       <c r="G80" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43475</v>
+        <v>43415</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3150,30 +3148,32 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>14</v>
-      </c>
-      <c r="E81" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F81" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G81" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>43422</v>
+        <v>43476</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3188,24 +3188,24 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>27.1</v>
+        <v>19.8</v>
       </c>
       <c r="G82" t="n">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>43404</v>
+        <v>721501</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3213,31 +3213,33 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>0</v>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F83" t="n">
-        <v>26.3</v>
+        <v>27</v>
       </c>
       <c r="G83" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>43475</v>
+        <v>821501</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3245,31 +3247,35 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1.1</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F84" t="n">
-        <v>26</v>
+        <v>26.8</v>
       </c>
       <c r="G84" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43410</v>
+        <v>43404</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3277,21 +3283,17 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>27.2</v>
+        <v>26.3</v>
       </c>
       <c r="G85" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3301,11 +3303,11 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>821501</v>
+        <v>43475</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3313,35 +3315,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.1</v>
       </c>
       <c r="F86" t="n">
-        <v>26.8</v>
+        <v>26</v>
       </c>
       <c r="G86" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>43476</v>
+        <v>43410</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3349,31 +3347,35 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F87" t="n">
-        <v>19.8</v>
+        <v>27.2</v>
       </c>
       <c r="G87" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>721501</v>
+        <v>43422</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3381,19 +3383,17 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="D88" t="n">
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="G88" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3475,11 +3475,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>43441</v>
+        <v>330601</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3498,24 +3498,24 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>25.3</v>
+        <v>24.5</v>
       </c>
       <c r="G91" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>43497</v>
+        <v>43450</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3534,10 +3534,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="G92" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -3547,11 +3547,11 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>43413</v>
+        <v>43436</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3564,30 +3564,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E93" t="n">
+        <v>42.5</v>
       </c>
       <c r="F93" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="G93" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>43418</v>
+        <v>43466</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3606,10 +3604,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="G94" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3619,11 +3617,11 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>43424</v>
+        <v>43467</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3642,24 +3640,24 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>24</v>
+        <v>26.7</v>
       </c>
       <c r="G95" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>43421</v>
+        <v>43473</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3674,14 +3672,14 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>23.4</v>
+        <v>13.4</v>
       </c>
       <c r="G96" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -3691,11 +3689,11 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>43444</v>
+        <v>43495</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3714,24 +3712,24 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>22.6</v>
+        <v>27</v>
       </c>
       <c r="G97" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>43495</v>
+        <v>43486</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3744,30 +3742,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E98" t="n">
+        <v>3.3</v>
       </c>
       <c r="F98" t="n">
-        <v>27</v>
+        <v>24.5</v>
       </c>
       <c r="G98" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>43486</v>
+        <v>43421</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3780,28 +3776,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E99" t="n">
-        <v>3.3</v>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F99" t="n">
-        <v>24.5</v>
+        <v>23.4</v>
       </c>
       <c r="G99" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>43473</v>
+        <v>43424</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3816,28 +3814,28 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>13.4</v>
+        <v>24</v>
       </c>
       <c r="G100" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>43467</v>
+        <v>43418</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3856,10 +3854,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>26.7</v>
+        <v>26.1</v>
       </c>
       <c r="G101" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3869,11 +3867,11 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>43466</v>
+        <v>43413</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3892,10 +3890,10 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="G102" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -3905,11 +3903,11 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>43436</v>
+        <v>43497</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3922,28 +3920,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E103" t="n">
-        <v>42.5</v>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F103" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="G103" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3962,24 +3962,24 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>25.8</v>
+        <v>25.3</v>
       </c>
       <c r="G104" t="n">
         <v>82</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>330601</v>
+        <v>43444</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3998,24 +3998,24 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>24.5</v>
+        <v>22.6</v>
       </c>
       <c r="G105" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>43466</v>
+        <v>43418</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4034,24 +4034,24 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="G106" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>43495</v>
+        <v>330601</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4070,24 +4070,24 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>26.5</v>
+        <v>23.5</v>
       </c>
       <c r="G107" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>43436</v>
+        <v>43497</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4100,28 +4100,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E108" t="n">
-        <v>42.5</v>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F108" t="n">
-        <v>25.7</v>
+        <v>24.9</v>
       </c>
       <c r="G108" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>43441</v>
+        <v>43486</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4131,33 +4133,31 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>3.3</v>
       </c>
       <c r="F109" t="n">
-        <v>25</v>
+        <v>24.2</v>
       </c>
       <c r="G109" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fognight</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>43450</v>
+        <v>43473</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4172,28 +4172,28 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>25.1</v>
+        <v>14</v>
       </c>
       <c r="G110" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4203,33 +4203,33 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>22.4</v>
+        <v>23.5</v>
       </c>
       <c r="G111" t="n">
         <v>94</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>43467</v>
+        <v>43413</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4251,7 +4251,7 @@
         <v>25.8</v>
       </c>
       <c r="G112" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4261,11 +4261,11 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>43424</v>
+        <v>43436</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4278,30 +4278,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E113" t="n">
+        <v>42.5</v>
       </c>
       <c r="F113" t="n">
-        <v>23.7</v>
+        <v>25.7</v>
       </c>
       <c r="G113" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>43413</v>
+        <v>43467</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4323,7 +4321,7 @@
         <v>25.8</v>
       </c>
       <c r="G114" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -4333,11 +4331,11 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>43418</v>
+        <v>43444</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4347,33 +4345,33 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>26.1</v>
+        <v>22.4</v>
       </c>
       <c r="G115" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>43421</v>
+        <v>43450</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4392,24 +4390,24 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>23.5</v>
+        <v>25.1</v>
       </c>
       <c r="G116" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>43473</v>
+        <v>43441</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4419,7 +4417,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4428,24 +4426,24 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G117" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>43486</v>
+        <v>43495</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4458,28 +4456,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E118" t="n">
-        <v>3.3</v>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F118" t="n">
-        <v>24.2</v>
+        <v>26.5</v>
       </c>
       <c r="G118" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>fognight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4498,24 +4498,24 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>24.9</v>
+        <v>25.8</v>
       </c>
       <c r="G119" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>330601</v>
+        <v>43424</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4534,24 +4534,24 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="G120" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>43410</v>
+        <v>43436</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4560,30 +4560,30 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="F121" t="n">
-        <v>26.6</v>
+        <v>24.9</v>
       </c>
       <c r="G121" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>721501</v>
+        <v>43424</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4592,30 +4592,30 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="G122" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>821501</v>
+        <v>43421</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4630,10 +4630,10 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
       <c r="G123" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -4643,11 +4643,11 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>330601</v>
+        <v>43450</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4662,24 +4662,24 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>22.5</v>
+        <v>24.9</v>
       </c>
       <c r="G124" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>43497</v>
+        <v>43413</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4694,24 +4694,24 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>24.6</v>
+        <v>25.8</v>
       </c>
       <c r="G125" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>43495</v>
+        <v>43415</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4720,16 +4720,16 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F126" t="n">
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="G126" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -4739,11 +4739,11 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>43486</v>
+        <v>43473</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4755,27 +4755,27 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>23.9</v>
+        <v>14.1</v>
       </c>
       <c r="G127" t="n">
         <v>95</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>fog</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>43479</v>
+        <v>43441</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4784,30 +4784,30 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="E128" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="F128" t="n">
-        <v>20.2</v>
+        <v>23.3</v>
       </c>
       <c r="G128" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>43467</v>
+        <v>43418</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4822,10 +4822,10 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>25.4</v>
+        <v>26</v>
       </c>
       <c r="G129" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -4835,11 +4835,11 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>43466</v>
+        <v>43444</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4848,30 +4848,30 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>25</v>
+        <v>22.2</v>
       </c>
       <c r="G130" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>43444</v>
+        <v>43497</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4880,30 +4880,30 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>22.2</v>
+        <v>24.6</v>
       </c>
       <c r="G131" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4912,30 +4912,30 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>23.3</v>
+        <v>25.4</v>
       </c>
       <c r="G132" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>43436</v>
+        <v>43479</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4944,30 +4944,30 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="E133" t="n">
-        <v>43.2</v>
+        <v>1.8</v>
       </c>
       <c r="F133" t="n">
-        <v>24.9</v>
+        <v>20.2</v>
       </c>
       <c r="G133" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>43424</v>
+        <v>43486</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4979,27 +4979,27 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F134" t="n">
-        <v>23.2</v>
+        <v>23.9</v>
       </c>
       <c r="G134" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fog</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>43421</v>
+        <v>43495</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5014,24 +5014,24 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>23.3</v>
+        <v>25.5</v>
       </c>
       <c r="G135" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>43418</v>
+        <v>330601</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5046,10 +5046,10 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>26</v>
+        <v>22.5</v>
       </c>
       <c r="G136" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
@@ -5059,11 +5059,11 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>43415</v>
+        <v>821501</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5072,30 +5072,30 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>24</v>
+        <v>22.8</v>
       </c>
       <c r="G137" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>43413</v>
+        <v>721501</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5104,30 +5104,30 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F138" t="n">
-        <v>25.8</v>
+        <v>23.6</v>
       </c>
       <c r="G138" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>43473</v>
+        <v>43410</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5139,49 +5139,857 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>14.1</v>
+        <v>26.6</v>
       </c>
       <c r="G139" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>COLOMBO</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2025-12-29 0530</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>25</v>
+      </c>
+      <c r="G140" t="n">
+        <v>85</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>partlycloudynight</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>43467</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>RATMALANA</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="G141" t="n">
+        <v>84</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>haze</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>43473</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="G142" t="n">
+        <v>86</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>43476</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>BANDARAWELA</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F143" t="n">
+        <v>19</v>
+      </c>
+      <c r="G143" t="n">
+        <v>94</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>haze</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>43479</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>BADULLA</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Tr</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F144" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="G144" t="n">
+        <v>98</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>43475</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>POTTUVIL</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G145" t="n">
+        <v>79</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>43495</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>GALLE</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="G146" t="n">
+        <v>88</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>fairday</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>HAMBANTOTA</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>26</v>
+      </c>
+      <c r="G147" t="n">
+        <v>83</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>fairday</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>COLOMBO</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>77</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>330601</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>MATTALA</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G149" t="n">
+        <v>83</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>43486</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>RATNAPURA</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F150" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="G150" t="n">
+        <v>95</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>mist</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
         <v>43450</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>KATUNAYAKE</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>2025-12-29 0530</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0</v>
-      </c>
-      <c r="F140" t="n">
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="G151" t="n">
+        <v>82</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>43424</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>PUTTALAM</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>85</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>43441</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>KURUNEGALA</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E153" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F153" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="G153" t="n">
+        <v>89</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>43436</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>BATTICALOA</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E154" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="F154" t="n">
         <v>24.9</v>
       </c>
-      <c r="G140" t="n">
-        <v>91</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>mist</t>
+      <c r="G154" t="n">
+        <v>95</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>showers</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>43422</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>MAHA ILLUPPALLAMA</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="G155" t="n">
+        <v>95</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>43421</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ANURADHAPURA</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="G156" t="n">
+        <v>93</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>fairday</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>43418</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>TRINCOMALEE</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>27</v>
+      </c>
+      <c r="G157" t="n">
+        <v>84</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>43415</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>VAVUNIYA</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F158" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="G158" t="n">
+        <v>93</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>43413</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>MANNAR</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="G159" t="n">
+        <v>85</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>43410</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>MULLATIVU</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="G160" t="n">
+        <v>82</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JAFFNA</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="G161" t="n">
+        <v>84</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>821501</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>MONARAGALA</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="G162" t="n">
+        <v>81</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>43444</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>KATUGASTOTA</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="G163" t="n">
+        <v>90</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>721501</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>POLONNARUWA</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E164" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F164" t="n">
+        <v>24</v>
+      </c>
+      <c r="G164" t="n">
+        <v>95</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>cloudy</t>
         </is>
       </c>
     </row>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -775,11 +775,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G11" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -809,11 +809,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43421</v>
+        <v>43441</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="G12" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -843,11 +843,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>23.9</v>
+        <v>21.2</v>
       </c>
       <c r="G13" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -894,28 +894,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>26.8</v>
+        <v>24.8</v>
       </c>
       <c r="G14" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -926,14 +926,16 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.2</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="G15" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -943,11 +945,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43413</v>
+        <v>43424</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -964,24 +966,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>26.1</v>
+        <v>24.6</v>
       </c>
       <c r="G16" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43466</v>
+        <v>43495</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -998,24 +1000,24 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G17" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43495</v>
+        <v>330601</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1032,10 +1034,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>25.1</v>
+        <v>24</v>
       </c>
       <c r="G18" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1045,11 +1047,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43424</v>
+        <v>43413</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1066,24 +1068,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>24.6</v>
+        <v>26.1</v>
       </c>
       <c r="G19" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43497</v>
+        <v>43418</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1094,16 +1096,14 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E20" t="n">
+        <v>0.2</v>
       </c>
       <c r="F20" t="n">
-        <v>25.2</v>
+        <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1113,11 +1113,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43450</v>
+        <v>43436</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1130,28 +1130,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="G21" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1168,24 +1168,24 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>21.2</v>
+        <v>23.9</v>
       </c>
       <c r="G22" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43441</v>
+        <v>43421</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>24.6</v>
+        <v>23.7</v>
       </c>
       <c r="G23" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1215,11 +1215,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1249,11 +1249,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>330601</v>
+        <v>43466</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1270,24 +1270,24 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>24</v>
+        <v>26.3</v>
       </c>
       <c r="G25" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1304,24 +1304,24 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="G26" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43466</v>
+        <v>330601</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1338,10 +1338,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="G27" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1351,11 +1351,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43436</v>
+        <v>43413</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1368,28 +1368,28 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>26.4</v>
+        <v>25.6</v>
       </c>
       <c r="G28" t="n">
         <v>87</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43495</v>
+        <v>43473</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1406,24 +1406,24 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43424</v>
+        <v>43444</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>23.5</v>
+        <v>20.1</v>
       </c>
       <c r="G30" t="n">
         <v>94</v>
@@ -1453,11 +1453,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43486</v>
+        <v>43467</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1474,24 +1474,24 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>23.1</v>
+        <v>25.6</v>
       </c>
       <c r="G31" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43441</v>
+        <v>43418</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1502,16 +1502,14 @@
       <c r="D32" t="n">
         <v>0</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E32" t="n">
+        <v>0.2</v>
       </c>
       <c r="F32" t="n">
-        <v>22.9</v>
+        <v>25.4</v>
       </c>
       <c r="G32" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1555,11 +1553,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1570,28 +1568,30 @@
       <c r="D34" t="n">
         <v>0</v>
       </c>
-      <c r="E34" t="n">
-        <v>0.2</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F34" t="n">
-        <v>25.4</v>
+        <v>23.1</v>
       </c>
       <c r="G34" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43467</v>
+        <v>43424</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>25.6</v>
+        <v>23.5</v>
       </c>
       <c r="G35" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1621,11 +1621,11 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43444</v>
+        <v>43495</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1642,10 +1642,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>20.1</v>
+        <v>25</v>
       </c>
       <c r="G36" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1655,11 +1655,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43473</v>
+        <v>43436</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1672,28 +1672,28 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>15</v>
+        <v>26.4</v>
       </c>
       <c r="G37" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43413</v>
+        <v>43466</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1710,10 +1710,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="G38" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1723,11 +1723,11 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>330601</v>
+        <v>43450</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1744,24 +1744,24 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="G39" t="n">
         <v>88</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43497</v>
+        <v>43441</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1774,14 +1774,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>24.7</v>
+        <v>22.9</v>
       </c>
       <c r="G40" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1791,11 +1791,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43479</v>
+        <v>43418</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1804,32 +1804,30 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.2</v>
       </c>
       <c r="F41" t="n">
-        <v>19.6</v>
+        <v>25.4</v>
       </c>
       <c r="G41" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43413</v>
+        <v>43495</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1846,24 +1844,24 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>25.8</v>
+        <v>24.5</v>
       </c>
       <c r="G42" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43421</v>
+        <v>43466</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1876,14 +1874,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>23.1</v>
+        <v>24.3</v>
       </c>
       <c r="G43" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1893,11 +1891,11 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43450</v>
+        <v>330601</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1914,24 +1912,24 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>23.4</v>
+        <v>22.1</v>
       </c>
       <c r="G44" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43467</v>
+        <v>43441</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1944,14 +1942,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>24.6</v>
+        <v>22</v>
       </c>
       <c r="G45" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1961,11 +1959,11 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1974,30 +1972,32 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F46" t="n">
-        <v>25.2</v>
+        <v>22.6</v>
       </c>
       <c r="G46" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2014,24 +2014,24 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>22.5</v>
+        <v>19.5</v>
       </c>
       <c r="G47" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43473</v>
+        <v>43497</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2048,24 +2048,24 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>9.800000000000001</v>
+        <v>23.9</v>
       </c>
       <c r="G48" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43415</v>
+        <v>43421</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2078,14 +2078,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>22.4</v>
+        <v>23.1</v>
       </c>
       <c r="G49" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2095,11 +2095,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43497</v>
+        <v>43473</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2116,24 +2116,24 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>23.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2144,28 +2144,30 @@
       <c r="D51" t="n">
         <v>0</v>
       </c>
-      <c r="E51" t="n">
-        <v>0.2</v>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F51" t="n">
-        <v>25.4</v>
+        <v>22.5</v>
       </c>
       <c r="G51" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43444</v>
+        <v>43436</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2174,32 +2176,30 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.5</v>
       </c>
       <c r="F52" t="n">
-        <v>19.5</v>
+        <v>25.2</v>
       </c>
       <c r="G52" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43424</v>
+        <v>43467</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2216,24 +2216,24 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>22.6</v>
+        <v>24.6</v>
       </c>
       <c r="G53" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43441</v>
+        <v>43450</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2246,28 +2246,28 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>22</v>
+        <v>23.4</v>
       </c>
       <c r="G54" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>330601</v>
+        <v>43415</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2284,24 +2284,24 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="G55" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43466</v>
+        <v>43413</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2318,24 +2318,24 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>24.3</v>
+        <v>25.8</v>
       </c>
       <c r="G56" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43495</v>
+        <v>43479</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2344,32 +2344,32 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>24.5</v>
+        <v>19.6</v>
       </c>
       <c r="G57" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>721501</v>
+        <v>43424</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2380,14 +2380,16 @@
       <c r="D58" t="n">
         <v>0</v>
       </c>
-      <c r="E58" t="n">
-        <v>9.800000000000001</v>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F58" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="G58" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2397,11 +2399,11 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2414,14 +2416,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="G59" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2431,11 +2433,11 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43497</v>
+        <v>43418</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2446,30 +2448,28 @@
       <c r="D60" t="n">
         <v>0</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E60" t="n">
+        <v>0.2</v>
       </c>
       <c r="F60" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="G60" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43450</v>
+        <v>43473</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2486,24 +2486,24 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>26</v>
+        <v>13.9</v>
       </c>
       <c r="G61" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43495</v>
+        <v>43486</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2520,24 +2520,24 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>26.7</v>
+        <v>25.2</v>
       </c>
       <c r="G62" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43444</v>
+        <v>43404</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>23.2</v>
+        <v>26.9</v>
       </c>
       <c r="G63" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2567,11 +2567,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2584,14 +2584,14 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="G64" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2601,11 +2601,11 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43413</v>
+        <v>43479</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2618,14 +2618,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>26.6</v>
+        <v>21</v>
       </c>
       <c r="G65" t="n">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2635,11 +2635,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43436</v>
+        <v>43476</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2648,30 +2648,30 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F66" t="n">
-        <v>26.4</v>
+        <v>17.7</v>
       </c>
       <c r="G66" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43475</v>
+        <v>43415</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2680,30 +2680,32 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>14</v>
-      </c>
-      <c r="E67" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F67" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G67" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>43410</v>
+        <v>43422</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2720,10 +2722,10 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>27.5</v>
+        <v>24.4</v>
       </c>
       <c r="G68" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -2733,11 +2735,11 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>821501</v>
+        <v>43467</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2748,14 +2750,16 @@
       <c r="D69" t="n">
         <v>0</v>
       </c>
-      <c r="E69" t="n">
-        <v>0.5</v>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F69" t="n">
-        <v>25.4</v>
+        <v>26.3</v>
       </c>
       <c r="G69" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2765,11 +2769,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43467</v>
+        <v>43475</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2778,32 +2782,30 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="E70" t="n">
+        <v>14</v>
       </c>
       <c r="F70" t="n">
-        <v>26.3</v>
+        <v>25</v>
       </c>
       <c r="G70" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43479</v>
+        <v>43410</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2816,28 +2818,28 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>21</v>
+        <v>27.5</v>
       </c>
       <c r="G71" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43424</v>
+        <v>43436</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2848,30 +2850,28 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E72" t="n">
+        <v>0.5</v>
       </c>
       <c r="F72" t="n">
-        <v>25.2</v>
+        <v>26.4</v>
       </c>
       <c r="G72" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43441</v>
+        <v>43413</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2884,28 +2884,28 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>25.8</v>
+        <v>26.6</v>
       </c>
       <c r="G73" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43418</v>
+        <v>43466</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2916,28 +2916,30 @@
       <c r="D74" t="n">
         <v>0</v>
       </c>
-      <c r="E74" t="n">
-        <v>0.2</v>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F74" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="G74" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43473</v>
+        <v>43444</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2954,24 +2956,24 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>13.9</v>
+        <v>23.2</v>
       </c>
       <c r="G75" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43422</v>
+        <v>43495</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2988,10 +2990,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>24.4</v>
+        <v>26.7</v>
       </c>
       <c r="G76" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3001,11 +3003,11 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43404</v>
+        <v>43450</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3022,10 +3024,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>26.9</v>
+        <v>26</v>
       </c>
       <c r="G77" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3035,11 +3037,11 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43421</v>
+        <v>43497</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3052,14 +3054,14 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>25.3</v>
+        <v>27.7</v>
       </c>
       <c r="G78" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3069,11 +3071,11 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43486</v>
+        <v>330601</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3090,24 +3092,24 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>25.2</v>
+        <v>26</v>
       </c>
       <c r="G79" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43476</v>
+        <v>721501</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3116,30 +3118,30 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>17.7</v>
+        <v>25.1</v>
       </c>
       <c r="G80" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43415</v>
+        <v>821501</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3150,13 +3152,11 @@
       <c r="D81" t="n">
         <v>0</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E81" t="n">
+        <v>0.5</v>
       </c>
       <c r="F81" t="n">
-        <v>26</v>
+        <v>25.4</v>
       </c>
       <c r="G81" t="n">
         <v>84</v>
@@ -3169,11 +3169,11 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>43476</v>
+        <v>43410</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3181,31 +3181,35 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F82" t="n">
-        <v>19.8</v>
+        <v>27.2</v>
       </c>
       <c r="G82" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>721501</v>
+        <v>43422</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3213,19 +3217,17 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="D83" t="n">
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="G83" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3235,11 +3237,11 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>821501</v>
+        <v>43475</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3247,35 +3249,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.1</v>
       </c>
       <c r="F84" t="n">
-        <v>26.8</v>
+        <v>26</v>
       </c>
       <c r="G84" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43404</v>
+        <v>721501</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3283,31 +3281,33 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>0</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F85" t="n">
-        <v>26.3</v>
+        <v>27</v>
       </c>
       <c r="G85" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43475</v>
+        <v>821501</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3315,31 +3315,35 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1.1</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F86" t="n">
-        <v>26</v>
+        <v>26.8</v>
       </c>
       <c r="G86" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>43410</v>
+        <v>43404</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3347,21 +3351,17 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>27.2</v>
+        <v>26.3</v>
       </c>
       <c r="G87" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -3371,11 +3371,11 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>43422</v>
+        <v>43476</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3390,14 +3390,14 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>27.1</v>
+        <v>19.8</v>
       </c>
       <c r="G88" t="n">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -3475,11 +3475,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>330601</v>
+        <v>43444</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3498,24 +3498,24 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>24.5</v>
+        <v>22.6</v>
       </c>
       <c r="G91" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3534,24 +3534,24 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>25.8</v>
+        <v>25.3</v>
       </c>
       <c r="G92" t="n">
         <v>82</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>43436</v>
+        <v>43497</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3564,28 +3564,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E93" t="n">
-        <v>42.5</v>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F93" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="G93" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>43466</v>
+        <v>43413</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3604,10 +3606,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="G94" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3617,11 +3619,11 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>43467</v>
+        <v>43418</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3640,10 +3642,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>26.7</v>
+        <v>26.1</v>
       </c>
       <c r="G95" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -3653,11 +3655,11 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>43473</v>
+        <v>43424</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3672,28 +3674,28 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>13.4</v>
+        <v>24</v>
       </c>
       <c r="G96" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>43495</v>
+        <v>43486</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3706,30 +3708,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E97" t="n">
+        <v>3.3</v>
       </c>
       <c r="F97" t="n">
-        <v>27</v>
+        <v>24.5</v>
       </c>
       <c r="G97" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>43486</v>
+        <v>43421</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3742,28 +3742,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E98" t="n">
-        <v>3.3</v>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F98" t="n">
-        <v>24.5</v>
+        <v>23.4</v>
       </c>
       <c r="G98" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>43421</v>
+        <v>43473</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3778,14 +3780,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>23.4</v>
+        <v>13.4</v>
       </c>
       <c r="G99" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3795,11 +3797,11 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>43424</v>
+        <v>43467</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3818,24 +3820,24 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>24</v>
+        <v>26.7</v>
       </c>
       <c r="G100" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>43418</v>
+        <v>43466</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3854,10 +3856,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="G101" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3867,11 +3869,11 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>43413</v>
+        <v>43436</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3884,30 +3886,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E102" t="n">
+        <v>42.5</v>
       </c>
       <c r="F102" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="G102" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>43497</v>
+        <v>43450</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3926,10 +3926,10 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="G103" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -3939,11 +3939,11 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>43441</v>
+        <v>330601</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3962,24 +3962,24 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>25.3</v>
+        <v>24.5</v>
       </c>
       <c r="G104" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>43444</v>
+        <v>43495</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3998,24 +3998,24 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>22.6</v>
+        <v>27</v>
       </c>
       <c r="G105" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>43418</v>
+        <v>43444</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4025,33 +4025,33 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>26.1</v>
+        <v>22.4</v>
       </c>
       <c r="G106" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>330601</v>
+        <v>43424</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4070,24 +4070,24 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="G107" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4106,24 +4106,24 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>24.9</v>
+        <v>25.8</v>
       </c>
       <c r="G108" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>43486</v>
+        <v>43495</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4136,28 +4136,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E109" t="n">
-        <v>3.3</v>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F109" t="n">
-        <v>24.2</v>
+        <v>26.5</v>
       </c>
       <c r="G109" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>fognight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>43473</v>
+        <v>43441</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4167,7 +4169,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4176,24 +4178,24 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G110" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>43421</v>
+        <v>43450</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4212,24 +4214,24 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>23.5</v>
+        <v>25.1</v>
       </c>
       <c r="G111" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>43413</v>
+        <v>43467</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4251,7 +4253,7 @@
         <v>25.8</v>
       </c>
       <c r="G112" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4261,11 +4263,11 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>43436</v>
+        <v>43497</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4278,28 +4280,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E113" t="n">
-        <v>42.5</v>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F113" t="n">
-        <v>25.7</v>
+        <v>24.9</v>
       </c>
       <c r="G113" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>43467</v>
+        <v>43413</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4321,7 +4325,7 @@
         <v>25.8</v>
       </c>
       <c r="G114" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -4331,11 +4335,11 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4345,33 +4349,33 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>22.4</v>
+        <v>23.5</v>
       </c>
       <c r="G115" t="n">
         <v>94</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>43450</v>
+        <v>43473</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4386,28 +4390,28 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>25.1</v>
+        <v>14</v>
       </c>
       <c r="G116" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>43441</v>
+        <v>43486</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4417,33 +4421,31 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>3.3</v>
       </c>
       <c r="F117" t="n">
-        <v>25</v>
+        <v>24.2</v>
       </c>
       <c r="G117" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fognight</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>43495</v>
+        <v>330601</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4462,24 +4464,24 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>26.5</v>
+        <v>23.5</v>
       </c>
       <c r="G118" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>43466</v>
+        <v>43418</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4498,24 +4500,24 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="G119" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>43424</v>
+        <v>43436</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4528,30 +4530,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E120" t="n">
+        <v>42.5</v>
       </c>
       <c r="F120" t="n">
-        <v>23.7</v>
+        <v>25.7</v>
       </c>
       <c r="G120" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>43436</v>
+        <v>43479</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4560,30 +4560,30 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="E121" t="n">
-        <v>43.2</v>
+        <v>1.8</v>
       </c>
       <c r="F121" t="n">
-        <v>24.9</v>
+        <v>20.2</v>
       </c>
       <c r="G121" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>43424</v>
+        <v>43486</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4595,27 +4595,27 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F122" t="n">
-        <v>23.2</v>
+        <v>23.9</v>
       </c>
       <c r="G122" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fog</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>43421</v>
+        <v>43495</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4630,24 +4630,24 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>23.3</v>
+        <v>25.5</v>
       </c>
       <c r="G123" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>43450</v>
+        <v>43466</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4662,24 +4662,24 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="G124" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>43413</v>
+        <v>721501</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4688,30 +4688,30 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F125" t="n">
-        <v>25.8</v>
+        <v>23.6</v>
       </c>
       <c r="G125" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>43415</v>
+        <v>821501</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4720,30 +4720,30 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>24</v>
+        <v>22.8</v>
       </c>
       <c r="G126" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>43473</v>
+        <v>43410</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4755,27 +4755,27 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>14.1</v>
+        <v>26.6</v>
       </c>
       <c r="G127" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4784,30 +4784,30 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>23.3</v>
+        <v>25.4</v>
       </c>
       <c r="G128" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>43418</v>
+        <v>330601</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4822,10 +4822,10 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>26</v>
+        <v>22.5</v>
       </c>
       <c r="G129" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -4835,11 +4835,11 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>43444</v>
+        <v>43497</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4848,30 +4848,30 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>22.2</v>
+        <v>24.6</v>
       </c>
       <c r="G130" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>43497</v>
+        <v>43413</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4886,24 +4886,24 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>24.6</v>
+        <v>25.8</v>
       </c>
       <c r="G131" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>43467</v>
+        <v>43418</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4918,10 +4918,10 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>25.4</v>
+        <v>26</v>
       </c>
       <c r="G132" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
@@ -4931,11 +4931,11 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>43479</v>
+        <v>43441</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4944,30 +4944,30 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="E133" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="F133" t="n">
-        <v>20.2</v>
+        <v>23.3</v>
       </c>
       <c r="G133" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>43486</v>
+        <v>43473</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4979,27 +4979,27 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>23.9</v>
+        <v>14.1</v>
       </c>
       <c r="G134" t="n">
         <v>95</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>fog</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>43495</v>
+        <v>43415</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5008,16 +5008,16 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F135" t="n">
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="G135" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
@@ -5027,11 +5027,11 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>330601</v>
+        <v>43450</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5046,24 +5046,24 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>22.5</v>
+        <v>24.9</v>
       </c>
       <c r="G136" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>821501</v>
+        <v>43421</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5078,10 +5078,10 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
       <c r="G137" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
@@ -5091,11 +5091,11 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>721501</v>
+        <v>43424</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5104,30 +5104,30 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="G138" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>43410</v>
+        <v>43436</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5136,30 +5136,30 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="F139" t="n">
-        <v>26.6</v>
+        <v>24.9</v>
       </c>
       <c r="G139" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>43466</v>
+        <v>43444</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5168,20 +5168,20 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>25</v>
+        <v>22.2</v>
       </c>
       <c r="G140" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -775,11 +775,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -809,11 +809,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43441</v>
+        <v>43421</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>24.6</v>
+        <v>23.7</v>
       </c>
       <c r="G12" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -843,11 +843,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>21.2</v>
+        <v>23.9</v>
       </c>
       <c r="G13" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43450</v>
+        <v>43436</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -894,28 +894,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="G14" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43497</v>
+        <v>43418</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -926,16 +926,14 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E15" t="n">
+        <v>0.2</v>
       </c>
       <c r="F15" t="n">
-        <v>25.2</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -945,11 +943,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43424</v>
+        <v>43413</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -966,24 +964,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>24.6</v>
+        <v>26.1</v>
       </c>
       <c r="G16" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43495</v>
+        <v>330601</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1000,10 +998,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>25.1</v>
+        <v>24</v>
       </c>
       <c r="G17" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1013,11 +1011,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>330601</v>
+        <v>43466</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1034,24 +1032,24 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>24</v>
+        <v>26.3</v>
       </c>
       <c r="G18" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43413</v>
+        <v>43424</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1068,24 +1066,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>26.1</v>
+        <v>24.6</v>
       </c>
       <c r="G19" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1096,14 +1094,16 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.2</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F20" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="G20" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1113,11 +1113,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1130,28 +1130,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>26.8</v>
+        <v>24.8</v>
       </c>
       <c r="G21" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1168,24 +1168,24 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>23.9</v>
+        <v>21.2</v>
       </c>
       <c r="G22" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43421</v>
+        <v>43441</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="G23" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1215,11 +1215,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G24" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1249,11 +1249,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43466</v>
+        <v>43495</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1270,24 +1270,24 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G25" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43497</v>
+        <v>43441</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1300,14 +1300,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>24.7</v>
+        <v>22.9</v>
       </c>
       <c r="G26" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1317,11 +1317,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>330601</v>
+        <v>43450</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1338,24 +1338,24 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="G27" t="n">
         <v>88</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43413</v>
+        <v>43466</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1372,10 +1372,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="G28" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1385,11 +1385,11 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43473</v>
+        <v>43436</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1402,28 +1402,28 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>15</v>
+        <v>26.4</v>
       </c>
       <c r="G29" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43444</v>
+        <v>43495</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1440,10 +1440,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>20.1</v>
+        <v>25</v>
       </c>
       <c r="G30" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1453,11 +1453,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43467</v>
+        <v>43424</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>25.6</v>
+        <v>23.5</v>
       </c>
       <c r="G31" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1487,11 +1487,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1502,18 +1502,20 @@
       <c r="D32" t="n">
         <v>0</v>
       </c>
-      <c r="E32" t="n">
-        <v>0.2</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F32" t="n">
-        <v>25.4</v>
+        <v>23.1</v>
       </c>
       <c r="G32" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
@@ -1553,11 +1555,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43486</v>
+        <v>43467</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1574,24 +1576,24 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>23.1</v>
+        <v>25.6</v>
       </c>
       <c r="G34" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43424</v>
+        <v>43444</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1608,7 +1610,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>23.5</v>
+        <v>20.1</v>
       </c>
       <c r="G35" t="n">
         <v>94</v>
@@ -1621,11 +1623,11 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43495</v>
+        <v>43473</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1642,24 +1644,24 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G36" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43436</v>
+        <v>43413</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1672,28 +1674,28 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>26.4</v>
+        <v>25.6</v>
       </c>
       <c r="G37" t="n">
         <v>87</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43466</v>
+        <v>330601</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1710,10 +1712,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="G38" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1723,11 +1725,11 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1744,24 +1746,24 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="G39" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43441</v>
+        <v>43418</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1772,16 +1774,14 @@
       <c r="D40" t="n">
         <v>0</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E40" t="n">
+        <v>0.2</v>
       </c>
       <c r="F40" t="n">
-        <v>22.9</v>
+        <v>25.4</v>
       </c>
       <c r="G40" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1791,11 +1791,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1806,28 +1806,30 @@
       <c r="D41" t="n">
         <v>0</v>
       </c>
-      <c r="E41" t="n">
-        <v>0.2</v>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F41" t="n">
-        <v>25.4</v>
+        <v>22.5</v>
       </c>
       <c r="G41" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43495</v>
+        <v>43479</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1836,32 +1838,32 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>24.5</v>
+        <v>19.6</v>
       </c>
       <c r="G42" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43466</v>
+        <v>43413</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1878,24 +1880,24 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>24.3</v>
+        <v>25.8</v>
       </c>
       <c r="G43" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>330601</v>
+        <v>43415</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1912,24 +1914,24 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="G44" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43441</v>
+        <v>43450</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1942,28 +1944,28 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>22</v>
+        <v>23.4</v>
       </c>
       <c r="G45" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43424</v>
+        <v>43467</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1980,24 +1982,24 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>22.6</v>
+        <v>24.6</v>
       </c>
       <c r="G46" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43444</v>
+        <v>43436</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2006,32 +2008,30 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.5</v>
       </c>
       <c r="F47" t="n">
-        <v>19.5</v>
+        <v>25.2</v>
       </c>
       <c r="G47" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43497</v>
+        <v>43473</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2048,24 +2048,24 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>23.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43421</v>
+        <v>43466</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2078,14 +2078,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>23.1</v>
+        <v>24.3</v>
       </c>
       <c r="G49" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2095,11 +2095,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43473</v>
+        <v>43497</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2116,24 +2116,24 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>9.800000000000001</v>
+        <v>23.9</v>
       </c>
       <c r="G50" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2150,24 +2150,24 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>22.5</v>
+        <v>19.5</v>
       </c>
       <c r="G51" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2176,30 +2176,32 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F52" t="n">
-        <v>25.2</v>
+        <v>22.6</v>
       </c>
       <c r="G52" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43467</v>
+        <v>43441</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2212,14 +2214,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>24.6</v>
+        <v>22</v>
       </c>
       <c r="G53" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2229,11 +2231,11 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43450</v>
+        <v>330601</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2250,24 +2252,24 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>23.4</v>
+        <v>22.1</v>
       </c>
       <c r="G54" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43415</v>
+        <v>43421</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2280,14 +2282,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>22.4</v>
+        <v>23.1</v>
       </c>
       <c r="G55" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2297,11 +2299,11 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43413</v>
+        <v>43495</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2318,24 +2320,24 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>25.8</v>
+        <v>24.5</v>
       </c>
       <c r="G56" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43479</v>
+        <v>43418</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2344,32 +2346,30 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.2</v>
       </c>
       <c r="F57" t="n">
-        <v>19.6</v>
+        <v>25.4</v>
       </c>
       <c r="G57" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43424</v>
+        <v>43436</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2380,30 +2380,28 @@
       <c r="D58" t="n">
         <v>0</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E58" t="n">
+        <v>0.5</v>
       </c>
       <c r="F58" t="n">
-        <v>25.2</v>
+        <v>26.4</v>
       </c>
       <c r="G58" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43441</v>
+        <v>43413</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2416,28 +2414,28 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>25.8</v>
+        <v>26.6</v>
       </c>
       <c r="G59" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43418</v>
+        <v>43466</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2448,28 +2446,30 @@
       <c r="D60" t="n">
         <v>0</v>
       </c>
-      <c r="E60" t="n">
-        <v>0.2</v>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F60" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="G60" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43473</v>
+        <v>43444</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2486,24 +2486,24 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>13.9</v>
+        <v>23.2</v>
       </c>
       <c r="G61" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43486</v>
+        <v>330601</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2520,24 +2520,24 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>25.2</v>
+        <v>26</v>
       </c>
       <c r="G62" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43404</v>
+        <v>43450</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>26.9</v>
+        <v>26</v>
       </c>
       <c r="G63" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2567,11 +2567,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43421</v>
+        <v>43497</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2584,14 +2584,14 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>25.3</v>
+        <v>27.7</v>
       </c>
       <c r="G64" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2601,11 +2601,11 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43479</v>
+        <v>43410</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2618,28 +2618,28 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>21</v>
+        <v>27.5</v>
       </c>
       <c r="G65" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43476</v>
+        <v>721501</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2648,30 +2648,30 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>17.7</v>
+        <v>25.1</v>
       </c>
       <c r="G66" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43415</v>
+        <v>821501</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2682,13 +2682,11 @@
       <c r="D67" t="n">
         <v>0</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E67" t="n">
+        <v>0.5</v>
       </c>
       <c r="F67" t="n">
-        <v>26</v>
+        <v>25.4</v>
       </c>
       <c r="G67" t="n">
         <v>84</v>
@@ -2701,11 +2699,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>43422</v>
+        <v>43495</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2722,10 +2720,10 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>24.4</v>
+        <v>26.7</v>
       </c>
       <c r="G68" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -2735,11 +2733,11 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43467</v>
+        <v>43475</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2748,32 +2746,30 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="E69" t="n">
+        <v>14</v>
       </c>
       <c r="F69" t="n">
-        <v>26.3</v>
+        <v>25</v>
       </c>
       <c r="G69" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43475</v>
+        <v>43415</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2782,30 +2778,32 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>14</v>
-      </c>
-      <c r="E70" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F70" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G70" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43410</v>
+        <v>43422</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2822,10 +2820,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>27.5</v>
+        <v>24.4</v>
       </c>
       <c r="G71" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2835,11 +2833,11 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43436</v>
+        <v>43476</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2848,30 +2846,30 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F72" t="n">
-        <v>26.4</v>
+        <v>17.7</v>
       </c>
       <c r="G72" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43413</v>
+        <v>43479</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2884,14 +2882,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>26.6</v>
+        <v>21</v>
       </c>
       <c r="G73" t="n">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2901,11 +2899,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2918,14 +2916,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="G74" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2935,11 +2933,11 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43444</v>
+        <v>43404</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2956,10 +2954,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>23.2</v>
+        <v>26.9</v>
       </c>
       <c r="G75" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2969,11 +2967,11 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43495</v>
+        <v>43486</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2990,24 +2988,24 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>26.7</v>
+        <v>25.2</v>
       </c>
       <c r="G76" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43450</v>
+        <v>43473</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3024,24 +3022,24 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>26</v>
+        <v>13.9</v>
       </c>
       <c r="G77" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43497</v>
+        <v>43418</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3052,30 +3050,28 @@
       <c r="D78" t="n">
         <v>0</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E78" t="n">
+        <v>0.2</v>
       </c>
       <c r="F78" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="G78" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3088,14 +3084,14 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="G79" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3105,11 +3101,11 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>721501</v>
+        <v>43424</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3120,14 +3116,16 @@
       <c r="D80" t="n">
         <v>0</v>
       </c>
-      <c r="E80" t="n">
-        <v>9.800000000000001</v>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F80" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="G80" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3137,11 +3135,11 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>821501</v>
+        <v>43467</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3152,14 +3150,16 @@
       <c r="D81" t="n">
         <v>0</v>
       </c>
-      <c r="E81" t="n">
-        <v>0.5</v>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F81" t="n">
-        <v>25.4</v>
+        <v>26.3</v>
       </c>
       <c r="G81" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3169,11 +3169,11 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>43410</v>
+        <v>43404</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3181,21 +3181,17 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>27.2</v>
+        <v>26.3</v>
       </c>
       <c r="G82" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3205,11 +3201,11 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>43422</v>
+        <v>43476</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3224,24 +3220,24 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>27.1</v>
+        <v>19.8</v>
       </c>
       <c r="G83" t="n">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>43475</v>
+        <v>821501</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3249,31 +3245,35 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1.1</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F84" t="n">
-        <v>26</v>
+        <v>26.8</v>
       </c>
       <c r="G84" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>721501</v>
+        <v>43422</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3281,19 +3281,17 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="D85" t="n">
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="G85" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3303,11 +3301,11 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>821501</v>
+        <v>43475</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3315,35 +3313,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.1</v>
       </c>
       <c r="F86" t="n">
-        <v>26.8</v>
+        <v>26</v>
       </c>
       <c r="G86" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>43404</v>
+        <v>721501</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3351,31 +3345,33 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>0</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F87" t="n">
-        <v>26.3</v>
+        <v>27</v>
       </c>
       <c r="G87" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>43476</v>
+        <v>43410</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3383,21 +3379,25 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F88" t="n">
-        <v>19.8</v>
+        <v>27.2</v>
       </c>
       <c r="G88" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
@@ -3475,11 +3475,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>43444</v>
+        <v>43495</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3498,24 +3498,24 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>22.6</v>
+        <v>27</v>
       </c>
       <c r="G91" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>43441</v>
+        <v>330601</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3534,24 +3534,24 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>25.3</v>
+        <v>24.5</v>
       </c>
       <c r="G92" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>43497</v>
+        <v>43450</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3570,10 +3570,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="G93" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -3583,11 +3583,11 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>43413</v>
+        <v>43436</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3600,30 +3600,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E94" t="n">
+        <v>42.5</v>
       </c>
       <c r="F94" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="G94" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>43418</v>
+        <v>43466</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3642,10 +3640,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="G95" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -3655,11 +3653,11 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>43424</v>
+        <v>43467</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3678,24 +3676,24 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>24</v>
+        <v>26.7</v>
       </c>
       <c r="G96" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>43486</v>
+        <v>43421</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3708,28 +3706,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E97" t="n">
-        <v>3.3</v>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F97" t="n">
-        <v>24.5</v>
+        <v>23.4</v>
       </c>
       <c r="G97" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>43421</v>
+        <v>43473</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3744,14 +3744,14 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>23.4</v>
+        <v>13.4</v>
       </c>
       <c r="G98" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -3761,11 +3761,11 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>43473</v>
+        <v>43424</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3780,28 +3780,28 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>13.4</v>
+        <v>24</v>
       </c>
       <c r="G99" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>43467</v>
+        <v>43418</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3820,10 +3820,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>26.7</v>
+        <v>26.1</v>
       </c>
       <c r="G100" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -3833,11 +3833,11 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>43466</v>
+        <v>43413</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="G101" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3869,11 +3869,11 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>43436</v>
+        <v>43497</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3886,28 +3886,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E102" t="n">
-        <v>42.5</v>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F102" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="G102" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3926,24 +3928,24 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>25.8</v>
+        <v>25.3</v>
       </c>
       <c r="G103" t="n">
         <v>82</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>330601</v>
+        <v>43444</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3962,24 +3964,24 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>24.5</v>
+        <v>22.6</v>
       </c>
       <c r="G104" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>43495</v>
+        <v>43486</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3992,30 +3994,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E105" t="n">
+        <v>3.3</v>
       </c>
       <c r="F105" t="n">
-        <v>27</v>
+        <v>24.5</v>
       </c>
       <c r="G105" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4025,33 +4025,33 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>22.4</v>
+        <v>23.5</v>
       </c>
       <c r="G106" t="n">
         <v>94</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>43424</v>
+        <v>43436</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4064,30 +4064,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E107" t="n">
+        <v>42.5</v>
       </c>
       <c r="F107" t="n">
-        <v>23.7</v>
+        <v>25.7</v>
       </c>
       <c r="G107" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>43466</v>
+        <v>43418</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4106,24 +4104,24 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="G108" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>43495</v>
+        <v>330601</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4142,24 +4140,24 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>26.5</v>
+        <v>23.5</v>
       </c>
       <c r="G109" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>43441</v>
+        <v>43486</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4169,33 +4167,31 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>3.3</v>
       </c>
       <c r="F110" t="n">
-        <v>25</v>
+        <v>24.2</v>
       </c>
       <c r="G110" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fognight</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>43450</v>
+        <v>43473</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4210,28 +4206,28 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>25.1</v>
+        <v>14</v>
       </c>
       <c r="G111" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>43467</v>
+        <v>43413</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4253,7 +4249,7 @@
         <v>25.8</v>
       </c>
       <c r="G112" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4263,11 +4259,11 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4286,24 +4282,24 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>24.9</v>
+        <v>25.8</v>
       </c>
       <c r="G113" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>43413</v>
+        <v>43467</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4325,7 +4321,7 @@
         <v>25.8</v>
       </c>
       <c r="G114" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -4335,11 +4331,11 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>43421</v>
+        <v>43450</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4358,24 +4354,24 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>23.5</v>
+        <v>25.1</v>
       </c>
       <c r="G115" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>43473</v>
+        <v>43441</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4385,7 +4381,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4394,24 +4390,24 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G116" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>43486</v>
+        <v>43495</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4424,28 +4420,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E117" t="n">
-        <v>3.3</v>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F117" t="n">
-        <v>24.2</v>
+        <v>26.5</v>
       </c>
       <c r="G117" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>fognight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>330601</v>
+        <v>43424</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4464,24 +4462,24 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="G118" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>43418</v>
+        <v>43444</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4491,33 +4489,33 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>26.1</v>
+        <v>22.4</v>
       </c>
       <c r="G119" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>43436</v>
+        <v>43497</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4530,28 +4528,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E120" t="n">
-        <v>42.5</v>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F120" t="n">
-        <v>25.7</v>
+        <v>24.9</v>
       </c>
       <c r="G120" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>43479</v>
+        <v>43441</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4560,30 +4560,30 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="E121" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="F121" t="n">
-        <v>20.2</v>
+        <v>23.3</v>
       </c>
       <c r="G121" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>43486</v>
+        <v>43473</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4595,27 +4595,27 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>23.9</v>
+        <v>14.1</v>
       </c>
       <c r="G122" t="n">
         <v>95</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>fog</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>43495</v>
+        <v>43415</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4624,16 +4624,16 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F123" t="n">
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="G123" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -4643,11 +4643,11 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>43466</v>
+        <v>43444</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4656,30 +4656,30 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>25</v>
+        <v>22.2</v>
       </c>
       <c r="G124" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>721501</v>
+        <v>43424</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4688,30 +4688,30 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="G125" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>821501</v>
+        <v>43421</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4726,10 +4726,10 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
       <c r="G126" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -4739,11 +4739,11 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>43410</v>
+        <v>43436</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4752,30 +4752,30 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="F127" t="n">
-        <v>26.6</v>
+        <v>24.9</v>
       </c>
       <c r="G127" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>43467</v>
+        <v>43418</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4790,10 +4790,10 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>25.4</v>
+        <v>26</v>
       </c>
       <c r="G128" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -4803,11 +4803,11 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>330601</v>
+        <v>43450</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4822,24 +4822,24 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>22.5</v>
+        <v>24.9</v>
       </c>
       <c r="G129" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>43497</v>
+        <v>43413</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4854,24 +4854,24 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>24.6</v>
+        <v>25.8</v>
       </c>
       <c r="G130" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>43413</v>
+        <v>721501</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4880,30 +4880,30 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F131" t="n">
-        <v>25.8</v>
+        <v>23.6</v>
       </c>
       <c r="G131" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>43418</v>
+        <v>330601</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4918,10 +4918,10 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>26</v>
+        <v>22.5</v>
       </c>
       <c r="G132" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
@@ -4931,11 +4931,11 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4944,30 +4944,30 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>23.3</v>
+        <v>25.4</v>
       </c>
       <c r="G133" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>43473</v>
+        <v>43410</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4979,27 +4979,27 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>14.1</v>
+        <v>26.6</v>
       </c>
       <c r="G134" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>43415</v>
+        <v>821501</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5008,30 +5008,30 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>24</v>
+        <v>22.8</v>
       </c>
       <c r="G135" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>43450</v>
+        <v>43466</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5046,24 +5046,24 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="G136" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>43421</v>
+        <v>43495</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5078,24 +5078,24 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>23.3</v>
+        <v>25.5</v>
       </c>
       <c r="G137" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>43424</v>
+        <v>43486</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5107,27 +5107,27 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F138" t="n">
-        <v>23.2</v>
+        <v>23.9</v>
       </c>
       <c r="G138" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fog</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>43436</v>
+        <v>43479</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5136,30 +5136,30 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="E139" t="n">
-        <v>43.2</v>
+        <v>1.8</v>
       </c>
       <c r="F139" t="n">
-        <v>24.9</v>
+        <v>20.2</v>
       </c>
       <c r="G139" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>43444</v>
+        <v>43497</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5168,20 +5168,20 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>22.2</v>
+        <v>24.6</v>
       </c>
       <c r="G140" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -775,11 +775,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G11" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -809,11 +809,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43421</v>
+        <v>43441</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="G12" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -843,11 +843,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>23.9</v>
+        <v>21.2</v>
       </c>
       <c r="G13" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -894,28 +894,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>26.8</v>
+        <v>24.8</v>
       </c>
       <c r="G14" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -926,14 +926,16 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.2</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="G15" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -943,11 +945,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43413</v>
+        <v>43424</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -964,24 +966,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>26.1</v>
+        <v>24.6</v>
       </c>
       <c r="G16" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>330601</v>
+        <v>43466</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -998,24 +1000,24 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>24</v>
+        <v>26.3</v>
       </c>
       <c r="G17" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43466</v>
+        <v>43495</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1032,24 +1034,24 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G18" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43424</v>
+        <v>43413</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1066,24 +1068,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>24.6</v>
+        <v>26.1</v>
       </c>
       <c r="G19" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43497</v>
+        <v>43418</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1094,16 +1096,14 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E20" t="n">
+        <v>0.2</v>
       </c>
       <c r="F20" t="n">
-        <v>25.2</v>
+        <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1113,11 +1113,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43450</v>
+        <v>43436</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1130,28 +1130,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="G21" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1168,24 +1168,24 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>21.2</v>
+        <v>23.9</v>
       </c>
       <c r="G22" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43441</v>
+        <v>43421</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>24.6</v>
+        <v>23.7</v>
       </c>
       <c r="G23" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1215,11 +1215,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1249,11 +1249,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43495</v>
+        <v>330601</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>25.1</v>
+        <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1283,11 +1283,11 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43441</v>
+        <v>43418</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1298,16 +1298,14 @@
       <c r="D26" t="n">
         <v>0</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E26" t="n">
+        <v>0.2</v>
       </c>
       <c r="F26" t="n">
-        <v>22.9</v>
+        <v>25.4</v>
       </c>
       <c r="G26" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1317,11 +1315,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1338,24 +1336,24 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="G27" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43466</v>
+        <v>330601</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1372,10 +1370,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="G28" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1385,11 +1383,11 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43436</v>
+        <v>43413</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1402,28 +1400,28 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>26.4</v>
+        <v>25.6</v>
       </c>
       <c r="G29" t="n">
         <v>87</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43495</v>
+        <v>43473</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1440,24 +1438,24 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G30" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43424</v>
+        <v>43444</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1474,7 +1472,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>23.5</v>
+        <v>20.1</v>
       </c>
       <c r="G31" t="n">
         <v>94</v>
@@ -1487,11 +1485,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43486</v>
+        <v>43467</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1508,14 +1506,14 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>23.1</v>
+        <v>25.6</v>
       </c>
       <c r="G32" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
@@ -1555,11 +1553,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43467</v>
+        <v>43424</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1576,10 +1574,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>25.6</v>
+        <v>23.5</v>
       </c>
       <c r="G34" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1589,11 +1587,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43444</v>
+        <v>43495</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1610,10 +1608,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>20.1</v>
+        <v>25</v>
       </c>
       <c r="G35" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1623,11 +1621,11 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43473</v>
+        <v>43436</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1640,28 +1638,28 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>15</v>
+        <v>26.4</v>
       </c>
       <c r="G36" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43413</v>
+        <v>43466</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1678,10 +1676,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="G37" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1691,11 +1689,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>330601</v>
+        <v>43450</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1712,24 +1710,24 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="G38" t="n">
         <v>88</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43497</v>
+        <v>43441</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1742,14 +1740,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>24.7</v>
+        <v>22.9</v>
       </c>
       <c r="G39" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1759,11 +1757,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1774,28 +1772,30 @@
       <c r="D40" t="n">
         <v>0</v>
       </c>
-      <c r="E40" t="n">
-        <v>0.2</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F40" t="n">
-        <v>25.4</v>
+        <v>23.1</v>
       </c>
       <c r="G40" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1812,24 +1812,24 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>22.5</v>
+        <v>19.5</v>
       </c>
       <c r="G41" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43479</v>
+        <v>43418</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1838,32 +1838,30 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.2</v>
       </c>
       <c r="F42" t="n">
-        <v>19.6</v>
+        <v>25.4</v>
       </c>
       <c r="G42" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43413</v>
+        <v>43495</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1880,24 +1878,24 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>25.8</v>
+        <v>24.5</v>
       </c>
       <c r="G43" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43415</v>
+        <v>43421</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1910,14 +1908,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>22.4</v>
+        <v>23.1</v>
       </c>
       <c r="G44" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1927,11 +1925,11 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43450</v>
+        <v>330601</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1948,24 +1946,24 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>23.4</v>
+        <v>22.1</v>
       </c>
       <c r="G45" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43467</v>
+        <v>43441</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1978,14 +1976,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>24.6</v>
+        <v>22</v>
       </c>
       <c r="G46" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1995,11 +1993,11 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2008,30 +2006,32 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F47" t="n">
-        <v>25.2</v>
+        <v>22.6</v>
       </c>
       <c r="G47" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43473</v>
+        <v>43497</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2048,24 +2048,24 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>9.800000000000001</v>
+        <v>23.9</v>
       </c>
       <c r="G48" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43466</v>
+        <v>43413</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2082,24 +2082,24 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>24.3</v>
+        <v>25.8</v>
       </c>
       <c r="G49" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43497</v>
+        <v>43473</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2116,24 +2116,24 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>23.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43444</v>
+        <v>43436</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2142,32 +2142,30 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.5</v>
       </c>
       <c r="F51" t="n">
-        <v>19.5</v>
+        <v>25.2</v>
       </c>
       <c r="G51" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43424</v>
+        <v>43467</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2184,24 +2182,24 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>22.6</v>
+        <v>24.6</v>
       </c>
       <c r="G52" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43441</v>
+        <v>43450</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2214,28 +2212,28 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>22</v>
+        <v>23.4</v>
       </c>
       <c r="G53" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>330601</v>
+        <v>43415</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2252,24 +2250,24 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="G54" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43421</v>
+        <v>43466</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2282,14 +2280,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>23.1</v>
+        <v>24.3</v>
       </c>
       <c r="G55" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2299,11 +2297,11 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43495</v>
+        <v>43479</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2312,32 +2310,32 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>24.5</v>
+        <v>19.6</v>
       </c>
       <c r="G56" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2348,28 +2346,30 @@
       <c r="D57" t="n">
         <v>0</v>
       </c>
-      <c r="E57" t="n">
-        <v>0.2</v>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F57" t="n">
-        <v>25.4</v>
+        <v>22.5</v>
       </c>
       <c r="G57" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43436</v>
+        <v>43476</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2378,30 +2378,30 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F58" t="n">
-        <v>26.4</v>
+        <v>17.7</v>
       </c>
       <c r="G58" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43413</v>
+        <v>43479</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2414,14 +2414,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>26.6</v>
+        <v>21</v>
       </c>
       <c r="G59" t="n">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2431,11 +2431,11 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2448,14 +2448,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="G60" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2465,11 +2465,11 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43444</v>
+        <v>43404</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2486,10 +2486,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>23.2</v>
+        <v>26.9</v>
       </c>
       <c r="G61" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2499,11 +2499,11 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2516,14 +2516,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="G62" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2533,11 +2533,11 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43450</v>
+        <v>43473</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2554,24 +2554,24 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>26</v>
+        <v>13.9</v>
       </c>
       <c r="G63" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43497</v>
+        <v>43418</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2582,30 +2582,28 @@
       <c r="D64" t="n">
         <v>0</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E64" t="n">
+        <v>0.2</v>
       </c>
       <c r="F64" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="G64" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43410</v>
+        <v>43422</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2622,10 +2620,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>27.5</v>
+        <v>24.4</v>
       </c>
       <c r="G65" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2635,11 +2633,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>721501</v>
+        <v>43424</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2650,14 +2648,16 @@
       <c r="D66" t="n">
         <v>0</v>
       </c>
-      <c r="E66" t="n">
-        <v>9.800000000000001</v>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F66" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="G66" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2667,11 +2667,11 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>821501</v>
+        <v>43467</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2682,14 +2682,16 @@
       <c r="D67" t="n">
         <v>0</v>
       </c>
-      <c r="E67" t="n">
-        <v>0.5</v>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F67" t="n">
-        <v>25.4</v>
+        <v>26.3</v>
       </c>
       <c r="G67" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2699,11 +2701,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>43495</v>
+        <v>43486</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2720,24 +2722,24 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>26.7</v>
+        <v>25.2</v>
       </c>
       <c r="G68" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43475</v>
+        <v>43415</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2746,30 +2748,32 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>14</v>
-      </c>
-      <c r="E69" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F69" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G69" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43415</v>
+        <v>821501</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2780,13 +2784,11 @@
       <c r="D70" t="n">
         <v>0</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E70" t="n">
+        <v>0.5</v>
       </c>
       <c r="F70" t="n">
-        <v>26</v>
+        <v>25.4</v>
       </c>
       <c r="G70" t="n">
         <v>84</v>
@@ -2799,11 +2801,11 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43422</v>
+        <v>43495</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2820,10 +2822,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>24.4</v>
+        <v>26.7</v>
       </c>
       <c r="G71" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2833,11 +2835,11 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43476</v>
+        <v>721501</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2846,30 +2848,30 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>17.7</v>
+        <v>25.1</v>
       </c>
       <c r="G72" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43479</v>
+        <v>43410</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2882,28 +2884,28 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>21</v>
+        <v>27.5</v>
       </c>
       <c r="G73" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43421</v>
+        <v>43497</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2916,14 +2918,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>25.3</v>
+        <v>27.7</v>
       </c>
       <c r="G74" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2933,11 +2935,11 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43404</v>
+        <v>43450</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2954,10 +2956,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>26.9</v>
+        <v>26</v>
       </c>
       <c r="G75" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2967,11 +2969,11 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43486</v>
+        <v>330601</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2988,24 +2990,24 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>25.2</v>
+        <v>26</v>
       </c>
       <c r="G76" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43473</v>
+        <v>43444</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3022,24 +3024,24 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>13.9</v>
+        <v>23.2</v>
       </c>
       <c r="G77" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43418</v>
+        <v>43466</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3050,28 +3052,30 @@
       <c r="D78" t="n">
         <v>0</v>
       </c>
-      <c r="E78" t="n">
-        <v>0.2</v>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F78" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="G78" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43441</v>
+        <v>43413</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3084,28 +3088,28 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>25.8</v>
+        <v>26.6</v>
       </c>
       <c r="G79" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43424</v>
+        <v>43436</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3116,30 +3120,28 @@
       <c r="D80" t="n">
         <v>0</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E80" t="n">
+        <v>0.5</v>
       </c>
       <c r="F80" t="n">
-        <v>25.2</v>
+        <v>26.4</v>
       </c>
       <c r="G80" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43467</v>
+        <v>43475</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3148,32 +3150,30 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="E81" t="n">
+        <v>14</v>
       </c>
       <c r="F81" t="n">
-        <v>26.3</v>
+        <v>25</v>
       </c>
       <c r="G81" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>43404</v>
+        <v>721501</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3181,31 +3181,33 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>0</v>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F82" t="n">
-        <v>26.3</v>
+        <v>27</v>
       </c>
       <c r="G82" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>43476</v>
+        <v>43410</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3213,31 +3215,35 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F83" t="n">
-        <v>19.8</v>
+        <v>27.2</v>
       </c>
       <c r="G83" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>821501</v>
+        <v>43475</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3245,35 +3251,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.1</v>
       </c>
       <c r="F84" t="n">
-        <v>26.8</v>
+        <v>26</v>
       </c>
       <c r="G84" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43422</v>
+        <v>43476</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3288,24 +3290,24 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>27.1</v>
+        <v>19.8</v>
       </c>
       <c r="G85" t="n">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43475</v>
+        <v>821501</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3313,31 +3315,35 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1.1</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F86" t="n">
-        <v>26</v>
+        <v>26.8</v>
       </c>
       <c r="G86" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>721501</v>
+        <v>43422</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3345,19 +3351,17 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="D87" t="n">
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="G87" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -3367,11 +3371,11 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>43410</v>
+        <v>43404</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3379,21 +3383,17 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>27.2</v>
+        <v>26.3</v>
       </c>
       <c r="G88" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3475,11 +3475,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>43495</v>
+        <v>43486</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3492,30 +3492,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E91" t="n">
+        <v>3.3</v>
       </c>
       <c r="F91" t="n">
-        <v>27</v>
+        <v>24.5</v>
       </c>
       <c r="G91" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>330601</v>
+        <v>43444</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3534,24 +3532,24 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>24.5</v>
+        <v>22.6</v>
       </c>
       <c r="G92" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3570,24 +3568,24 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>25.8</v>
+        <v>25.3</v>
       </c>
       <c r="G93" t="n">
         <v>82</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>43436</v>
+        <v>43497</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3600,28 +3598,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E94" t="n">
-        <v>42.5</v>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F94" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="G94" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>43466</v>
+        <v>43413</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3640,10 +3640,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="G95" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -3653,11 +3653,11 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>43467</v>
+        <v>43418</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3676,10 +3676,10 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>26.7</v>
+        <v>26.1</v>
       </c>
       <c r="G96" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -3689,11 +3689,11 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>43421</v>
+        <v>43473</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3708,14 +3708,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>23.4</v>
+        <v>13.4</v>
       </c>
       <c r="G97" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3725,11 +3725,11 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>43473</v>
+        <v>43424</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3744,28 +3744,28 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>13.4</v>
+        <v>24</v>
       </c>
       <c r="G98" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>43424</v>
+        <v>43467</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3784,24 +3784,24 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>24</v>
+        <v>26.7</v>
       </c>
       <c r="G99" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>43418</v>
+        <v>43466</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3820,10 +3820,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="G100" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -3833,11 +3833,11 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>43413</v>
+        <v>43436</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3850,30 +3850,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E101" t="n">
+        <v>42.5</v>
       </c>
       <c r="F101" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="G101" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>43497</v>
+        <v>43450</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3892,10 +3890,10 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="G102" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -3905,11 +3903,11 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>43441</v>
+        <v>330601</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3928,24 +3926,24 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>25.3</v>
+        <v>24.5</v>
       </c>
       <c r="G103" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>43444</v>
+        <v>43495</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3964,24 +3962,24 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>22.6</v>
+        <v>27</v>
       </c>
       <c r="G104" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>43486</v>
+        <v>43421</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3994,28 +3992,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E105" t="n">
-        <v>3.3</v>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F105" t="n">
-        <v>24.5</v>
+        <v>23.4</v>
       </c>
       <c r="G105" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>43421</v>
+        <v>43450</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4034,24 +4034,24 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>23.5</v>
+        <v>25.1</v>
       </c>
       <c r="G106" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>43436</v>
+        <v>43497</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4064,28 +4064,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E107" t="n">
-        <v>42.5</v>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F107" t="n">
-        <v>25.7</v>
+        <v>24.9</v>
       </c>
       <c r="G107" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>43418</v>
+        <v>43444</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4095,33 +4097,33 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>26.1</v>
+        <v>22.4</v>
       </c>
       <c r="G108" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>330601</v>
+        <v>43424</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4140,24 +4142,24 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="G109" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>43486</v>
+        <v>43495</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4170,28 +4172,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E110" t="n">
-        <v>3.3</v>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F110" t="n">
-        <v>24.2</v>
+        <v>26.5</v>
       </c>
       <c r="G110" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>fognight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>43473</v>
+        <v>43441</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4201,7 +4205,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4210,24 +4214,24 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G111" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>43413</v>
+        <v>43467</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4249,7 +4253,7 @@
         <v>25.8</v>
       </c>
       <c r="G112" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4259,11 +4263,11 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>43466</v>
+        <v>43418</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4282,24 +4286,24 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="G113" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>43467</v>
+        <v>43413</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4321,7 +4325,7 @@
         <v>25.8</v>
       </c>
       <c r="G114" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -4331,11 +4335,11 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>43450</v>
+        <v>43473</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4350,28 +4354,28 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>25.1</v>
+        <v>14</v>
       </c>
       <c r="G115" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>43441</v>
+        <v>43486</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4381,33 +4385,31 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>3.3</v>
       </c>
       <c r="F116" t="n">
-        <v>25</v>
+        <v>24.2</v>
       </c>
       <c r="G116" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fognight</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>43495</v>
+        <v>330601</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4426,24 +4428,24 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>26.5</v>
+        <v>23.5</v>
       </c>
       <c r="G117" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>43424</v>
+        <v>43436</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4456,30 +4458,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E118" t="n">
+        <v>42.5</v>
       </c>
       <c r="F118" t="n">
-        <v>23.7</v>
+        <v>25.7</v>
       </c>
       <c r="G118" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4489,33 +4489,33 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>22.4</v>
+        <v>23.5</v>
       </c>
       <c r="G119" t="n">
         <v>94</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4534,24 +4534,24 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>24.9</v>
+        <v>25.8</v>
       </c>
       <c r="G120" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4560,30 +4560,30 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>23.3</v>
+        <v>25.4</v>
       </c>
       <c r="G121" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>43473</v>
+        <v>43410</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4595,27 +4595,27 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>14.1</v>
+        <v>26.6</v>
       </c>
       <c r="G122" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>43415</v>
+        <v>821501</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4624,30 +4624,30 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>24</v>
+        <v>22.8</v>
       </c>
       <c r="G123" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>43444</v>
+        <v>43497</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4656,30 +4656,30 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>22.2</v>
+        <v>24.6</v>
       </c>
       <c r="G124" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>43424</v>
+        <v>43486</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4691,27 +4691,27 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F125" t="n">
-        <v>23.2</v>
+        <v>23.9</v>
       </c>
       <c r="G125" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fog</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>43421</v>
+        <v>43495</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4726,24 +4726,24 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>23.3</v>
+        <v>25.5</v>
       </c>
       <c r="G126" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>43436</v>
+        <v>43479</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4752,30 +4752,30 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="E127" t="n">
-        <v>43.2</v>
+        <v>1.8</v>
       </c>
       <c r="F127" t="n">
-        <v>24.9</v>
+        <v>20.2</v>
       </c>
       <c r="G127" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>43418</v>
+        <v>330601</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4790,10 +4790,10 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>26</v>
+        <v>22.5</v>
       </c>
       <c r="G128" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -4803,11 +4803,11 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>43450</v>
+        <v>43466</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4822,24 +4822,24 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="G129" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>43413</v>
+        <v>721501</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4848,30 +4848,30 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F130" t="n">
-        <v>25.8</v>
+        <v>23.6</v>
       </c>
       <c r="G130" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>721501</v>
+        <v>43424</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4880,30 +4880,30 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="G131" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>330601</v>
+        <v>43450</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4918,24 +4918,24 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>22.5</v>
+        <v>24.9</v>
       </c>
       <c r="G132" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>43467</v>
+        <v>43418</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4950,10 +4950,10 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>25.4</v>
+        <v>26</v>
       </c>
       <c r="G133" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
@@ -4963,11 +4963,11 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>43410</v>
+        <v>43436</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4976,30 +4976,30 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="F134" t="n">
-        <v>26.6</v>
+        <v>24.9</v>
       </c>
       <c r="G134" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>821501</v>
+        <v>43421</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5014,10 +5014,10 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
       <c r="G135" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
@@ -5027,11 +5027,11 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>43466</v>
+        <v>43444</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5040,30 +5040,30 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>25</v>
+        <v>22.2</v>
       </c>
       <c r="G136" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>43495</v>
+        <v>43415</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5072,16 +5072,16 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F137" t="n">
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="G137" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
@@ -5091,11 +5091,11 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>43486</v>
+        <v>43473</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5107,27 +5107,27 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>23.9</v>
+        <v>14.1</v>
       </c>
       <c r="G138" t="n">
         <v>95</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>fog</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>43479</v>
+        <v>43441</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5136,30 +5136,30 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="E139" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="F139" t="n">
-        <v>20.2</v>
+        <v>23.3</v>
       </c>
       <c r="G139" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>43497</v>
+        <v>43413</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5174,14 +5174,14 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>24.6</v>
+        <v>25.8</v>
       </c>
       <c r="G140" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:H188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,11 +775,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -809,11 +809,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43441</v>
+        <v>43421</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>24.6</v>
+        <v>23.7</v>
       </c>
       <c r="G12" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -843,11 +843,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>21.2</v>
+        <v>23.9</v>
       </c>
       <c r="G13" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43450</v>
+        <v>43436</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -894,28 +894,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="G14" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43497</v>
+        <v>43418</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -926,16 +926,14 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E15" t="n">
+        <v>0.2</v>
       </c>
       <c r="F15" t="n">
-        <v>25.2</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -945,11 +943,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43424</v>
+        <v>43413</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -966,24 +964,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>24.6</v>
+        <v>26.1</v>
       </c>
       <c r="G16" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43466</v>
+        <v>43495</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1000,24 +998,24 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G17" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43495</v>
+        <v>330601</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1034,10 +1032,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>25.1</v>
+        <v>24</v>
       </c>
       <c r="G18" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1047,11 +1045,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43413</v>
+        <v>43424</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1068,24 +1066,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>26.1</v>
+        <v>24.6</v>
       </c>
       <c r="G19" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1096,14 +1094,16 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.2</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F20" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="G20" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1113,11 +1113,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1130,28 +1130,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>26.8</v>
+        <v>24.8</v>
       </c>
       <c r="G21" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1168,24 +1168,24 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>23.9</v>
+        <v>21.2</v>
       </c>
       <c r="G22" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43421</v>
+        <v>43441</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="G23" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1215,11 +1215,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G24" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1249,11 +1249,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>330601</v>
+        <v>43466</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1270,24 +1270,24 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>24</v>
+        <v>26.3</v>
       </c>
       <c r="G25" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1298,28 +1298,30 @@
       <c r="D26" t="n">
         <v>0</v>
       </c>
-      <c r="E26" t="n">
-        <v>0.2</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F26" t="n">
-        <v>25.4</v>
+        <v>23.1</v>
       </c>
       <c r="G26" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43497</v>
+        <v>43441</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1332,14 +1334,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>24.7</v>
+        <v>22.9</v>
       </c>
       <c r="G27" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1349,11 +1351,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>330601</v>
+        <v>43450</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1370,24 +1372,24 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="G28" t="n">
         <v>88</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43413</v>
+        <v>43466</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1404,10 +1406,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="G29" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1417,11 +1419,11 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43473</v>
+        <v>43436</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1434,28 +1436,28 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>15</v>
+        <v>26.4</v>
       </c>
       <c r="G30" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43444</v>
+        <v>43495</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1472,10 +1474,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>20.1</v>
+        <v>25</v>
       </c>
       <c r="G31" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1485,11 +1487,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43467</v>
+        <v>43424</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1506,10 +1508,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>25.6</v>
+        <v>23.5</v>
       </c>
       <c r="G32" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1553,11 +1555,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43424</v>
+        <v>43444</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1574,7 +1576,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>23.5</v>
+        <v>20.1</v>
       </c>
       <c r="G34" t="n">
         <v>94</v>
@@ -1587,11 +1589,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43495</v>
+        <v>43473</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1608,24 +1610,24 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G35" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43436</v>
+        <v>43413</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1638,28 +1640,28 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>26.4</v>
+        <v>25.6</v>
       </c>
       <c r="G36" t="n">
         <v>87</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43466</v>
+        <v>330601</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1676,10 +1678,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="G37" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1689,11 +1691,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1710,24 +1712,24 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="G38" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43441</v>
+        <v>43418</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1738,16 +1740,14 @@
       <c r="D39" t="n">
         <v>0</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E39" t="n">
+        <v>0.2</v>
       </c>
       <c r="F39" t="n">
-        <v>22.9</v>
+        <v>25.4</v>
       </c>
       <c r="G39" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1757,11 +1757,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43486</v>
+        <v>43467</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1778,24 +1778,24 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>23.1</v>
+        <v>25.6</v>
       </c>
       <c r="G40" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43444</v>
+        <v>43436</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1804,32 +1804,30 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5</v>
       </c>
       <c r="F41" t="n">
-        <v>19.5</v>
+        <v>25.2</v>
       </c>
       <c r="G41" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1840,28 +1838,30 @@
       <c r="D42" t="n">
         <v>0</v>
       </c>
-      <c r="E42" t="n">
-        <v>0.2</v>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F42" t="n">
-        <v>25.4</v>
+        <v>22.5</v>
       </c>
       <c r="G42" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43495</v>
+        <v>43479</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1870,32 +1870,32 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>24.5</v>
+        <v>19.6</v>
       </c>
       <c r="G43" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43421</v>
+        <v>43466</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1908,14 +1908,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>23.1</v>
+        <v>24.3</v>
       </c>
       <c r="G44" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1925,11 +1925,11 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>330601</v>
+        <v>43415</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1946,24 +1946,24 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="G45" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43441</v>
+        <v>43450</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1976,28 +1976,28 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>22</v>
+        <v>23.4</v>
       </c>
       <c r="G46" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43424</v>
+        <v>43467</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2014,24 +2014,24 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>22.6</v>
+        <v>24.6</v>
       </c>
       <c r="G47" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43497</v>
+        <v>43473</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2048,14 +2048,14 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>23.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
@@ -2095,11 +2095,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43473</v>
+        <v>43497</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2116,24 +2116,24 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>9.800000000000001</v>
+        <v>23.9</v>
       </c>
       <c r="G50" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2142,30 +2142,32 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F51" t="n">
-        <v>25.2</v>
+        <v>22.6</v>
       </c>
       <c r="G51" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43467</v>
+        <v>43441</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2178,14 +2180,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>24.6</v>
+        <v>22</v>
       </c>
       <c r="G52" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2195,11 +2197,11 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43450</v>
+        <v>330601</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2216,24 +2218,24 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>23.4</v>
+        <v>22.1</v>
       </c>
       <c r="G53" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43415</v>
+        <v>43421</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2246,14 +2248,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>22.4</v>
+        <v>23.1</v>
       </c>
       <c r="G54" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2263,11 +2265,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43466</v>
+        <v>43495</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2284,24 +2286,24 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="G55" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43479</v>
+        <v>43418</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2310,32 +2312,30 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.2</v>
       </c>
       <c r="F56" t="n">
-        <v>19.6</v>
+        <v>25.4</v>
       </c>
       <c r="G56" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2352,24 +2352,24 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>22.5</v>
+        <v>19.5</v>
       </c>
       <c r="G57" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43476</v>
+        <v>721501</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2378,30 +2378,30 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>17.7</v>
+        <v>25.1</v>
       </c>
       <c r="G58" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43479</v>
+        <v>43497</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2414,28 +2414,28 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>21</v>
+        <v>27.7</v>
       </c>
       <c r="G59" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43421</v>
+        <v>43450</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2448,14 +2448,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="G60" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2465,11 +2465,11 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43404</v>
+        <v>330601</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2486,10 +2486,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>26.9</v>
+        <v>26</v>
       </c>
       <c r="G61" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2499,11 +2499,11 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43441</v>
+        <v>43436</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2514,30 +2514,28 @@
       <c r="D62" t="n">
         <v>0</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E62" t="n">
+        <v>0.5</v>
       </c>
       <c r="F62" t="n">
-        <v>25.8</v>
+        <v>26.4</v>
       </c>
       <c r="G62" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43473</v>
+        <v>43466</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2554,24 +2552,24 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>13.9</v>
+        <v>26.4</v>
       </c>
       <c r="G63" t="n">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43418</v>
+        <v>43413</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2582,28 +2580,30 @@
       <c r="D64" t="n">
         <v>0</v>
       </c>
-      <c r="E64" t="n">
-        <v>0.2</v>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F64" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="G64" t="n">
         <v>81</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43422</v>
+        <v>43495</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2620,10 +2620,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>24.4</v>
+        <v>26.7</v>
       </c>
       <c r="G65" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2633,11 +2633,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43424</v>
+        <v>43475</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2646,32 +2646,30 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="E66" t="n">
+        <v>14</v>
       </c>
       <c r="F66" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="G66" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43467</v>
+        <v>43444</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2688,10 +2686,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>26.3</v>
+        <v>23.2</v>
       </c>
       <c r="G67" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2701,11 +2699,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>43486</v>
+        <v>821501</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2716,30 +2714,28 @@
       <c r="D68" t="n">
         <v>0</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E68" t="n">
+        <v>0.5</v>
       </c>
       <c r="F68" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="G68" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43415</v>
+        <v>43410</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2756,10 +2752,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="G69" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2769,11 +2765,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>821501</v>
+        <v>43486</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2784,28 +2780,30 @@
       <c r="D70" t="n">
         <v>0</v>
       </c>
-      <c r="E70" t="n">
-        <v>0.5</v>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F70" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="G70" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43495</v>
+        <v>43467</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2822,10 +2820,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="G71" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2835,11 +2833,11 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>721501</v>
+        <v>43424</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2850,14 +2848,16 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
-      <c r="E72" t="n">
-        <v>9.800000000000001</v>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F72" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="G72" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2867,11 +2867,11 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43410</v>
+        <v>43422</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2888,10 +2888,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>27.5</v>
+        <v>24.4</v>
       </c>
       <c r="G73" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2901,11 +2901,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43497</v>
+        <v>43418</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2916,30 +2916,28 @@
       <c r="D74" t="n">
         <v>0</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E74" t="n">
+        <v>0.2</v>
       </c>
       <c r="F74" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="G74" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43450</v>
+        <v>43473</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2956,24 +2954,24 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>26</v>
+        <v>13.9</v>
       </c>
       <c r="G75" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2986,14 +2984,14 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="G76" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3003,11 +3001,11 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43444</v>
+        <v>43404</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3024,10 +3022,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>23.2</v>
+        <v>26.9</v>
       </c>
       <c r="G77" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3037,11 +3035,11 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3054,14 +3052,14 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="G78" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3071,11 +3069,11 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43413</v>
+        <v>43479</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3088,14 +3086,14 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>26.6</v>
+        <v>21</v>
       </c>
       <c r="G79" t="n">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3105,11 +3103,11 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43436</v>
+        <v>43476</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3118,30 +3116,30 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F80" t="n">
-        <v>26.4</v>
+        <v>17.7</v>
       </c>
       <c r="G80" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43475</v>
+        <v>43415</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3150,30 +3148,32 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>14</v>
-      </c>
-      <c r="E81" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F81" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G81" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>721501</v>
+        <v>43404</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3181,33 +3181,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="D82" t="n">
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="G82" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>43410</v>
+        <v>43422</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3215,35 +3213,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="G83" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>43475</v>
+        <v>821501</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3251,31 +3245,35 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1.1</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F84" t="n">
-        <v>26</v>
+        <v>26.8</v>
       </c>
       <c r="G84" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43476</v>
+        <v>43410</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3283,31 +3281,35 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F85" t="n">
-        <v>19.8</v>
+        <v>27.2</v>
       </c>
       <c r="G85" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>821501</v>
+        <v>43475</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3315,35 +3317,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.1</v>
       </c>
       <c r="F86" t="n">
-        <v>26.8</v>
+        <v>26</v>
       </c>
       <c r="G86" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>43422</v>
+        <v>721501</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3351,17 +3349,19 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>0</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F87" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="G87" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -3371,11 +3371,11 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>43404</v>
+        <v>43476</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3390,14 +3390,14 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>26.3</v>
+        <v>19.8</v>
       </c>
       <c r="G88" t="n">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -3475,11 +3475,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>43486</v>
+        <v>43466</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3492,28 +3492,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E91" t="n">
-        <v>3.3</v>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F91" t="n">
-        <v>24.5</v>
+        <v>26.3</v>
       </c>
       <c r="G91" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3532,24 +3534,24 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>22.6</v>
+        <v>23.4</v>
       </c>
       <c r="G92" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>43441</v>
+        <v>43495</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3568,24 +3570,24 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>25.3</v>
+        <v>27</v>
       </c>
       <c r="G93" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>43497</v>
+        <v>330601</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3604,10 +3606,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>25.4</v>
+        <v>24.5</v>
       </c>
       <c r="G94" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3617,11 +3619,11 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>43413</v>
+        <v>43450</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3640,10 +3642,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="G95" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -3653,11 +3655,11 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>43418</v>
+        <v>43436</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3670,30 +3672,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E96" t="n">
+        <v>42.5</v>
       </c>
       <c r="F96" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="G96" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3708,14 +3708,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>13.4</v>
+        <v>26.7</v>
       </c>
       <c r="G97" t="n">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3725,11 +3725,11 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>43424</v>
+        <v>43413</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3748,24 +3748,24 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G98" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3780,14 +3780,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>26.7</v>
+        <v>13.4</v>
       </c>
       <c r="G99" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3797,11 +3797,11 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>43466</v>
+        <v>43418</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3820,10 +3820,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="G100" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -3833,11 +3833,11 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3850,28 +3850,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E101" t="n">
-        <v>42.5</v>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F101" t="n">
-        <v>25.9</v>
+        <v>24</v>
       </c>
       <c r="G101" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3890,10 +3892,10 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>25.8</v>
+        <v>25.4</v>
       </c>
       <c r="G102" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -3903,11 +3905,11 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3926,24 +3928,24 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>24.5</v>
+        <v>25.3</v>
       </c>
       <c r="G103" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3962,24 +3964,24 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>27</v>
+        <v>22.6</v>
       </c>
       <c r="G104" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>43421</v>
+        <v>43486</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3992,30 +3994,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E105" t="n">
+        <v>3.3</v>
       </c>
       <c r="F105" t="n">
-        <v>23.4</v>
+        <v>24.5</v>
       </c>
       <c r="G105" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>43450</v>
+        <v>43466</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4034,24 +4034,24 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>25.1</v>
+        <v>25.8</v>
       </c>
       <c r="G106" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>43497</v>
+        <v>43421</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4070,10 +4070,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>24.9</v>
+        <v>23.5</v>
       </c>
       <c r="G107" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -4083,11 +4083,11 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>43444</v>
+        <v>43436</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4097,19 +4097,17 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>42.5</v>
       </c>
       <c r="F108" t="n">
-        <v>22.4</v>
+        <v>25.7</v>
       </c>
       <c r="G108" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -4119,11 +4117,11 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>43424</v>
+        <v>330601</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4142,24 +4140,24 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="G109" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>43495</v>
+        <v>43486</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4172,30 +4170,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E110" t="n">
+        <v>3.3</v>
       </c>
       <c r="F110" t="n">
-        <v>26.5</v>
+        <v>24.2</v>
       </c>
       <c r="G110" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>fognight</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>43441</v>
+        <v>43473</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4205,33 +4201,33 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
           <t>TR</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
       <c r="F111" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G111" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>43467</v>
+        <v>43418</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4250,10 +4246,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="G112" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4263,11 +4259,11 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>43418</v>
+        <v>43413</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4286,7 +4282,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="G113" t="n">
         <v>87</v>
@@ -4299,11 +4295,11 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>43413</v>
+        <v>43441</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4313,33 +4309,33 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>25.8</v>
+        <v>25</v>
       </c>
       <c r="G114" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>43473</v>
+        <v>43495</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4354,14 +4350,14 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>14</v>
+        <v>26.5</v>
       </c>
       <c r="G115" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -4371,11 +4367,11 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>43486</v>
+        <v>43424</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4388,28 +4384,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E116" t="n">
-        <v>3.3</v>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F116" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="G116" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>fognight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>330601</v>
+        <v>43444</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4419,33 +4417,33 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>23.5</v>
+        <v>22.4</v>
       </c>
       <c r="G117" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>43436</v>
+        <v>43497</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4458,28 +4456,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E118" t="n">
-        <v>42.5</v>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F118" t="n">
-        <v>25.7</v>
+        <v>24.9</v>
       </c>
       <c r="G118" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>43421</v>
+        <v>43450</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4498,24 +4498,24 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>23.5</v>
+        <v>25.1</v>
       </c>
       <c r="G119" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>43466</v>
+        <v>43467</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4537,21 +4537,21 @@
         <v>25.8</v>
       </c>
       <c r="G120" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>43467</v>
+        <v>43450</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4566,24 +4566,24 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>25.4</v>
+        <v>24.9</v>
       </c>
       <c r="G121" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>43410</v>
+        <v>43418</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4598,10 +4598,10 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="G122" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -4611,11 +4611,11 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>821501</v>
+        <v>43436</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4624,30 +4624,30 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="F123" t="n">
-        <v>22.8</v>
+        <v>24.9</v>
       </c>
       <c r="G123" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>43497</v>
+        <v>43421</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4662,10 +4662,10 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>24.6</v>
+        <v>23.3</v>
       </c>
       <c r="G124" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -4675,11 +4675,11 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>43486</v>
+        <v>43441</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4688,30 +4688,30 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E125" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="F125" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="G125" t="n">
         <v>95</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>fog</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>43495</v>
+        <v>43415</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4720,16 +4720,16 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F126" t="n">
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="G126" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -4739,11 +4739,11 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>43479</v>
+        <v>43473</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4752,30 +4752,30 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>20.2</v>
+        <v>14.1</v>
       </c>
       <c r="G127" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>330601</v>
+        <v>43413</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4790,24 +4790,24 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>22.5</v>
+        <v>25.8</v>
       </c>
       <c r="G128" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>43466</v>
+        <v>43444</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4816,30 +4816,30 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>25</v>
+        <v>22.2</v>
       </c>
       <c r="G129" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>721501</v>
+        <v>43424</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4848,30 +4848,30 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="G130" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>43424</v>
+        <v>43486</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4883,27 +4883,27 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F131" t="n">
-        <v>23.2</v>
+        <v>23.9</v>
       </c>
       <c r="G131" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fog</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>43450</v>
+        <v>43466</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4918,24 +4918,24 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="G132" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>43418</v>
+        <v>330601</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4950,10 +4950,10 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>26</v>
+        <v>22.5</v>
       </c>
       <c r="G133" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
@@ -4963,11 +4963,11 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>43436</v>
+        <v>43479</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4976,30 +4976,30 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="E134" t="n">
-        <v>43.2</v>
+        <v>1.8</v>
       </c>
       <c r="F134" t="n">
-        <v>24.9</v>
+        <v>20.2</v>
       </c>
       <c r="G134" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>43421</v>
+        <v>43495</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5014,24 +5014,24 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>23.3</v>
+        <v>25.5</v>
       </c>
       <c r="G135" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>43444</v>
+        <v>43497</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5040,30 +5040,30 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>22.2</v>
+        <v>24.6</v>
       </c>
       <c r="G136" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>43415</v>
+        <v>821501</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5072,30 +5072,30 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>24</v>
+        <v>22.8</v>
       </c>
       <c r="G137" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>43473</v>
+        <v>43410</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5107,27 +5107,27 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>14.1</v>
+        <v>26.6</v>
       </c>
       <c r="G138" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5136,30 +5136,30 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>23.3</v>
+        <v>25.4</v>
       </c>
       <c r="G139" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>43413</v>
+        <v>721501</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5168,30 +5168,30 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F140" t="n">
-        <v>25.8</v>
+        <v>23.6</v>
       </c>
       <c r="G140" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>43467</v>
+        <v>43422</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5208,24 +5208,24 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>26.8</v>
+        <v>24.5</v>
       </c>
       <c r="G141" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>43473</v>
+        <v>43421</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5239,27 +5239,27 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>16.8</v>
+        <v>24.2</v>
       </c>
       <c r="G142" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>43476</v>
+        <v>43418</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5267,31 +5267,33 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D143" t="n">
-        <v>1.9</v>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E143" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G143" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>43479</v>
+        <v>43415</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5301,31 +5303,31 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Tr</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="F144" t="n">
-        <v>20.9</v>
+        <v>24.8</v>
       </c>
       <c r="G144" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>43475</v>
+        <v>43413</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5339,27 +5341,27 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>27.5</v>
+        <v>26.3</v>
       </c>
       <c r="G145" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>43495</v>
+        <v>821501</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5376,24 +5378,24 @@
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>27.2</v>
+        <v>25.6</v>
       </c>
       <c r="G146" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>43497</v>
+        <v>43404</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5410,24 +5412,24 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="G147" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>43466</v>
+        <v>721501</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5435,33 +5437,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D148" t="n">
+        <v>2.7</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="F148" t="n">
-        <v>27.1</v>
+        <v>24</v>
       </c>
       <c r="G148" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>330601</v>
+        <v>43444</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5475,13 +5475,13 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F149" t="n">
-        <v>25.5</v>
+        <v>23.3</v>
       </c>
       <c r="G149" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
@@ -5491,11 +5491,11 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>43486</v>
+        <v>43436</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5503,33 +5503,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D150" t="n">
+        <v>0.5</v>
       </c>
       <c r="E150" t="n">
-        <v>3.3</v>
+        <v>43.7</v>
       </c>
       <c r="F150" t="n">
-        <v>25.8</v>
+        <v>24.9</v>
       </c>
       <c r="G150" t="n">
         <v>95</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>43450</v>
+        <v>43410</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5546,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>25.8</v>
+        <v>27.3</v>
       </c>
       <c r="G151" t="n">
         <v>82</v>
@@ -5559,11 +5557,11 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>43424</v>
+        <v>43441</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5571,33 +5569,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D152" t="n">
+        <v>0.2</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="F152" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="G152" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>43441</v>
+        <v>43476</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5606,30 +5602,30 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="E153" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="F153" t="n">
-        <v>25.3</v>
+        <v>19</v>
       </c>
       <c r="G153" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5637,31 +5633,33 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D154" t="n">
-        <v>0.5</v>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E154" t="n">
-        <v>43.7</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>24.9</v>
+        <v>25.8</v>
       </c>
       <c r="G154" t="n">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>43422</v>
+        <v>43486</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5675,27 +5673,27 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F155" t="n">
-        <v>24.5</v>
+        <v>25.8</v>
       </c>
       <c r="G155" t="n">
         <v>95</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>43421</v>
+        <v>330601</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5712,24 +5710,24 @@
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>24.2</v>
+        <v>25.5</v>
       </c>
       <c r="G156" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>43418</v>
+        <v>43466</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5746,24 +5744,24 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="G157" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>43415</v>
+        <v>43497</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5777,27 +5775,27 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>24.8</v>
+        <v>26</v>
       </c>
       <c r="G158" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>43413</v>
+        <v>43495</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5814,24 +5812,24 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>26.3</v>
+        <v>27.2</v>
       </c>
       <c r="G159" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>43410</v>
+        <v>43475</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5845,27 +5843,27 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F160" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="G160" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>43404</v>
+        <v>43479</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5875,31 +5873,31 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Tr</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F161" t="n">
-        <v>26.3</v>
+        <v>20.9</v>
       </c>
       <c r="G161" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>821501</v>
+        <v>43473</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5913,13 +5911,13 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>25.6</v>
+        <v>16.8</v>
       </c>
       <c r="G162" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
@@ -5929,11 +5927,11 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>43444</v>
+        <v>43467</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5947,47 +5945,817 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>23.3</v>
+        <v>26.8</v>
       </c>
       <c r="G163" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
+        <v>43424</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>PUTTALAM</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2025-12-29 0830</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="G164" t="n">
+        <v>85</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>43467</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>RATMALANA</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="G165" t="n">
+        <v>61</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>fairday</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>43473</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="G166" t="n">
+        <v>81</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>43476</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>BANDARAWELA</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="G167" t="n">
+        <v>91</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>haze</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>43479</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>BADULLA</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F168" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="G168" t="n">
+        <v>93</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>330601</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>MATTALA</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>31</v>
+      </c>
+      <c r="G169" t="n">
+        <v>63</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>43495</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>GALLE</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="G170" t="n">
+        <v>81</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>HAMBANTOTA</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="G171" t="n">
+        <v>67</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>fairday</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>43475</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>POTTUVIL</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="G172" t="n">
+        <v>66</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>COLOMBO</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="G173" t="n">
+        <v>63</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>43486</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>RATNAPURA</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="G174" t="n">
+        <v>69</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>haze</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>43450</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>KATUNAYAKE</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>29</v>
+      </c>
+      <c r="G175" t="n">
+        <v>70</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>haze</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>43422</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>MAHA ILLUPPALLAMA</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F176" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="G176" t="n">
+        <v>97</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>43441</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>KURUNEGALA</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="G177" t="n">
+        <v>76</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>43436</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>BATTICALOA</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F178" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="G178" t="n">
+        <v>81</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>showers</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>43424</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>PUTTALAM</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="G179" t="n">
+        <v>77</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>43421</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ANURADHAPURA</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="G180" t="n">
+        <v>93</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>fairday</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>43418</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>TRINCOMALEE</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="G181" t="n">
+        <v>77</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>43415</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>VAVUNIYA</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F182" t="n">
+        <v>27</v>
+      </c>
+      <c r="G182" t="n">
+        <v>89</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>43413</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>MANNAR</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F183" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="G183" t="n">
+        <v>85</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>43410</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>MULLATIVU</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="G184" t="n">
+        <v>80</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JAFFNA</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="G185" t="n">
+        <v>78</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>821501</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>MONARAGALA</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="G186" t="n">
+        <v>73</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>43444</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>KATUGASTOTA</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F187" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="G187" t="n">
+        <v>87</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
         <v>721501</v>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>POLONNARUWA</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>2025-12-29 0830</t>
-        </is>
-      </c>
-      <c r="D164" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E164" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="F164" t="n">
-        <v>24</v>
-      </c>
-      <c r="G164" t="n">
-        <v>95</v>
-      </c>
-      <c r="H164" t="inlineStr">
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F188" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="G188" t="n">
+        <v>94</v>
+      </c>
+      <c r="H188" t="inlineStr">
         <is>
           <t>cloudy</t>
         </is>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -775,11 +775,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G11" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -809,11 +809,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43421</v>
+        <v>43441</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="G12" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -843,11 +843,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>23.9</v>
+        <v>21.2</v>
       </c>
       <c r="G13" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -894,28 +894,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>26.8</v>
+        <v>24.8</v>
       </c>
       <c r="G14" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -926,14 +926,16 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.2</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="G15" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -943,11 +945,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43413</v>
+        <v>43424</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -964,24 +966,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>26.1</v>
+        <v>24.6</v>
       </c>
       <c r="G16" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43495</v>
+        <v>330601</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -998,10 +1000,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>25.1</v>
+        <v>24</v>
       </c>
       <c r="G17" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1011,11 +1013,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>330601</v>
+        <v>43466</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1032,24 +1034,24 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>24</v>
+        <v>26.3</v>
       </c>
       <c r="G18" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43424</v>
+        <v>43413</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1066,24 +1068,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>24.6</v>
+        <v>26.1</v>
       </c>
       <c r="G19" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43497</v>
+        <v>43418</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1094,16 +1096,14 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E20" t="n">
+        <v>0.2</v>
       </c>
       <c r="F20" t="n">
-        <v>25.2</v>
+        <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1113,11 +1113,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43450</v>
+        <v>43436</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1130,28 +1130,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="G21" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1168,24 +1168,24 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>21.2</v>
+        <v>23.9</v>
       </c>
       <c r="G22" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43441</v>
+        <v>43421</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>24.6</v>
+        <v>23.7</v>
       </c>
       <c r="G23" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1215,11 +1215,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1249,11 +1249,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43466</v>
+        <v>43495</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1270,24 +1270,24 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G25" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43486</v>
+        <v>43467</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1304,24 +1304,24 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>23.1</v>
+        <v>25.6</v>
       </c>
       <c r="G26" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43441</v>
+        <v>43418</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1332,16 +1332,14 @@
       <c r="D27" t="n">
         <v>0</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E27" t="n">
+        <v>0.2</v>
       </c>
       <c r="F27" t="n">
-        <v>22.9</v>
+        <v>25.4</v>
       </c>
       <c r="G27" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1351,11 +1349,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1372,24 +1370,24 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="G28" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43466</v>
+        <v>330601</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1406,10 +1404,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="G29" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1419,11 +1417,11 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43436</v>
+        <v>43413</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1436,28 +1434,28 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>26.4</v>
+        <v>25.6</v>
       </c>
       <c r="G30" t="n">
         <v>87</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43495</v>
+        <v>43473</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1474,24 +1472,24 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G31" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43424</v>
+        <v>43444</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1508,7 +1506,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>23.5</v>
+        <v>20.1</v>
       </c>
       <c r="G32" t="n">
         <v>94</v>
@@ -1555,11 +1553,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43444</v>
+        <v>43495</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1576,10 +1574,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>20.1</v>
+        <v>25</v>
       </c>
       <c r="G34" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1589,11 +1587,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43473</v>
+        <v>43436</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1606,28 +1604,28 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>15</v>
+        <v>26.4</v>
       </c>
       <c r="G35" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43413</v>
+        <v>43466</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1644,10 +1642,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="G36" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1657,11 +1655,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>330601</v>
+        <v>43450</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1678,24 +1676,24 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="G37" t="n">
         <v>88</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43497</v>
+        <v>43441</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1708,14 +1706,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>24.7</v>
+        <v>22.9</v>
       </c>
       <c r="G38" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1725,11 +1723,11 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1740,28 +1738,30 @@
       <c r="D39" t="n">
         <v>0</v>
       </c>
-      <c r="E39" t="n">
-        <v>0.2</v>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F39" t="n">
-        <v>25.4</v>
+        <v>23.1</v>
       </c>
       <c r="G39" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43467</v>
+        <v>43424</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>25.6</v>
+        <v>23.5</v>
       </c>
       <c r="G40" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1791,11 +1791,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1804,30 +1804,32 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F41" t="n">
-        <v>25.2</v>
+        <v>22.6</v>
       </c>
       <c r="G41" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1844,24 +1846,24 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>22.5</v>
+        <v>19.5</v>
       </c>
       <c r="G42" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43479</v>
+        <v>43418</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1870,32 +1872,30 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.2</v>
       </c>
       <c r="F43" t="n">
-        <v>19.6</v>
+        <v>25.4</v>
       </c>
       <c r="G43" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43466</v>
+        <v>43495</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1912,24 +1912,24 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="G44" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43415</v>
+        <v>43421</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1942,14 +1942,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>22.4</v>
+        <v>23.1</v>
       </c>
       <c r="G45" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43450</v>
+        <v>330601</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1980,24 +1980,24 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>23.4</v>
+        <v>22.1</v>
       </c>
       <c r="G46" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43467</v>
+        <v>43441</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2010,14 +2010,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>24.6</v>
+        <v>22</v>
       </c>
       <c r="G47" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2027,11 +2027,11 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43473</v>
+        <v>43497</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2048,14 +2048,14 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>9.800000000000001</v>
+        <v>23.9</v>
       </c>
       <c r="G48" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -2095,11 +2095,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43497</v>
+        <v>43473</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2116,24 +2116,24 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>23.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43424</v>
+        <v>43467</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2150,24 +2150,24 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>22.6</v>
+        <v>24.6</v>
       </c>
       <c r="G51" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43441</v>
+        <v>43450</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2180,28 +2180,28 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>22</v>
+        <v>23.4</v>
       </c>
       <c r="G52" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>330601</v>
+        <v>43415</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2218,24 +2218,24 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="G53" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43421</v>
+        <v>43466</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2248,14 +2248,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>23.1</v>
+        <v>24.3</v>
       </c>
       <c r="G54" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2265,11 +2265,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43495</v>
+        <v>43479</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2278,32 +2278,32 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>24.5</v>
+        <v>19.6</v>
       </c>
       <c r="G55" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2314,28 +2314,30 @@
       <c r="D56" t="n">
         <v>0</v>
       </c>
-      <c r="E56" t="n">
-        <v>0.2</v>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F56" t="n">
-        <v>25.4</v>
+        <v>22.5</v>
       </c>
       <c r="G56" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43444</v>
+        <v>43436</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2344,32 +2346,30 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.5</v>
       </c>
       <c r="F57" t="n">
-        <v>19.5</v>
+        <v>25.2</v>
       </c>
       <c r="G57" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>721501</v>
+        <v>43424</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2380,14 +2380,16 @@
       <c r="D58" t="n">
         <v>0</v>
       </c>
-      <c r="E58" t="n">
-        <v>9.800000000000001</v>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F58" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="G58" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2397,11 +2399,11 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43497</v>
+        <v>43418</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2412,30 +2414,28 @@
       <c r="D59" t="n">
         <v>0</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E59" t="n">
+        <v>0.2</v>
       </c>
       <c r="F59" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="G59" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43450</v>
+        <v>43473</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2452,24 +2452,24 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>26</v>
+        <v>13.9</v>
       </c>
       <c r="G60" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2482,14 +2482,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="G61" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2499,11 +2499,11 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43436</v>
+        <v>43476</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2512,30 +2512,30 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F62" t="n">
-        <v>26.4</v>
+        <v>17.7</v>
       </c>
       <c r="G62" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2548,14 +2548,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="G63" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2565,11 +2565,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43413</v>
+        <v>43479</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2582,14 +2582,14 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>26.6</v>
+        <v>21</v>
       </c>
       <c r="G64" t="n">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2599,11 +2599,11 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43495</v>
+        <v>43467</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2620,10 +2620,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="G65" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2633,11 +2633,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43475</v>
+        <v>43415</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2646,30 +2646,32 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>14</v>
-      </c>
-      <c r="E66" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F66" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G66" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43444</v>
+        <v>43404</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2686,10 +2688,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>23.2</v>
+        <v>26.9</v>
       </c>
       <c r="G67" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2699,11 +2701,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>821501</v>
+        <v>43486</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2714,28 +2716,30 @@
       <c r="D68" t="n">
         <v>0</v>
       </c>
-      <c r="E68" t="n">
-        <v>0.5</v>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F68" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="G68" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43410</v>
+        <v>43422</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2752,10 +2756,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>27.5</v>
+        <v>24.4</v>
       </c>
       <c r="G69" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2765,11 +2769,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43486</v>
+        <v>821501</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2780,30 +2784,28 @@
       <c r="D70" t="n">
         <v>0</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E70" t="n">
+        <v>0.5</v>
       </c>
       <c r="F70" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="G70" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43467</v>
+        <v>43444</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2820,10 +2822,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>26.3</v>
+        <v>23.2</v>
       </c>
       <c r="G71" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2833,11 +2835,11 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43424</v>
+        <v>43475</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2846,32 +2848,30 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="E72" t="n">
+        <v>14</v>
       </c>
       <c r="F72" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="G72" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43422</v>
+        <v>43495</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2888,10 +2888,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>24.4</v>
+        <v>26.7</v>
       </c>
       <c r="G73" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2901,11 +2901,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43418</v>
+        <v>43413</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2916,28 +2916,30 @@
       <c r="D74" t="n">
         <v>0</v>
       </c>
-      <c r="E74" t="n">
-        <v>0.2</v>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F74" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="G74" t="n">
         <v>81</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43473</v>
+        <v>43466</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2954,24 +2956,24 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>13.9</v>
+        <v>26.4</v>
       </c>
       <c r="G75" t="n">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43441</v>
+        <v>43436</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2982,30 +2984,28 @@
       <c r="D76" t="n">
         <v>0</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E76" t="n">
+        <v>0.5</v>
       </c>
       <c r="F76" t="n">
-        <v>25.8</v>
+        <v>26.4</v>
       </c>
       <c r="G76" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43404</v>
+        <v>330601</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>26.9</v>
+        <v>26</v>
       </c>
       <c r="G77" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3035,11 +3035,11 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43421</v>
+        <v>43450</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3052,14 +3052,14 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="G78" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3069,11 +3069,11 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43479</v>
+        <v>43497</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3086,28 +3086,28 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>21</v>
+        <v>27.7</v>
       </c>
       <c r="G79" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43476</v>
+        <v>721501</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3116,30 +3116,30 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>17.7</v>
+        <v>25.1</v>
       </c>
       <c r="G80" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43415</v>
+        <v>43410</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="G81" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3169,11 +3169,11 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>43404</v>
+        <v>43476</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3188,24 +3188,24 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>26.3</v>
+        <v>19.8</v>
       </c>
       <c r="G82" t="n">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>43422</v>
+        <v>721501</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3213,17 +3213,19 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>0</v>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F83" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="G83" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3233,11 +3235,11 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>821501</v>
+        <v>43475</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3245,35 +3247,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.1</v>
       </c>
       <c r="F84" t="n">
-        <v>26.8</v>
+        <v>26</v>
       </c>
       <c r="G84" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43410</v>
+        <v>43422</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3281,35 +3279,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="G85" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43475</v>
+        <v>821501</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3317,31 +3311,35 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1.1</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F86" t="n">
-        <v>26</v>
+        <v>26.8</v>
       </c>
       <c r="G86" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>721501</v>
+        <v>43404</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3349,33 +3347,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="D87" t="n">
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="G87" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>43476</v>
+        <v>43410</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3383,21 +3379,25 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F88" t="n">
-        <v>19.8</v>
+        <v>27.2</v>
       </c>
       <c r="G88" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
@@ -3475,11 +3475,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>43466</v>
+        <v>43418</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3498,10 +3498,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="G91" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -3511,11 +3511,11 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>43421</v>
+        <v>43486</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3528,30 +3528,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E92" t="n">
+        <v>3.3</v>
       </c>
       <c r="F92" t="n">
-        <v>23.4</v>
+        <v>24.5</v>
       </c>
       <c r="G92" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3570,24 +3568,24 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>27</v>
+        <v>22.6</v>
       </c>
       <c r="G93" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3606,24 +3604,24 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>24.5</v>
+        <v>25.3</v>
       </c>
       <c r="G94" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3642,10 +3640,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>25.8</v>
+        <v>25.4</v>
       </c>
       <c r="G95" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -3655,11 +3653,11 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3672,28 +3670,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E96" t="n">
-        <v>42.5</v>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F96" t="n">
-        <v>25.9</v>
+        <v>24</v>
       </c>
       <c r="G96" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3708,14 +3708,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>26.7</v>
+        <v>13.4</v>
       </c>
       <c r="G97" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3725,11 +3725,11 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>43413</v>
+        <v>43450</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3748,10 +3748,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="G98" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -3761,11 +3761,11 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3780,14 +3780,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>13.4</v>
+        <v>26.7</v>
       </c>
       <c r="G99" t="n">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3797,11 +3797,11 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>43418</v>
+        <v>43436</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3814,30 +3814,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E100" t="n">
+        <v>42.5</v>
       </c>
       <c r="F100" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="G100" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>43424</v>
+        <v>43413</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3856,24 +3854,24 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G101" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>43497</v>
+        <v>330601</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3892,10 +3890,10 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>25.4</v>
+        <v>24.5</v>
       </c>
       <c r="G102" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -3905,11 +3903,11 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>43441</v>
+        <v>43495</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3928,24 +3926,24 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>25.3</v>
+        <v>27</v>
       </c>
       <c r="G103" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3964,24 +3962,24 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>22.6</v>
+        <v>23.4</v>
       </c>
       <c r="G104" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>43486</v>
+        <v>43466</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3994,28 +3992,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E105" t="n">
-        <v>3.3</v>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F105" t="n">
-        <v>24.5</v>
+        <v>26.3</v>
       </c>
       <c r="G105" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>43466</v>
+        <v>43467</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4037,21 +4037,21 @@
         <v>25.8</v>
       </c>
       <c r="G106" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>43421</v>
+        <v>43450</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4070,24 +4070,24 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>23.5</v>
+        <v>25.1</v>
       </c>
       <c r="G107" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>43436</v>
+        <v>43497</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4100,28 +4100,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E108" t="n">
-        <v>42.5</v>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F108" t="n">
-        <v>25.7</v>
+        <v>24.9</v>
       </c>
       <c r="G108" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>330601</v>
+        <v>43444</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4131,33 +4133,33 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>23.5</v>
+        <v>22.4</v>
       </c>
       <c r="G109" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>43486</v>
+        <v>43424</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4170,28 +4172,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E110" t="n">
-        <v>3.3</v>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F110" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="G110" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>fognight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>43473</v>
+        <v>43495</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4206,14 +4210,14 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>14</v>
+        <v>26.5</v>
       </c>
       <c r="G111" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -4223,11 +4227,11 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>43418</v>
+        <v>43413</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4246,7 +4250,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="G112" t="n">
         <v>87</v>
@@ -4259,11 +4263,11 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>43413</v>
+        <v>43441</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4273,33 +4277,33 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>25.8</v>
+        <v>25</v>
       </c>
       <c r="G113" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>43441</v>
+        <v>43473</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4309,33 +4313,33 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
           <t>TR</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
       <c r="F114" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G114" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>43495</v>
+        <v>43486</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4348,30 +4352,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E115" t="n">
+        <v>3.3</v>
       </c>
       <c r="F115" t="n">
-        <v>26.5</v>
+        <v>24.2</v>
       </c>
       <c r="G115" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>fognight</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>43424</v>
+        <v>330601</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4390,24 +4392,24 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="G116" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>43444</v>
+        <v>43436</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4417,19 +4419,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>42.5</v>
       </c>
       <c r="F117" t="n">
-        <v>22.4</v>
+        <v>25.7</v>
       </c>
       <c r="G117" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -4439,11 +4439,11 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>43497</v>
+        <v>43421</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>24.9</v>
+        <v>23.5</v>
       </c>
       <c r="G118" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -4475,11 +4475,11 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>43450</v>
+        <v>43466</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4498,24 +4498,24 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>25.1</v>
+        <v>25.8</v>
       </c>
       <c r="G119" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>43467</v>
+        <v>43418</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4534,10 +4534,10 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="G120" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -4547,11 +4547,11 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>43450</v>
+        <v>43466</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4566,24 +4566,24 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="G121" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>43418</v>
+        <v>330601</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4598,10 +4598,10 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>26</v>
+        <v>22.5</v>
       </c>
       <c r="G122" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -4611,11 +4611,11 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>43436</v>
+        <v>43479</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4624,30 +4624,30 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="E123" t="n">
-        <v>43.2</v>
+        <v>1.8</v>
       </c>
       <c r="F123" t="n">
-        <v>24.9</v>
+        <v>20.2</v>
       </c>
       <c r="G123" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>43421</v>
+        <v>43495</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4662,24 +4662,24 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>23.3</v>
+        <v>25.5</v>
       </c>
       <c r="G124" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4688,30 +4688,30 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>23.3</v>
+        <v>25.4</v>
       </c>
       <c r="G125" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>43415</v>
+        <v>821501</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4720,30 +4720,30 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>24</v>
+        <v>22.8</v>
       </c>
       <c r="G126" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>43473</v>
+        <v>43410</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4755,27 +4755,27 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>14.1</v>
+        <v>26.6</v>
       </c>
       <c r="G127" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>43413</v>
+        <v>721501</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4784,30 +4784,30 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F128" t="n">
-        <v>25.8</v>
+        <v>23.6</v>
       </c>
       <c r="G128" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>43444</v>
+        <v>43497</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4816,30 +4816,30 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>22.2</v>
+        <v>24.6</v>
       </c>
       <c r="G129" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>43424</v>
+        <v>43486</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4851,27 +4851,27 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F130" t="n">
-        <v>23.2</v>
+        <v>23.9</v>
       </c>
       <c r="G130" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fog</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>43486</v>
+        <v>43441</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4880,30 +4880,30 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E131" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="F131" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="G131" t="n">
         <v>95</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>fog</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>43466</v>
+        <v>43444</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4912,30 +4912,30 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>25</v>
+        <v>22.2</v>
       </c>
       <c r="G132" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>330601</v>
+        <v>43413</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4950,24 +4950,24 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>22.5</v>
+        <v>25.8</v>
       </c>
       <c r="G133" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>43479</v>
+        <v>43473</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4976,30 +4976,30 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>20.2</v>
+        <v>14.1</v>
       </c>
       <c r="G134" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>43495</v>
+        <v>43415</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5008,16 +5008,16 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F135" t="n">
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="G135" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
@@ -5027,11 +5027,11 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>43497</v>
+        <v>43421</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5046,10 +5046,10 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>24.6</v>
+        <v>23.3</v>
       </c>
       <c r="G136" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
@@ -5059,11 +5059,11 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>821501</v>
+        <v>43436</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5072,30 +5072,30 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="F137" t="n">
-        <v>22.8</v>
+        <v>24.9</v>
       </c>
       <c r="G137" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>43410</v>
+        <v>43418</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5110,10 +5110,10 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="G138" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
@@ -5123,11 +5123,11 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>43467</v>
+        <v>43450</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5142,24 +5142,24 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>25.4</v>
+        <v>24.9</v>
       </c>
       <c r="G139" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>721501</v>
+        <v>43424</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5168,30 +5168,30 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="G140" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>43422</v>
+        <v>43486</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5205,27 +5205,27 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F141" t="n">
-        <v>24.5</v>
+        <v>25.8</v>
       </c>
       <c r="G141" t="n">
         <v>95</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>43421</v>
+        <v>330601</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5242,24 +5242,24 @@
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>24.2</v>
+        <v>25.5</v>
       </c>
       <c r="G142" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>43418</v>
+        <v>43466</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5276,24 +5276,24 @@
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="G143" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>43415</v>
+        <v>43497</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5307,27 +5307,27 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>24.8</v>
+        <v>26</v>
       </c>
       <c r="G144" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>43413</v>
+        <v>43495</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5344,24 +5344,24 @@
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>26.3</v>
+        <v>27.2</v>
       </c>
       <c r="G145" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>821501</v>
+        <v>43473</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5375,13 +5375,13 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>25.6</v>
+        <v>16.8</v>
       </c>
       <c r="G146" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
@@ -5391,11 +5391,11 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>43404</v>
+        <v>43479</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5405,31 +5405,31 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Tr</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F147" t="n">
-        <v>26.3</v>
+        <v>20.9</v>
       </c>
       <c r="G147" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>721501</v>
+        <v>43424</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5437,17 +5437,19 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D148" t="n">
-        <v>2.7</v>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E148" t="n">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>24</v>
+        <v>25.1</v>
       </c>
       <c r="G148" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
@@ -5457,11 +5459,11 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>43444</v>
+        <v>43467</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5475,27 +5477,27 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>23.3</v>
+        <v>26.8</v>
       </c>
       <c r="G149" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5503,31 +5505,33 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D150" t="n">
-        <v>0.5</v>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E150" t="n">
-        <v>43.7</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>24.9</v>
+        <v>25.8</v>
       </c>
       <c r="G150" t="n">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>43410</v>
+        <v>43475</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5541,27 +5545,27 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F151" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="G151" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>43441</v>
+        <v>43476</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5570,30 +5574,30 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="E152" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="F152" t="n">
-        <v>25.3</v>
+        <v>19</v>
       </c>
       <c r="G152" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>43476</v>
+        <v>43418</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5601,31 +5605,33 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D153" t="n">
-        <v>1.9</v>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E153" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G153" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>43450</v>
+        <v>43410</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5642,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>25.8</v>
+        <v>27.3</v>
       </c>
       <c r="G154" t="n">
         <v>82</v>
@@ -5655,11 +5661,11 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>43486</v>
+        <v>43436</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5667,33 +5673,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D155" t="n">
+        <v>0.5</v>
       </c>
       <c r="E155" t="n">
-        <v>3.3</v>
+        <v>43.7</v>
       </c>
       <c r="F155" t="n">
-        <v>25.8</v>
+        <v>24.9</v>
       </c>
       <c r="G155" t="n">
         <v>95</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>330601</v>
+        <v>43444</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5707,13 +5711,13 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F156" t="n">
-        <v>25.5</v>
+        <v>23.3</v>
       </c>
       <c r="G156" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
@@ -5723,11 +5727,11 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>43466</v>
+        <v>721501</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5735,33 +5739,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D157" t="n">
+        <v>2.7</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="F157" t="n">
-        <v>27.1</v>
+        <v>24</v>
       </c>
       <c r="G157" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>43497</v>
+        <v>43404</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5778,24 +5780,24 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="G158" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>43495</v>
+        <v>821501</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5812,24 +5814,24 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>27.2</v>
+        <v>25.6</v>
       </c>
       <c r="G159" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>43475</v>
+        <v>43413</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5843,27 +5845,27 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>27.5</v>
+        <v>26.3</v>
       </c>
       <c r="G160" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>43479</v>
+        <v>43415</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5873,31 +5875,31 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Tr</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="F161" t="n">
-        <v>20.9</v>
+        <v>24.8</v>
       </c>
       <c r="G161" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>43473</v>
+        <v>43421</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5911,27 +5913,27 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>16.8</v>
+        <v>24.2</v>
       </c>
       <c r="G162" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>43467</v>
+        <v>43422</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5948,24 +5950,24 @@
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>26.8</v>
+        <v>24.5</v>
       </c>
       <c r="G163" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>43424</v>
+        <v>43441</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5973,23 +5975,21 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D164" t="n">
+        <v>0.2</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="F164" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="G164" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -775,11 +775,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -809,11 +809,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43441</v>
+        <v>43421</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>24.6</v>
+        <v>23.7</v>
       </c>
       <c r="G12" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -843,11 +843,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>21.2</v>
+        <v>23.9</v>
       </c>
       <c r="G13" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43450</v>
+        <v>43436</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -894,28 +894,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="G14" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43497</v>
+        <v>43418</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -926,16 +926,14 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E15" t="n">
+        <v>0.2</v>
       </c>
       <c r="F15" t="n">
-        <v>25.2</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -945,11 +943,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43424</v>
+        <v>43413</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -966,24 +964,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>24.6</v>
+        <v>26.1</v>
       </c>
       <c r="G16" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>330601</v>
+        <v>43466</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1000,24 +998,24 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>24</v>
+        <v>26.3</v>
       </c>
       <c r="G17" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43466</v>
+        <v>43495</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1034,24 +1032,24 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G18" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43413</v>
+        <v>43424</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1068,24 +1066,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>26.1</v>
+        <v>24.6</v>
       </c>
       <c r="G19" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1096,14 +1094,16 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.2</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F20" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="G20" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1113,11 +1113,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1130,28 +1130,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>26.8</v>
+        <v>24.8</v>
       </c>
       <c r="G21" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1168,24 +1168,24 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>23.9</v>
+        <v>21.2</v>
       </c>
       <c r="G22" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43421</v>
+        <v>43441</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="G23" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1215,11 +1215,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G24" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1249,11 +1249,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43495</v>
+        <v>330601</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>25.1</v>
+        <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1283,11 +1283,11 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43467</v>
+        <v>43424</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>25.6</v>
+        <v>23.5</v>
       </c>
       <c r="G26" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1317,11 +1317,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1332,28 +1332,30 @@
       <c r="D27" t="n">
         <v>0</v>
       </c>
-      <c r="E27" t="n">
-        <v>0.2</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F27" t="n">
-        <v>25.4</v>
+        <v>23.1</v>
       </c>
       <c r="G27" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43497</v>
+        <v>43441</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1366,14 +1368,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>24.7</v>
+        <v>22.9</v>
       </c>
       <c r="G28" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1383,11 +1385,11 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>330601</v>
+        <v>43450</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1404,24 +1406,24 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="G29" t="n">
         <v>88</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43413</v>
+        <v>43466</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1438,10 +1440,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="G30" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1451,11 +1453,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43473</v>
+        <v>43436</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1468,28 +1470,28 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>15</v>
+        <v>26.4</v>
       </c>
       <c r="G31" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43444</v>
+        <v>43495</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1506,10 +1508,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>20.1</v>
+        <v>25</v>
       </c>
       <c r="G32" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1553,11 +1555,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43495</v>
+        <v>43473</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1574,24 +1576,24 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G34" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43436</v>
+        <v>43413</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1604,28 +1606,28 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>26.4</v>
+        <v>25.6</v>
       </c>
       <c r="G35" t="n">
         <v>87</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43466</v>
+        <v>330601</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1642,10 +1644,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="G36" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1655,11 +1657,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1676,24 +1678,24 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="G37" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43441</v>
+        <v>43418</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1704,16 +1706,14 @@
       <c r="D38" t="n">
         <v>0</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E38" t="n">
+        <v>0.2</v>
       </c>
       <c r="F38" t="n">
-        <v>22.9</v>
+        <v>25.4</v>
       </c>
       <c r="G38" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1723,11 +1723,11 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43486</v>
+        <v>43467</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1744,24 +1744,24 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>23.1</v>
+        <v>25.6</v>
       </c>
       <c r="G39" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43424</v>
+        <v>43444</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>23.5</v>
+        <v>20.1</v>
       </c>
       <c r="G40" t="n">
         <v>94</v>
@@ -1791,11 +1791,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43424</v>
+        <v>43467</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1812,24 +1812,24 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>22.6</v>
+        <v>24.6</v>
       </c>
       <c r="G41" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43444</v>
+        <v>43436</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1838,32 +1838,30 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.5</v>
       </c>
       <c r="F42" t="n">
-        <v>19.5</v>
+        <v>25.2</v>
       </c>
       <c r="G42" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1874,28 +1872,30 @@
       <c r="D43" t="n">
         <v>0</v>
       </c>
-      <c r="E43" t="n">
-        <v>0.2</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F43" t="n">
-        <v>25.4</v>
+        <v>22.5</v>
       </c>
       <c r="G43" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43495</v>
+        <v>43479</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1904,32 +1904,32 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>24.5</v>
+        <v>19.6</v>
       </c>
       <c r="G44" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43421</v>
+        <v>43466</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1942,14 +1942,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>23.1</v>
+        <v>24.3</v>
       </c>
       <c r="G45" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>330601</v>
+        <v>43415</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1980,24 +1980,24 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="G46" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43441</v>
+        <v>43450</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2010,28 +2010,28 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>22</v>
+        <v>23.4</v>
       </c>
       <c r="G47" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43497</v>
+        <v>43473</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2048,14 +2048,14 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>23.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
@@ -2095,11 +2095,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43473</v>
+        <v>43497</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2116,24 +2116,24 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>9.800000000000001</v>
+        <v>23.9</v>
       </c>
       <c r="G50" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43467</v>
+        <v>43441</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2146,14 +2146,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>24.6</v>
+        <v>22</v>
       </c>
       <c r="G51" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2163,11 +2163,11 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43450</v>
+        <v>330601</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2184,24 +2184,24 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>23.4</v>
+        <v>22.1</v>
       </c>
       <c r="G52" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43415</v>
+        <v>43421</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2214,14 +2214,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>22.4</v>
+        <v>23.1</v>
       </c>
       <c r="G53" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2231,11 +2231,11 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43466</v>
+        <v>43495</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2252,24 +2252,24 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="G54" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43479</v>
+        <v>43418</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2278,32 +2278,30 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.2</v>
       </c>
       <c r="F55" t="n">
-        <v>19.6</v>
+        <v>25.4</v>
       </c>
       <c r="G55" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2320,24 +2318,24 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>22.5</v>
+        <v>19.5</v>
       </c>
       <c r="G56" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2346,30 +2344,32 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F57" t="n">
-        <v>25.2</v>
+        <v>22.6</v>
       </c>
       <c r="G57" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43424</v>
+        <v>43475</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2378,32 +2378,30 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="E58" t="n">
+        <v>14</v>
       </c>
       <c r="F58" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="G58" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43418</v>
+        <v>43413</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2414,28 +2412,30 @@
       <c r="D59" t="n">
         <v>0</v>
       </c>
-      <c r="E59" t="n">
-        <v>0.2</v>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F59" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="G59" t="n">
         <v>81</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43473</v>
+        <v>43466</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2452,24 +2452,24 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>13.9</v>
+        <v>26.4</v>
       </c>
       <c r="G60" t="n">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43441</v>
+        <v>43436</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2480,30 +2480,28 @@
       <c r="D61" t="n">
         <v>0</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E61" t="n">
+        <v>0.5</v>
       </c>
       <c r="F61" t="n">
-        <v>25.8</v>
+        <v>26.4</v>
       </c>
       <c r="G61" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43476</v>
+        <v>721501</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2512,30 +2510,30 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>17.7</v>
+        <v>25.1</v>
       </c>
       <c r="G62" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43421</v>
+        <v>43450</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2548,14 +2546,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="G63" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2565,11 +2563,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43479</v>
+        <v>43497</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2582,28 +2580,28 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>21</v>
+        <v>27.7</v>
       </c>
       <c r="G64" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43467</v>
+        <v>43444</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2620,10 +2618,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>26.3</v>
+        <v>23.2</v>
       </c>
       <c r="G65" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2633,11 +2631,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43415</v>
+        <v>43410</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2654,10 +2652,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="G66" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2667,11 +2665,11 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43404</v>
+        <v>330601</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2688,10 +2686,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>26.9</v>
+        <v>26</v>
       </c>
       <c r="G67" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2701,11 +2699,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>43486</v>
+        <v>821501</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2716,30 +2714,28 @@
       <c r="D68" t="n">
         <v>0</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E68" t="n">
+        <v>0.5</v>
       </c>
       <c r="F68" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="G68" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43422</v>
+        <v>43495</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2756,10 +2752,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>24.4</v>
+        <v>26.7</v>
       </c>
       <c r="G69" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2769,11 +2765,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>821501</v>
+        <v>43486</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2784,28 +2780,30 @@
       <c r="D70" t="n">
         <v>0</v>
       </c>
-      <c r="E70" t="n">
-        <v>0.5</v>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F70" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="G70" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43444</v>
+        <v>43404</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2822,10 +2820,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>23.2</v>
+        <v>26.9</v>
       </c>
       <c r="G71" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2835,11 +2833,11 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43475</v>
+        <v>43415</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2848,30 +2846,32 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>14</v>
-      </c>
-      <c r="E72" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F72" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G72" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43495</v>
+        <v>43467</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2888,10 +2888,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="G73" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2901,11 +2901,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43413</v>
+        <v>43479</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2918,14 +2918,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>26.6</v>
+        <v>21</v>
       </c>
       <c r="G74" t="n">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2935,11 +2935,11 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2952,14 +2952,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="G75" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2969,11 +2969,11 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43436</v>
+        <v>43476</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2982,30 +2982,30 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F76" t="n">
-        <v>26.4</v>
+        <v>17.7</v>
       </c>
       <c r="G76" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3018,14 +3018,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="G77" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3035,11 +3035,11 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43450</v>
+        <v>43473</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3056,24 +3056,24 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>26</v>
+        <v>13.9</v>
       </c>
       <c r="G78" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43497</v>
+        <v>43418</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3084,30 +3084,28 @@
       <c r="D79" t="n">
         <v>0</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E79" t="n">
+        <v>0.2</v>
       </c>
       <c r="F79" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="G79" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>721501</v>
+        <v>43424</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3118,14 +3116,16 @@
       <c r="D80" t="n">
         <v>0</v>
       </c>
-      <c r="E80" t="n">
-        <v>9.800000000000001</v>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F80" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="G80" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3135,11 +3135,11 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43410</v>
+        <v>43422</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>27.5</v>
+        <v>24.4</v>
       </c>
       <c r="G81" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3169,11 +3169,11 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>43476</v>
+        <v>43410</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3181,31 +3181,35 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F82" t="n">
-        <v>19.8</v>
+        <v>27.2</v>
       </c>
       <c r="G82" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>721501</v>
+        <v>43404</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3213,33 +3217,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="D83" t="n">
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="G83" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>43475</v>
+        <v>821501</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3247,31 +3249,35 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1.1</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F84" t="n">
-        <v>26</v>
+        <v>26.8</v>
       </c>
       <c r="G84" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43422</v>
+        <v>721501</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3279,17 +3285,19 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>0</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F85" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="G85" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3299,11 +3307,11 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>821501</v>
+        <v>43475</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3311,35 +3319,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.1</v>
       </c>
       <c r="F86" t="n">
-        <v>26.8</v>
+        <v>26</v>
       </c>
       <c r="G86" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>43404</v>
+        <v>43476</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3354,24 +3358,24 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>26.3</v>
+        <v>19.8</v>
       </c>
       <c r="G87" t="n">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>43410</v>
+        <v>43422</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3379,25 +3383,21 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="G88" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
@@ -3475,11 +3475,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>43418</v>
+        <v>43436</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3492,30 +3492,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E91" t="n">
+        <v>42.5</v>
       </c>
       <c r="F91" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="G91" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>43486</v>
+        <v>43466</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3528,28 +3526,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E92" t="n">
-        <v>3.3</v>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F92" t="n">
-        <v>24.5</v>
+        <v>26.3</v>
       </c>
       <c r="G92" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3568,24 +3568,24 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>22.6</v>
+        <v>23.4</v>
       </c>
       <c r="G93" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>43441</v>
+        <v>43495</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3604,24 +3604,24 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>25.3</v>
+        <v>27</v>
       </c>
       <c r="G94" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>43497</v>
+        <v>330601</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3640,10 +3640,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>25.4</v>
+        <v>24.5</v>
       </c>
       <c r="G95" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -3653,11 +3653,11 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>43424</v>
+        <v>43413</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3676,24 +3676,24 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G96" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3708,14 +3708,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>13.4</v>
+        <v>26.7</v>
       </c>
       <c r="G97" t="n">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3725,11 +3725,11 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3748,10 +3748,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>25.8</v>
+        <v>25.4</v>
       </c>
       <c r="G98" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -3761,11 +3761,11 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3780,14 +3780,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>26.7</v>
+        <v>13.4</v>
       </c>
       <c r="G99" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3797,11 +3797,11 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3814,28 +3814,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E100" t="n">
-        <v>42.5</v>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F100" t="n">
-        <v>25.9</v>
+        <v>24</v>
       </c>
       <c r="G100" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>43413</v>
+        <v>43450</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3854,10 +3856,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="G101" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3867,11 +3869,11 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3890,24 +3892,24 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>24.5</v>
+        <v>25.3</v>
       </c>
       <c r="G102" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3926,24 +3928,24 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>27</v>
+        <v>22.6</v>
       </c>
       <c r="G103" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>43421</v>
+        <v>43486</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3956,30 +3958,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E104" t="n">
+        <v>3.3</v>
       </c>
       <c r="F104" t="n">
-        <v>23.4</v>
+        <v>24.5</v>
       </c>
       <c r="G104" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>43466</v>
+        <v>43418</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3998,10 +3998,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="G105" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -4011,11 +4011,11 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>43467</v>
+        <v>43418</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4034,10 +4034,10 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="G106" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>43450</v>
+        <v>43466</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4070,24 +4070,24 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>25.1</v>
+        <v>25.8</v>
       </c>
       <c r="G107" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>43497</v>
+        <v>43421</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4106,10 +4106,10 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>24.9</v>
+        <v>23.5</v>
       </c>
       <c r="G108" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>43444</v>
+        <v>43436</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4133,19 +4133,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>42.5</v>
       </c>
       <c r="F109" t="n">
-        <v>22.4</v>
+        <v>25.7</v>
       </c>
       <c r="G109" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -4155,11 +4153,11 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>43424</v>
+        <v>330601</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4178,24 +4176,24 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="G110" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>43495</v>
+        <v>43486</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4208,30 +4206,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E111" t="n">
+        <v>3.3</v>
       </c>
       <c r="F111" t="n">
-        <v>26.5</v>
+        <v>24.2</v>
       </c>
       <c r="G111" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>fognight</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>43413</v>
+        <v>43441</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4241,33 +4237,33 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>25.8</v>
+        <v>25</v>
       </c>
       <c r="G112" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>43441</v>
+        <v>43473</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4277,33 +4273,33 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
           <t>TR</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
       <c r="F113" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G113" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>43473</v>
+        <v>43495</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4318,14 +4314,14 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>14</v>
+        <v>26.5</v>
       </c>
       <c r="G114" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -4335,11 +4331,11 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>43486</v>
+        <v>43424</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4352,28 +4348,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E115" t="n">
-        <v>3.3</v>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F115" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="G115" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>fognight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>330601</v>
+        <v>43444</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4383,33 +4381,33 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>23.5</v>
+        <v>22.4</v>
       </c>
       <c r="G116" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>43436</v>
+        <v>43497</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4422,28 +4420,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E117" t="n">
-        <v>42.5</v>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F117" t="n">
-        <v>25.7</v>
+        <v>24.9</v>
       </c>
       <c r="G117" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>43421</v>
+        <v>43450</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4462,24 +4462,24 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>23.5</v>
+        <v>25.1</v>
       </c>
       <c r="G118" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>43466</v>
+        <v>43467</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4501,21 +4501,21 @@
         <v>25.8</v>
       </c>
       <c r="G119" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>43418</v>
+        <v>43413</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4534,7 +4534,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="G120" t="n">
         <v>87</v>
@@ -4547,11 +4547,11 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>43466</v>
+        <v>43444</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4560,30 +4560,30 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>25</v>
+        <v>22.2</v>
       </c>
       <c r="G121" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>330601</v>
+        <v>43413</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4598,24 +4598,24 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>22.5</v>
+        <v>25.8</v>
       </c>
       <c r="G122" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>43479</v>
+        <v>43473</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4624,30 +4624,30 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>20.2</v>
+        <v>14.1</v>
       </c>
       <c r="G123" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>43495</v>
+        <v>43415</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4656,16 +4656,16 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F124" t="n">
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="G124" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -4675,11 +4675,11 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>43467</v>
+        <v>43450</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4694,24 +4694,24 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>25.4</v>
+        <v>24.9</v>
       </c>
       <c r="G125" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>821501</v>
+        <v>43436</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4720,30 +4720,30 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="F126" t="n">
-        <v>22.8</v>
+        <v>24.9</v>
       </c>
       <c r="G126" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>43410</v>
+        <v>43418</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4758,10 +4758,10 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="G127" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
@@ -4771,11 +4771,11 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>721501</v>
+        <v>43424</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4784,30 +4784,30 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="G128" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>43497</v>
+        <v>43421</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4822,10 +4822,10 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>24.6</v>
+        <v>23.3</v>
       </c>
       <c r="G129" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -4835,11 +4835,11 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>43486</v>
+        <v>43441</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4848,30 +4848,30 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E130" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="F130" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="G130" t="n">
         <v>95</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>fog</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>43441</v>
+        <v>43467</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4880,30 +4880,30 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>23.3</v>
+        <v>25.4</v>
       </c>
       <c r="G131" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>43444</v>
+        <v>43497</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4912,30 +4912,30 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>22.2</v>
+        <v>24.6</v>
       </c>
       <c r="G132" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>43413</v>
+        <v>721501</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4944,30 +4944,30 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F133" t="n">
-        <v>25.8</v>
+        <v>23.6</v>
       </c>
       <c r="G133" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>43473</v>
+        <v>43410</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4979,27 +4979,27 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>14.1</v>
+        <v>26.6</v>
       </c>
       <c r="G134" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>43415</v>
+        <v>821501</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5008,30 +5008,30 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>24</v>
+        <v>22.8</v>
       </c>
       <c r="G135" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>43421</v>
+        <v>43495</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5046,24 +5046,24 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>23.3</v>
+        <v>25.5</v>
       </c>
       <c r="G136" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>43436</v>
+        <v>43479</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5072,30 +5072,30 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="E137" t="n">
-        <v>43.2</v>
+        <v>1.8</v>
       </c>
       <c r="F137" t="n">
-        <v>24.9</v>
+        <v>20.2</v>
       </c>
       <c r="G137" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>43418</v>
+        <v>330601</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5110,10 +5110,10 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>26</v>
+        <v>22.5</v>
       </c>
       <c r="G138" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
@@ -5123,11 +5123,11 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>43450</v>
+        <v>43466</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5142,24 +5142,24 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="G139" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>43424</v>
+        <v>43486</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5171,27 +5171,27 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F140" t="n">
-        <v>23.2</v>
+        <v>23.9</v>
       </c>
       <c r="G140" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fog</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>43486</v>
+        <v>43436</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5199,33 +5199,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D141" t="n">
+        <v>0.5</v>
       </c>
       <c r="E141" t="n">
-        <v>3.3</v>
+        <v>43.7</v>
       </c>
       <c r="F141" t="n">
-        <v>25.8</v>
+        <v>24.9</v>
       </c>
       <c r="G141" t="n">
         <v>95</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>330601</v>
+        <v>43444</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5239,13 +5237,13 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F142" t="n">
-        <v>25.5</v>
+        <v>23.3</v>
       </c>
       <c r="G142" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -5255,11 +5253,11 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>43466</v>
+        <v>721501</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5267,33 +5265,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D143" t="n">
+        <v>2.7</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="F143" t="n">
-        <v>27.1</v>
+        <v>24</v>
       </c>
       <c r="G143" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>43497</v>
+        <v>43404</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5310,24 +5306,24 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="G144" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>43495</v>
+        <v>821501</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5344,24 +5340,24 @@
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>27.2</v>
+        <v>25.6</v>
       </c>
       <c r="G145" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>43473</v>
+        <v>43421</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5375,27 +5371,27 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>16.8</v>
+        <v>24.2</v>
       </c>
       <c r="G146" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>43479</v>
+        <v>43415</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5405,31 +5401,31 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Tr</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="F147" t="n">
-        <v>20.9</v>
+        <v>24.8</v>
       </c>
       <c r="G147" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>43424</v>
+        <v>43441</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5437,33 +5433,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D148" t="n">
+        <v>0.2</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="F148" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="G148" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>43467</v>
+        <v>43422</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5480,24 +5474,24 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>26.8</v>
+        <v>24.5</v>
       </c>
       <c r="G149" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>43450</v>
+        <v>43410</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5514,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>25.8</v>
+        <v>27.3</v>
       </c>
       <c r="G150" t="n">
         <v>82</v>
@@ -5527,11 +5521,11 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>43475</v>
+        <v>43413</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5545,27 +5539,27 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>27.5</v>
+        <v>26.3</v>
       </c>
       <c r="G151" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>43476</v>
+        <v>43418</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5573,31 +5567,33 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D152" t="n">
-        <v>1.9</v>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E152" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G152" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>43418</v>
+        <v>43466</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5614,24 +5610,24 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="G153" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>43410</v>
+        <v>43475</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5645,27 +5641,27 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F154" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="G154" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5673,31 +5669,33 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D155" t="n">
-        <v>0.5</v>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E155" t="n">
-        <v>43.7</v>
+        <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>24.9</v>
+        <v>25.8</v>
       </c>
       <c r="G155" t="n">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>43444</v>
+        <v>43467</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5711,27 +5709,27 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>23.3</v>
+        <v>26.8</v>
       </c>
       <c r="G156" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>721501</v>
+        <v>43424</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5739,17 +5737,19 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D157" t="n">
-        <v>2.7</v>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E157" t="n">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>24</v>
+        <v>25.1</v>
       </c>
       <c r="G157" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
@@ -5759,11 +5759,11 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>43404</v>
+        <v>43479</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5773,31 +5773,31 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Tr</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F158" t="n">
-        <v>26.3</v>
+        <v>20.9</v>
       </c>
       <c r="G158" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>821501</v>
+        <v>43473</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5811,13 +5811,13 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>25.6</v>
+        <v>16.8</v>
       </c>
       <c r="G159" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
@@ -5827,11 +5827,11 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>43413</v>
+        <v>43495</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5848,24 +5848,24 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>26.3</v>
+        <v>27.2</v>
       </c>
       <c r="G160" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>43415</v>
+        <v>43497</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5879,27 +5879,27 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>24.8</v>
+        <v>26</v>
       </c>
       <c r="G161" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>43421</v>
+        <v>330601</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5916,24 +5916,24 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>24.2</v>
+        <v>25.5</v>
       </c>
       <c r="G162" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>43422</v>
+        <v>43486</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5947,27 +5947,27 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F163" t="n">
-        <v>24.5</v>
+        <v>25.8</v>
       </c>
       <c r="G163" t="n">
         <v>95</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>43441</v>
+        <v>43476</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5976,20 +5976,20 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="E164" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="F164" t="n">
-        <v>25.3</v>
+        <v>19</v>
       </c>
       <c r="G164" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:H212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,11 +775,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G11" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -809,11 +809,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43421</v>
+        <v>43441</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="G12" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -843,11 +843,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>23.9</v>
+        <v>21.2</v>
       </c>
       <c r="G13" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -894,28 +894,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>26.8</v>
+        <v>24.8</v>
       </c>
       <c r="G14" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -926,14 +926,16 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.2</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="G15" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -943,11 +945,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43413</v>
+        <v>43424</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -964,24 +966,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>26.1</v>
+        <v>24.6</v>
       </c>
       <c r="G16" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43466</v>
+        <v>43495</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -998,24 +1000,24 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G17" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43495</v>
+        <v>330601</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1032,10 +1034,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>25.1</v>
+        <v>24</v>
       </c>
       <c r="G18" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1045,11 +1047,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43424</v>
+        <v>43413</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1066,24 +1068,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>24.6</v>
+        <v>26.1</v>
       </c>
       <c r="G19" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43497</v>
+        <v>43418</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1094,16 +1096,14 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E20" t="n">
+        <v>0.2</v>
       </c>
       <c r="F20" t="n">
-        <v>25.2</v>
+        <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1113,11 +1113,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43450</v>
+        <v>43436</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1130,28 +1130,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="G21" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1168,24 +1168,24 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>21.2</v>
+        <v>23.9</v>
       </c>
       <c r="G22" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43441</v>
+        <v>43421</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>24.6</v>
+        <v>23.7</v>
       </c>
       <c r="G23" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1215,11 +1215,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1249,11 +1249,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>330601</v>
+        <v>43466</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1270,24 +1270,24 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>24</v>
+        <v>26.3</v>
       </c>
       <c r="G25" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43424</v>
+        <v>43444</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>23.5</v>
+        <v>20.1</v>
       </c>
       <c r="G26" t="n">
         <v>94</v>
@@ -1317,11 +1317,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43486</v>
+        <v>43467</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1338,24 +1338,24 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>23.1</v>
+        <v>25.6</v>
       </c>
       <c r="G27" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43441</v>
+        <v>43418</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1366,16 +1366,14 @@
       <c r="D28" t="n">
         <v>0</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E28" t="n">
+        <v>0.2</v>
       </c>
       <c r="F28" t="n">
-        <v>22.9</v>
+        <v>25.4</v>
       </c>
       <c r="G28" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1385,11 +1383,11 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1406,24 +1404,24 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="G29" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43466</v>
+        <v>330601</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1440,10 +1438,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="G30" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1453,11 +1451,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43436</v>
+        <v>43413</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1470,28 +1468,28 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>26.4</v>
+        <v>25.6</v>
       </c>
       <c r="G31" t="n">
         <v>87</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43495</v>
+        <v>43473</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1508,14 +1506,14 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G32" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -1555,11 +1553,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43473</v>
+        <v>43436</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1572,28 +1570,28 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>15</v>
+        <v>26.4</v>
       </c>
       <c r="G34" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43413</v>
+        <v>43466</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1610,10 +1608,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="G35" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1623,11 +1621,11 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>330601</v>
+        <v>43450</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1644,24 +1642,24 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="G36" t="n">
         <v>88</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43497</v>
+        <v>43441</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1674,14 +1672,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>24.7</v>
+        <v>22.9</v>
       </c>
       <c r="G37" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1691,11 +1689,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1706,28 +1704,30 @@
       <c r="D38" t="n">
         <v>0</v>
       </c>
-      <c r="E38" t="n">
-        <v>0.2</v>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F38" t="n">
-        <v>25.4</v>
+        <v>23.1</v>
       </c>
       <c r="G38" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43467</v>
+        <v>43424</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1744,10 +1744,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>25.6</v>
+        <v>23.5</v>
       </c>
       <c r="G39" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1757,11 +1757,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43444</v>
+        <v>43495</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>20.1</v>
+        <v>25</v>
       </c>
       <c r="G40" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1791,11 +1791,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43467</v>
+        <v>43497</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1812,24 +1812,24 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="G41" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43436</v>
+        <v>43444</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1838,30 +1838,32 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F42" t="n">
-        <v>25.2</v>
+        <v>19.5</v>
       </c>
       <c r="G42" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43486</v>
+        <v>43418</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1872,30 +1874,28 @@
       <c r="D43" t="n">
         <v>0</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E43" t="n">
+        <v>0.2</v>
       </c>
       <c r="F43" t="n">
-        <v>22.5</v>
+        <v>25.4</v>
       </c>
       <c r="G43" t="n">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43479</v>
+        <v>43495</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1904,32 +1904,32 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>19.6</v>
+        <v>24.5</v>
       </c>
       <c r="G44" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1942,14 +1942,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="G45" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43415</v>
+        <v>330601</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1980,24 +1980,24 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="G46" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2010,28 +2010,28 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>23.4</v>
+        <v>22</v>
       </c>
       <c r="G47" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43473</v>
+        <v>43413</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2048,10 +2048,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>9.800000000000001</v>
+        <v>25.8</v>
       </c>
       <c r="G48" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2061,11 +2061,11 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43413</v>
+        <v>43424</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2082,24 +2082,24 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>25.8</v>
+        <v>22.6</v>
       </c>
       <c r="G49" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43497</v>
+        <v>43450</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2116,24 +2116,24 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="G50" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43441</v>
+        <v>43415</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2146,14 +2146,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>22</v>
+        <v>22.4</v>
       </c>
       <c r="G51" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2163,11 +2163,11 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>330601</v>
+        <v>43466</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2184,24 +2184,24 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>22.1</v>
+        <v>24.3</v>
       </c>
       <c r="G52" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43421</v>
+        <v>43479</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2210,32 +2210,32 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>23.1</v>
+        <v>19.6</v>
       </c>
       <c r="G53" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43495</v>
+        <v>43486</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="G54" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2265,11 +2265,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43418</v>
+        <v>43436</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2278,30 +2278,30 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F55" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="G55" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43444</v>
+        <v>43467</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2318,10 +2318,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>19.5</v>
+        <v>24.6</v>
       </c>
       <c r="G56" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2331,11 +2331,11 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43424</v>
+        <v>43473</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2352,24 +2352,24 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>22.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G57" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43475</v>
+        <v>43415</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2378,30 +2378,32 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>14</v>
-      </c>
-      <c r="E58" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F58" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G58" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43413</v>
+        <v>43467</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2418,24 +2420,24 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="G59" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43466</v>
+        <v>43479</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2448,28 +2450,28 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>26.4</v>
+        <v>21</v>
       </c>
       <c r="G60" t="n">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43436</v>
+        <v>43421</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2480,28 +2482,30 @@
       <c r="D61" t="n">
         <v>0</v>
       </c>
-      <c r="E61" t="n">
-        <v>0.5</v>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F61" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="G61" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>721501</v>
+        <v>43418</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2513,27 +2517,27 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>9.800000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="F62" t="n">
-        <v>25.1</v>
+        <v>27</v>
       </c>
       <c r="G62" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2546,14 +2550,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="G63" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2563,11 +2567,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43497</v>
+        <v>43473</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2584,24 +2588,24 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>27.7</v>
+        <v>13.9</v>
       </c>
       <c r="G64" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43444</v>
+        <v>43404</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2618,10 +2622,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>23.2</v>
+        <v>26.9</v>
       </c>
       <c r="G65" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2631,11 +2635,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43410</v>
+        <v>43424</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2652,10 +2656,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>27.5</v>
+        <v>25.2</v>
       </c>
       <c r="G66" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2665,11 +2669,11 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>330601</v>
+        <v>43476</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2678,32 +2682,30 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.2</v>
       </c>
       <c r="F67" t="n">
-        <v>26</v>
+        <v>17.7</v>
       </c>
       <c r="G67" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>821501</v>
+        <v>43486</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2714,28 +2716,30 @@
       <c r="D68" t="n">
         <v>0</v>
       </c>
-      <c r="E68" t="n">
-        <v>0.5</v>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F68" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="G68" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43495</v>
+        <v>43422</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2752,10 +2756,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>26.7</v>
+        <v>24.4</v>
       </c>
       <c r="G69" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2765,11 +2769,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43486</v>
+        <v>821501</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2780,30 +2784,28 @@
       <c r="D70" t="n">
         <v>0</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E70" t="n">
+        <v>0.5</v>
       </c>
       <c r="F70" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="G70" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43404</v>
+        <v>330601</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2820,10 +2822,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>26.9</v>
+        <v>26</v>
       </c>
       <c r="G71" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2833,11 +2835,11 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43415</v>
+        <v>43410</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2854,10 +2856,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="G72" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2867,11 +2869,11 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43467</v>
+        <v>43444</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2888,10 +2890,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>26.3</v>
+        <v>23.2</v>
       </c>
       <c r="G73" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2901,11 +2903,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43479</v>
+        <v>43497</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2918,28 +2920,28 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>21</v>
+        <v>27.7</v>
       </c>
       <c r="G74" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43421</v>
+        <v>43450</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2952,14 +2954,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="G75" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2969,11 +2971,11 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43476</v>
+        <v>721501</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2982,30 +2984,30 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>17.7</v>
+        <v>25.1</v>
       </c>
       <c r="G76" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43441</v>
+        <v>43436</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3016,30 +3018,28 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E77" t="n">
+        <v>0.5</v>
       </c>
       <c r="F77" t="n">
-        <v>25.8</v>
+        <v>26.4</v>
       </c>
       <c r="G77" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43473</v>
+        <v>43466</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3056,24 +3056,24 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>13.9</v>
+        <v>26.4</v>
       </c>
       <c r="G78" t="n">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43418</v>
+        <v>43413</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3084,28 +3084,30 @@
       <c r="D79" t="n">
         <v>0</v>
       </c>
-      <c r="E79" t="n">
-        <v>0.2</v>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F79" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="G79" t="n">
         <v>81</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43424</v>
+        <v>43475</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3114,32 +3116,30 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="E80" t="n">
+        <v>14</v>
       </c>
       <c r="F80" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="G80" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43422</v>
+        <v>43495</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>24.4</v>
+        <v>26.7</v>
       </c>
       <c r="G81" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3169,11 +3169,11 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>43410</v>
+        <v>43422</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3181,35 +3181,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="G82" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>43404</v>
+        <v>43476</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3224,24 +3220,24 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>26.3</v>
+        <v>19.8</v>
       </c>
       <c r="G83" t="n">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>821501</v>
+        <v>43475</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3249,35 +3245,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.1</v>
       </c>
       <c r="F84" t="n">
-        <v>26.8</v>
+        <v>26</v>
       </c>
       <c r="G84" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>721501</v>
+        <v>43404</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3285,33 +3277,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="D85" t="n">
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="G85" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43475</v>
+        <v>821501</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3319,31 +3309,35 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1.1</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F86" t="n">
-        <v>26</v>
+        <v>26.8</v>
       </c>
       <c r="G86" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>43476</v>
+        <v>43410</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3351,31 +3345,35 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F87" t="n">
-        <v>19.8</v>
+        <v>27.2</v>
       </c>
       <c r="G87" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>43422</v>
+        <v>721501</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3383,17 +3381,19 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F88" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="G88" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3475,11 +3475,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3492,28 +3492,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E91" t="n">
-        <v>42.5</v>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F91" t="n">
-        <v>25.9</v>
+        <v>24</v>
       </c>
       <c r="G91" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>43466</v>
+        <v>43418</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3532,10 +3534,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="G92" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -3545,11 +3547,11 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>43421</v>
+        <v>43486</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3562,30 +3564,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E93" t="n">
+        <v>3.3</v>
       </c>
       <c r="F93" t="n">
-        <v>23.4</v>
+        <v>24.5</v>
       </c>
       <c r="G93" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3604,24 +3604,24 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>27</v>
+        <v>22.6</v>
       </c>
       <c r="G94" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3640,24 +3640,24 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>24.5</v>
+        <v>25.3</v>
       </c>
       <c r="G95" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>43413</v>
+        <v>43450</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3676,10 +3676,10 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="G96" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -3689,11 +3689,11 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3708,14 +3708,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>26.7</v>
+        <v>13.4</v>
       </c>
       <c r="G97" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3725,11 +3725,11 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>43497</v>
+        <v>43436</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3742,30 +3742,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E98" t="n">
+        <v>42.5</v>
       </c>
       <c r="F98" t="n">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="G98" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3780,14 +3778,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>13.4</v>
+        <v>26.7</v>
       </c>
       <c r="G99" t="n">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3797,11 +3795,11 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>43424</v>
+        <v>43413</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3820,24 +3818,24 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G100" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>43450</v>
+        <v>330601</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3856,10 +3854,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>25.8</v>
+        <v>24.5</v>
       </c>
       <c r="G101" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3869,11 +3867,11 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>43441</v>
+        <v>43495</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3892,24 +3890,24 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>25.3</v>
+        <v>27</v>
       </c>
       <c r="G102" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3928,24 +3926,24 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>22.6</v>
+        <v>23.4</v>
       </c>
       <c r="G103" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>43486</v>
+        <v>43466</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3958,28 +3956,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E104" t="n">
-        <v>3.3</v>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F104" t="n">
-        <v>24.5</v>
+        <v>26.3</v>
       </c>
       <c r="G104" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3998,10 +3998,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>26.1</v>
+        <v>25.4</v>
       </c>
       <c r="G105" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -4011,11 +4011,11 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>43418</v>
+        <v>43424</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4034,24 +4034,24 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>26.1</v>
+        <v>23.7</v>
       </c>
       <c r="G106" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>43466</v>
+        <v>43413</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4073,21 +4073,21 @@
         <v>25.8</v>
       </c>
       <c r="G107" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>43421</v>
+        <v>43467</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4106,10 +4106,10 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>23.5</v>
+        <v>25.8</v>
       </c>
       <c r="G108" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4136,28 +4136,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E109" t="n">
-        <v>42.5</v>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F109" t="n">
-        <v>25.7</v>
+        <v>25.1</v>
       </c>
       <c r="G109" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>330601</v>
+        <v>43497</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4176,24 +4178,24 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>23.5</v>
+        <v>24.9</v>
       </c>
       <c r="G110" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4203,31 +4205,33 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>3.3</v>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F111" t="n">
-        <v>24.2</v>
+        <v>22.4</v>
       </c>
       <c r="G111" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>fognight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>43441</v>
+        <v>43495</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4237,33 +4241,33 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>25</v>
+        <v>26.5</v>
       </c>
       <c r="G112" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>43473</v>
+        <v>43466</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4278,28 +4282,28 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>14</v>
+        <v>25.8</v>
       </c>
       <c r="G113" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>43495</v>
+        <v>43441</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4309,33 +4313,33 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>26.5</v>
+        <v>25</v>
       </c>
       <c r="G114" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>43424</v>
+        <v>43486</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4348,30 +4352,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E115" t="n">
+        <v>3.3</v>
       </c>
       <c r="F115" t="n">
-        <v>23.7</v>
+        <v>24.2</v>
       </c>
       <c r="G115" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fognight</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>43444</v>
+        <v>330601</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4381,33 +4383,33 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>22.4</v>
+        <v>23.5</v>
       </c>
       <c r="G116" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>43497</v>
+        <v>43436</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4420,30 +4422,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E117" t="n">
+        <v>42.5</v>
       </c>
       <c r="F117" t="n">
-        <v>24.9</v>
+        <v>25.7</v>
       </c>
       <c r="G117" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>43450</v>
+        <v>43421</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4462,24 +4462,24 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>25.1</v>
+        <v>23.5</v>
       </c>
       <c r="G118" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4494,14 +4494,14 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>25.8</v>
+        <v>14</v>
       </c>
       <c r="G119" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -4511,11 +4511,11 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>43413</v>
+        <v>43418</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4534,7 +4534,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="G120" t="n">
         <v>87</v>
@@ -4547,11 +4547,11 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4560,30 +4560,30 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="F121" t="n">
-        <v>22.2</v>
+        <v>23.9</v>
       </c>
       <c r="G121" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fog</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>43413</v>
+        <v>43466</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4598,10 +4598,10 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>25.8</v>
+        <v>25</v>
       </c>
       <c r="G122" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -4611,11 +4611,11 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>43473</v>
+        <v>330601</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4627,27 +4627,27 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>14.1</v>
+        <v>22.5</v>
       </c>
       <c r="G123" t="n">
         <v>95</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>43415</v>
+        <v>43479</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4656,16 +4656,16 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="E124" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="F124" t="n">
-        <v>24</v>
+        <v>20.2</v>
       </c>
       <c r="G124" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -4675,11 +4675,11 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>43450</v>
+        <v>43495</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4694,24 +4694,24 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>24.9</v>
+        <v>25.5</v>
       </c>
       <c r="G125" t="n">
         <v>91</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>43436</v>
+        <v>821501</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4720,30 +4720,30 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>43.2</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>24.9</v>
+        <v>22.8</v>
       </c>
       <c r="G126" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>43418</v>
+        <v>43410</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4758,10 +4758,10 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>26</v>
+        <v>26.6</v>
       </c>
       <c r="G127" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
@@ -4771,11 +4771,11 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>43424</v>
+        <v>721501</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4784,30 +4784,30 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F128" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="G128" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>43421</v>
+        <v>43467</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4822,10 +4822,10 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>23.3</v>
+        <v>25.4</v>
       </c>
       <c r="G129" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -4835,11 +4835,11 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>43441</v>
+        <v>43497</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4848,30 +4848,30 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>23.3</v>
+        <v>24.6</v>
       </c>
       <c r="G130" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>43467</v>
+        <v>43421</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4886,10 +4886,10 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>25.4</v>
+        <v>23.3</v>
       </c>
       <c r="G131" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
@@ -4899,11 +4899,11 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>43497</v>
+        <v>43424</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4918,24 +4918,24 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>24.6</v>
+        <v>23.2</v>
       </c>
       <c r="G132" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>721501</v>
+        <v>43418</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4944,30 +4944,30 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>23.6</v>
+        <v>26</v>
       </c>
       <c r="G133" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>43410</v>
+        <v>43436</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4976,30 +4976,30 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="F134" t="n">
-        <v>26.6</v>
+        <v>24.9</v>
       </c>
       <c r="G134" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>821501</v>
+        <v>43450</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5014,24 +5014,24 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>22.8</v>
+        <v>24.9</v>
       </c>
       <c r="G135" t="n">
         <v>91</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>43495</v>
+        <v>43415</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5040,16 +5040,16 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F136" t="n">
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="G136" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
@@ -5059,11 +5059,11 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>43479</v>
+        <v>43473</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5072,30 +5072,30 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>20.2</v>
+        <v>14.1</v>
       </c>
       <c r="G137" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>330601</v>
+        <v>43413</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5110,24 +5110,24 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>22.5</v>
+        <v>25.8</v>
       </c>
       <c r="G138" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>43466</v>
+        <v>43444</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5136,30 +5136,30 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>25</v>
+        <v>22.2</v>
       </c>
       <c r="G139" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>43486</v>
+        <v>43441</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5168,30 +5168,30 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E140" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="F140" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="G140" t="n">
         <v>95</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>fog</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5199,31 +5199,33 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D141" t="n">
-        <v>0.5</v>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E141" t="n">
-        <v>43.7</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>24.9</v>
+        <v>25.8</v>
       </c>
       <c r="G141" t="n">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>43444</v>
+        <v>43467</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5237,27 +5239,27 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>23.3</v>
+        <v>26.8</v>
       </c>
       <c r="G142" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>721501</v>
+        <v>43424</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5265,17 +5267,19 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D143" t="n">
-        <v>2.7</v>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E143" t="n">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>24</v>
+        <v>25.1</v>
       </c>
       <c r="G143" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
@@ -5285,11 +5289,11 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>43404</v>
+        <v>43479</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5299,31 +5303,31 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Tr</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F144" t="n">
-        <v>26.3</v>
+        <v>20.9</v>
       </c>
       <c r="G144" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>821501</v>
+        <v>43476</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5331,33 +5335,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D145" t="n">
+        <v>1.9</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F145" t="n">
-        <v>25.6</v>
+        <v>19</v>
       </c>
       <c r="G145" t="n">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>43421</v>
+        <v>43495</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5374,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>24.2</v>
+        <v>27.2</v>
       </c>
       <c r="G146" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
@@ -5387,11 +5389,11 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>43415</v>
+        <v>43497</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5405,27 +5407,27 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>24.8</v>
+        <v>26</v>
       </c>
       <c r="G147" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>43441</v>
+        <v>330601</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5433,17 +5435,19 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D148" t="n">
-        <v>0.2</v>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E148" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="G148" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
@@ -5453,11 +5457,11 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>43422</v>
+        <v>43475</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5471,27 +5475,27 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F149" t="n">
-        <v>24.5</v>
+        <v>27.5</v>
       </c>
       <c r="G149" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>43410</v>
+        <v>43473</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5505,27 +5509,27 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>27.3</v>
+        <v>16.8</v>
       </c>
       <c r="G150" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>43413</v>
+        <v>43466</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5542,24 +5546,24 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>26.3</v>
+        <v>27.1</v>
       </c>
       <c r="G151" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5573,27 +5577,27 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F152" t="n">
-        <v>27</v>
+        <v>25.8</v>
       </c>
       <c r="G152" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>43466</v>
+        <v>43413</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5610,24 +5614,24 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>27.1</v>
+        <v>26.3</v>
       </c>
       <c r="G153" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>43475</v>
+        <v>43410</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5641,27 +5645,27 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="G154" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>43450</v>
+        <v>43422</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5678,10 +5682,10 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>25.8</v>
+        <v>24.5</v>
       </c>
       <c r="G155" t="n">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
@@ -5691,11 +5695,11 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>43467</v>
+        <v>43441</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5703,33 +5707,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D156" t="n">
+        <v>0.2</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="F156" t="n">
-        <v>26.8</v>
+        <v>25.3</v>
       </c>
       <c r="G156" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>43424</v>
+        <v>43415</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5743,13 +5745,13 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F157" t="n">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="G157" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
@@ -5759,11 +5761,11 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>43479</v>
+        <v>43421</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5773,31 +5775,31 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Tr</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>20.9</v>
+        <v>24.2</v>
       </c>
       <c r="G158" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>43473</v>
+        <v>821501</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5811,13 +5813,13 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>16.8</v>
+        <v>25.6</v>
       </c>
       <c r="G159" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
@@ -5827,11 +5829,11 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>43495</v>
+        <v>43404</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5848,24 +5850,24 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>27.2</v>
+        <v>26.3</v>
       </c>
       <c r="G160" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>43497</v>
+        <v>721501</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5873,33 +5875,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D161" t="n">
+        <v>2.7</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="F161" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G161" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>330601</v>
+        <v>43444</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5913,13 +5913,13 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F162" t="n">
-        <v>25.5</v>
+        <v>23.3</v>
       </c>
       <c r="G162" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
@@ -5929,11 +5929,11 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>43486</v>
+        <v>43436</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5941,33 +5941,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D163" t="n">
+        <v>0.5</v>
       </c>
       <c r="E163" t="n">
-        <v>3.3</v>
+        <v>43.7</v>
       </c>
       <c r="F163" t="n">
-        <v>25.8</v>
+        <v>24.9</v>
       </c>
       <c r="G163" t="n">
         <v>95</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>43476</v>
+        <v>43418</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5975,31 +5973,33 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D164" t="n">
-        <v>1.9</v>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E164" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G164" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>43467</v>
+        <v>43424</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6014,24 +6014,24 @@
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>30.8</v>
+        <v>27.6</v>
       </c>
       <c r="G165" t="n">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>43473</v>
+        <v>43421</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6046,24 +6046,24 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>18.8</v>
+        <v>26.4</v>
       </c>
       <c r="G166" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>43476</v>
+        <v>43418</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6078,24 +6078,24 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>20.3</v>
+        <v>28.2</v>
       </c>
       <c r="G167" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>43479</v>
+        <v>43413</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6110,10 +6110,10 @@
         <v>0.2</v>
       </c>
       <c r="F168" t="n">
-        <v>22.2</v>
+        <v>26.7</v>
       </c>
       <c r="G168" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
@@ -6123,11 +6123,11 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>330601</v>
+        <v>721501</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6136,30 +6136,30 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F169" t="n">
-        <v>31</v>
+        <v>25.1</v>
       </c>
       <c r="G169" t="n">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>43495</v>
+        <v>43404</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6174,24 +6174,24 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>27.7</v>
+        <v>26.9</v>
       </c>
       <c r="G170" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>43497</v>
+        <v>821501</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6206,24 +6206,24 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>32.3</v>
+        <v>28.2</v>
       </c>
       <c r="G171" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>43475</v>
+        <v>43444</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6232,30 +6232,30 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F172" t="n">
-        <v>29.8</v>
+        <v>24.1</v>
       </c>
       <c r="G172" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>43466</v>
+        <v>43436</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6264,30 +6264,30 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F173" t="n">
-        <v>29.9</v>
+        <v>27.6</v>
       </c>
       <c r="G173" t="n">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>43486</v>
+        <v>43410</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6302,24 +6302,24 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>31.5</v>
+        <v>28.1</v>
       </c>
       <c r="G174" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6334,24 +6334,24 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>29</v>
+        <v>27.6</v>
       </c>
       <c r="G175" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>43422</v>
+        <v>43415</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="E176" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="F176" t="n">
-        <v>24.8</v>
+        <v>27</v>
       </c>
       <c r="G176" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
@@ -6379,11 +6379,11 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>43441</v>
+        <v>43450</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6398,24 +6398,24 @@
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>27.6</v>
+        <v>29</v>
       </c>
       <c r="G177" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>43436</v>
+        <v>43486</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6424,30 +6424,30 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>27.6</v>
+        <v>31.5</v>
       </c>
       <c r="G178" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>43424</v>
+        <v>43466</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6462,24 +6462,24 @@
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>27.6</v>
+        <v>29.9</v>
       </c>
       <c r="G179" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>43421</v>
+        <v>43475</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6494,24 +6494,24 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>26.4</v>
+        <v>29.8</v>
       </c>
       <c r="G180" t="n">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6526,24 +6526,24 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>28.2</v>
+        <v>32.3</v>
       </c>
       <c r="G181" t="n">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>43415</v>
+        <v>43495</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6552,30 +6552,30 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>27</v>
+        <v>27.7</v>
       </c>
       <c r="G182" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>43413</v>
+        <v>330601</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6584,30 +6584,30 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>26.7</v>
+        <v>31</v>
       </c>
       <c r="G183" t="n">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>43410</v>
+        <v>43479</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6616,16 +6616,16 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F184" t="n">
-        <v>28.1</v>
+        <v>22.2</v>
       </c>
       <c r="G184" t="n">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
@@ -6635,11 +6635,11 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>43404</v>
+        <v>43476</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6654,24 +6654,24 @@
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>26.9</v>
+        <v>20.3</v>
       </c>
       <c r="G185" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>821501</v>
+        <v>43473</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6686,24 +6686,24 @@
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>28.2</v>
+        <v>18.8</v>
       </c>
       <c r="G186" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>43444</v>
+        <v>43467</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6712,52 +6712,874 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>24.1</v>
+        <v>30.8</v>
       </c>
       <c r="G187" t="n">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
+        <v>43422</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>MAHA ILLUPPALLAMA</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2025-12-29 1130</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F188" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="G188" t="n">
+        <v>97</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>43467</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>RATMALANA</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="G189" t="n">
+        <v>57</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>fairday</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>43473</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="G190" t="n">
+        <v>73</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>43476</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>BANDARAWELA</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="G191" t="n">
+        <v>89</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>haze</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>43479</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>BADULLA</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F192" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="G192" t="n">
+        <v>86</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>330601</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>MATTALA</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="G193" t="n">
+        <v>61</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>43495</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>GALLE</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="G194" t="n">
+        <v>77</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>fairday</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>HAMBANTOTA</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="G195" t="n">
+        <v>75</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>fairday</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>43475</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>POTTUVIL</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="G196" t="n">
+        <v>69</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>COLOMBO</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="G197" t="n">
+        <v>59</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>43486</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>RATNAPURA</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="G198" t="n">
+        <v>58</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>fairday</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>43450</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>KATUNAYAKE</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="G199" t="n">
+        <v>61</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>43421</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>ANURADHAPURA</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="G200" t="n">
+        <v>82</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>fairday</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>43441</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>KURUNEGALA</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="G201" t="n">
+        <v>69</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>43436</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>BATTICALOA</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F202" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G202" t="n">
+        <v>83</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>43424</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>PUTTALAM</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>27</v>
+      </c>
+      <c r="G203" t="n">
+        <v>83</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>showers</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>43422</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>MAHA ILLUPPALLAMA</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="G204" t="n">
+        <v>85</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>43418</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>TRINCOMALEE</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="G205" t="n">
+        <v>75</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>43415</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>VAVUNIYA</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F206" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="G206" t="n">
+        <v>75</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>43413</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>MANNAR</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F207" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="G207" t="n">
+        <v>77</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>43410</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>MULLATIVU</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>28</v>
+      </c>
+      <c r="G208" t="n">
+        <v>81</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JAFFNA</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="G209" t="n">
+        <v>76</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>821501</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>MONARAGALA</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="G210" t="n">
+        <v>65</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>43444</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>KATUGASTOTA</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F211" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="G211" t="n">
+        <v>85</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
         <v>721501</v>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>POLONNARUWA</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>2025-12-29 1130</t>
-        </is>
-      </c>
-      <c r="D188" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E188" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F188" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="G188" t="n">
-        <v>94</v>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>cloudy</t>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F212" t="n">
+        <v>26</v>
+      </c>
+      <c r="G212" t="n">
+        <v>92</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>rain</t>
         </is>
       </c>
     </row>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -775,11 +775,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -809,11 +809,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43441</v>
+        <v>43421</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>24.6</v>
+        <v>23.7</v>
       </c>
       <c r="G12" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -843,11 +843,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>21.2</v>
+        <v>23.9</v>
       </c>
       <c r="G13" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43450</v>
+        <v>43436</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -894,28 +894,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="G14" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43497</v>
+        <v>43418</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -926,16 +926,14 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E15" t="n">
+        <v>0.2</v>
       </c>
       <c r="F15" t="n">
-        <v>25.2</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -945,11 +943,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43424</v>
+        <v>43413</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -966,24 +964,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>24.6</v>
+        <v>26.1</v>
       </c>
       <c r="G16" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43495</v>
+        <v>330601</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1000,10 +998,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>25.1</v>
+        <v>24</v>
       </c>
       <c r="G17" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1013,11 +1011,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>330601</v>
+        <v>43466</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1034,24 +1032,24 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>24</v>
+        <v>26.3</v>
       </c>
       <c r="G18" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43413</v>
+        <v>43424</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1068,24 +1066,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>26.1</v>
+        <v>24.6</v>
       </c>
       <c r="G19" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1096,14 +1094,16 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.2</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F20" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="G20" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1113,11 +1113,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1130,28 +1130,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>26.8</v>
+        <v>24.8</v>
       </c>
       <c r="G21" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1168,24 +1168,24 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>23.9</v>
+        <v>21.2</v>
       </c>
       <c r="G22" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43421</v>
+        <v>43441</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="G23" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1215,11 +1215,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G24" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1249,11 +1249,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43466</v>
+        <v>43495</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1270,24 +1270,24 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G25" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43444</v>
+        <v>43495</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>20.1</v>
+        <v>25</v>
       </c>
       <c r="G26" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1317,11 +1317,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43467</v>
+        <v>43424</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1338,10 +1338,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>25.6</v>
+        <v>23.5</v>
       </c>
       <c r="G27" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1351,11 +1351,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1366,28 +1366,30 @@
       <c r="D28" t="n">
         <v>0</v>
       </c>
-      <c r="E28" t="n">
-        <v>0.2</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F28" t="n">
-        <v>25.4</v>
+        <v>23.1</v>
       </c>
       <c r="G28" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43497</v>
+        <v>43441</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1400,14 +1402,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>24.7</v>
+        <v>22.9</v>
       </c>
       <c r="G29" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1417,11 +1419,11 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>330601</v>
+        <v>43450</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1438,24 +1440,24 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="G30" t="n">
         <v>88</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43413</v>
+        <v>43466</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1472,10 +1474,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="G31" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1485,11 +1487,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43473</v>
+        <v>43436</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1502,18 +1504,18 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>15</v>
+        <v>26.4</v>
       </c>
       <c r="G32" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
@@ -1553,11 +1555,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43436</v>
+        <v>43413</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1570,28 +1572,28 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>26.4</v>
+        <v>25.6</v>
       </c>
       <c r="G34" t="n">
         <v>87</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43466</v>
+        <v>330601</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1608,10 +1610,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="G35" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1621,11 +1623,11 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1642,24 +1644,24 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="G36" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43441</v>
+        <v>43418</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1670,16 +1672,14 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E37" t="n">
+        <v>0.2</v>
       </c>
       <c r="F37" t="n">
-        <v>22.9</v>
+        <v>25.4</v>
       </c>
       <c r="G37" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1689,11 +1689,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43486</v>
+        <v>43467</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1710,24 +1710,24 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>23.1</v>
+        <v>25.6</v>
       </c>
       <c r="G38" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43424</v>
+        <v>43444</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>23.5</v>
+        <v>20.1</v>
       </c>
       <c r="G39" t="n">
         <v>94</v>
@@ -1757,11 +1757,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43495</v>
+        <v>43473</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1778,24 +1778,24 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G40" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43497</v>
+        <v>43450</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1812,24 +1812,24 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="G41" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43444</v>
+        <v>43467</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1846,10 +1846,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>19.5</v>
+        <v>24.6</v>
       </c>
       <c r="G42" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1859,11 +1859,11 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43418</v>
+        <v>43436</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1872,30 +1872,30 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F43" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="G43" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43495</v>
+        <v>43486</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1912,10 +1912,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="G44" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1925,11 +1925,11 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43421</v>
+        <v>43479</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1938,32 +1938,32 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>23.1</v>
+        <v>19.6</v>
       </c>
       <c r="G45" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>330601</v>
+        <v>43466</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1980,24 +1980,24 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>22.1</v>
+        <v>24.3</v>
       </c>
       <c r="G46" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43441</v>
+        <v>43415</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2010,14 +2010,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>22</v>
+        <v>22.4</v>
       </c>
       <c r="G47" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2027,11 +2027,11 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43413</v>
+        <v>43424</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2048,24 +2048,24 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>25.8</v>
+        <v>22.6</v>
       </c>
       <c r="G48" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43424</v>
+        <v>43473</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2082,24 +2082,24 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>22.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2112,28 +2112,28 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>23.4</v>
+        <v>22</v>
       </c>
       <c r="G50" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43415</v>
+        <v>330601</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2150,24 +2150,24 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="G51" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2180,14 +2180,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="G52" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2197,11 +2197,11 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43479</v>
+        <v>43495</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2210,32 +2210,32 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>19.6</v>
+        <v>24.5</v>
       </c>
       <c r="G53" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43486</v>
+        <v>43418</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2246,30 +2246,28 @@
       <c r="D54" t="n">
         <v>0</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E54" t="n">
+        <v>0.2</v>
       </c>
       <c r="F54" t="n">
-        <v>22.5</v>
+        <v>25.4</v>
       </c>
       <c r="G54" t="n">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43436</v>
+        <v>43444</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2278,30 +2276,32 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F55" t="n">
-        <v>25.2</v>
+        <v>19.5</v>
       </c>
       <c r="G55" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43467</v>
+        <v>43497</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2318,24 +2318,24 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="G56" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43473</v>
+        <v>43413</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2352,10 +2352,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>9.800000000000001</v>
+        <v>25.8</v>
       </c>
       <c r="G57" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2365,11 +2365,11 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43415</v>
+        <v>43410</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="G58" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2399,11 +2399,11 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43467</v>
+        <v>43444</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2420,10 +2420,10 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>26.3</v>
+        <v>23.2</v>
       </c>
       <c r="G59" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2433,11 +2433,11 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43479</v>
+        <v>43497</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2450,28 +2450,28 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>21</v>
+        <v>27.7</v>
       </c>
       <c r="G60" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43421</v>
+        <v>43450</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2484,14 +2484,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="G61" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2501,11 +2501,11 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43418</v>
+        <v>43413</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2516,28 +2516,30 @@
       <c r="D62" t="n">
         <v>0</v>
       </c>
-      <c r="E62" t="n">
-        <v>0.2</v>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F62" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="G62" t="n">
         <v>81</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43441</v>
+        <v>43436</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2548,30 +2550,28 @@
       <c r="D63" t="n">
         <v>0</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E63" t="n">
+        <v>0.5</v>
       </c>
       <c r="F63" t="n">
-        <v>25.8</v>
+        <v>26.4</v>
       </c>
       <c r="G63" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43473</v>
+        <v>43466</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2588,24 +2588,24 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>13.9</v>
+        <v>26.4</v>
       </c>
       <c r="G64" t="n">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43404</v>
+        <v>330601</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2622,10 +2622,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>26.9</v>
+        <v>26</v>
       </c>
       <c r="G65" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2635,11 +2635,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43424</v>
+        <v>43475</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2648,32 +2648,30 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="E66" t="n">
+        <v>14</v>
       </c>
       <c r="F66" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="G66" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43476</v>
+        <v>721501</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2682,30 +2680,30 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>17.7</v>
+        <v>25.1</v>
       </c>
       <c r="G67" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>43486</v>
+        <v>821501</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2716,30 +2714,28 @@
       <c r="D68" t="n">
         <v>0</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E68" t="n">
+        <v>0.5</v>
       </c>
       <c r="F68" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="G68" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43422</v>
+        <v>43495</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2756,10 +2752,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>24.4</v>
+        <v>26.7</v>
       </c>
       <c r="G69" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2769,11 +2765,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>821501</v>
+        <v>43486</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2784,28 +2780,30 @@
       <c r="D70" t="n">
         <v>0</v>
       </c>
-      <c r="E70" t="n">
-        <v>0.5</v>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F70" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="G70" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>330601</v>
+        <v>43476</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2814,32 +2812,30 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.2</v>
       </c>
       <c r="F71" t="n">
-        <v>26</v>
+        <v>17.7</v>
       </c>
       <c r="G71" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43410</v>
+        <v>43424</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2856,10 +2852,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>27.5</v>
+        <v>25.2</v>
       </c>
       <c r="G72" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2869,11 +2865,11 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43444</v>
+        <v>43404</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2890,10 +2886,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>23.2</v>
+        <v>26.9</v>
       </c>
       <c r="G73" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2903,11 +2899,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43497</v>
+        <v>43473</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2924,24 +2920,24 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>27.7</v>
+        <v>13.9</v>
       </c>
       <c r="G74" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2954,14 +2950,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="G75" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2971,11 +2967,11 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>721501</v>
+        <v>43418</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2987,27 +2983,27 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>9.800000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="F76" t="n">
-        <v>25.1</v>
+        <v>27</v>
       </c>
       <c r="G76" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43436</v>
+        <v>43421</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3018,28 +3014,30 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
-      <c r="E77" t="n">
-        <v>0.5</v>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F77" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="G77" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43466</v>
+        <v>43479</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3052,28 +3050,28 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>26.4</v>
+        <v>21</v>
       </c>
       <c r="G78" t="n">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43413</v>
+        <v>43467</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3090,24 +3088,24 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="G79" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43475</v>
+        <v>43415</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3116,30 +3114,32 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>14</v>
-      </c>
-      <c r="E80" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F80" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G80" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43495</v>
+        <v>43422</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>26.7</v>
+        <v>24.4</v>
       </c>
       <c r="G81" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3169,11 +3169,11 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>43422</v>
+        <v>721501</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3181,17 +3181,19 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>0</v>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F82" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="G82" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3201,11 +3203,11 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>43476</v>
+        <v>43410</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3213,31 +3215,35 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F83" t="n">
-        <v>19.8</v>
+        <v>27.2</v>
       </c>
       <c r="G83" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>43475</v>
+        <v>821501</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3245,31 +3251,35 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1.1</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F84" t="n">
-        <v>26</v>
+        <v>26.8</v>
       </c>
       <c r="G84" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43404</v>
+        <v>43476</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3284,24 +3294,24 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>26.3</v>
+        <v>19.8</v>
       </c>
       <c r="G85" t="n">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>821501</v>
+        <v>43475</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3309,35 +3319,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.1</v>
       </c>
       <c r="F86" t="n">
-        <v>26.8</v>
+        <v>26</v>
       </c>
       <c r="G86" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>43410</v>
+        <v>43422</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3345,35 +3351,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="G87" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>721501</v>
+        <v>43404</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3381,23 +3383,21 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="D88" t="n">
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="G88" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
@@ -3475,11 +3475,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>43424</v>
+        <v>43413</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3498,24 +3498,24 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G91" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3534,10 +3534,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>26.1</v>
+        <v>25.4</v>
       </c>
       <c r="G92" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -3547,11 +3547,11 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>43486</v>
+        <v>43466</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3564,28 +3564,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E93" t="n">
-        <v>3.3</v>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F93" t="n">
-        <v>24.5</v>
+        <v>26.3</v>
       </c>
       <c r="G93" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3604,24 +3606,24 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>22.6</v>
+        <v>23.4</v>
       </c>
       <c r="G94" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>43441</v>
+        <v>43495</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3640,24 +3642,24 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>25.3</v>
+        <v>27</v>
       </c>
       <c r="G95" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>43450</v>
+        <v>330601</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3676,10 +3678,10 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>25.8</v>
+        <v>24.5</v>
       </c>
       <c r="G96" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -3689,11 +3691,11 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3708,14 +3710,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>13.4</v>
+        <v>26.7</v>
       </c>
       <c r="G97" t="n">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3725,11 +3727,11 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3742,28 +3744,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E98" t="n">
-        <v>42.5</v>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F98" t="n">
-        <v>25.9</v>
+        <v>24</v>
       </c>
       <c r="G98" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3778,14 +3782,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>26.7</v>
+        <v>13.4</v>
       </c>
       <c r="G99" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3795,11 +3799,11 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>43413</v>
+        <v>43450</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3818,10 +3822,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="G100" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -3831,11 +3835,11 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3854,24 +3858,24 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>24.5</v>
+        <v>25.3</v>
       </c>
       <c r="G101" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3890,24 +3894,24 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>27</v>
+        <v>22.6</v>
       </c>
       <c r="G102" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>43421</v>
+        <v>43486</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3920,30 +3924,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E103" t="n">
+        <v>3.3</v>
       </c>
       <c r="F103" t="n">
-        <v>23.4</v>
+        <v>24.5</v>
       </c>
       <c r="G103" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>43466</v>
+        <v>43418</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3962,10 +3964,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="G104" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -3975,11 +3977,11 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>43497</v>
+        <v>43436</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3992,30 +3994,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E105" t="n">
+        <v>42.5</v>
       </c>
       <c r="F105" t="n">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="G105" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>43424</v>
+        <v>43486</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4028,30 +4028,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E106" t="n">
+        <v>3.3</v>
       </c>
       <c r="F106" t="n">
-        <v>23.7</v>
+        <v>24.2</v>
       </c>
       <c r="G106" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fognight</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>43413</v>
+        <v>43418</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4070,7 +4068,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="G107" t="n">
         <v>87</v>
@@ -4083,11 +4081,11 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4102,14 +4100,14 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>25.8</v>
+        <v>14</v>
       </c>
       <c r="G108" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -4119,11 +4117,11 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>43450</v>
+        <v>43421</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4142,24 +4140,24 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>25.1</v>
+        <v>23.5</v>
       </c>
       <c r="G109" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>43497</v>
+        <v>43436</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4172,30 +4170,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E110" t="n">
+        <v>42.5</v>
       </c>
       <c r="F110" t="n">
-        <v>24.9</v>
+        <v>25.7</v>
       </c>
       <c r="G110" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>43444</v>
+        <v>330601</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4205,33 +4201,33 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>22.4</v>
+        <v>23.5</v>
       </c>
       <c r="G111" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>43495</v>
+        <v>43441</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4241,33 +4237,33 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>26.5</v>
+        <v>25</v>
       </c>
       <c r="G112" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>43466</v>
+        <v>43413</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4289,21 +4285,21 @@
         <v>25.8</v>
       </c>
       <c r="G113" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>43441</v>
+        <v>43495</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4313,33 +4309,33 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>25</v>
+        <v>26.5</v>
       </c>
       <c r="G114" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4349,31 +4345,33 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>3.3</v>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F115" t="n">
-        <v>24.2</v>
+        <v>22.4</v>
       </c>
       <c r="G115" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>fognight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>330601</v>
+        <v>43497</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4392,24 +4390,24 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>23.5</v>
+        <v>24.9</v>
       </c>
       <c r="G116" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4422,28 +4420,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E117" t="n">
-        <v>42.5</v>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F117" t="n">
-        <v>25.7</v>
+        <v>25.1</v>
       </c>
       <c r="G117" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>43421</v>
+        <v>43467</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>23.5</v>
+        <v>25.8</v>
       </c>
       <c r="G118" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -4475,11 +4475,11 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>43473</v>
+        <v>43466</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4494,28 +4494,28 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>14</v>
+        <v>25.8</v>
       </c>
       <c r="G119" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>43418</v>
+        <v>43424</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4534,24 +4534,24 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>26.1</v>
+        <v>23.7</v>
       </c>
       <c r="G120" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>43486</v>
+        <v>43441</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4560,30 +4560,30 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E121" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="F121" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="G121" t="n">
         <v>95</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>fog</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>43466</v>
+        <v>43444</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4592,30 +4592,30 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>25</v>
+        <v>22.2</v>
       </c>
       <c r="G122" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>330601</v>
+        <v>43413</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4630,24 +4630,24 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>22.5</v>
+        <v>25.8</v>
       </c>
       <c r="G123" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>43479</v>
+        <v>43473</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4656,30 +4656,30 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>20.2</v>
+        <v>14.1</v>
       </c>
       <c r="G124" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>43495</v>
+        <v>43415</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4688,16 +4688,16 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F125" t="n">
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="G125" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
@@ -4707,11 +4707,11 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>821501</v>
+        <v>43450</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4726,24 +4726,24 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>22.8</v>
+        <v>24.9</v>
       </c>
       <c r="G126" t="n">
         <v>91</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>43410</v>
+        <v>43436</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4752,30 +4752,30 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="F127" t="n">
-        <v>26.6</v>
+        <v>24.9</v>
       </c>
       <c r="G127" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>721501</v>
+        <v>43418</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4784,30 +4784,30 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>23.6</v>
+        <v>26</v>
       </c>
       <c r="G128" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>43467</v>
+        <v>43421</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4822,10 +4822,10 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>25.4</v>
+        <v>23.3</v>
       </c>
       <c r="G129" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -4835,11 +4835,11 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>43497</v>
+        <v>43424</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4854,24 +4854,24 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>24.6</v>
+        <v>23.2</v>
       </c>
       <c r="G130" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>43421</v>
+        <v>43467</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4886,10 +4886,10 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>23.3</v>
+        <v>25.4</v>
       </c>
       <c r="G131" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
@@ -4899,11 +4899,11 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>43424</v>
+        <v>721501</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4912,30 +4912,30 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F132" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="G132" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>43418</v>
+        <v>43410</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4950,10 +4950,10 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>26</v>
+        <v>26.6</v>
       </c>
       <c r="G133" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
@@ -4963,11 +4963,11 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>43436</v>
+        <v>821501</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4976,30 +4976,30 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>43.2</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>24.9</v>
+        <v>22.8</v>
       </c>
       <c r="G134" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>43450</v>
+        <v>43495</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5014,24 +5014,24 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>24.9</v>
+        <v>25.5</v>
       </c>
       <c r="G135" t="n">
         <v>91</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>43415</v>
+        <v>43479</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5040,16 +5040,16 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="E136" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="F136" t="n">
-        <v>24</v>
+        <v>20.2</v>
       </c>
       <c r="G136" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
@@ -5059,11 +5059,11 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>43473</v>
+        <v>330601</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5075,27 +5075,27 @@
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>14.1</v>
+        <v>22.5</v>
       </c>
       <c r="G137" t="n">
         <v>95</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>43413</v>
+        <v>43466</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5110,10 +5110,10 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>25.8</v>
+        <v>25</v>
       </c>
       <c r="G138" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
@@ -5123,11 +5123,11 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5136,30 +5136,30 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="F139" t="n">
-        <v>22.2</v>
+        <v>23.9</v>
       </c>
       <c r="G139" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fog</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>43441</v>
+        <v>43497</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5168,30 +5168,30 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>23.3</v>
+        <v>24.6</v>
       </c>
       <c r="G140" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>43450</v>
+        <v>43422</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5208,10 +5208,10 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>25.8</v>
+        <v>24.5</v>
       </c>
       <c r="G141" t="n">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
@@ -5221,11 +5221,11 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>43467</v>
+        <v>43441</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5233,33 +5233,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D142" t="n">
+        <v>0.2</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="F142" t="n">
-        <v>26.8</v>
+        <v>25.3</v>
       </c>
       <c r="G142" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>43424</v>
+        <v>43415</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5273,13 +5271,13 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F143" t="n">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="G143" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
@@ -5289,11 +5287,11 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>43479</v>
+        <v>43421</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5303,31 +5301,31 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Tr</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>20.9</v>
+        <v>24.2</v>
       </c>
       <c r="G144" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>43476</v>
+        <v>43418</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5335,31 +5333,33 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D145" t="n">
-        <v>1.9</v>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E145" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G145" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>43495</v>
+        <v>43404</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5376,24 +5376,24 @@
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>27.2</v>
+        <v>26.3</v>
       </c>
       <c r="G146" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>43497</v>
+        <v>721501</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5401,33 +5401,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D147" t="n">
+        <v>2.7</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="F147" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G147" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>330601</v>
+        <v>43444</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5441,13 +5439,13 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F148" t="n">
-        <v>25.5</v>
+        <v>23.3</v>
       </c>
       <c r="G148" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
@@ -5457,11 +5455,11 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>43475</v>
+        <v>43410</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5475,27 +5473,27 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="G149" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>43473</v>
+        <v>821501</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5509,13 +5507,13 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>16.8</v>
+        <v>25.6</v>
       </c>
       <c r="G150" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
@@ -5525,11 +5523,11 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>43466</v>
+        <v>43413</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5546,24 +5544,24 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>27.1</v>
+        <v>26.3</v>
       </c>
       <c r="G151" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>43486</v>
+        <v>43436</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5571,33 +5569,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D152" t="n">
+        <v>0.5</v>
       </c>
       <c r="E152" t="n">
-        <v>3.3</v>
+        <v>43.7</v>
       </c>
       <c r="F152" t="n">
-        <v>25.8</v>
+        <v>24.9</v>
       </c>
       <c r="G152" t="n">
         <v>95</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>43413</v>
+        <v>43466</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5614,24 +5610,24 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>26.3</v>
+        <v>27.1</v>
       </c>
       <c r="G153" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>43410</v>
+        <v>43473</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5645,27 +5641,27 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>27.3</v>
+        <v>16.8</v>
       </c>
       <c r="G154" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>43422</v>
+        <v>43475</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5679,27 +5675,27 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F155" t="n">
-        <v>24.5</v>
+        <v>27.5</v>
       </c>
       <c r="G155" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>43441</v>
+        <v>330601</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5707,17 +5703,19 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D156" t="n">
-        <v>0.2</v>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E156" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="G156" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
@@ -5727,11 +5725,11 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>43415</v>
+        <v>43497</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5745,27 +5743,27 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>24.8</v>
+        <v>26</v>
       </c>
       <c r="G157" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>43421</v>
+        <v>43495</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5782,10 +5780,10 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>24.2</v>
+        <v>27.2</v>
       </c>
       <c r="G158" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
@@ -5795,11 +5793,11 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>821501</v>
+        <v>43476</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5807,33 +5805,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D159" t="n">
+        <v>1.9</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F159" t="n">
-        <v>25.6</v>
+        <v>19</v>
       </c>
       <c r="G159" t="n">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>43404</v>
+        <v>43479</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5843,31 +5839,31 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Tr</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F160" t="n">
-        <v>26.3</v>
+        <v>20.9</v>
       </c>
       <c r="G160" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>721501</v>
+        <v>43424</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5875,17 +5871,19 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D161" t="n">
-        <v>2.7</v>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E161" t="n">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>24</v>
+        <v>25.1</v>
       </c>
       <c r="G161" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
@@ -5895,11 +5893,11 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>43444</v>
+        <v>43467</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5913,27 +5911,27 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>23.3</v>
+        <v>26.8</v>
       </c>
       <c r="G162" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5941,31 +5939,33 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D163" t="n">
-        <v>0.5</v>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E163" t="n">
-        <v>43.7</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>24.9</v>
+        <v>25.8</v>
       </c>
       <c r="G163" t="n">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5979,27 +5979,27 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F164" t="n">
-        <v>27</v>
+        <v>25.8</v>
       </c>
       <c r="G164" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>43424</v>
+        <v>43466</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6014,24 +6014,24 @@
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>27.6</v>
+        <v>29.9</v>
       </c>
       <c r="G165" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>43421</v>
+        <v>43475</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6046,24 +6046,24 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>26.4</v>
+        <v>29.8</v>
       </c>
       <c r="G166" t="n">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6078,24 +6078,24 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>28.2</v>
+        <v>32.3</v>
       </c>
       <c r="G167" t="n">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>43413</v>
+        <v>330601</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6104,30 +6104,30 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>26.7</v>
+        <v>31</v>
       </c>
       <c r="G168" t="n">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>721501</v>
+        <v>43422</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6136,16 +6136,16 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="E169" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="F169" t="n">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="G169" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
@@ -6155,11 +6155,11 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>43404</v>
+        <v>43476</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6174,24 +6174,24 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>26.9</v>
+        <v>20.3</v>
       </c>
       <c r="G170" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>821501</v>
+        <v>43473</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6206,24 +6206,24 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>28.2</v>
+        <v>18.8</v>
       </c>
       <c r="G171" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>43444</v>
+        <v>43467</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6232,30 +6232,30 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>24.1</v>
+        <v>30.8</v>
       </c>
       <c r="G172" t="n">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>43436</v>
+        <v>43486</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6264,30 +6264,30 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>27.6</v>
+        <v>31.5</v>
       </c>
       <c r="G173" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>43410</v>
+        <v>43479</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6296,16 +6296,16 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F174" t="n">
-        <v>28.1</v>
+        <v>22.2</v>
       </c>
       <c r="G174" t="n">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
@@ -6315,11 +6315,11 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>43441</v>
+        <v>43450</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6334,24 +6334,24 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>27.6</v>
+        <v>29</v>
       </c>
       <c r="G175" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>43415</v>
+        <v>43495</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6360,30 +6360,30 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>27</v>
+        <v>27.7</v>
       </c>
       <c r="G176" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6398,24 +6398,24 @@
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>29</v>
+        <v>27.6</v>
       </c>
       <c r="G177" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>43486</v>
+        <v>43410</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6430,24 +6430,24 @@
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>31.5</v>
+        <v>28.1</v>
       </c>
       <c r="G178" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>43466</v>
+        <v>43436</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6456,30 +6456,30 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F179" t="n">
-        <v>29.9</v>
+        <v>27.6</v>
       </c>
       <c r="G179" t="n">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>43475</v>
+        <v>43444</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6488,30 +6488,30 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F180" t="n">
-        <v>29.8</v>
+        <v>24.1</v>
       </c>
       <c r="G180" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>43497</v>
+        <v>821501</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6526,24 +6526,24 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>32.3</v>
+        <v>28.2</v>
       </c>
       <c r="G181" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>43495</v>
+        <v>43404</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6558,24 +6558,24 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>27.7</v>
+        <v>26.9</v>
       </c>
       <c r="G182" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>330601</v>
+        <v>721501</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6584,30 +6584,30 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F183" t="n">
-        <v>31</v>
+        <v>25.1</v>
       </c>
       <c r="G183" t="n">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>43479</v>
+        <v>43413</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6622,10 +6622,10 @@
         <v>0.2</v>
       </c>
       <c r="F184" t="n">
-        <v>22.2</v>
+        <v>26.7</v>
       </c>
       <c r="G184" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
@@ -6635,11 +6635,11 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>43476</v>
+        <v>43418</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6654,24 +6654,24 @@
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>20.3</v>
+        <v>28.2</v>
       </c>
       <c r="G185" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>43473</v>
+        <v>43421</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6686,24 +6686,24 @@
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>18.8</v>
+        <v>26.4</v>
       </c>
       <c r="G186" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>43467</v>
+        <v>43424</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6718,24 +6718,24 @@
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>30.8</v>
+        <v>27.6</v>
       </c>
       <c r="G187" t="n">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>43422</v>
+        <v>43415</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6744,16 +6744,16 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="E188" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="F188" t="n">
-        <v>24.8</v>
+        <v>27</v>
       </c>
       <c r="G188" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -775,11 +775,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G11" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -809,11 +809,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43421</v>
+        <v>43441</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="G12" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -843,11 +843,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>23.9</v>
+        <v>21.2</v>
       </c>
       <c r="G13" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -894,28 +894,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>26.8</v>
+        <v>24.8</v>
       </c>
       <c r="G14" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -926,14 +926,16 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.2</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="G15" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -943,11 +945,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43413</v>
+        <v>43424</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -964,24 +966,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>26.1</v>
+        <v>24.6</v>
       </c>
       <c r="G16" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>330601</v>
+        <v>43466</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -998,24 +1000,24 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>24</v>
+        <v>26.3</v>
       </c>
       <c r="G17" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43466</v>
+        <v>43495</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1032,24 +1034,24 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G18" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43424</v>
+        <v>43413</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1066,24 +1068,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>24.6</v>
+        <v>26.1</v>
       </c>
       <c r="G19" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43497</v>
+        <v>43418</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1094,16 +1096,14 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E20" t="n">
+        <v>0.2</v>
       </c>
       <c r="F20" t="n">
-        <v>25.2</v>
+        <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1113,11 +1113,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43450</v>
+        <v>43436</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1130,28 +1130,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="G21" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1168,24 +1168,24 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>21.2</v>
+        <v>23.9</v>
       </c>
       <c r="G22" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43441</v>
+        <v>43421</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>24.6</v>
+        <v>23.7</v>
       </c>
       <c r="G23" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1215,11 +1215,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1249,11 +1249,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43495</v>
+        <v>330601</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>25.1</v>
+        <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1283,11 +1283,11 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43495</v>
+        <v>43473</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1304,24 +1304,24 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G26" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43424</v>
+        <v>43444</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>23.5</v>
+        <v>20.1</v>
       </c>
       <c r="G27" t="n">
         <v>94</v>
@@ -1351,11 +1351,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43486</v>
+        <v>43467</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1372,24 +1372,24 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>23.1</v>
+        <v>25.6</v>
       </c>
       <c r="G28" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43441</v>
+        <v>43418</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1400,16 +1400,14 @@
       <c r="D29" t="n">
         <v>0</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E29" t="n">
+        <v>0.2</v>
       </c>
       <c r="F29" t="n">
-        <v>22.9</v>
+        <v>25.4</v>
       </c>
       <c r="G29" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1419,11 +1417,11 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1440,24 +1438,24 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="G30" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43466</v>
+        <v>330601</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1474,10 +1472,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="G31" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1487,11 +1485,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43436</v>
+        <v>43413</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1504,18 +1502,18 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>26.4</v>
+        <v>25.6</v>
       </c>
       <c r="G32" t="n">
         <v>87</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
@@ -1555,11 +1553,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43413</v>
+        <v>43466</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1576,10 +1574,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="G34" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1589,11 +1587,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>330601</v>
+        <v>43450</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1610,24 +1608,24 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="G35" t="n">
         <v>88</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43497</v>
+        <v>43441</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1640,14 +1638,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>24.7</v>
+        <v>22.9</v>
       </c>
       <c r="G36" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1657,11 +1655,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1672,28 +1670,30 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
-      <c r="E37" t="n">
-        <v>0.2</v>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F37" t="n">
-        <v>25.4</v>
+        <v>23.1</v>
       </c>
       <c r="G37" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43467</v>
+        <v>43424</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1710,10 +1710,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>25.6</v>
+        <v>23.5</v>
       </c>
       <c r="G38" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1723,11 +1723,11 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43444</v>
+        <v>43495</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1744,10 +1744,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>20.1</v>
+        <v>25</v>
       </c>
       <c r="G39" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1757,11 +1757,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43473</v>
+        <v>43436</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1774,28 +1774,28 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>15</v>
+        <v>26.4</v>
       </c>
       <c r="G40" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1808,28 +1808,28 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>23.4</v>
+        <v>22</v>
       </c>
       <c r="G41" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43467</v>
+        <v>43497</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1846,24 +1846,24 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="G42" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43436</v>
+        <v>43444</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1872,30 +1872,32 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F43" t="n">
-        <v>25.2</v>
+        <v>19.5</v>
       </c>
       <c r="G43" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43486</v>
+        <v>43418</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1906,30 +1908,28 @@
       <c r="D44" t="n">
         <v>0</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E44" t="n">
+        <v>0.2</v>
       </c>
       <c r="F44" t="n">
-        <v>22.5</v>
+        <v>25.4</v>
       </c>
       <c r="G44" t="n">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43479</v>
+        <v>43495</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1938,32 +1938,32 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>19.6</v>
+        <v>24.5</v>
       </c>
       <c r="G45" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1976,14 +1976,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="G46" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1993,11 +1993,11 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43415</v>
+        <v>330601</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2014,24 +2014,24 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="G47" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43424</v>
+        <v>43473</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2048,24 +2048,24 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>22.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43473</v>
+        <v>43413</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>9.800000000000001</v>
+        <v>25.8</v>
       </c>
       <c r="G49" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2095,11 +2095,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43441</v>
+        <v>43415</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2112,14 +2112,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>22</v>
+        <v>22.4</v>
       </c>
       <c r="G50" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2129,11 +2129,11 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>330601</v>
+        <v>43466</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2150,24 +2150,24 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>22.1</v>
+        <v>24.3</v>
       </c>
       <c r="G51" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43421</v>
+        <v>43479</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2176,32 +2176,32 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>23.1</v>
+        <v>19.6</v>
       </c>
       <c r="G52" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43495</v>
+        <v>43486</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2218,10 +2218,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="G53" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2231,11 +2231,11 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43418</v>
+        <v>43436</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2244,30 +2244,30 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F54" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="G54" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43444</v>
+        <v>43467</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>19.5</v>
+        <v>24.6</v>
       </c>
       <c r="G55" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2297,11 +2297,11 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43497</v>
+        <v>43450</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2318,24 +2318,24 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="G56" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43413</v>
+        <v>43424</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2352,24 +2352,24 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>25.8</v>
+        <v>22.6</v>
       </c>
       <c r="G57" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43410</v>
+        <v>43424</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>27.5</v>
+        <v>25.2</v>
       </c>
       <c r="G58" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2399,11 +2399,11 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43444</v>
+        <v>43404</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2420,10 +2420,10 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>23.2</v>
+        <v>26.9</v>
       </c>
       <c r="G59" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2433,11 +2433,11 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43497</v>
+        <v>43473</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2454,24 +2454,24 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>27.7</v>
+        <v>13.9</v>
       </c>
       <c r="G60" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2484,14 +2484,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="G61" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2501,11 +2501,11 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43413</v>
+        <v>43467</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2522,24 +2522,24 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="G62" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43436</v>
+        <v>43421</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2550,28 +2550,30 @@
       <c r="D63" t="n">
         <v>0</v>
       </c>
-      <c r="E63" t="n">
-        <v>0.5</v>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F63" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="G63" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43466</v>
+        <v>43479</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2584,28 +2586,28 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>26.4</v>
+        <v>21</v>
       </c>
       <c r="G64" t="n">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>330601</v>
+        <v>43476</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2614,32 +2616,30 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.2</v>
       </c>
       <c r="F65" t="n">
-        <v>26</v>
+        <v>17.7</v>
       </c>
       <c r="G65" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43475</v>
+        <v>43415</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2648,30 +2648,32 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>14</v>
-      </c>
-      <c r="E66" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F66" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G66" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>721501</v>
+        <v>43418</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2683,27 +2685,27 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>9.800000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="F67" t="n">
-        <v>25.1</v>
+        <v>27</v>
       </c>
       <c r="G67" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>821501</v>
+        <v>43486</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2714,28 +2716,30 @@
       <c r="D68" t="n">
         <v>0</v>
       </c>
-      <c r="E68" t="n">
-        <v>0.5</v>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F68" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="G68" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43495</v>
+        <v>43422</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2752,10 +2756,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>26.7</v>
+        <v>24.4</v>
       </c>
       <c r="G69" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2765,11 +2769,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43486</v>
+        <v>821501</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2780,30 +2784,28 @@
       <c r="D70" t="n">
         <v>0</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E70" t="n">
+        <v>0.5</v>
       </c>
       <c r="F70" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="G70" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43476</v>
+        <v>721501</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2812,30 +2814,30 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>17.7</v>
+        <v>25.1</v>
       </c>
       <c r="G71" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43424</v>
+        <v>43475</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2844,32 +2846,30 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="E72" t="n">
+        <v>14</v>
       </c>
       <c r="F72" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="G72" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43404</v>
+        <v>330601</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2886,10 +2886,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>26.9</v>
+        <v>26</v>
       </c>
       <c r="G73" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2899,11 +2899,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43473</v>
+        <v>43466</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2920,24 +2920,24 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>13.9</v>
+        <v>26.4</v>
       </c>
       <c r="G74" t="n">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43441</v>
+        <v>43436</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2948,30 +2948,28 @@
       <c r="D75" t="n">
         <v>0</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E75" t="n">
+        <v>0.5</v>
       </c>
       <c r="F75" t="n">
-        <v>25.8</v>
+        <v>26.4</v>
       </c>
       <c r="G75" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43418</v>
+        <v>43413</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2982,28 +2980,30 @@
       <c r="D76" t="n">
         <v>0</v>
       </c>
-      <c r="E76" t="n">
-        <v>0.2</v>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F76" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="G76" t="n">
         <v>81</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43421</v>
+        <v>43450</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3016,14 +3016,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="G77" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3033,11 +3033,11 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43479</v>
+        <v>43497</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3050,28 +3050,28 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>21</v>
+        <v>27.7</v>
       </c>
       <c r="G78" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43467</v>
+        <v>43444</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3088,10 +3088,10 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>26.3</v>
+        <v>23.2</v>
       </c>
       <c r="G79" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3101,11 +3101,11 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43415</v>
+        <v>43410</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3122,10 +3122,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="G80" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3135,11 +3135,11 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43422</v>
+        <v>43495</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>24.4</v>
+        <v>26.7</v>
       </c>
       <c r="G81" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3169,11 +3169,11 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>721501</v>
+        <v>43404</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3181,33 +3181,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="D82" t="n">
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="G82" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>43410</v>
+        <v>43422</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3215,35 +3213,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="G83" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>821501</v>
+        <v>43475</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3251,35 +3245,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.1</v>
       </c>
       <c r="F84" t="n">
-        <v>26.8</v>
+        <v>26</v>
       </c>
       <c r="G84" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43476</v>
+        <v>43410</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3287,31 +3277,35 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F85" t="n">
-        <v>19.8</v>
+        <v>27.2</v>
       </c>
       <c r="G85" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43475</v>
+        <v>821501</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3319,31 +3313,35 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1.1</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F86" t="n">
-        <v>26</v>
+        <v>26.8</v>
       </c>
       <c r="G86" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>43422</v>
+        <v>721501</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3351,17 +3349,19 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>0</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F87" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="G87" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -3371,11 +3371,11 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>43404</v>
+        <v>43476</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3390,14 +3390,14 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>26.3</v>
+        <v>19.8</v>
       </c>
       <c r="G88" t="n">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -3475,11 +3475,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>43413</v>
+        <v>43450</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3498,10 +3498,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="G91" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -3511,11 +3511,11 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>43497</v>
+        <v>43436</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3528,30 +3528,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E92" t="n">
+        <v>42.5</v>
       </c>
       <c r="F92" t="n">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="G92" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>43466</v>
+        <v>43418</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3570,10 +3568,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="G93" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -3583,11 +3581,11 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>43421</v>
+        <v>43486</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3600,30 +3598,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E94" t="n">
+        <v>3.3</v>
       </c>
       <c r="F94" t="n">
-        <v>23.4</v>
+        <v>24.5</v>
       </c>
       <c r="G94" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3642,24 +3638,24 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>27</v>
+        <v>22.6</v>
       </c>
       <c r="G95" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3678,24 +3674,24 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>24.5</v>
+        <v>25.3</v>
       </c>
       <c r="G96" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3710,14 +3706,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>26.7</v>
+        <v>13.4</v>
       </c>
       <c r="G97" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3727,11 +3723,11 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>43424</v>
+        <v>43413</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3750,24 +3746,24 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G98" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3782,14 +3778,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>13.4</v>
+        <v>26.7</v>
       </c>
       <c r="G99" t="n">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3799,11 +3795,11 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>43450</v>
+        <v>330601</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3822,10 +3818,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>25.8</v>
+        <v>24.5</v>
       </c>
       <c r="G100" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -3835,11 +3831,11 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>43441</v>
+        <v>43495</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3858,24 +3854,24 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>25.3</v>
+        <v>27</v>
       </c>
       <c r="G101" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3894,24 +3890,24 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>22.6</v>
+        <v>23.4</v>
       </c>
       <c r="G102" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>43486</v>
+        <v>43466</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3924,28 +3920,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E103" t="n">
-        <v>3.3</v>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F103" t="n">
-        <v>24.5</v>
+        <v>26.3</v>
       </c>
       <c r="G103" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3964,10 +3962,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>26.1</v>
+        <v>25.4</v>
       </c>
       <c r="G104" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -3977,11 +3975,11 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3994,28 +3992,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E105" t="n">
-        <v>42.5</v>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F105" t="n">
-        <v>25.9</v>
+        <v>24</v>
       </c>
       <c r="G105" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4025,31 +4025,33 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E106" t="n">
-        <v>3.3</v>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F106" t="n">
-        <v>24.2</v>
+        <v>22.4</v>
       </c>
       <c r="G106" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>fognight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>43418</v>
+        <v>43424</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4068,24 +4070,24 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>26.1</v>
+        <v>23.7</v>
       </c>
       <c r="G107" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>43473</v>
+        <v>43466</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4100,28 +4102,28 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>14</v>
+        <v>25.8</v>
       </c>
       <c r="G108" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>43421</v>
+        <v>43467</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4140,10 +4142,10 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>23.5</v>
+        <v>25.8</v>
       </c>
       <c r="G109" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -4153,11 +4155,11 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4170,28 +4172,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E110" t="n">
-        <v>42.5</v>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F110" t="n">
-        <v>25.7</v>
+        <v>25.1</v>
       </c>
       <c r="G110" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>330601</v>
+        <v>43497</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4210,24 +4214,24 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>23.5</v>
+        <v>24.9</v>
       </c>
       <c r="G111" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>43441</v>
+        <v>43495</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4237,33 +4241,33 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>25</v>
+        <v>26.5</v>
       </c>
       <c r="G112" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>43413</v>
+        <v>43418</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4282,7 +4286,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="G113" t="n">
         <v>87</v>
@@ -4295,11 +4299,11 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>43495</v>
+        <v>43441</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4309,33 +4313,33 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>26.5</v>
+        <v>25</v>
       </c>
       <c r="G114" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>43444</v>
+        <v>330601</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4345,33 +4349,33 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>22.4</v>
+        <v>23.5</v>
       </c>
       <c r="G115" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>43497</v>
+        <v>43436</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4384,30 +4388,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E116" t="n">
+        <v>42.5</v>
       </c>
       <c r="F116" t="n">
-        <v>24.9</v>
+        <v>25.7</v>
       </c>
       <c r="G116" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>43450</v>
+        <v>43421</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4426,24 +4428,24 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>25.1</v>
+        <v>23.5</v>
       </c>
       <c r="G117" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4458,14 +4460,14 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>25.8</v>
+        <v>14</v>
       </c>
       <c r="G118" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -4475,11 +4477,11 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>43466</v>
+        <v>43413</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4501,21 +4503,21 @@
         <v>25.8</v>
       </c>
       <c r="G119" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>43424</v>
+        <v>43486</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4528,30 +4530,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E120" t="n">
+        <v>3.3</v>
       </c>
       <c r="F120" t="n">
-        <v>23.7</v>
+        <v>24.2</v>
       </c>
       <c r="G120" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fognight</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>43441</v>
+        <v>43497</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4560,30 +4560,30 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>23.3</v>
+        <v>24.6</v>
       </c>
       <c r="G121" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4592,30 +4592,30 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="F122" t="n">
-        <v>22.2</v>
+        <v>23.9</v>
       </c>
       <c r="G122" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fog</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>43413</v>
+        <v>43466</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4630,10 +4630,10 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>25.8</v>
+        <v>25</v>
       </c>
       <c r="G123" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -4643,11 +4643,11 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>43473</v>
+        <v>330601</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4659,27 +4659,27 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>14.1</v>
+        <v>22.5</v>
       </c>
       <c r="G124" t="n">
         <v>95</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>43415</v>
+        <v>43479</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4688,16 +4688,16 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="E125" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="F125" t="n">
-        <v>24</v>
+        <v>20.2</v>
       </c>
       <c r="G125" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
@@ -4707,11 +4707,11 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>43450</v>
+        <v>43495</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4726,24 +4726,24 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>24.9</v>
+        <v>25.5</v>
       </c>
       <c r="G126" t="n">
         <v>91</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>43436</v>
+        <v>821501</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4752,30 +4752,30 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>43.2</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>24.9</v>
+        <v>22.8</v>
       </c>
       <c r="G127" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>43418</v>
+        <v>43410</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4790,10 +4790,10 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>26</v>
+        <v>26.6</v>
       </c>
       <c r="G128" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -4803,11 +4803,11 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>43421</v>
+        <v>43467</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4822,10 +4822,10 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>23.3</v>
+        <v>25.4</v>
       </c>
       <c r="G129" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -4835,11 +4835,11 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>43424</v>
+        <v>721501</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4848,30 +4848,30 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F130" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="G130" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>43467</v>
+        <v>43421</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4886,10 +4886,10 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>25.4</v>
+        <v>23.3</v>
       </c>
       <c r="G131" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
@@ -4899,11 +4899,11 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>721501</v>
+        <v>43418</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4912,30 +4912,30 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>23.6</v>
+        <v>26</v>
       </c>
       <c r="G132" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>43410</v>
+        <v>43436</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4944,30 +4944,30 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="F133" t="n">
-        <v>26.6</v>
+        <v>24.9</v>
       </c>
       <c r="G133" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>821501</v>
+        <v>43450</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4982,24 +4982,24 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>22.8</v>
+        <v>24.9</v>
       </c>
       <c r="G134" t="n">
         <v>91</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>43495</v>
+        <v>43415</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5008,16 +5008,16 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F135" t="n">
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="G135" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
@@ -5027,11 +5027,11 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>43479</v>
+        <v>43473</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5040,30 +5040,30 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>20.2</v>
+        <v>14.1</v>
       </c>
       <c r="G136" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>330601</v>
+        <v>43413</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5078,24 +5078,24 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>22.5</v>
+        <v>25.8</v>
       </c>
       <c r="G137" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>43466</v>
+        <v>43444</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5104,30 +5104,30 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>25</v>
+        <v>22.2</v>
       </c>
       <c r="G138" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>43486</v>
+        <v>43441</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5136,30 +5136,30 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E139" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="F139" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="G139" t="n">
         <v>95</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>fog</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>43497</v>
+        <v>43424</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5174,24 +5174,24 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>24.6</v>
+        <v>23.2</v>
       </c>
       <c r="G140" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>43422</v>
+        <v>43475</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5205,27 +5205,27 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F141" t="n">
-        <v>24.5</v>
+        <v>27.5</v>
       </c>
       <c r="G141" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>43441</v>
+        <v>330601</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5233,17 +5233,19 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D142" t="n">
-        <v>0.2</v>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E142" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="G142" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -5253,11 +5255,11 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>43415</v>
+        <v>43497</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5271,27 +5273,27 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>24.8</v>
+        <v>26</v>
       </c>
       <c r="G143" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>43421</v>
+        <v>43495</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5308,10 +5310,10 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>24.2</v>
+        <v>27.2</v>
       </c>
       <c r="G144" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
@@ -5321,11 +5323,11 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5339,27 +5341,27 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F145" t="n">
-        <v>27</v>
+        <v>25.8</v>
       </c>
       <c r="G145" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>43404</v>
+        <v>43479</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5369,31 +5371,31 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Tr</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F146" t="n">
-        <v>26.3</v>
+        <v>20.9</v>
       </c>
       <c r="G146" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>721501</v>
+        <v>43424</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5401,17 +5403,19 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D147" t="n">
-        <v>2.7</v>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E147" t="n">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>24</v>
+        <v>25.1</v>
       </c>
       <c r="G147" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
@@ -5421,11 +5425,11 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>43444</v>
+        <v>43467</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5439,27 +5443,27 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>23.3</v>
+        <v>26.8</v>
       </c>
       <c r="G148" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>43410</v>
+        <v>43473</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5473,27 +5477,27 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>27.3</v>
+        <v>16.8</v>
       </c>
       <c r="G149" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>821501</v>
+        <v>43476</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5501,33 +5505,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D150" t="n">
+        <v>1.9</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F150" t="n">
-        <v>25.6</v>
+        <v>19</v>
       </c>
       <c r="G150" t="n">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>43413</v>
+        <v>43466</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5544,24 +5546,24 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>26.3</v>
+        <v>27.1</v>
       </c>
       <c r="G151" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5569,31 +5571,33 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D152" t="n">
-        <v>0.5</v>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E152" t="n">
-        <v>43.7</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>24.9</v>
+        <v>25.8</v>
       </c>
       <c r="G152" t="n">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>43466</v>
+        <v>43413</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5610,24 +5614,24 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>27.1</v>
+        <v>26.3</v>
       </c>
       <c r="G153" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>43473</v>
+        <v>821501</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5641,13 +5645,13 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>16.8</v>
+        <v>25.6</v>
       </c>
       <c r="G154" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
@@ -5657,11 +5661,11 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>43475</v>
+        <v>43410</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5675,27 +5679,27 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="G155" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>330601</v>
+        <v>43444</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5709,13 +5713,13 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F156" t="n">
-        <v>25.5</v>
+        <v>23.3</v>
       </c>
       <c r="G156" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
@@ -5725,11 +5729,11 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>43497</v>
+        <v>721501</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5737,33 +5741,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D157" t="n">
+        <v>2.7</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="F157" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G157" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>43495</v>
+        <v>43404</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5780,24 +5782,24 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>27.2</v>
+        <v>26.3</v>
       </c>
       <c r="G158" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>43476</v>
+        <v>43418</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5805,31 +5807,33 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D159" t="n">
-        <v>1.9</v>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E159" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G159" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>43479</v>
+        <v>43421</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5839,31 +5843,31 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Tr</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>20.9</v>
+        <v>24.2</v>
       </c>
       <c r="G160" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>43424</v>
+        <v>43415</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5877,13 +5881,13 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F161" t="n">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="G161" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
@@ -5893,11 +5897,11 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>43467</v>
+        <v>43441</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5905,33 +5909,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D162" t="n">
+        <v>0.2</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="F162" t="n">
-        <v>26.8</v>
+        <v>25.3</v>
       </c>
       <c r="G162" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>43450</v>
+        <v>43422</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5948,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>25.8</v>
+        <v>24.5</v>
       </c>
       <c r="G163" t="n">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
@@ -5961,11 +5963,11 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>43486</v>
+        <v>43436</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5973,33 +5975,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D164" t="n">
+        <v>0.5</v>
       </c>
       <c r="E164" t="n">
-        <v>3.3</v>
+        <v>43.7</v>
       </c>
       <c r="F164" t="n">
-        <v>25.8</v>
+        <v>24.9</v>
       </c>
       <c r="G164" t="n">
         <v>95</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>43466</v>
+        <v>43436</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6008,30 +6008,30 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F165" t="n">
-        <v>29.9</v>
+        <v>27.6</v>
       </c>
       <c r="G165" t="n">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>43475</v>
+        <v>43444</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6040,30 +6040,30 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F166" t="n">
-        <v>29.8</v>
+        <v>24.1</v>
       </c>
       <c r="G166" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>43497</v>
+        <v>821501</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6078,24 +6078,24 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>32.3</v>
+        <v>28.2</v>
       </c>
       <c r="G167" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>330601</v>
+        <v>721501</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6104,30 +6104,30 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F168" t="n">
-        <v>31</v>
+        <v>25.1</v>
       </c>
       <c r="G168" t="n">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>43422</v>
+        <v>43415</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6136,16 +6136,16 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="E169" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="F169" t="n">
-        <v>24.8</v>
+        <v>27</v>
       </c>
       <c r="G169" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
@@ -6155,11 +6155,11 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>43476</v>
+        <v>43418</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6174,24 +6174,24 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>20.3</v>
+        <v>28.2</v>
       </c>
       <c r="G170" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>43473</v>
+        <v>43421</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6206,24 +6206,24 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>18.8</v>
+        <v>26.4</v>
       </c>
       <c r="G171" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>43467</v>
+        <v>43424</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6238,24 +6238,24 @@
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>30.8</v>
+        <v>27.6</v>
       </c>
       <c r="G172" t="n">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>43486</v>
+        <v>43410</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6270,24 +6270,24 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>31.5</v>
+        <v>28.1</v>
       </c>
       <c r="G173" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>43479</v>
+        <v>43413</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6302,10 +6302,10 @@
         <v>0.2</v>
       </c>
       <c r="F174" t="n">
-        <v>22.2</v>
+        <v>26.7</v>
       </c>
       <c r="G174" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
@@ -6315,11 +6315,11 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6334,24 +6334,24 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>29</v>
+        <v>27.6</v>
       </c>
       <c r="G175" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>43495</v>
+        <v>43404</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6366,24 +6366,24 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>27.7</v>
+        <v>26.9</v>
       </c>
       <c r="G176" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>43441</v>
+        <v>43450</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6398,24 +6398,24 @@
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>27.6</v>
+        <v>29</v>
       </c>
       <c r="G177" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>43410</v>
+        <v>43479</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F178" t="n">
-        <v>28.1</v>
+        <v>22.2</v>
       </c>
       <c r="G178" t="n">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
@@ -6443,11 +6443,11 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>43436</v>
+        <v>43486</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6456,30 +6456,30 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>27.6</v>
+        <v>31.5</v>
       </c>
       <c r="G179" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>43444</v>
+        <v>43467</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6488,30 +6488,30 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>24.1</v>
+        <v>30.8</v>
       </c>
       <c r="G180" t="n">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>821501</v>
+        <v>43473</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6526,24 +6526,24 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>28.2</v>
+        <v>18.8</v>
       </c>
       <c r="G181" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>43404</v>
+        <v>43476</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6558,24 +6558,24 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>26.9</v>
+        <v>20.3</v>
       </c>
       <c r="G182" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>721501</v>
+        <v>43422</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6584,16 +6584,16 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="E183" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="F183" t="n">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="G183" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
@@ -6603,11 +6603,11 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>43413</v>
+        <v>330601</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6616,30 +6616,30 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>26.7</v>
+        <v>31</v>
       </c>
       <c r="G184" t="n">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6654,24 +6654,24 @@
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>28.2</v>
+        <v>32.3</v>
       </c>
       <c r="G185" t="n">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>43421</v>
+        <v>43475</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6686,24 +6686,24 @@
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>26.4</v>
+        <v>29.8</v>
       </c>
       <c r="G186" t="n">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>43424</v>
+        <v>43466</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6718,24 +6718,24 @@
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>27.6</v>
+        <v>29.9</v>
       </c>
       <c r="G187" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>43415</v>
+        <v>43495</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6744,20 +6744,20 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>27</v>
+        <v>27.7</v>
       </c>
       <c r="G188" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H212"/>
+  <dimension ref="A1:H236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,11 +775,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -809,11 +809,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43441</v>
+        <v>43421</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>24.6</v>
+        <v>23.7</v>
       </c>
       <c r="G12" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -843,11 +843,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>21.2</v>
+        <v>23.9</v>
       </c>
       <c r="G13" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43450</v>
+        <v>43436</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -894,28 +894,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="G14" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43497</v>
+        <v>43418</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -926,16 +926,14 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E15" t="n">
+        <v>0.2</v>
       </c>
       <c r="F15" t="n">
-        <v>25.2</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -945,11 +943,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43424</v>
+        <v>43413</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -966,24 +964,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>24.6</v>
+        <v>26.1</v>
       </c>
       <c r="G16" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43466</v>
+        <v>43495</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1000,24 +998,24 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G17" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43495</v>
+        <v>330601</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1034,10 +1032,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>25.1</v>
+        <v>24</v>
       </c>
       <c r="G18" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1047,11 +1045,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43413</v>
+        <v>43424</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1068,24 +1066,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>26.1</v>
+        <v>24.6</v>
       </c>
       <c r="G19" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1096,14 +1094,16 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.2</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F20" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="G20" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1113,11 +1113,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1130,28 +1130,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>26.8</v>
+        <v>24.8</v>
       </c>
       <c r="G21" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1168,24 +1168,24 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>23.9</v>
+        <v>21.2</v>
       </c>
       <c r="G22" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43421</v>
+        <v>43441</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="G23" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1215,11 +1215,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G24" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1249,11 +1249,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>330601</v>
+        <v>43466</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1270,24 +1270,24 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>24</v>
+        <v>26.3</v>
       </c>
       <c r="G25" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43473</v>
+        <v>43436</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1300,28 +1300,28 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>15</v>
+        <v>26.4</v>
       </c>
       <c r="G26" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43444</v>
+        <v>43495</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1338,10 +1338,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>20.1</v>
+        <v>25</v>
       </c>
       <c r="G27" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1351,11 +1351,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43467</v>
+        <v>43424</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1372,10 +1372,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>25.6</v>
+        <v>23.5</v>
       </c>
       <c r="G28" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1385,11 +1385,11 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1400,28 +1400,30 @@
       <c r="D29" t="n">
         <v>0</v>
       </c>
-      <c r="E29" t="n">
-        <v>0.2</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F29" t="n">
-        <v>25.4</v>
+        <v>23.1</v>
       </c>
       <c r="G29" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43497</v>
+        <v>43441</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1434,14 +1436,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>24.7</v>
+        <v>22.9</v>
       </c>
       <c r="G30" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1451,11 +1453,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>330601</v>
+        <v>43450</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1472,24 +1474,24 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="G31" t="n">
         <v>88</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43413</v>
+        <v>43466</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1506,10 +1508,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="G32" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1553,11 +1555,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43466</v>
+        <v>330601</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1574,10 +1576,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="G34" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1587,11 +1589,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1608,24 +1610,24 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="G35" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43441</v>
+        <v>43418</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1636,16 +1638,14 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E36" t="n">
+        <v>0.2</v>
       </c>
       <c r="F36" t="n">
-        <v>22.9</v>
+        <v>25.4</v>
       </c>
       <c r="G36" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1655,11 +1655,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43486</v>
+        <v>43467</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1676,24 +1676,24 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>23.1</v>
+        <v>25.6</v>
       </c>
       <c r="G37" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43424</v>
+        <v>43444</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>23.5</v>
+        <v>20.1</v>
       </c>
       <c r="G38" t="n">
         <v>94</v>
@@ -1723,11 +1723,11 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43495</v>
+        <v>43473</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1744,24 +1744,24 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G39" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43436</v>
+        <v>43413</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1774,28 +1774,28 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>26.4</v>
+        <v>25.6</v>
       </c>
       <c r="G40" t="n">
         <v>87</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43441</v>
+        <v>43415</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1808,14 +1808,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>22</v>
+        <v>22.4</v>
       </c>
       <c r="G41" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1825,11 +1825,11 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43497</v>
+        <v>43450</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1846,24 +1846,24 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="G42" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43444</v>
+        <v>43467</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1880,10 +1880,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>19.5</v>
+        <v>24.6</v>
       </c>
       <c r="G43" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1893,11 +1893,11 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43418</v>
+        <v>43436</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1906,30 +1906,30 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F44" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="G44" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43495</v>
+        <v>43486</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="G45" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43421</v>
+        <v>43479</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1972,32 +1972,32 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>23.1</v>
+        <v>19.6</v>
       </c>
       <c r="G46" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>330601</v>
+        <v>43466</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2014,24 +2014,24 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>22.1</v>
+        <v>24.3</v>
       </c>
       <c r="G47" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43473</v>
+        <v>43413</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2048,10 +2048,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>9.800000000000001</v>
+        <v>25.8</v>
       </c>
       <c r="G48" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2061,11 +2061,11 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43413</v>
+        <v>43424</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2082,24 +2082,24 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>25.8</v>
+        <v>22.6</v>
       </c>
       <c r="G49" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43415</v>
+        <v>330601</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2116,24 +2116,24 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="G50" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2146,14 +2146,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="G51" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2163,11 +2163,11 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43479</v>
+        <v>43495</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2176,32 +2176,32 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>19.6</v>
+        <v>24.5</v>
       </c>
       <c r="G52" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43486</v>
+        <v>43418</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2212,30 +2212,28 @@
       <c r="D53" t="n">
         <v>0</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E53" t="n">
+        <v>0.2</v>
       </c>
       <c r="F53" t="n">
-        <v>22.5</v>
+        <v>25.4</v>
       </c>
       <c r="G53" t="n">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43436</v>
+        <v>43444</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2244,30 +2242,32 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F54" t="n">
-        <v>25.2</v>
+        <v>19.5</v>
       </c>
       <c r="G54" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43467</v>
+        <v>43497</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2284,24 +2284,24 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="G55" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2314,28 +2314,28 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>23.4</v>
+        <v>22</v>
       </c>
       <c r="G56" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43424</v>
+        <v>43473</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2352,24 +2352,24 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>22.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G57" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43424</v>
+        <v>43475</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2378,32 +2378,30 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="E58" t="n">
+        <v>14</v>
       </c>
       <c r="F58" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="G58" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43404</v>
+        <v>330601</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2420,10 +2418,10 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>26.9</v>
+        <v>26</v>
       </c>
       <c r="G59" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2433,11 +2431,11 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43473</v>
+        <v>43466</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2454,24 +2452,24 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>13.9</v>
+        <v>26.4</v>
       </c>
       <c r="G60" t="n">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43441</v>
+        <v>43436</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2482,30 +2480,28 @@
       <c r="D61" t="n">
         <v>0</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E61" t="n">
+        <v>0.5</v>
       </c>
       <c r="F61" t="n">
-        <v>25.8</v>
+        <v>26.4</v>
       </c>
       <c r="G61" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43467</v>
+        <v>43444</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2522,10 +2518,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>26.3</v>
+        <v>23.2</v>
       </c>
       <c r="G62" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2535,11 +2531,11 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43421</v>
+        <v>43450</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2552,14 +2548,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="G63" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2569,11 +2565,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43479</v>
+        <v>43497</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2586,28 +2582,28 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>21</v>
+        <v>27.7</v>
       </c>
       <c r="G64" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43476</v>
+        <v>721501</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2616,30 +2612,30 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>17.7</v>
+        <v>25.1</v>
       </c>
       <c r="G65" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43415</v>
+        <v>43410</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2656,10 +2652,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="G66" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2669,11 +2665,11 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43418</v>
+        <v>43413</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2684,28 +2680,30 @@
       <c r="D67" t="n">
         <v>0</v>
       </c>
-      <c r="E67" t="n">
-        <v>0.2</v>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F67" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="G67" t="n">
         <v>81</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>43486</v>
+        <v>821501</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2716,30 +2714,28 @@
       <c r="D68" t="n">
         <v>0</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E68" t="n">
+        <v>0.5</v>
       </c>
       <c r="F68" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="G68" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43422</v>
+        <v>43495</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2756,10 +2752,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>24.4</v>
+        <v>26.7</v>
       </c>
       <c r="G69" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2769,11 +2765,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>821501</v>
+        <v>43486</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2784,28 +2780,30 @@
       <c r="D70" t="n">
         <v>0</v>
       </c>
-      <c r="E70" t="n">
-        <v>0.5</v>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F70" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="G70" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>721501</v>
+        <v>43418</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2817,27 +2815,27 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>9.800000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="F71" t="n">
-        <v>25.1</v>
+        <v>27</v>
       </c>
       <c r="G71" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43475</v>
+        <v>43415</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2846,30 +2844,32 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>14</v>
-      </c>
-      <c r="E72" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F72" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G72" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>330601</v>
+        <v>43476</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2878,32 +2878,30 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.2</v>
       </c>
       <c r="F73" t="n">
-        <v>26</v>
+        <v>17.7</v>
       </c>
       <c r="G73" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43466</v>
+        <v>43479</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2916,28 +2914,28 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>26.4</v>
+        <v>21</v>
       </c>
       <c r="G74" t="n">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43436</v>
+        <v>43421</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2948,28 +2946,30 @@
       <c r="D75" t="n">
         <v>0</v>
       </c>
-      <c r="E75" t="n">
-        <v>0.5</v>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F75" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="G75" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43413</v>
+        <v>43467</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2986,24 +2986,24 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="G76" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3016,14 +3016,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="G77" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3033,11 +3033,11 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43497</v>
+        <v>43473</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3054,24 +3054,24 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>27.7</v>
+        <v>13.9</v>
       </c>
       <c r="G78" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43444</v>
+        <v>43404</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3088,10 +3088,10 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>23.2</v>
+        <v>26.9</v>
       </c>
       <c r="G79" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3101,11 +3101,11 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43410</v>
+        <v>43424</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3122,10 +3122,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>27.5</v>
+        <v>25.2</v>
       </c>
       <c r="G80" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3135,11 +3135,11 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43495</v>
+        <v>43422</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>26.7</v>
+        <v>24.4</v>
       </c>
       <c r="G81" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3169,11 +3169,11 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>43404</v>
+        <v>43476</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3188,24 +3188,24 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>26.3</v>
+        <v>19.8</v>
       </c>
       <c r="G82" t="n">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>43422</v>
+        <v>721501</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3213,17 +3213,19 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>0</v>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F83" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="G83" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3233,11 +3235,11 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>43475</v>
+        <v>821501</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3245,31 +3247,35 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1.1</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F84" t="n">
-        <v>26</v>
+        <v>26.8</v>
       </c>
       <c r="G84" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43410</v>
+        <v>43422</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3277,35 +3283,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="G85" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>821501</v>
+        <v>43475</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3313,35 +3315,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.1</v>
       </c>
       <c r="F86" t="n">
-        <v>26.8</v>
+        <v>26</v>
       </c>
       <c r="G86" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>721501</v>
+        <v>43404</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3349,33 +3347,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="D87" t="n">
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="G87" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>43476</v>
+        <v>43410</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3383,21 +3379,25 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F88" t="n">
-        <v>19.8</v>
+        <v>27.2</v>
       </c>
       <c r="G88" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
@@ -3475,11 +3475,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>43450</v>
+        <v>330601</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3498,10 +3498,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>25.8</v>
+        <v>24.5</v>
       </c>
       <c r="G91" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -3511,11 +3511,11 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3528,28 +3528,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E92" t="n">
-        <v>42.5</v>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F92" t="n">
-        <v>25.9</v>
+        <v>24</v>
       </c>
       <c r="G92" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3568,10 +3570,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>26.1</v>
+        <v>25.4</v>
       </c>
       <c r="G93" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -3581,11 +3583,11 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>43486</v>
+        <v>43466</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3598,28 +3600,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E94" t="n">
-        <v>3.3</v>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F94" t="n">
-        <v>24.5</v>
+        <v>26.3</v>
       </c>
       <c r="G94" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3638,24 +3642,24 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>22.6</v>
+        <v>23.4</v>
       </c>
       <c r="G95" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>43441</v>
+        <v>43495</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3674,24 +3678,24 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>25.3</v>
+        <v>27</v>
       </c>
       <c r="G96" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3706,14 +3710,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>13.4</v>
+        <v>26.7</v>
       </c>
       <c r="G97" t="n">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3723,11 +3727,11 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>43413</v>
+        <v>43450</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3746,10 +3750,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="G98" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -3759,11 +3763,11 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3778,14 +3782,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>26.7</v>
+        <v>13.4</v>
       </c>
       <c r="G99" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3795,11 +3799,11 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3818,24 +3822,24 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>24.5</v>
+        <v>25.3</v>
       </c>
       <c r="G100" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3854,24 +3858,24 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>27</v>
+        <v>22.6</v>
       </c>
       <c r="G101" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>43421</v>
+        <v>43486</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3884,30 +3888,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E102" t="n">
+        <v>3.3</v>
       </c>
       <c r="F102" t="n">
-        <v>23.4</v>
+        <v>24.5</v>
       </c>
       <c r="G102" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>43466</v>
+        <v>43418</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3926,10 +3928,10 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="G103" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -3939,11 +3941,11 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>43497</v>
+        <v>43436</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3956,30 +3958,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E104" t="n">
+        <v>42.5</v>
       </c>
       <c r="F104" t="n">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="G104" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>43424</v>
+        <v>43413</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3998,24 +3998,24 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G105" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>43444</v>
+        <v>43441</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4034,24 +4034,24 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>22.4</v>
+        <v>25</v>
       </c>
       <c r="G106" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>43424</v>
+        <v>43486</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4064,30 +4064,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E107" t="n">
+        <v>3.3</v>
       </c>
       <c r="F107" t="n">
-        <v>23.7</v>
+        <v>24.2</v>
       </c>
       <c r="G107" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fognight</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>43466</v>
+        <v>43473</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4102,28 +4100,28 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>25.8</v>
+        <v>14</v>
       </c>
       <c r="G108" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>43467</v>
+        <v>43421</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4142,10 +4140,10 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>25.8</v>
+        <v>23.5</v>
       </c>
       <c r="G109" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -4155,11 +4153,11 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>43450</v>
+        <v>43436</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4172,30 +4170,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E110" t="n">
+        <v>42.5</v>
       </c>
       <c r="F110" t="n">
-        <v>25.1</v>
+        <v>25.7</v>
       </c>
       <c r="G110" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>43497</v>
+        <v>330601</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4214,24 +4210,24 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>24.9</v>
+        <v>23.5</v>
       </c>
       <c r="G111" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>43495</v>
+        <v>43418</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4250,10 +4246,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>26.5</v>
+        <v>26.1</v>
       </c>
       <c r="G112" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4263,11 +4259,11 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>43418</v>
+        <v>43413</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4286,7 +4282,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="G113" t="n">
         <v>87</v>
@@ -4299,11 +4295,11 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>43441</v>
+        <v>43497</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4313,33 +4309,33 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="G114" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>330601</v>
+        <v>43450</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4358,24 +4354,24 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>23.5</v>
+        <v>25.1</v>
       </c>
       <c r="G115" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>43436</v>
+        <v>43467</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4388,28 +4384,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E116" t="n">
-        <v>42.5</v>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F116" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="G116" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>43421</v>
+        <v>43466</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4428,24 +4426,24 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>23.5</v>
+        <v>25.8</v>
       </c>
       <c r="G117" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>43473</v>
+        <v>43424</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4460,28 +4458,28 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>14</v>
+        <v>23.7</v>
       </c>
       <c r="G118" t="n">
         <v>94</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>43413</v>
+        <v>43495</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4500,10 +4498,10 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>25.8</v>
+        <v>26.5</v>
       </c>
       <c r="G119" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -4513,11 +4511,11 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4527,31 +4525,33 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
-        <v>3.3</v>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F120" t="n">
-        <v>24.2</v>
+        <v>22.4</v>
       </c>
       <c r="G120" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>fognight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>43497</v>
+        <v>43424</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4566,24 +4566,24 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>24.6</v>
+        <v>23.2</v>
       </c>
       <c r="G121" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>43486</v>
+        <v>43441</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4592,30 +4592,30 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E122" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="F122" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="G122" t="n">
         <v>95</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>fog</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>43466</v>
+        <v>43444</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4624,30 +4624,30 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>25</v>
+        <v>22.2</v>
       </c>
       <c r="G123" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>330601</v>
+        <v>43413</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4662,24 +4662,24 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>22.5</v>
+        <v>25.8</v>
       </c>
       <c r="G124" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>43479</v>
+        <v>43473</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4688,30 +4688,30 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>20.2</v>
+        <v>14.1</v>
       </c>
       <c r="G125" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>43495</v>
+        <v>43415</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4720,16 +4720,16 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F126" t="n">
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="G126" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -4739,11 +4739,11 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>821501</v>
+        <v>43450</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4758,24 +4758,24 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>22.8</v>
+        <v>24.9</v>
       </c>
       <c r="G127" t="n">
         <v>91</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>43410</v>
+        <v>43418</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4790,10 +4790,10 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="G128" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -4803,11 +4803,11 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>43467</v>
+        <v>43421</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4822,10 +4822,10 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>25.4</v>
+        <v>23.3</v>
       </c>
       <c r="G129" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -4835,11 +4835,11 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>721501</v>
+        <v>43436</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4848,30 +4848,30 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>7.3</v>
+        <v>0.7</v>
       </c>
       <c r="E130" t="n">
-        <v>7.5</v>
+        <v>43.2</v>
       </c>
       <c r="F130" t="n">
-        <v>23.6</v>
+        <v>24.9</v>
       </c>
       <c r="G130" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>43421</v>
+        <v>43467</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4886,10 +4886,10 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>23.3</v>
+        <v>25.4</v>
       </c>
       <c r="G131" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
@@ -4899,11 +4899,11 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>43418</v>
+        <v>43410</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4918,10 +4918,10 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>26</v>
+        <v>26.6</v>
       </c>
       <c r="G132" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
@@ -4931,11 +4931,11 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>43436</v>
+        <v>821501</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4944,30 +4944,30 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>43.2</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>24.9</v>
+        <v>22.8</v>
       </c>
       <c r="G133" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>43450</v>
+        <v>43495</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4982,24 +4982,24 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>24.9</v>
+        <v>25.5</v>
       </c>
       <c r="G134" t="n">
         <v>91</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>43415</v>
+        <v>43479</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5008,16 +5008,16 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="E135" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="F135" t="n">
-        <v>24</v>
+        <v>20.2</v>
       </c>
       <c r="G135" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
@@ -5027,11 +5027,11 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>43473</v>
+        <v>330601</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5043,27 +5043,27 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>14.1</v>
+        <v>22.5</v>
       </c>
       <c r="G136" t="n">
         <v>95</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>43413</v>
+        <v>43466</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5078,10 +5078,10 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>25.8</v>
+        <v>25</v>
       </c>
       <c r="G137" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
@@ -5091,11 +5091,11 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5104,30 +5104,30 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="F138" t="n">
-        <v>22.2</v>
+        <v>23.9</v>
       </c>
       <c r="G138" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fog</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>43441</v>
+        <v>43497</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5136,30 +5136,30 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>23.3</v>
+        <v>24.6</v>
       </c>
       <c r="G139" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>43424</v>
+        <v>721501</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5168,30 +5168,30 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F140" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="G140" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>43475</v>
+        <v>43410</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5205,27 +5205,27 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="G141" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>330601</v>
+        <v>43444</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5239,13 +5239,13 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F142" t="n">
-        <v>25.5</v>
+        <v>23.3</v>
       </c>
       <c r="G142" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -5255,11 +5255,11 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>43497</v>
+        <v>721501</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5267,33 +5267,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D143" t="n">
+        <v>2.7</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="F143" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G143" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>43495</v>
+        <v>43404</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5310,24 +5308,24 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>27.2</v>
+        <v>26.3</v>
       </c>
       <c r="G144" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>43486</v>
+        <v>43418</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5341,27 +5339,27 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>25.8</v>
+        <v>27</v>
       </c>
       <c r="G145" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>43479</v>
+        <v>43422</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5371,31 +5369,31 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Tr</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>20.9</v>
+        <v>24.5</v>
       </c>
       <c r="G146" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>43424</v>
+        <v>43421</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5412,24 +5410,24 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>25.1</v>
+        <v>24.2</v>
       </c>
       <c r="G147" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>43467</v>
+        <v>43415</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5443,27 +5441,27 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F148" t="n">
-        <v>26.8</v>
+        <v>24.8</v>
       </c>
       <c r="G148" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>43473</v>
+        <v>43441</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5471,19 +5469,17 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D149" t="n">
+        <v>0.2</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="F149" t="n">
-        <v>16.8</v>
+        <v>25.3</v>
       </c>
       <c r="G149" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
@@ -5493,11 +5489,11 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>43476</v>
+        <v>821501</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5505,31 +5501,33 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D150" t="n">
-        <v>1.9</v>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E150" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>19</v>
+        <v>25.6</v>
       </c>
       <c r="G150" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>43466</v>
+        <v>43436</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5537,33 +5535,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D151" t="n">
+        <v>0.5</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>43.7</v>
       </c>
       <c r="F151" t="n">
-        <v>27.1</v>
+        <v>24.9</v>
       </c>
       <c r="G151" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>43450</v>
+        <v>43413</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5580,10 +5576,10 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>25.8</v>
+        <v>26.3</v>
       </c>
       <c r="G152" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
@@ -5593,11 +5589,11 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>43413</v>
+        <v>43486</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5611,27 +5607,27 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F153" t="n">
-        <v>26.3</v>
+        <v>25.8</v>
       </c>
       <c r="G153" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>821501</v>
+        <v>43466</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5648,10 +5644,10 @@
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>25.6</v>
+        <v>27.1</v>
       </c>
       <c r="G154" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
@@ -5661,11 +5657,11 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>43410</v>
+        <v>43476</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5673,33 +5669,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D155" t="n">
+        <v>1.9</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F155" t="n">
-        <v>27.3</v>
+        <v>19</v>
       </c>
       <c r="G155" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>43444</v>
+        <v>43473</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5713,13 +5707,13 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>23.3</v>
+        <v>16.8</v>
       </c>
       <c r="G156" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
@@ -5729,11 +5723,11 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>721501</v>
+        <v>43467</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5741,31 +5735,33 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D157" t="n">
-        <v>2.7</v>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E157" t="n">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>24</v>
+        <v>26.8</v>
       </c>
       <c r="G157" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>43404</v>
+        <v>43424</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5782,10 +5778,10 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G158" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
@@ -5795,11 +5791,11 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>43418</v>
+        <v>43479</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5809,31 +5805,31 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Tr</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F159" t="n">
-        <v>27</v>
+        <v>20.9</v>
       </c>
       <c r="G159" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>43421</v>
+        <v>43495</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5850,10 +5846,10 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>24.2</v>
+        <v>27.2</v>
       </c>
       <c r="G160" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
@@ -5863,11 +5859,11 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>43415</v>
+        <v>43497</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5881,27 +5877,27 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>24.8</v>
+        <v>26</v>
       </c>
       <c r="G161" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>43441</v>
+        <v>330601</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5909,17 +5905,19 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D162" t="n">
-        <v>0.2</v>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E162" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="G162" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
@@ -5929,11 +5927,11 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>43422</v>
+        <v>43475</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5947,27 +5945,27 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F163" t="n">
-        <v>24.5</v>
+        <v>27.5</v>
       </c>
       <c r="G163" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5975,31 +5973,33 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D164" t="n">
-        <v>0.5</v>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E164" t="n">
-        <v>43.7</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>24.9</v>
+        <v>25.8</v>
       </c>
       <c r="G164" t="n">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>43436</v>
+        <v>43479</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6014,24 +6014,24 @@
         <v>0.2</v>
       </c>
       <c r="F165" t="n">
-        <v>27.6</v>
+        <v>22.2</v>
       </c>
       <c r="G165" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6040,30 +6040,30 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>24.1</v>
+        <v>31.5</v>
       </c>
       <c r="G166" t="n">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>821501</v>
+        <v>43467</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6078,24 +6078,24 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>28.2</v>
+        <v>30.8</v>
       </c>
       <c r="G167" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>721501</v>
+        <v>43473</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6104,16 +6104,16 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>25.1</v>
+        <v>18.8</v>
       </c>
       <c r="G168" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
@@ -6123,11 +6123,11 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>43415</v>
+        <v>43476</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6136,30 +6136,30 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>27</v>
+        <v>20.3</v>
       </c>
       <c r="G169" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>43418</v>
+        <v>43466</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6174,24 +6174,24 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>28.2</v>
+        <v>29.9</v>
       </c>
       <c r="G170" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>43421</v>
+        <v>330601</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6206,24 +6206,24 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>26.4</v>
+        <v>31</v>
       </c>
       <c r="G171" t="n">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>43424</v>
+        <v>43497</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6238,24 +6238,24 @@
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>27.6</v>
+        <v>32.3</v>
       </c>
       <c r="G172" t="n">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>43410</v>
+        <v>43475</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6270,24 +6270,24 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>28.1</v>
+        <v>29.8</v>
       </c>
       <c r="G173" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>43413</v>
+        <v>43495</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6296,30 +6296,30 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>26.7</v>
+        <v>27.7</v>
       </c>
       <c r="G174" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>43441</v>
+        <v>43422</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6328,16 +6328,16 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F175" t="n">
-        <v>27.6</v>
+        <v>24.8</v>
       </c>
       <c r="G175" t="n">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
@@ -6347,11 +6347,11 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>43404</v>
+        <v>43450</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6366,24 +6366,24 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>26.9</v>
+        <v>29</v>
       </c>
       <c r="G176" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6398,24 +6398,24 @@
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>29</v>
+        <v>27.6</v>
       </c>
       <c r="G177" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>43479</v>
+        <v>43413</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6430,10 +6430,10 @@
         <v>0.2</v>
       </c>
       <c r="F178" t="n">
-        <v>22.2</v>
+        <v>26.7</v>
       </c>
       <c r="G178" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
@@ -6443,11 +6443,11 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>43486</v>
+        <v>43410</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6462,24 +6462,24 @@
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>31.5</v>
+        <v>28.1</v>
       </c>
       <c r="G179" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>43467</v>
+        <v>43424</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6494,24 +6494,24 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>30.8</v>
+        <v>27.6</v>
       </c>
       <c r="G180" t="n">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>43473</v>
+        <v>43421</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6526,24 +6526,24 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>18.8</v>
+        <v>26.4</v>
       </c>
       <c r="G181" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>43476</v>
+        <v>43418</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6558,24 +6558,24 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>20.3</v>
+        <v>28.2</v>
       </c>
       <c r="G182" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>43422</v>
+        <v>43415</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6584,16 +6584,16 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="E183" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="F183" t="n">
-        <v>24.8</v>
+        <v>27</v>
       </c>
       <c r="G183" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
@@ -6603,11 +6603,11 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>330601</v>
+        <v>721501</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6616,30 +6616,30 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F184" t="n">
-        <v>31</v>
+        <v>25.1</v>
       </c>
       <c r="G184" t="n">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>43497</v>
+        <v>821501</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6654,24 +6654,24 @@
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>32.3</v>
+        <v>28.2</v>
       </c>
       <c r="G185" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>43475</v>
+        <v>43444</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6680,30 +6680,30 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F186" t="n">
-        <v>29.8</v>
+        <v>24.1</v>
       </c>
       <c r="G186" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>43466</v>
+        <v>43436</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6712,30 +6712,30 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F187" t="n">
-        <v>29.9</v>
+        <v>27.6</v>
       </c>
       <c r="G187" t="n">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>43495</v>
+        <v>43404</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6750,24 +6750,24 @@
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>27.7</v>
+        <v>26.9</v>
       </c>
       <c r="G188" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>43467</v>
+        <v>43424</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6777,31 +6777,33 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E189" t="n">
-        <v>0</v>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F189" t="n">
-        <v>32.2</v>
+        <v>27</v>
       </c>
       <c r="G189" t="n">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>43473</v>
+        <v>43422</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6811,31 +6813,33 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E190" t="n">
-        <v>0</v>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
       </c>
       <c r="F190" t="n">
-        <v>20.1</v>
+        <v>26.8</v>
       </c>
       <c r="G190" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>43476</v>
+        <v>43418</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6852,24 +6856,24 @@
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>20.9</v>
+        <v>28.6</v>
       </c>
       <c r="G191" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>43479</v>
+        <v>43415</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6883,13 +6887,13 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="F192" t="n">
-        <v>22.8</v>
+        <v>28.4</v>
       </c>
       <c r="G192" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
@@ -6899,11 +6903,11 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>330601</v>
+        <v>721501</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6913,31 +6917,31 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F193" t="n">
-        <v>31.5</v>
+        <v>26</v>
       </c>
       <c r="G193" t="n">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>43495</v>
+        <v>43404</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6954,24 +6958,24 @@
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>28.7</v>
+        <v>27.1</v>
       </c>
       <c r="G194" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>43497</v>
+        <v>821501</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6988,24 +6992,24 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>29.9</v>
+        <v>29.1</v>
       </c>
       <c r="G195" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>43475</v>
+        <v>43444</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7015,17 +7019,17 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F196" t="n">
-        <v>29.3</v>
+        <v>25.1</v>
       </c>
       <c r="G196" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
@@ -7035,11 +7039,11 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>43466</v>
+        <v>43436</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7053,27 +7057,27 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F197" t="n">
-        <v>31.4</v>
+        <v>27.5</v>
       </c>
       <c r="G197" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>43486</v>
+        <v>43410</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7083,31 +7087,33 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E198" t="n">
-        <v>0</v>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F198" t="n">
-        <v>34.4</v>
+        <v>28</v>
       </c>
       <c r="G198" t="n">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7124,24 +7130,24 @@
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>30.6</v>
+        <v>28.5</v>
       </c>
       <c r="G199" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>43421</v>
+        <v>43413</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7155,27 +7161,27 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F200" t="n">
-        <v>26.4</v>
+        <v>27.6</v>
       </c>
       <c r="G200" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>43441</v>
+        <v>43450</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7192,24 +7198,24 @@
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>28.5</v>
+        <v>30.6</v>
       </c>
       <c r="G201" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>43436</v>
+        <v>43486</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7223,27 +7229,27 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>27.5</v>
+        <v>34.4</v>
       </c>
       <c r="G202" t="n">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>43424</v>
+        <v>43466</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7253,33 +7259,31 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>27</v>
+        <v>31.4</v>
       </c>
       <c r="G203" t="n">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>43422</v>
+        <v>43475</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7289,33 +7293,31 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>26.8</v>
+        <v>29.3</v>
       </c>
       <c r="G204" t="n">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7332,24 +7334,24 @@
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>28.6</v>
+        <v>29.9</v>
       </c>
       <c r="G205" t="n">
         <v>75</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>43415</v>
+        <v>43495</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7363,27 +7365,27 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="G206" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>43413</v>
+        <v>330601</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7397,27 +7399,27 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>27.6</v>
+        <v>31.5</v>
       </c>
       <c r="G207" t="n">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>43410</v>
+        <v>43479</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7427,19 +7429,17 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>0.2</v>
       </c>
       <c r="F208" t="n">
-        <v>28</v>
+        <v>22.8</v>
       </c>
       <c r="G208" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
@@ -7449,11 +7449,11 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>43404</v>
+        <v>43476</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7470,24 +7470,24 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>27.1</v>
+        <v>20.9</v>
       </c>
       <c r="G209" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>821501</v>
+        <v>43473</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7504,10 +7504,10 @@
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>29.1</v>
+        <v>20.1</v>
       </c>
       <c r="G210" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H210" t="inlineStr">
         <is>
@@ -7517,11 +7517,11 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>43444</v>
+        <v>43467</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7531,55 +7531,899 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>25.1</v>
+        <v>32.2</v>
       </c>
       <c r="G211" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
+        <v>43421</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>ANURADHAPURA</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2025-12-29 1430</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="G212" t="n">
+        <v>82</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>fairday</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>43467</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>RATMALANA</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="G213" t="n">
+        <v>57</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>fairday</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>43473</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G214" t="n">
+        <v>88</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>43476</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>BANDARAWELA</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>20</v>
+      </c>
+      <c r="G215" t="n">
+        <v>91</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>haze</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>43479</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>BADULLA</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F216" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="G216" t="n">
+        <v>92</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>330601</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>MATTALA</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="G217" t="n">
+        <v>75</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>43495</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>GALLE</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="G218" t="n">
+        <v>80</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>haze</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>HAMBANTOTA</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="G219" t="n">
+        <v>82</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>43475</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>POTTUVIL</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="G220" t="n">
+        <v>76</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>COLOMBO</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>30</v>
+      </c>
+      <c r="G221" t="n">
+        <v>56</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>fairday</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>43486</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>RATNAPURA</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>29</v>
+      </c>
+      <c r="G222" t="n">
+        <v>71</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>haze</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>43450</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>KATUNAYAKE</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>29</v>
+      </c>
+      <c r="G223" t="n">
+        <v>64</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>haze</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>43421</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>ANURADHAPURA</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>26</v>
+      </c>
+      <c r="G224" t="n">
+        <v>81</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>43441</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>KURUNEGALA</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="G225" t="n">
+        <v>73</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>43436</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>BATTICALOA</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F226" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="G226" t="n">
+        <v>92</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>43424</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>PUTTALAM</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G227" t="n">
+        <v>79</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>43422</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>MAHA ILLUPPALLAMA</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F228" t="n">
+        <v>26</v>
+      </c>
+      <c r="G228" t="n">
+        <v>87</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>showers</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>43418</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>TRINCOMALEE</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>27</v>
+      </c>
+      <c r="G229" t="n">
+        <v>81</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>43415</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>VAVUNIYA</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F230" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="G230" t="n">
+        <v>87</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>43413</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>MANNAR</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F231" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="G231" t="n">
+        <v>77</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>43410</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>MULLATIVU</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>27</v>
+      </c>
+      <c r="G232" t="n">
+        <v>84</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JAFFNA</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="G233" t="n">
+        <v>83</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>cloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>821501</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>MONARAGALA</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="G234" t="n">
+        <v>73</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>43444</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>KATUGASTOTA</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F235" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G235" t="n">
+        <v>79</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>partlycloudy</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
         <v>721501</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>POLONNARUWA</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>2025-12-29 1430</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="E212" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F212" t="n">
-        <v>26</v>
-      </c>
-      <c r="G212" t="n">
-        <v>92</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>rain</t>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2025-12-29 1730</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E236" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F236" t="n">
+        <v>25</v>
+      </c>
+      <c r="G236" t="n">
+        <v>95</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>cloudy</t>
         </is>
       </c>
     </row>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -775,11 +775,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G11" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -809,11 +809,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43421</v>
+        <v>43441</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="G12" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -843,11 +843,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>23.9</v>
+        <v>21.2</v>
       </c>
       <c r="G13" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -894,28 +894,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>26.8</v>
+        <v>24.8</v>
       </c>
       <c r="G14" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -926,14 +926,16 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.2</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="G15" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -943,11 +945,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43413</v>
+        <v>43424</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -964,24 +966,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>26.1</v>
+        <v>24.6</v>
       </c>
       <c r="G16" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43495</v>
+        <v>330601</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -998,10 +1000,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>25.1</v>
+        <v>24</v>
       </c>
       <c r="G17" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1011,11 +1013,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>330601</v>
+        <v>43466</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1032,24 +1034,24 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>24</v>
+        <v>26.3</v>
       </c>
       <c r="G18" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43424</v>
+        <v>43413</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1066,24 +1068,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>24.6</v>
+        <v>26.1</v>
       </c>
       <c r="G19" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43497</v>
+        <v>43418</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1094,16 +1096,14 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E20" t="n">
+        <v>0.2</v>
       </c>
       <c r="F20" t="n">
-        <v>25.2</v>
+        <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1113,11 +1113,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43450</v>
+        <v>43436</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1130,28 +1130,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="G21" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1168,24 +1168,24 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>21.2</v>
+        <v>23.9</v>
       </c>
       <c r="G22" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43441</v>
+        <v>43421</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>24.6</v>
+        <v>23.7</v>
       </c>
       <c r="G23" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1215,11 +1215,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1249,11 +1249,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43466</v>
+        <v>43495</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1270,24 +1270,24 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G25" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43436</v>
+        <v>43413</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1300,28 +1300,28 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>26.4</v>
+        <v>25.6</v>
       </c>
       <c r="G26" t="n">
         <v>87</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43495</v>
+        <v>43473</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1338,24 +1338,24 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43424</v>
+        <v>43444</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>23.5</v>
+        <v>20.1</v>
       </c>
       <c r="G28" t="n">
         <v>94</v>
@@ -1385,11 +1385,11 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43486</v>
+        <v>43467</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1406,24 +1406,24 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>23.1</v>
+        <v>25.6</v>
       </c>
       <c r="G29" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43441</v>
+        <v>43418</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1434,16 +1434,14 @@
       <c r="D30" t="n">
         <v>0</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E30" t="n">
+        <v>0.2</v>
       </c>
       <c r="F30" t="n">
-        <v>22.9</v>
+        <v>25.4</v>
       </c>
       <c r="G30" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1453,11 +1451,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1474,24 +1472,24 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="G31" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43466</v>
+        <v>330601</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1508,10 +1506,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="G32" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1555,11 +1553,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>330601</v>
+        <v>43450</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1576,24 +1574,24 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="G34" t="n">
         <v>88</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43497</v>
+        <v>43441</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1606,14 +1604,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>24.7</v>
+        <v>22.9</v>
       </c>
       <c r="G35" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1623,11 +1621,11 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1638,28 +1636,30 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
-      <c r="E36" t="n">
-        <v>0.2</v>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F36" t="n">
-        <v>25.4</v>
+        <v>23.1</v>
       </c>
       <c r="G36" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43467</v>
+        <v>43424</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>25.6</v>
+        <v>23.5</v>
       </c>
       <c r="G37" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1689,11 +1689,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43444</v>
+        <v>43495</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1710,10 +1710,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>20.1</v>
+        <v>25</v>
       </c>
       <c r="G38" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1723,11 +1723,11 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43473</v>
+        <v>43436</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1740,28 +1740,28 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>15</v>
+        <v>26.4</v>
       </c>
       <c r="G39" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43413</v>
+        <v>43466</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="G40" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1791,11 +1791,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43415</v>
+        <v>330601</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1812,24 +1812,24 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="G41" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1842,28 +1842,28 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>23.4</v>
+        <v>22</v>
       </c>
       <c r="G42" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43467</v>
+        <v>43497</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1880,24 +1880,24 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="G43" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43436</v>
+        <v>43444</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1906,30 +1906,32 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F44" t="n">
-        <v>25.2</v>
+        <v>19.5</v>
       </c>
       <c r="G44" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43486</v>
+        <v>43418</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1940,30 +1942,28 @@
       <c r="D45" t="n">
         <v>0</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E45" t="n">
+        <v>0.2</v>
       </c>
       <c r="F45" t="n">
-        <v>22.5</v>
+        <v>25.4</v>
       </c>
       <c r="G45" t="n">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43479</v>
+        <v>43495</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1972,32 +1972,32 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>19.6</v>
+        <v>24.5</v>
       </c>
       <c r="G46" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2010,14 +2010,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="G47" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2027,11 +2027,11 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43413</v>
+        <v>43424</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2048,24 +2048,24 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>25.8</v>
+        <v>22.6</v>
       </c>
       <c r="G48" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43424</v>
+        <v>43473</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2082,24 +2082,24 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>22.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>330601</v>
+        <v>43466</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2116,24 +2116,24 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>22.1</v>
+        <v>24.3</v>
       </c>
       <c r="G50" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43421</v>
+        <v>43479</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2142,32 +2142,32 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>23.1</v>
+        <v>19.6</v>
       </c>
       <c r="G51" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43495</v>
+        <v>43486</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="G52" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2197,11 +2197,11 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43418</v>
+        <v>43436</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2210,30 +2210,30 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F53" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="G53" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43444</v>
+        <v>43467</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2250,10 +2250,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>19.5</v>
+        <v>24.6</v>
       </c>
       <c r="G54" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2263,11 +2263,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43497</v>
+        <v>43450</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2284,24 +2284,24 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="G55" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43441</v>
+        <v>43415</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2314,14 +2314,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>22</v>
+        <v>22.4</v>
       </c>
       <c r="G56" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2331,11 +2331,11 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43473</v>
+        <v>43413</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2352,10 +2352,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>9.800000000000001</v>
+        <v>25.8</v>
       </c>
       <c r="G57" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2365,11 +2365,11 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43475</v>
+        <v>43415</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2378,30 +2378,32 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>14</v>
-      </c>
-      <c r="E58" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F58" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G58" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>330601</v>
+        <v>43476</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2410,32 +2412,30 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.2</v>
       </c>
       <c r="F59" t="n">
-        <v>26</v>
+        <v>17.7</v>
       </c>
       <c r="G59" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43466</v>
+        <v>43479</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2448,28 +2448,28 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>26.4</v>
+        <v>21</v>
       </c>
       <c r="G60" t="n">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43436</v>
+        <v>43421</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2480,28 +2480,30 @@
       <c r="D61" t="n">
         <v>0</v>
       </c>
-      <c r="E61" t="n">
-        <v>0.5</v>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F61" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="G61" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43444</v>
+        <v>43404</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2518,10 +2520,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>23.2</v>
+        <v>26.9</v>
       </c>
       <c r="G62" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2531,11 +2533,11 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2548,14 +2550,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="G63" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2565,11 +2567,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43497</v>
+        <v>43473</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2586,24 +2588,24 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>27.7</v>
+        <v>13.9</v>
       </c>
       <c r="G64" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>721501</v>
+        <v>43418</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2615,27 +2617,27 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>9.800000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="F65" t="n">
-        <v>25.1</v>
+        <v>27</v>
       </c>
       <c r="G65" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43410</v>
+        <v>43424</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2652,10 +2654,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>27.5</v>
+        <v>25.2</v>
       </c>
       <c r="G66" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2665,11 +2667,11 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43413</v>
+        <v>43467</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2686,24 +2688,24 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="G67" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>821501</v>
+        <v>43486</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2714,28 +2716,30 @@
       <c r="D68" t="n">
         <v>0</v>
       </c>
-      <c r="E68" t="n">
-        <v>0.5</v>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F68" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="G68" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43495</v>
+        <v>43422</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2752,10 +2756,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>26.7</v>
+        <v>24.4</v>
       </c>
       <c r="G69" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2765,11 +2769,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43486</v>
+        <v>821501</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2780,30 +2784,28 @@
       <c r="D70" t="n">
         <v>0</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E70" t="n">
+        <v>0.5</v>
       </c>
       <c r="F70" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="G70" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43418</v>
+        <v>43413</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2814,28 +2816,30 @@
       <c r="D71" t="n">
         <v>0</v>
       </c>
-      <c r="E71" t="n">
-        <v>0.2</v>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F71" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="G71" t="n">
         <v>81</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43415</v>
+        <v>43410</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2852,10 +2856,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="G72" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2865,11 +2869,11 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43476</v>
+        <v>721501</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2878,30 +2882,30 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>17.7</v>
+        <v>25.1</v>
       </c>
       <c r="G73" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43479</v>
+        <v>43497</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2914,28 +2918,28 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>21</v>
+        <v>27.7</v>
       </c>
       <c r="G74" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43421</v>
+        <v>43450</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2948,14 +2952,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="G75" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2965,11 +2969,11 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43467</v>
+        <v>43444</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2986,10 +2990,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>26.3</v>
+        <v>23.2</v>
       </c>
       <c r="G76" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -2999,11 +3003,11 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43441</v>
+        <v>43436</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3014,30 +3018,28 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E77" t="n">
+        <v>0.5</v>
       </c>
       <c r="F77" t="n">
-        <v>25.8</v>
+        <v>26.4</v>
       </c>
       <c r="G77" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43473</v>
+        <v>43466</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3054,24 +3056,24 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>13.9</v>
+        <v>26.4</v>
       </c>
       <c r="G78" t="n">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43404</v>
+        <v>330601</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3088,10 +3090,10 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>26.9</v>
+        <v>26</v>
       </c>
       <c r="G79" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3101,11 +3103,11 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43424</v>
+        <v>43475</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3114,32 +3116,30 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="E80" t="n">
+        <v>14</v>
       </c>
       <c r="F80" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="G80" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43422</v>
+        <v>43495</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>24.4</v>
+        <v>26.7</v>
       </c>
       <c r="G81" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3169,11 +3169,11 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>43476</v>
+        <v>43410</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3181,31 +3181,35 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F82" t="n">
-        <v>19.8</v>
+        <v>27.2</v>
       </c>
       <c r="G82" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>721501</v>
+        <v>43404</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3213,33 +3217,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="D83" t="n">
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="G83" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>821501</v>
+        <v>43475</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3247,35 +3249,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.1</v>
       </c>
       <c r="F84" t="n">
-        <v>26.8</v>
+        <v>26</v>
       </c>
       <c r="G84" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43422</v>
+        <v>721501</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3283,17 +3281,19 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>0</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F85" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="G85" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3303,11 +3303,11 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43475</v>
+        <v>821501</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3315,31 +3315,35 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1.1</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F86" t="n">
-        <v>26</v>
+        <v>26.8</v>
       </c>
       <c r="G86" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>43404</v>
+        <v>43476</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3354,24 +3358,24 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>26.3</v>
+        <v>19.8</v>
       </c>
       <c r="G87" t="n">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>43410</v>
+        <v>43422</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3379,25 +3383,21 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="G88" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
@@ -3475,11 +3475,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3498,24 +3498,24 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>24.5</v>
+        <v>25.3</v>
       </c>
       <c r="G91" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>43424</v>
+        <v>43413</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3534,24 +3534,24 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G92" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>43497</v>
+        <v>43436</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3564,30 +3564,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E93" t="n">
+        <v>42.5</v>
       </c>
       <c r="F93" t="n">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="G93" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>43466</v>
+        <v>43418</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3606,10 +3604,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="G94" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3619,11 +3617,11 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>43421</v>
+        <v>43486</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3636,30 +3634,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E95" t="n">
+        <v>3.3</v>
       </c>
       <c r="F95" t="n">
-        <v>23.4</v>
+        <v>24.5</v>
       </c>
       <c r="G95" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3678,24 +3674,24 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>27</v>
+        <v>22.6</v>
       </c>
       <c r="G96" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3710,14 +3706,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>26.7</v>
+        <v>13.4</v>
       </c>
       <c r="G97" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3727,11 +3723,11 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>43450</v>
+        <v>330601</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3750,10 +3746,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>25.8</v>
+        <v>24.5</v>
       </c>
       <c r="G98" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -3763,11 +3759,11 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3782,14 +3778,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>13.4</v>
+        <v>26.7</v>
       </c>
       <c r="G99" t="n">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3799,11 +3795,11 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>43441</v>
+        <v>43495</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3822,24 +3818,24 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>25.3</v>
+        <v>27</v>
       </c>
       <c r="G100" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3858,24 +3854,24 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>22.6</v>
+        <v>23.4</v>
       </c>
       <c r="G101" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>43486</v>
+        <v>43466</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3888,28 +3884,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E102" t="n">
-        <v>3.3</v>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F102" t="n">
-        <v>24.5</v>
+        <v>26.3</v>
       </c>
       <c r="G102" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3928,10 +3926,10 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>26.1</v>
+        <v>25.4</v>
       </c>
       <c r="G103" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -3941,11 +3939,11 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3958,28 +3956,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E104" t="n">
-        <v>42.5</v>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F104" t="n">
-        <v>25.9</v>
+        <v>24</v>
       </c>
       <c r="G104" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>43413</v>
+        <v>43450</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3998,10 +3998,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="G105" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -4011,11 +4011,11 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>43441</v>
+        <v>43497</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4025,33 +4025,33 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="G106" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4061,31 +4061,33 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E107" t="n">
-        <v>3.3</v>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F107" t="n">
-        <v>24.2</v>
+        <v>22.4</v>
       </c>
       <c r="G107" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>fognight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>43473</v>
+        <v>43424</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4100,28 +4102,28 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>14</v>
+        <v>23.7</v>
       </c>
       <c r="G108" t="n">
         <v>94</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>43421</v>
+        <v>43466</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4140,24 +4142,24 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>23.5</v>
+        <v>25.8</v>
       </c>
       <c r="G109" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>43436</v>
+        <v>43467</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4170,28 +4172,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E110" t="n">
-        <v>42.5</v>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F110" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="G110" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>330601</v>
+        <v>43450</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4210,24 +4214,24 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>23.5</v>
+        <v>25.1</v>
       </c>
       <c r="G111" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>43418</v>
+        <v>43413</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4246,7 +4250,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="G112" t="n">
         <v>87</v>
@@ -4259,11 +4263,11 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>43413</v>
+        <v>43495</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4282,10 +4286,10 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>25.8</v>
+        <v>26.5</v>
       </c>
       <c r="G113" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -4295,11 +4299,11 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>43497</v>
+        <v>330601</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4318,24 +4322,24 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>24.9</v>
+        <v>23.5</v>
       </c>
       <c r="G114" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>43450</v>
+        <v>43436</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4348,30 +4352,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E115" t="n">
+        <v>42.5</v>
       </c>
       <c r="F115" t="n">
-        <v>25.1</v>
+        <v>25.7</v>
       </c>
       <c r="G115" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>43467</v>
+        <v>43421</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4390,10 +4392,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>25.8</v>
+        <v>23.5</v>
       </c>
       <c r="G116" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -4403,11 +4405,11 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>43466</v>
+        <v>43473</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4422,28 +4424,28 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>25.8</v>
+        <v>14</v>
       </c>
       <c r="G117" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>43424</v>
+        <v>43486</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4456,30 +4458,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E118" t="n">
+        <v>3.3</v>
       </c>
       <c r="F118" t="n">
-        <v>23.7</v>
+        <v>24.2</v>
       </c>
       <c r="G118" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fognight</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>43495</v>
+        <v>43418</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4498,10 +4498,10 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>26.5</v>
+        <v>26.1</v>
       </c>
       <c r="G119" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -4511,11 +4511,11 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>43444</v>
+        <v>43441</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4534,24 +4534,24 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>22.4</v>
+        <v>25</v>
       </c>
       <c r="G120" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>43424</v>
+        <v>721501</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4560,30 +4560,30 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F121" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="G121" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>43441</v>
+        <v>43497</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4592,30 +4592,30 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>23.3</v>
+        <v>24.6</v>
       </c>
       <c r="G122" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4624,30 +4624,30 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="F123" t="n">
-        <v>22.2</v>
+        <v>23.9</v>
       </c>
       <c r="G123" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fog</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>43413</v>
+        <v>43466</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4662,10 +4662,10 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>25.8</v>
+        <v>25</v>
       </c>
       <c r="G124" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -4675,11 +4675,11 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>43473</v>
+        <v>330601</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4691,27 +4691,27 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>14.1</v>
+        <v>22.5</v>
       </c>
       <c r="G125" t="n">
         <v>95</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>43415</v>
+        <v>43479</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4720,16 +4720,16 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="E126" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="F126" t="n">
-        <v>24</v>
+        <v>20.2</v>
       </c>
       <c r="G126" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -4739,11 +4739,11 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>43450</v>
+        <v>43495</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4758,24 +4758,24 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>24.9</v>
+        <v>25.5</v>
       </c>
       <c r="G127" t="n">
         <v>91</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>43418</v>
+        <v>43410</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4790,10 +4790,10 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>26</v>
+        <v>26.6</v>
       </c>
       <c r="G128" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -4803,11 +4803,11 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>43421</v>
+        <v>43467</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4822,10 +4822,10 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>23.3</v>
+        <v>25.4</v>
       </c>
       <c r="G129" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -4835,11 +4835,11 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>43436</v>
+        <v>821501</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4848,30 +4848,30 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>43.2</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>24.9</v>
+        <v>22.8</v>
       </c>
       <c r="G130" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>43467</v>
+        <v>43421</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4886,10 +4886,10 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>25.4</v>
+        <v>23.3</v>
       </c>
       <c r="G131" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
@@ -4899,11 +4899,11 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>43410</v>
+        <v>43418</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4918,10 +4918,10 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="G132" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
@@ -4931,11 +4931,11 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>821501</v>
+        <v>43450</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4950,24 +4950,24 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>22.8</v>
+        <v>24.9</v>
       </c>
       <c r="G133" t="n">
         <v>91</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>43495</v>
+        <v>43415</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4976,16 +4976,16 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F134" t="n">
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="G134" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
@@ -4995,11 +4995,11 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>43479</v>
+        <v>43473</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5008,30 +5008,30 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>20.2</v>
+        <v>14.1</v>
       </c>
       <c r="G135" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>330601</v>
+        <v>43413</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5046,24 +5046,24 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>22.5</v>
+        <v>25.8</v>
       </c>
       <c r="G136" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>43466</v>
+        <v>43444</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5072,30 +5072,30 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>25</v>
+        <v>22.2</v>
       </c>
       <c r="G137" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>43486</v>
+        <v>43441</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5104,30 +5104,30 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E138" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="F138" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="G138" t="n">
         <v>95</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>fog</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>43497</v>
+        <v>43424</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5142,24 +5142,24 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>24.6</v>
+        <v>23.2</v>
       </c>
       <c r="G139" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>721501</v>
+        <v>43436</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5168,30 +5168,30 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>7.3</v>
+        <v>0.7</v>
       </c>
       <c r="E140" t="n">
-        <v>7.5</v>
+        <v>43.2</v>
       </c>
       <c r="F140" t="n">
-        <v>23.6</v>
+        <v>24.9</v>
       </c>
       <c r="G140" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>43410</v>
+        <v>43476</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5199,33 +5199,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D141" t="n">
+        <v>1.9</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F141" t="n">
-        <v>27.3</v>
+        <v>19</v>
       </c>
       <c r="G141" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>43444</v>
+        <v>43473</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5239,13 +5237,13 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>23.3</v>
+        <v>16.8</v>
       </c>
       <c r="G142" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -5255,11 +5253,11 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>721501</v>
+        <v>43467</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5267,31 +5265,33 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D143" t="n">
-        <v>2.7</v>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E143" t="n">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>24</v>
+        <v>26.8</v>
       </c>
       <c r="G143" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>43404</v>
+        <v>43424</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5308,10 +5308,10 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G144" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
@@ -5321,11 +5321,11 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>43418</v>
+        <v>43479</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5335,31 +5335,31 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Tr</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F145" t="n">
-        <v>27</v>
+        <v>20.9</v>
       </c>
       <c r="G145" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>43422</v>
+        <v>43475</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5373,27 +5373,27 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F146" t="n">
-        <v>24.5</v>
+        <v>27.5</v>
       </c>
       <c r="G146" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>43421</v>
+        <v>43495</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5410,10 +5410,10 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>24.2</v>
+        <v>27.2</v>
       </c>
       <c r="G147" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
@@ -5423,11 +5423,11 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>43415</v>
+        <v>43497</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5441,27 +5441,27 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>24.8</v>
+        <v>26</v>
       </c>
       <c r="G148" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>43441</v>
+        <v>330601</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5469,17 +5469,19 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D149" t="n">
-        <v>0.2</v>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E149" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="G149" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
@@ -5489,11 +5491,11 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>821501</v>
+        <v>43466</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5510,10 +5512,10 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>25.6</v>
+        <v>27.1</v>
       </c>
       <c r="G150" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
@@ -5523,11 +5525,11 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5535,31 +5537,33 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D151" t="n">
-        <v>0.5</v>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E151" t="n">
-        <v>43.7</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>24.9</v>
+        <v>25.8</v>
       </c>
       <c r="G151" t="n">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>43413</v>
+        <v>43486</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5573,27 +5577,27 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F152" t="n">
-        <v>26.3</v>
+        <v>25.8</v>
       </c>
       <c r="G152" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>43486</v>
+        <v>43418</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5607,27 +5611,27 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>25.8</v>
+        <v>27</v>
       </c>
       <c r="G153" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>43466</v>
+        <v>43436</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5635,33 +5639,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D154" t="n">
+        <v>0.5</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>43.7</v>
       </c>
       <c r="F154" t="n">
-        <v>27.1</v>
+        <v>24.9</v>
       </c>
       <c r="G154" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>43476</v>
+        <v>821501</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5669,31 +5671,33 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D155" t="n">
-        <v>1.9</v>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E155" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>19</v>
+        <v>25.6</v>
       </c>
       <c r="G155" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>43473</v>
+        <v>43441</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5701,19 +5705,17 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D156" t="n">
+        <v>0.2</v>
       </c>
       <c r="E156" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="F156" t="n">
-        <v>16.8</v>
+        <v>25.3</v>
       </c>
       <c r="G156" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
@@ -5723,11 +5725,11 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>43467</v>
+        <v>43415</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5741,27 +5743,27 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F157" t="n">
-        <v>26.8</v>
+        <v>24.8</v>
       </c>
       <c r="G157" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>43424</v>
+        <v>43421</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5778,24 +5780,24 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>25.1</v>
+        <v>24.2</v>
       </c>
       <c r="G158" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>43479</v>
+        <v>43422</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5805,31 +5807,31 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Tr</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>20.9</v>
+        <v>24.5</v>
       </c>
       <c r="G159" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>43495</v>
+        <v>43404</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5846,24 +5848,24 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>27.2</v>
+        <v>26.3</v>
       </c>
       <c r="G160" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>43497</v>
+        <v>721501</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5871,33 +5873,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D161" t="n">
+        <v>2.7</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="F161" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G161" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>330601</v>
+        <v>43444</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5911,13 +5911,13 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F162" t="n">
-        <v>25.5</v>
+        <v>23.3</v>
       </c>
       <c r="G162" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
@@ -5927,11 +5927,11 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>43475</v>
+        <v>43410</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5945,27 +5945,27 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="G163" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>43450</v>
+        <v>43413</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5982,10 +5982,10 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>25.8</v>
+        <v>26.3</v>
       </c>
       <c r="G164" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
@@ -5995,11 +5995,11 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>43479</v>
+        <v>43413</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6014,10 +6014,10 @@
         <v>0.2</v>
       </c>
       <c r="F165" t="n">
-        <v>22.2</v>
+        <v>26.7</v>
       </c>
       <c r="G165" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
@@ -6027,11 +6027,11 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>43486</v>
+        <v>43410</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6046,24 +6046,24 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>31.5</v>
+        <v>28.1</v>
       </c>
       <c r="G166" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>43467</v>
+        <v>43424</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6078,24 +6078,24 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>30.8</v>
+        <v>27.6</v>
       </c>
       <c r="G167" t="n">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>43473</v>
+        <v>43421</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6110,24 +6110,24 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>18.8</v>
+        <v>26.4</v>
       </c>
       <c r="G168" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>43476</v>
+        <v>43418</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6142,24 +6142,24 @@
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>20.3</v>
+        <v>28.2</v>
       </c>
       <c r="G169" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>43466</v>
+        <v>43436</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6168,30 +6168,30 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F170" t="n">
-        <v>29.9</v>
+        <v>27.6</v>
       </c>
       <c r="G170" t="n">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>330601</v>
+        <v>721501</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6200,30 +6200,30 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F171" t="n">
-        <v>31</v>
+        <v>25.1</v>
       </c>
       <c r="G171" t="n">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>43497</v>
+        <v>821501</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6238,24 +6238,24 @@
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>32.3</v>
+        <v>28.2</v>
       </c>
       <c r="G172" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>43475</v>
+        <v>43444</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6264,30 +6264,30 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F173" t="n">
-        <v>29.8</v>
+        <v>24.1</v>
       </c>
       <c r="G173" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>43495</v>
+        <v>43404</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6302,24 +6302,24 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>27.7</v>
+        <v>26.9</v>
       </c>
       <c r="G174" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>43422</v>
+        <v>43415</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6328,16 +6328,16 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="E175" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="F175" t="n">
-        <v>24.8</v>
+        <v>27</v>
       </c>
       <c r="G175" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
@@ -6347,11 +6347,11 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6366,24 +6366,24 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>29</v>
+        <v>27.6</v>
       </c>
       <c r="G176" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>43441</v>
+        <v>43422</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6392,16 +6392,16 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F177" t="n">
-        <v>27.6</v>
+        <v>24.8</v>
       </c>
       <c r="G177" t="n">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
@@ -6411,11 +6411,11 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>43413</v>
+        <v>43495</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6424,30 +6424,30 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>26.7</v>
+        <v>27.7</v>
       </c>
       <c r="G178" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>43410</v>
+        <v>43475</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6462,24 +6462,24 @@
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>28.1</v>
+        <v>29.8</v>
       </c>
       <c r="G179" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>43424</v>
+        <v>43497</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6494,24 +6494,24 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>27.6</v>
+        <v>32.3</v>
       </c>
       <c r="G180" t="n">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>43421</v>
+        <v>330601</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6526,24 +6526,24 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>26.4</v>
+        <v>31</v>
       </c>
       <c r="G181" t="n">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>43418</v>
+        <v>43466</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6558,24 +6558,24 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>28.2</v>
+        <v>29.9</v>
       </c>
       <c r="G182" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>43415</v>
+        <v>43476</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6584,30 +6584,30 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>27</v>
+        <v>20.3</v>
       </c>
       <c r="G183" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>721501</v>
+        <v>43473</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6616,16 +6616,16 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>25.1</v>
+        <v>18.8</v>
       </c>
       <c r="G184" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
@@ -6635,11 +6635,11 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>821501</v>
+        <v>43467</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6654,24 +6654,24 @@
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>28.2</v>
+        <v>30.8</v>
       </c>
       <c r="G185" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6680,30 +6680,30 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>24.1</v>
+        <v>31.5</v>
       </c>
       <c r="G186" t="n">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>43436</v>
+        <v>43479</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6718,24 +6718,24 @@
         <v>0.2</v>
       </c>
       <c r="F187" t="n">
-        <v>27.6</v>
+        <v>22.2</v>
       </c>
       <c r="G187" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>43404</v>
+        <v>43450</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6750,24 +6750,24 @@
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>26.9</v>
+        <v>29</v>
       </c>
       <c r="G188" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>43424</v>
+        <v>43466</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6777,33 +6777,31 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>27</v>
+        <v>31.4</v>
       </c>
       <c r="G189" t="n">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>43422</v>
+        <v>43475</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6813,33 +6811,31 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>26.8</v>
+        <v>29.3</v>
       </c>
       <c r="G190" t="n">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6856,24 +6852,24 @@
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>28.6</v>
+        <v>29.9</v>
       </c>
       <c r="G191" t="n">
         <v>75</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>43415</v>
+        <v>43495</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6887,27 +6883,27 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="G192" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>721501</v>
+        <v>43421</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6917,31 +6913,31 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="G193" t="n">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>43404</v>
+        <v>43476</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6958,24 +6954,24 @@
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>27.1</v>
+        <v>20.9</v>
       </c>
       <c r="G194" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>821501</v>
+        <v>43473</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6992,10 +6988,10 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>29.1</v>
+        <v>20.1</v>
       </c>
       <c r="G195" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
@@ -7005,11 +7001,11 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>43444</v>
+        <v>43467</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7019,31 +7015,31 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>25.1</v>
+        <v>32.2</v>
       </c>
       <c r="G196" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>43436</v>
+        <v>43486</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7057,27 +7053,27 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>27.5</v>
+        <v>34.4</v>
       </c>
       <c r="G197" t="n">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>43410</v>
+        <v>43479</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7087,19 +7083,17 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>0.2</v>
       </c>
       <c r="F198" t="n">
-        <v>28</v>
+        <v>22.8</v>
       </c>
       <c r="G198" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
@@ -7109,11 +7103,11 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>43441</v>
+        <v>43450</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7130,24 +7124,24 @@
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>28.5</v>
+        <v>30.6</v>
       </c>
       <c r="G199" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>43413</v>
+        <v>330601</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7161,27 +7155,27 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>27.6</v>
+        <v>31.5</v>
       </c>
       <c r="G200" t="n">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7198,24 +7192,24 @@
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>30.6</v>
+        <v>28.5</v>
       </c>
       <c r="G201" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>43486</v>
+        <v>43410</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7225,31 +7219,33 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E202" t="n">
-        <v>0</v>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F202" t="n">
-        <v>34.4</v>
+        <v>28</v>
       </c>
       <c r="G202" t="n">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>43466</v>
+        <v>43436</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7263,27 +7259,27 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F203" t="n">
-        <v>31.4</v>
+        <v>27.5</v>
       </c>
       <c r="G203" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>43475</v>
+        <v>43444</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7293,17 +7289,17 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F204" t="n">
-        <v>29.3</v>
+        <v>25.1</v>
       </c>
       <c r="G204" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
@@ -7313,11 +7309,11 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>43497</v>
+        <v>821501</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7334,24 +7330,24 @@
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>29.9</v>
+        <v>29.1</v>
       </c>
       <c r="G205" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>43495</v>
+        <v>43404</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7368,24 +7364,24 @@
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>28.7</v>
+        <v>27.1</v>
       </c>
       <c r="G206" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>330601</v>
+        <v>721501</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7395,31 +7391,31 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F207" t="n">
-        <v>31.5</v>
+        <v>26</v>
       </c>
       <c r="G207" t="n">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>43479</v>
+        <v>43415</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7433,13 +7429,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="F208" t="n">
-        <v>22.8</v>
+        <v>28.4</v>
       </c>
       <c r="G208" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
@@ -7449,11 +7445,11 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>43476</v>
+        <v>43418</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7470,24 +7466,24 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>20.9</v>
+        <v>28.6</v>
       </c>
       <c r="G209" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>43473</v>
+        <v>43422</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7497,31 +7493,33 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E210" t="n">
-        <v>0</v>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
       </c>
       <c r="F210" t="n">
-        <v>20.1</v>
+        <v>26.8</v>
       </c>
       <c r="G210" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>43467</v>
+        <v>43424</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7531,31 +7529,33 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E211" t="n">
-        <v>0</v>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F211" t="n">
-        <v>32.2</v>
+        <v>27</v>
       </c>
       <c r="G211" t="n">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>43421</v>
+        <v>43413</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7569,17 +7569,17 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F212" t="n">
-        <v>26.4</v>
+        <v>27.6</v>
       </c>
       <c r="G212" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -775,11 +775,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -809,11 +809,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43441</v>
+        <v>43421</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>24.6</v>
+        <v>23.7</v>
       </c>
       <c r="G12" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -843,11 +843,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>21.2</v>
+        <v>23.9</v>
       </c>
       <c r="G13" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43450</v>
+        <v>43436</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -894,28 +894,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>24.8</v>
+        <v>26.8</v>
       </c>
       <c r="G14" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43497</v>
+        <v>43418</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -926,16 +926,14 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E15" t="n">
+        <v>0.2</v>
       </c>
       <c r="F15" t="n">
-        <v>25.2</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -945,11 +943,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43424</v>
+        <v>43413</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -966,24 +964,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>24.6</v>
+        <v>26.1</v>
       </c>
       <c r="G16" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>330601</v>
+        <v>43466</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1000,24 +998,24 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>24</v>
+        <v>26.3</v>
       </c>
       <c r="G17" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43466</v>
+        <v>43495</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1034,24 +1032,24 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G18" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43413</v>
+        <v>43424</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1068,24 +1066,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>26.1</v>
+        <v>24.6</v>
       </c>
       <c r="G19" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1096,14 +1094,16 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.2</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F20" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="G20" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1113,11 +1113,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1130,28 +1130,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>26.8</v>
+        <v>24.8</v>
       </c>
       <c r="G21" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1168,24 +1168,24 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>23.9</v>
+        <v>21.2</v>
       </c>
       <c r="G22" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43421</v>
+        <v>43441</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="G23" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1215,11 +1215,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G24" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1249,11 +1249,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43495</v>
+        <v>330601</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>25.1</v>
+        <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1283,11 +1283,11 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43413</v>
+        <v>43466</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="G26" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1317,11 +1317,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43473</v>
+        <v>43436</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1334,28 +1334,28 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>26.4</v>
       </c>
       <c r="G27" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43444</v>
+        <v>43495</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1372,10 +1372,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>20.1</v>
+        <v>25</v>
       </c>
       <c r="G28" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1385,11 +1385,11 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43467</v>
+        <v>43424</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>25.6</v>
+        <v>23.5</v>
       </c>
       <c r="G29" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1419,11 +1419,11 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43418</v>
+        <v>43486</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1434,28 +1434,30 @@
       <c r="D30" t="n">
         <v>0</v>
       </c>
-      <c r="E30" t="n">
-        <v>0.2</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F30" t="n">
-        <v>25.4</v>
+        <v>23.1</v>
       </c>
       <c r="G30" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43497</v>
+        <v>43441</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1468,14 +1470,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>24.7</v>
+        <v>22.9</v>
       </c>
       <c r="G31" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1485,11 +1487,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>330601</v>
+        <v>43450</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1506,14 +1508,14 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="G32" t="n">
         <v>88</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
@@ -1553,11 +1555,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43450</v>
+        <v>43497</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1574,24 +1576,24 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="G34" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43441</v>
+        <v>43418</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1602,16 +1604,14 @@
       <c r="D35" t="n">
         <v>0</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E35" t="n">
+        <v>0.2</v>
       </c>
       <c r="F35" t="n">
-        <v>22.9</v>
+        <v>25.4</v>
       </c>
       <c r="G35" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1621,11 +1621,11 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43486</v>
+        <v>43467</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1642,24 +1642,24 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>23.1</v>
+        <v>25.6</v>
       </c>
       <c r="G36" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43424</v>
+        <v>43444</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>23.5</v>
+        <v>20.1</v>
       </c>
       <c r="G37" t="n">
         <v>94</v>
@@ -1689,11 +1689,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43495</v>
+        <v>43473</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1710,24 +1710,24 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G38" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43436</v>
+        <v>43413</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1740,28 +1740,28 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>26.4</v>
+        <v>25.6</v>
       </c>
       <c r="G39" t="n">
         <v>87</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43466</v>
+        <v>330601</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="G40" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1791,11 +1791,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>330601</v>
+        <v>43466</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1812,24 +1812,24 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>22.1</v>
+        <v>24.3</v>
       </c>
       <c r="G41" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43441</v>
+        <v>43415</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1842,14 +1842,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>22</v>
+        <v>22.4</v>
       </c>
       <c r="G42" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1859,11 +1859,11 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43497</v>
+        <v>43450</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1880,24 +1880,24 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="G43" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43444</v>
+        <v>43467</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>19.5</v>
+        <v>24.6</v>
       </c>
       <c r="G44" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1927,11 +1927,11 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43418</v>
+        <v>43436</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1940,30 +1940,30 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F45" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="G45" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43495</v>
+        <v>43486</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1980,10 +1980,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="G46" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1993,11 +1993,11 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43421</v>
+        <v>43479</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2006,32 +2006,32 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>23.1</v>
+        <v>19.6</v>
       </c>
       <c r="G47" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43424</v>
+        <v>43473</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2048,24 +2048,24 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>22.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43473</v>
+        <v>43413</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>9.800000000000001</v>
+        <v>25.8</v>
       </c>
       <c r="G49" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2095,11 +2095,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43466</v>
+        <v>43421</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2112,14 +2112,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="G50" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2129,11 +2129,11 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43479</v>
+        <v>43495</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2142,32 +2142,32 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>19.6</v>
+        <v>24.5</v>
       </c>
       <c r="G51" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43486</v>
+        <v>43418</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2178,30 +2178,28 @@
       <c r="D52" t="n">
         <v>0</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E52" t="n">
+        <v>0.2</v>
       </c>
       <c r="F52" t="n">
-        <v>22.5</v>
+        <v>25.4</v>
       </c>
       <c r="G52" t="n">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43436</v>
+        <v>43444</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2210,30 +2208,32 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F53" t="n">
-        <v>25.2</v>
+        <v>19.5</v>
       </c>
       <c r="G53" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43467</v>
+        <v>43497</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2250,24 +2250,24 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="G54" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2280,28 +2280,28 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>23.4</v>
+        <v>22</v>
       </c>
       <c r="G55" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43415</v>
+        <v>330601</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2318,24 +2318,24 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="G56" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43413</v>
+        <v>43424</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2352,24 +2352,24 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>25.8</v>
+        <v>22.6</v>
       </c>
       <c r="G57" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43415</v>
+        <v>43410</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="G58" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2399,11 +2399,11 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43476</v>
+        <v>721501</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2412,30 +2412,30 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>17.7</v>
+        <v>25.1</v>
       </c>
       <c r="G59" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43479</v>
+        <v>43497</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2448,28 +2448,28 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>21</v>
+        <v>27.7</v>
       </c>
       <c r="G60" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43421</v>
+        <v>43450</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2482,14 +2482,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="G61" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2499,11 +2499,11 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43404</v>
+        <v>330601</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2520,10 +2520,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>26.9</v>
+        <v>26</v>
       </c>
       <c r="G62" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2533,11 +2533,11 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43441</v>
+        <v>43436</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2548,30 +2548,28 @@
       <c r="D63" t="n">
         <v>0</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="E63" t="n">
+        <v>0.5</v>
       </c>
       <c r="F63" t="n">
-        <v>25.8</v>
+        <v>26.4</v>
       </c>
       <c r="G63" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43473</v>
+        <v>43466</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2588,24 +2586,24 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>13.9</v>
+        <v>26.4</v>
       </c>
       <c r="G64" t="n">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43418</v>
+        <v>43413</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2616,28 +2614,30 @@
       <c r="D65" t="n">
         <v>0</v>
       </c>
-      <c r="E65" t="n">
-        <v>0.2</v>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F65" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="G65" t="n">
         <v>81</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43424</v>
+        <v>43475</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2646,32 +2646,30 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="E66" t="n">
+        <v>14</v>
       </c>
       <c r="F66" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="G66" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43467</v>
+        <v>43444</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2688,10 +2686,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>26.3</v>
+        <v>23.2</v>
       </c>
       <c r="G67" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2701,11 +2699,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>43486</v>
+        <v>821501</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2716,30 +2714,28 @@
       <c r="D68" t="n">
         <v>0</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E68" t="n">
+        <v>0.5</v>
       </c>
       <c r="F68" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="G68" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43422</v>
+        <v>43495</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2756,10 +2752,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>24.4</v>
+        <v>26.7</v>
       </c>
       <c r="G69" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2769,11 +2765,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>821501</v>
+        <v>43486</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2784,28 +2780,30 @@
       <c r="D70" t="n">
         <v>0</v>
       </c>
-      <c r="E70" t="n">
-        <v>0.5</v>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F70" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="G70" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43413</v>
+        <v>43467</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2822,24 +2820,24 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="G71" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43410</v>
+        <v>43424</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2856,10 +2854,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>27.5</v>
+        <v>25.2</v>
       </c>
       <c r="G72" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2869,11 +2867,11 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>721501</v>
+        <v>43418</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2885,27 +2883,27 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>9.800000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="F73" t="n">
-        <v>25.1</v>
+        <v>27</v>
       </c>
       <c r="G73" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43497</v>
+        <v>43473</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2922,24 +2920,24 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>27.7</v>
+        <v>13.9</v>
       </c>
       <c r="G74" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43450</v>
+        <v>43441</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2952,14 +2950,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="G75" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2969,11 +2967,11 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43444</v>
+        <v>43404</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2990,10 +2988,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>23.2</v>
+        <v>26.9</v>
       </c>
       <c r="G76" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3003,11 +3001,11 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43436</v>
+        <v>43421</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3018,28 +3016,30 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
-      <c r="E77" t="n">
-        <v>0.5</v>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F77" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="G77" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43466</v>
+        <v>43479</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3052,28 +3052,28 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>26.4</v>
+        <v>21</v>
       </c>
       <c r="G78" t="n">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>330601</v>
+        <v>43476</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3082,32 +3082,30 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.2</v>
       </c>
       <c r="F79" t="n">
-        <v>26</v>
+        <v>17.7</v>
       </c>
       <c r="G79" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43475</v>
+        <v>43415</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3116,30 +3114,32 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>14</v>
-      </c>
-      <c r="E80" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F80" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G80" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43495</v>
+        <v>43422</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>26.7</v>
+        <v>24.4</v>
       </c>
       <c r="G81" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3169,11 +3169,11 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>43410</v>
+        <v>43422</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3181,35 +3181,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="G82" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>43404</v>
+        <v>43476</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3224,24 +3220,24 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>26.3</v>
+        <v>19.8</v>
       </c>
       <c r="G83" t="n">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>43475</v>
+        <v>821501</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3249,31 +3245,35 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1.1</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F84" t="n">
-        <v>26</v>
+        <v>26.8</v>
       </c>
       <c r="G84" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>721501</v>
+        <v>43404</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3281,33 +3281,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
+      <c r="D85" t="n">
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="G85" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>821501</v>
+        <v>43475</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3315,35 +3313,31 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.1</v>
       </c>
       <c r="F86" t="n">
-        <v>26.8</v>
+        <v>26</v>
       </c>
       <c r="G86" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>43476</v>
+        <v>43410</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3351,31 +3345,35 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F87" t="n">
-        <v>19.8</v>
+        <v>27.2</v>
       </c>
       <c r="G87" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>43422</v>
+        <v>721501</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3383,17 +3381,19 @@
           <t>2025-12-28 1730</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F88" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="G88" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3475,11 +3475,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>43441</v>
+        <v>43495</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3498,24 +3498,24 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>25.3</v>
+        <v>27</v>
       </c>
       <c r="G91" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>43413</v>
+        <v>43450</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3534,10 +3534,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="G92" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -3547,11 +3547,11 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>43436</v>
+        <v>43424</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3564,28 +3564,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E93" t="n">
-        <v>42.5</v>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F93" t="n">
-        <v>25.9</v>
+        <v>24</v>
       </c>
       <c r="G93" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>43418</v>
+        <v>43497</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3604,10 +3606,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>26.1</v>
+        <v>25.4</v>
       </c>
       <c r="G94" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3617,11 +3619,11 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>43486</v>
+        <v>43466</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3634,28 +3636,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E95" t="n">
-        <v>3.3</v>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F95" t="n">
-        <v>24.5</v>
+        <v>26.3</v>
       </c>
       <c r="G95" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>43444</v>
+        <v>43421</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3674,24 +3678,24 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>22.6</v>
+        <v>23.4</v>
       </c>
       <c r="G96" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3706,14 +3710,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>13.4</v>
+        <v>26.7</v>
       </c>
       <c r="G97" t="n">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3723,11 +3727,11 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>330601</v>
+        <v>43441</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3746,24 +3750,24 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>24.5</v>
+        <v>25.3</v>
       </c>
       <c r="G98" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3778,14 +3782,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>26.7</v>
+        <v>13.4</v>
       </c>
       <c r="G99" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3795,11 +3799,11 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>43495</v>
+        <v>43444</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3818,24 +3822,24 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>27</v>
+        <v>22.6</v>
       </c>
       <c r="G100" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>43421</v>
+        <v>43486</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3848,30 +3852,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E101" t="n">
+        <v>3.3</v>
       </c>
       <c r="F101" t="n">
-        <v>23.4</v>
+        <v>24.5</v>
       </c>
       <c r="G101" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>43466</v>
+        <v>43418</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3890,10 +3892,10 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="G102" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -3903,11 +3905,11 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>43497</v>
+        <v>43436</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3920,30 +3922,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E103" t="n">
+        <v>42.5</v>
       </c>
       <c r="F103" t="n">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="G103" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>43424</v>
+        <v>43413</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3962,24 +3962,24 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G104" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>43450</v>
+        <v>330601</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3998,10 +3998,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>25.8</v>
+        <v>24.5</v>
       </c>
       <c r="G105" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -4011,11 +4011,11 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>43497</v>
+        <v>330601</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4034,24 +4034,24 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>24.9</v>
+        <v>23.5</v>
       </c>
       <c r="G106" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>43444</v>
+        <v>43441</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4070,24 +4070,24 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>22.4</v>
+        <v>25</v>
       </c>
       <c r="G107" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>43424</v>
+        <v>43486</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4100,30 +4100,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E108" t="n">
+        <v>3.3</v>
       </c>
       <c r="F108" t="n">
-        <v>23.7</v>
+        <v>24.2</v>
       </c>
       <c r="G108" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>fognight</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>43466</v>
+        <v>43473</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4138,28 +4136,28 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>25.8</v>
+        <v>14</v>
       </c>
       <c r="G109" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>43467</v>
+        <v>43421</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4178,10 +4176,10 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>25.8</v>
+        <v>23.5</v>
       </c>
       <c r="G110" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -4191,11 +4189,11 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>43450</v>
+        <v>43436</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4208,30 +4206,28 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="E111" t="n">
+        <v>42.5</v>
       </c>
       <c r="F111" t="n">
-        <v>25.1</v>
+        <v>25.7</v>
       </c>
       <c r="G111" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>hazenight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>43413</v>
+        <v>43495</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4250,10 +4246,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>25.8</v>
+        <v>26.5</v>
       </c>
       <c r="G112" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4263,11 +4259,11 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>43495</v>
+        <v>43418</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4286,10 +4282,10 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>26.5</v>
+        <v>26.1</v>
       </c>
       <c r="G113" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -4299,11 +4295,11 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>330601</v>
+        <v>43450</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4322,24 +4318,24 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>23.5</v>
+        <v>25.1</v>
       </c>
       <c r="G114" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>hazenight</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>43436</v>
+        <v>43467</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4352,28 +4348,30 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="E115" t="n">
-        <v>42.5</v>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="F115" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="G115" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>43421</v>
+        <v>43466</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4392,24 +4390,24 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>23.5</v>
+        <v>25.8</v>
       </c>
       <c r="G116" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>43473</v>
+        <v>43424</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4424,28 +4422,28 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>14</v>
+        <v>23.7</v>
       </c>
       <c r="G117" t="n">
         <v>94</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>43486</v>
+        <v>43444</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4455,31 +4453,33 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E118" t="n">
-        <v>3.3</v>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
       </c>
       <c r="F118" t="n">
-        <v>24.2</v>
+        <v>22.4</v>
       </c>
       <c r="G118" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>fognight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>43418</v>
+        <v>43413</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4498,7 +4498,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="G119" t="n">
         <v>87</v>
@@ -4511,11 +4511,11 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>43441</v>
+        <v>43497</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4525,33 +4525,33 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="G120" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>721501</v>
+        <v>43436</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4560,30 +4560,30 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>7.3</v>
+        <v>0.7</v>
       </c>
       <c r="E121" t="n">
-        <v>7.5</v>
+        <v>43.2</v>
       </c>
       <c r="F121" t="n">
-        <v>23.6</v>
+        <v>24.9</v>
       </c>
       <c r="G121" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>43497</v>
+        <v>43424</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4598,24 +4598,24 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>24.6</v>
+        <v>23.2</v>
       </c>
       <c r="G122" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>43486</v>
+        <v>43441</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4624,30 +4624,30 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E123" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="F123" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="G123" t="n">
         <v>95</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>fog</t>
+          <t>rain</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>43466</v>
+        <v>43444</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4656,30 +4656,30 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>25</v>
+        <v>22.2</v>
       </c>
       <c r="G124" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>330601</v>
+        <v>43413</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4694,24 +4694,24 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>22.5</v>
+        <v>25.8</v>
       </c>
       <c r="G125" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>43479</v>
+        <v>43473</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4720,30 +4720,30 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>20.2</v>
+        <v>14.1</v>
       </c>
       <c r="G126" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>partlycloudynight</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>43495</v>
+        <v>43415</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F127" t="n">
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="G127" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
@@ -4771,11 +4771,11 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>43410</v>
+        <v>43418</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4790,10 +4790,10 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="G128" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -4803,11 +4803,11 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>43467</v>
+        <v>43421</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4822,10 +4822,10 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>25.4</v>
+        <v>23.3</v>
       </c>
       <c r="G129" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -4835,11 +4835,11 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>821501</v>
+        <v>43450</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4854,24 +4854,24 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>22.8</v>
+        <v>24.9</v>
       </c>
       <c r="G130" t="n">
         <v>91</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>fairnight</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>43421</v>
+        <v>43467</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4886,10 +4886,10 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>23.3</v>
+        <v>25.4</v>
       </c>
       <c r="G131" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
@@ -4899,11 +4899,11 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>43418</v>
+        <v>43410</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4918,10 +4918,10 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>26</v>
+        <v>26.6</v>
       </c>
       <c r="G132" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
@@ -4931,11 +4931,11 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>43450</v>
+        <v>43495</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4950,24 +4950,24 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>24.9</v>
+        <v>25.5</v>
       </c>
       <c r="G133" t="n">
         <v>91</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>partlycloudynight</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>43415</v>
+        <v>43479</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4976,16 +4976,16 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="E134" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="F134" t="n">
-        <v>24</v>
+        <v>20.2</v>
       </c>
       <c r="G134" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
@@ -4995,11 +4995,11 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>43473</v>
+        <v>330601</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5011,27 +5011,27 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>14.1</v>
+        <v>22.5</v>
       </c>
       <c r="G135" t="n">
         <v>95</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>43413</v>
+        <v>43466</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5046,10 +5046,10 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>25.8</v>
+        <v>25</v>
       </c>
       <c r="G136" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
@@ -5059,11 +5059,11 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5072,30 +5072,30 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="F137" t="n">
-        <v>22.2</v>
+        <v>23.9</v>
       </c>
       <c r="G137" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fog</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>43441</v>
+        <v>43497</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5104,30 +5104,30 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>23.3</v>
+        <v>24.6</v>
       </c>
       <c r="G138" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>43424</v>
+        <v>721501</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5136,30 +5136,30 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F139" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="G139" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>43436</v>
+        <v>821501</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5168,30 +5168,30 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>43.2</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>24.9</v>
+        <v>22.8</v>
       </c>
       <c r="G140" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairnight</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>43476</v>
+        <v>821501</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5199,31 +5199,33 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D141" t="n">
-        <v>1.9</v>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E141" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>19</v>
+        <v>25.6</v>
       </c>
       <c r="G141" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>43473</v>
+        <v>43441</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+          <t>KURUNEGALA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5231,19 +5233,17 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D142" t="n">
+        <v>0.2</v>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="F142" t="n">
-        <v>16.8</v>
+        <v>25.3</v>
       </c>
       <c r="G142" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -5253,11 +5253,11 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>43467</v>
+        <v>43415</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>RATMALANA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5271,27 +5271,27 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F143" t="n">
-        <v>26.8</v>
+        <v>24.8</v>
       </c>
       <c r="G143" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>43424</v>
+        <v>43421</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>ANURADHAPURA</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5308,24 +5308,24 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>25.1</v>
+        <v>24.2</v>
       </c>
       <c r="G144" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>43479</v>
+        <v>43422</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>BADULLA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5335,31 +5335,31 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Tr</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>20.9</v>
+        <v>24.5</v>
       </c>
       <c r="G145" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>43475</v>
+        <v>43410</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>MULLATIVU</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5373,27 +5373,27 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="G146" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>43495</v>
+        <v>43404</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5410,24 +5410,24 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>27.2</v>
+        <v>26.3</v>
       </c>
       <c r="G147" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>43497</v>
+        <v>721501</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5435,33 +5435,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D148" t="n">
+        <v>2.7</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="F148" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G148" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>330601</v>
+        <v>43444</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5475,13 +5473,13 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F149" t="n">
-        <v>25.5</v>
+        <v>23.3</v>
       </c>
       <c r="G149" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
@@ -5491,11 +5489,11 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>43466</v>
+        <v>43436</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5503,33 +5501,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D150" t="n">
+        <v>0.5</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>43.7</v>
       </c>
       <c r="F150" t="n">
-        <v>27.1</v>
+        <v>24.9</v>
       </c>
       <c r="G150" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>43450</v>
+        <v>43413</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>KATUNAYAKE</t>
+          <t>MANNAR</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5546,10 +5542,10 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>25.8</v>
+        <v>26.3</v>
       </c>
       <c r="G151" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
@@ -5559,11 +5555,11 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>43486</v>
+        <v>43418</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>RATNAPURA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5577,27 +5573,27 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>25.8</v>
+        <v>27</v>
       </c>
       <c r="G152" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>mist</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>43418</v>
+        <v>43479</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5607,31 +5603,31 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Tr</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F153" t="n">
-        <v>27</v>
+        <v>20.9</v>
       </c>
       <c r="G153" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>43436</v>
+        <v>43450</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5639,31 +5635,33 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D154" t="n">
-        <v>0.5</v>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E154" t="n">
-        <v>43.7</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>24.9</v>
+        <v>25.8</v>
       </c>
       <c r="G154" t="n">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>821501</v>
+        <v>43466</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5680,10 +5678,10 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>25.6</v>
+        <v>27.1</v>
       </c>
       <c r="G155" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
@@ -5693,11 +5691,11 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>43441</v>
+        <v>330601</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5705,17 +5703,19 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D156" t="n">
-        <v>0.2</v>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E156" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="G156" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
@@ -5725,11 +5725,11 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>43415</v>
+        <v>43497</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5743,27 +5743,27 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>24.8</v>
+        <v>26</v>
       </c>
       <c r="G157" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>43421</v>
+        <v>43495</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5780,10 +5780,10 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>24.2</v>
+        <v>27.2</v>
       </c>
       <c r="G158" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
@@ -5793,11 +5793,11 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>43422</v>
+        <v>43475</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5811,27 +5811,27 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F159" t="n">
-        <v>24.5</v>
+        <v>27.5</v>
       </c>
       <c r="G159" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>43404</v>
+        <v>43424</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>PUTTALAM</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5848,10 +5848,10 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G160" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
@@ -5861,11 +5861,11 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>721501</v>
+        <v>43467</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5873,31 +5873,33 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D161" t="n">
-        <v>2.7</v>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E161" t="n">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>24</v>
+        <v>26.8</v>
       </c>
       <c r="G161" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>43444</v>
+        <v>43473</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5911,13 +5913,13 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>23.3</v>
+        <v>16.8</v>
       </c>
       <c r="G162" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
@@ -5927,11 +5929,11 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>43410</v>
+        <v>43476</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5939,33 +5941,31 @@
           <t>2025-12-29 0830</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D163" t="n">
+        <v>1.9</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F163" t="n">
-        <v>27.3</v>
+        <v>19</v>
       </c>
       <c r="G163" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>43413</v>
+        <v>43486</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5979,27 +5979,27 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F164" t="n">
-        <v>26.3</v>
+        <v>25.8</v>
       </c>
       <c r="G164" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>43413</v>
+        <v>43495</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MANNAR</t>
+          <t>GALLE</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6008,30 +6008,30 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>26.7</v>
+        <v>27.7</v>
       </c>
       <c r="G165" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>43410</v>
+        <v>43475</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MULLATIVU</t>
+          <t>POTTUVIL</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6046,24 +6046,24 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>28.1</v>
+        <v>29.8</v>
       </c>
       <c r="G166" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>43424</v>
+        <v>43497</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>PUTTALAM</t>
+          <t>HAMBANTOTA</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6078,24 +6078,24 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>27.6</v>
+        <v>32.3</v>
       </c>
       <c r="G167" t="n">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>43421</v>
+        <v>330601</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ANURADHAPURA</t>
+          <t>MATTALA</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6110,24 +6110,24 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>26.4</v>
+        <v>31</v>
       </c>
       <c r="G168" t="n">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>43418</v>
+        <v>43466</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRINCOMALEE</t>
+          <t>COLOMBO</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6142,24 +6142,24 @@
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>28.2</v>
+        <v>29.9</v>
       </c>
       <c r="G169" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>43436</v>
+        <v>43479</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>BATTICALOA</t>
+          <t>BADULLA</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6174,24 +6174,24 @@
         <v>0.2</v>
       </c>
       <c r="F170" t="n">
-        <v>27.6</v>
+        <v>22.2</v>
       </c>
       <c r="G170" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>721501</v>
+        <v>43473</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>POLONNARUWA</t>
+          <t xml:space="preserve"> NUWARA ELIYA</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>25.1</v>
+        <v>18.8</v>
       </c>
       <c r="G171" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
@@ -6219,11 +6219,11 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>821501</v>
+        <v>43467</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>MONARAGALA</t>
+          <t>RATMALANA</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6238,24 +6238,24 @@
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>28.2</v>
+        <v>30.8</v>
       </c>
       <c r="G172" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>fairday</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>43444</v>
+        <v>43486</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>KATUGASTOTA</t>
+          <t>RATNAPURA</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6264,30 +6264,30 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>24.1</v>
+        <v>31.5</v>
       </c>
       <c r="G173" t="n">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>43404</v>
+        <v>43450</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAFFNA</t>
+          <t>KATUNAYAKE</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6302,24 +6302,24 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>26.9</v>
+        <v>29</v>
       </c>
       <c r="G174" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>43415</v>
+        <v>43476</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>VAVUNIYA</t>
+          <t>BANDARAWELA</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6328,30 +6328,30 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>27</v>
+        <v>20.3</v>
       </c>
       <c r="G175" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>haze</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>43441</v>
+        <v>43422</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>KURUNEGALA</t>
+          <t>MAHA ILLUPPALLAMA</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F176" t="n">
-        <v>27.6</v>
+        <v>24.8</v>
       </c>
       <c r="G176" t="n">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
@@ -6379,11 +6379,11 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>43422</v>
+        <v>43415</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MAHA ILLUPPALLAMA</t>
+          <t>VAVUNIYA</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6392,16 +6392,16 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="E177" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="F177" t="n">
-        <v>24.8</v>
+        <v>27</v>
       </c>
       <c r="G177" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
@@ -6411,11 +6411,11 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>43495</v>
+        <v>43404</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>GALLE</t>
+          <t xml:space="preserve"> JAFFNA</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6430,24 +6430,24 @@
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>27.7</v>
+        <v>26.9</v>
       </c>
       <c r="G178" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>43475</v>
+        <v>43444</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>POTTUVIL</t>
+          <t>KATUGASTOTA</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6456,30 +6456,30 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F179" t="n">
-        <v>29.8</v>
+        <v>24.1</v>
       </c>
       <c r="G179" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>43497</v>
+        <v>821501</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>HAMBANTOTA</t>
+          <t>MONARAGALA</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6494,24 +6494,24 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>32.3</v>
+        <v>28.2</v>
       </c>
       <c r="G180" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>fairday</t>
+          <t>partlycloudy</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>330601</v>
+        <v>721501</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MATTALA</t>
+          <t>POLONNARUWA</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6520,30 +6520,30 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F181" t="n">
-        <v>31</v>
+        <v>25.1</v>
       </c>
       <c r="G181" t="n">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>43466</v>
+        <v>43436</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>COLOMBO</t>
+          <t>BATTICALOA</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6552,30 +6552,30 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F182" t="n">
-        <v>29.9</v>
+        <v>27.6</v>
       </c>
       <c r="G182" t="n">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>partlycloudy</t>
+          <t>showers</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>43476</v>
+        <v>43418</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>BANDARAWELA</t>
+          <t>TRINCOMALEE</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6590,24 +6590,24 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>20.3</v>
+        <v>28.2</v>
       </c>
       <c r="G183" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>haze</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>43473</v>
+        <v>43421</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUWARA ELIYA</t>
+      